--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="124">
   <si>
     <t>id</t>
   </si>
@@ -196,12 +196,30 @@
     <t>ตลาดหน้าสถานีรถไฟภาชี</t>
   </si>
   <si>
+    <t>สีลมคอมเพล็ก</t>
+  </si>
+  <si>
+    <t>เดอะมอลล์ บางกะปิ</t>
+  </si>
+  <si>
+    <t>เดอะมอลล์ บางแค</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
     <t>female</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
     <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20 ออกไปซื้อกับข้าวที่ตลาดแสงจันทร์ตอนเย็น สวมแมสก์ และใช้จ่ายผ่านแอพ</t>
   </si>
   <si>
@@ -211,7 +229,7 @@
     <t xml:space="preserve">เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 13 ธ.ค. เวลา 12.00 น. ขึ้นบีทีเอสจากสถานีห้าแยกลาดพร้าว ไปลง สถานีราชเทวี และไปร้านกาแฟใกล้สถานี </t>
   </si>
   <si>
-    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20 13 ธ.ค. นัดคุยงานกับลูกค้าที่บริษัทคูโบต้า สาขานวนคร รังสิต</t>
+    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20 13 ธ.ค. นัดคุยงานกับลูกค้าที่บริษัทคูโบต้า นวนคร</t>
   </si>
   <si>
     <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20 13 ธ.ค. แวะบิ๊กซี สาขานวนคร เพื่อเปลี่ยนชุด</t>
@@ -229,6 +247,9 @@
     <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20</t>
   </si>
   <si>
+    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20 13 ธ.ค. แวะมาบุญครอง</t>
+  </si>
+  <si>
     <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาปฏิบัติงานที่นี่วันที่ 16-17 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
   </si>
   <si>
@@ -292,6 +313,15 @@
     <t>แม่ค้าอาหารทะเล ติดเชื้อจากการเดินทางไปตลาดทะเลไทย จ.สมุทรสาคร</t>
   </si>
   <si>
+    <t>ศูนย์การค้าสีลมคอมเพล็กซ์ ประกาศทำความสะอาดตามมาตรการความปลอดภัยขั้นสูงสุด หลังผู้ป่วย "โควิด-19" ไปใช้บริการในร้านอาหารภายในห้าง</t>
+  </si>
+  <si>
+    <t>เดอะมอลล์บางกะปิ ได้ระบุว่า พบผู้ป่วยมาใช้บริการที่ ร้านยำแซ่บ จึงได้ดำเนินการปิดร้านดังกล่าว 3 วัน ตั้งแต่วันที่ 23-25 ธ.ค. พร้อมทำความสะอาด ฆ่าเชื้อโรคในร้าน พร้อมให้พนักงานหยุดปฏิบัติหน้าที่ และทำความสะอาดภายในศูนย์การค้า</t>
+  </si>
+  <si>
+    <t>เดอะมอลล์ บางแค ได้ระบุว่า มีผู้ป่วยเข้ามาใช้บริการที่ ร้าน Dtac และร้าน I Care จากการตรวจสอบ ได้ให้ร้านดังกล่าวปิดเป็นเวลา 3 วัน ตั้งแต่วันที่ 23-25 ธ.ค. พร้อมทำความสะอาด และให้พนักงานหยุดปฏิบัติหน้าที่ เป็นเวลา 14 วัน พร้อมทำความสะอาดห้างตามมาตรการควบคุมโรค</t>
+  </si>
+  <si>
     <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
   </si>
   <si>
@@ -350,6 +380,12 @@
   </si>
   <si>
     <t>https://www.thairath.co.th/news/local/central/1999848</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/2000605</t>
+  </si>
+  <si>
+    <t>https://today.line.me/th/v2/article/vLe2Mj?utm_source=lineshare</t>
   </si>
 </sst>
 </file>
@@ -724,7 +760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -796,23 +832,23 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -843,20 +879,20 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -887,20 +923,20 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -931,20 +967,20 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -972,23 +1008,23 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1016,23 +1052,23 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1060,23 +1096,23 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1104,23 +1140,23 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1148,23 +1184,23 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
       </c>
       <c r="K10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1192,23 +1228,23 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
       </c>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1239,20 +1275,20 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" t="s">
+        <v>67</v>
       </c>
       <c r="K12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1280,23 +1316,23 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" t="s">
+        <v>67</v>
       </c>
       <c r="K13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L13" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1324,23 +1360,23 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" t="s">
+        <v>67</v>
       </c>
       <c r="K14" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L14" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1368,23 +1404,23 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
+      <c r="H15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" t="s">
+        <v>67</v>
       </c>
       <c r="K15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L15" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1412,23 +1448,23 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
+      <c r="H16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" t="s">
+        <v>67</v>
       </c>
       <c r="K16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L16" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1459,20 +1495,20 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
+      <c r="I17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" t="s">
+        <v>67</v>
       </c>
       <c r="K17" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L17" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1498,25 +1534,25 @@
         <v>100.7223304</v>
       </c>
       <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" t="s">
+        <v>67</v>
       </c>
       <c r="K18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L18" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1544,23 +1580,23 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
+      <c r="H19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" t="s">
+        <v>67</v>
       </c>
       <c r="K19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L19" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1588,23 +1624,23 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
+      <c r="H20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" t="s">
+        <v>67</v>
       </c>
       <c r="K20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L20" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1633,22 +1669,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="I21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" t="s">
+        <v>67</v>
       </c>
       <c r="K21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L21" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1676,23 +1712,23 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
+      <c r="H22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" t="s">
+        <v>67</v>
       </c>
       <c r="K22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L22" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1720,23 +1756,23 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
+      <c r="H23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" t="s">
+        <v>67</v>
       </c>
       <c r="K23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L23" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1764,23 +1800,23 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
+      <c r="H24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" t="s">
+        <v>67</v>
       </c>
       <c r="K24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L24" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1808,23 +1844,23 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
+      <c r="H25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" t="s">
+        <v>67</v>
       </c>
       <c r="K25" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L25" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1852,23 +1888,23 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
+      <c r="H26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" t="s">
+        <v>67</v>
       </c>
       <c r="K26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L26" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -1899,20 +1935,20 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
+      <c r="I27" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" t="s">
+        <v>67</v>
       </c>
       <c r="K27" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L27" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -1940,23 +1976,23 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
+      <c r="H28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" t="s">
+        <v>67</v>
       </c>
       <c r="K28" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L28" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -1984,23 +2020,23 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
+      <c r="H29" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" t="s">
+        <v>67</v>
       </c>
       <c r="K29" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L29" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2028,23 +2064,23 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
+      <c r="H30" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" t="s">
+        <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L30" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2075,20 +2111,20 @@
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
+      <c r="I31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" t="s">
+        <v>67</v>
       </c>
       <c r="K31" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L31" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2119,20 +2155,20 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
+      <c r="I32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" t="s">
+        <v>67</v>
       </c>
       <c r="K32" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L32" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2163,20 +2199,20 @@
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
+      <c r="I33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" t="s">
+        <v>67</v>
       </c>
       <c r="K33" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L33" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2207,20 +2243,20 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
+      <c r="I34" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" t="s">
+        <v>67</v>
       </c>
       <c r="K34" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L34" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2248,23 +2284,23 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
+      <c r="H35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" t="s">
+        <v>67</v>
       </c>
       <c r="K35" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L35" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2292,23 +2328,23 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
+      <c r="H36" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" t="s">
+        <v>67</v>
       </c>
       <c r="K36" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L36" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2336,23 +2372,23 @@
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
+      <c r="H37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" t="s">
+        <v>66</v>
+      </c>
+      <c r="J37" t="s">
+        <v>67</v>
       </c>
       <c r="K37" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L37" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2380,23 +2416,23 @@
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
+      <c r="H38" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
       </c>
       <c r="K38" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L38" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2427,20 +2463,20 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" t="s">
+        <v>67</v>
       </c>
       <c r="K39" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L39" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2471,20 +2507,20 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" t="s">
+        <v>67</v>
       </c>
       <c r="K40" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L40" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2512,23 +2548,23 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
+      <c r="H41" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+      <c r="J41" t="s">
+        <v>67</v>
       </c>
       <c r="K41" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L41" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2559,20 +2595,20 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+      <c r="J42" t="s">
+        <v>67</v>
       </c>
       <c r="K42" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L42" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2603,20 +2639,20 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+      <c r="J43" t="s">
+        <v>67</v>
       </c>
       <c r="K43" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L43" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2644,23 +2680,23 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
+      <c r="H44" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+      <c r="J44" t="s">
+        <v>67</v>
       </c>
       <c r="K44" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L44" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2688,25 +2724,157 @@
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
+      <c r="H45" t="s">
+        <v>64</v>
+      </c>
+      <c r="I45" t="s">
+        <v>66</v>
+      </c>
+      <c r="J45" t="s">
+        <v>67</v>
       </c>
       <c r="K45" t="s">
+        <v>65</v>
+      </c>
+      <c r="L45" t="s">
+        <v>98</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46">
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46">
+        <v>13.72836497</v>
+      </c>
+      <c r="F46">
+        <v>100.5350858</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" t="s">
+        <v>66</v>
+      </c>
+      <c r="J46" t="s">
+        <v>67</v>
+      </c>
+      <c r="K46" t="s">
+        <v>65</v>
+      </c>
+      <c r="L46" t="s">
+        <v>99</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47">
+        <v>72</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D47" t="s">
         <v>61</v>
       </c>
-      <c r="L45" t="s">
-        <v>91</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N45">
+      <c r="E47">
+        <v>13.7660558</v>
+      </c>
+      <c r="F47">
+        <v>100.6403032</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47" t="s">
+        <v>66</v>
+      </c>
+      <c r="J47" t="s">
+        <v>67</v>
+      </c>
+      <c r="K47" t="s">
+        <v>65</v>
+      </c>
+      <c r="L47" t="s">
+        <v>100</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48">
+        <v>73</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D48" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48">
+        <v>13.710361</v>
+      </c>
+      <c r="F48">
+        <v>100.4073817</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J48" t="s">
+        <v>67</v>
+      </c>
+      <c r="K48" t="s">
+        <v>65</v>
+      </c>
+      <c r="L48" t="s">
+        <v>101</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N48">
         <v>0</v>
       </c>
     </row>
@@ -2756,6 +2924,9 @@
     <hyperlink ref="M43" r:id="rId42"/>
     <hyperlink ref="M44" r:id="rId43"/>
     <hyperlink ref="M45" r:id="rId44"/>
+    <hyperlink ref="M46" r:id="rId45"/>
+    <hyperlink ref="M47" r:id="rId46"/>
+    <hyperlink ref="M48" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="129">
   <si>
     <t>id</t>
   </si>
@@ -127,9 +127,15 @@
     <t>ร้านชาบู ในตลาดพระปิ่น 3</t>
   </si>
   <si>
+    <t>ตลาดสดเคหะบางบัว</t>
+  </si>
+  <si>
     <t>ซ.รุ่งเรือง 5 บางบัวทอง</t>
   </si>
   <si>
+    <t>ตลาดแจ้งวัฒนะ ซ.6</t>
+  </si>
+  <si>
     <t>ตลาดหมู่บ้านศรีทอง จ.อยุธยา</t>
   </si>
   <si>
@@ -172,6 +178,9 @@
     <t>ตลาดการ์เด้นตรงข้ามซอยแก้วอินทร์</t>
   </si>
   <si>
+    <t>ปากซ.พหลโยธิน 52</t>
+  </si>
+  <si>
     <t>ร้านก๋วยเตี๋ยว ในตลาดบางใหญ่</t>
   </si>
   <si>
@@ -256,6 +265,9 @@
     <t>ผู้ป่วยโควิด-19 ชายวัย 37 ปี ส่งอาหารทะเลจากสมุทรสาคร ไปยังตลาดคลองสามวา และตลาดในจังหวัดปทุมธานี 2 แห่ง ระหว่างวันที่ 1-17 ธันวาคม 2563</t>
   </si>
   <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 ชาย คนขายอาหารทะเลปากซ.พหล52</t>
+  </si>
+  <si>
     <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย วันที่ 14-18 ธค. เวลา 17.00-21.00 น. จะทำงานร้านขายของชำ ซ.รุ่งเรือง 5 บางบัวทอง</t>
   </si>
   <si>
@@ -341,6 +353,9 @@
   </si>
   <si>
     <t>https://www.pptvhd36.com/news/%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%94%E0%B9%87%E0%B8%99%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99/138903</t>
+  </si>
+  <si>
+    <t>https://www.dailynews.co.th/regional/814914</t>
   </si>
   <si>
     <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
@@ -760,7 +775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -833,22 +848,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -880,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -924,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -968,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1009,22 +1024,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1053,22 +1068,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1097,22 +1112,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1141,22 +1156,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1185,22 +1200,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1229,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1276,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1317,22 +1332,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1361,22 +1376,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1405,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1449,22 +1464,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1496,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1537,22 +1552,22 @@
         <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1581,22 +1596,22 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1607,40 +1622,40 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="D20" t="s">
         <v>37</v>
       </c>
       <c r="E20">
-        <v>13.87779142</v>
+        <v>13.85934159</v>
       </c>
       <c r="F20">
-        <v>100.4215436</v>
+        <v>100.5849015</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1651,40 +1666,40 @@
         <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
       </c>
       <c r="E21">
-        <v>14.1487352</v>
+        <v>13.87779142</v>
       </c>
       <c r="F21">
-        <v>100.6155778</v>
+        <v>100.4215436</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1695,40 +1710,40 @@
         <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
       </c>
       <c r="E22">
-        <v>13.8057625</v>
+        <v>13.88376994</v>
       </c>
       <c r="F22">
-        <v>100.6621959</v>
+        <v>100.5843207</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L22" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1739,7 +1754,7 @@
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2">
         <v>44184</v>
@@ -1748,31 +1763,31 @@
         <v>40</v>
       </c>
       <c r="E23">
-        <v>14.01215068</v>
+        <v>14.1487352</v>
       </c>
       <c r="F23">
-        <v>100.17523</v>
+        <v>100.6155778</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1783,7 +1798,7 @@
         <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2">
         <v>44184</v>
@@ -1792,31 +1807,31 @@
         <v>41</v>
       </c>
       <c r="E24">
-        <v>13.8134088</v>
+        <v>13.8057625</v>
       </c>
       <c r="F24">
-        <v>100.5616103</v>
+        <v>100.6621959</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L24" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1827,7 +1842,7 @@
         <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2">
         <v>44184</v>
@@ -1836,31 +1851,31 @@
         <v>42</v>
       </c>
       <c r="E25">
-        <v>13.816493</v>
+        <v>14.01215068</v>
       </c>
       <c r="F25">
-        <v>100.5610062</v>
+        <v>100.17523</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K25" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L25" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1880,31 +1895,31 @@
         <v>43</v>
       </c>
       <c r="E26">
-        <v>13.7966595</v>
+        <v>13.8134088</v>
       </c>
       <c r="F26">
-        <v>100.4755856</v>
+        <v>100.5616103</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L26" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -1915,40 +1930,40 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D27" t="s">
         <v>44</v>
       </c>
       <c r="E27">
-        <v>13.5579068</v>
+        <v>13.816493</v>
       </c>
       <c r="F27">
-        <v>100.270829</v>
+        <v>100.5610062</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27">
-        <v>0</v>
+      <c r="H27" t="s">
+        <v>67</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -1959,40 +1974,40 @@
         <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D28" t="s">
         <v>45</v>
       </c>
       <c r="E28">
-        <v>13.7937004</v>
+        <v>13.7966595</v>
       </c>
       <c r="F28">
-        <v>100.6923144</v>
+        <v>100.4755856</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L28" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2012,31 +2027,31 @@
         <v>46</v>
       </c>
       <c r="E29">
-        <v>13.5455607</v>
+        <v>13.5579068</v>
       </c>
       <c r="F29">
-        <v>100.2767611</v>
+        <v>100.270829</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29" t="s">
-        <v>64</v>
+      <c r="H29">
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K29" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L29" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2047,7 +2062,7 @@
         <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2">
         <v>44185</v>
@@ -2056,31 +2071,31 @@
         <v>47</v>
       </c>
       <c r="E30">
-        <v>13.7204469</v>
+        <v>13.7937004</v>
       </c>
       <c r="F30">
-        <v>100.5004708</v>
+        <v>100.6923144</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L30" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2091,40 +2106,40 @@
         <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2">
         <v>44185</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E31">
-        <v>14.3355326</v>
+        <v>13.5455607</v>
       </c>
       <c r="F31">
-        <v>100.87017</v>
+        <v>100.2767611</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31">
-        <v>0</v>
+      <c r="H31" t="s">
+        <v>67</v>
       </c>
       <c r="I31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2135,40 +2150,40 @@
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2">
         <v>44185</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E32">
-        <v>14.5786407</v>
+        <v>13.7204469</v>
       </c>
       <c r="F32">
-        <v>100.9662444</v>
+        <v>100.5004708</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32">
-        <v>0</v>
+      <c r="H32" t="s">
+        <v>67</v>
       </c>
       <c r="I32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L32" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2185,13 +2200,13 @@
         <v>44185</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E33">
-        <v>14.5116599</v>
+        <v>14.3355326</v>
       </c>
       <c r="F33">
-        <v>100.9094134</v>
+        <v>100.87017</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2200,19 +2215,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L33" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2223,19 +2238,19 @@
         <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C34" s="2">
         <v>44185</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E34">
-        <v>14.1378761</v>
+        <v>14.5786407</v>
       </c>
       <c r="F34">
-        <v>100.8255049</v>
+        <v>100.9662444</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2244,19 +2259,19 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K34" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L34" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2267,7 +2282,7 @@
         <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="2">
         <v>44185</v>
@@ -2276,31 +2291,31 @@
         <v>49</v>
       </c>
       <c r="E35">
-        <v>14.06566869</v>
+        <v>14.5116599</v>
       </c>
       <c r="F35">
-        <v>99.9821468</v>
+        <v>100.9094134</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35" t="s">
-        <v>63</v>
+      <c r="H35">
+        <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K35" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2311,7 +2326,7 @@
         <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C36" s="2">
         <v>44185</v>
@@ -2320,31 +2335,31 @@
         <v>50</v>
       </c>
       <c r="E36">
-        <v>13.8220612</v>
+        <v>14.1378761</v>
       </c>
       <c r="F36">
-        <v>100.421874</v>
+        <v>100.8255049</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36" t="s">
-        <v>64</v>
+      <c r="H36">
+        <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K36" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2364,31 +2379,31 @@
         <v>51</v>
       </c>
       <c r="E37">
-        <v>13.8683169</v>
+        <v>14.06566869</v>
       </c>
       <c r="F37">
-        <v>100.4107308</v>
+        <v>99.9821468</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2399,40 +2414,40 @@
         <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C38" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="D38" t="s">
         <v>52</v>
       </c>
       <c r="E38">
-        <v>13.8781452</v>
+        <v>13.8220612</v>
       </c>
       <c r="F38">
-        <v>100.4091302</v>
+        <v>100.421874</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L38" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2443,40 +2458,40 @@
         <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C39" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="D39" t="s">
         <v>53</v>
       </c>
       <c r="E39">
-        <v>13.73541413</v>
+        <v>13.8683169</v>
       </c>
       <c r="F39">
-        <v>100.5877998</v>
+        <v>100.4107308</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39">
-        <v>0</v>
+      <c r="H39" t="s">
+        <v>66</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J39" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L39" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2490,37 +2505,37 @@
         <v>14</v>
       </c>
       <c r="C40" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="D40" t="s">
         <v>54</v>
       </c>
       <c r="E40">
-        <v>13.78766192</v>
+        <v>13.89757086</v>
       </c>
       <c r="F40">
-        <v>100.5105938</v>
+        <v>100.6098027</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40">
-        <v>0</v>
+      <c r="H40" t="s">
+        <v>66</v>
       </c>
       <c r="I40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J40" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L40" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2531,40 +2546,40 @@
         <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C41" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D41" t="s">
         <v>55</v>
       </c>
       <c r="E41">
-        <v>13.5951449</v>
+        <v>13.8781452</v>
       </c>
       <c r="F41">
-        <v>100.5802135</v>
+        <v>100.4091302</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L41" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2575,19 +2590,19 @@
         <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C42" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D42" t="s">
         <v>56</v>
       </c>
       <c r="E42">
-        <v>13.7462524</v>
+        <v>13.73541413</v>
       </c>
       <c r="F42">
-        <v>100.5328635</v>
+        <v>100.5877998</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2596,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2619,19 +2634,19 @@
         <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C43" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D43" t="s">
         <v>57</v>
       </c>
       <c r="E43">
-        <v>13.7243591</v>
+        <v>13.78766192</v>
       </c>
       <c r="F43">
-        <v>100.5386589</v>
+        <v>100.5105938</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2640,19 +2655,19 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J43" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K43" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2663,40 +2678,40 @@
         <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C44" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D44" t="s">
         <v>58</v>
       </c>
       <c r="E44">
-        <v>13.54974685</v>
+        <v>13.5951449</v>
       </c>
       <c r="F44">
-        <v>100.2561435</v>
+        <v>100.5802135</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J44" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2707,7 +2722,7 @@
         <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" s="2">
         <v>44188</v>
@@ -2716,31 +2731,31 @@
         <v>59</v>
       </c>
       <c r="E45">
-        <v>14.45160513</v>
+        <v>13.7462524</v>
       </c>
       <c r="F45">
-        <v>100.7230585</v>
+        <v>100.5328635</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45" t="s">
-        <v>64</v>
+      <c r="H45">
+        <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K45" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -2751,7 +2766,7 @@
         <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C46" s="2">
         <v>44188</v>
@@ -2760,31 +2775,31 @@
         <v>60</v>
       </c>
       <c r="E46">
-        <v>13.72836497</v>
+        <v>13.7243591</v>
       </c>
       <c r="F46">
-        <v>100.5350858</v>
+        <v>100.5386589</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46" t="s">
-        <v>65</v>
+      <c r="H46">
+        <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K46" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -2795,7 +2810,7 @@
         <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C47" s="2">
         <v>44188</v>
@@ -2804,31 +2819,31 @@
         <v>61</v>
       </c>
       <c r="E47">
-        <v>13.7660558</v>
+        <v>13.54974685</v>
       </c>
       <c r="F47">
-        <v>100.6403032</v>
+        <v>100.2561435</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J47" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K47" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -2839,7 +2854,7 @@
         <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C48" s="2">
         <v>44188</v>
@@ -2848,33 +2863,165 @@
         <v>62</v>
       </c>
       <c r="E48">
+        <v>14.45160513</v>
+      </c>
+      <c r="F48">
+        <v>100.7230585</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>67</v>
+      </c>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+      <c r="J48" t="s">
+        <v>70</v>
+      </c>
+      <c r="K48" t="s">
+        <v>68</v>
+      </c>
+      <c r="L48" t="s">
+        <v>102</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49">
+        <v>74</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49">
+        <v>13.72836497</v>
+      </c>
+      <c r="F49">
+        <v>100.5350858</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I49" t="s">
+        <v>69</v>
+      </c>
+      <c r="J49" t="s">
+        <v>70</v>
+      </c>
+      <c r="K49" t="s">
+        <v>68</v>
+      </c>
+      <c r="L49" t="s">
+        <v>103</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50">
+        <v>75</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50">
+        <v>13.7660558</v>
+      </c>
+      <c r="F50">
+        <v>100.6403032</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>68</v>
+      </c>
+      <c r="I50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J50" t="s">
+        <v>70</v>
+      </c>
+      <c r="K50" t="s">
+        <v>68</v>
+      </c>
+      <c r="L50" t="s">
+        <v>104</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D51" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51">
         <v>13.710361</v>
       </c>
-      <c r="F48">
+      <c r="F51">
         <v>100.4073817</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48" t="s">
-        <v>65</v>
-      </c>
-      <c r="I48" t="s">
-        <v>66</v>
-      </c>
-      <c r="J48" t="s">
-        <v>67</v>
-      </c>
-      <c r="K48" t="s">
-        <v>65</v>
-      </c>
-      <c r="L48" t="s">
-        <v>101</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="N48">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>68</v>
+      </c>
+      <c r="I51" t="s">
+        <v>69</v>
+      </c>
+      <c r="J51" t="s">
+        <v>70</v>
+      </c>
+      <c r="K51" t="s">
+        <v>68</v>
+      </c>
+      <c r="L51" t="s">
+        <v>105</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N51">
         <v>0</v>
       </c>
     </row>
@@ -2912,9 +3059,9 @@
     <hyperlink ref="M31" r:id="rId30"/>
     <hyperlink ref="M32" r:id="rId31"/>
     <hyperlink ref="M33" r:id="rId32"/>
-    <hyperlink ref="M34" r:id="rId33" location="cxrecs_s"/>
+    <hyperlink ref="M34" r:id="rId33"/>
     <hyperlink ref="M35" r:id="rId34"/>
-    <hyperlink ref="M36" r:id="rId35"/>
+    <hyperlink ref="M36" r:id="rId35" location="cxrecs_s"/>
     <hyperlink ref="M37" r:id="rId36"/>
     <hyperlink ref="M38" r:id="rId37"/>
     <hyperlink ref="M39" r:id="rId38"/>
@@ -2927,6 +3074,9 @@
     <hyperlink ref="M46" r:id="rId45"/>
     <hyperlink ref="M47" r:id="rId46"/>
     <hyperlink ref="M48" r:id="rId47"/>
+    <hyperlink ref="M49" r:id="rId48"/>
+    <hyperlink ref="M50" r:id="rId49"/>
+    <hyperlink ref="M51" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -265,7 +265,7 @@
     <t>ผู้ป่วยโควิด-19 ชายวัย 37 ปี ส่งอาหารทะเลจากสมุทรสาคร ไปยังตลาดคลองสามวา และตลาดในจังหวัดปทุมธานี 2 แห่ง ระหว่างวันที่ 1-17 ธันวาคม 2563</t>
   </si>
   <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 ชาย คนขายอาหารทะเลปากซ.พหล52</t>
+    <t>เคสผู้ติดเชื้อโควิด-19 ชายขายอาหารทะเลปากซ.พหล52</t>
   </si>
   <si>
     <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย วันที่ 14-18 ธค. เวลา 17.00-21.00 น. จะทำงานร้านขายของชำ ซ.รุ่งเรือง 5 บางบัวทอง</t>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="135">
   <si>
     <t>id</t>
   </si>
@@ -214,6 +214,12 @@
     <t>เดอะมอลล์ บางแค</t>
   </si>
   <si>
+    <t>อ.บ้านแหลม จ.เพชรบุรี</t>
+  </si>
+  <si>
+    <t>ทำเนียบรัฐบาล</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -334,6 +340,12 @@
     <t>เดอะมอลล์ บางแค ได้ระบุว่า มีผู้ป่วยเข้ามาใช้บริการที่ ร้าน Dtac และร้าน I Care จากการตรวจสอบ ได้ให้ร้านดังกล่าวปิดเป็นเวลา 3 วัน ตั้งแต่วันที่ 23-25 ธ.ค. พร้อมทำความสะอาด และให้พนักงานหยุดปฏิบัติหน้าที่ เป็นเวลา 14 วัน พร้อมทำความสะอาดห้างตามมาตรการควบคุมโรค</t>
   </si>
   <si>
+    <t>พบเคสแม่ค้าพ่อค้าอาหารทะเลติดเชื้อโควิด-19 เชื่อมโยงกรณีตลาดอาหารทะเลที่สมุทรสาคร</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สุ่มตรวจ กลุ่ม ข้าราชการและเจ้าหน้าที่ของ สลน. จำนวน 350 ราย โดยวิธีการตรวจหาภูมิคุ้มกัน COVID-19 ด้วยชุดทดสอบแบบรวดเร็ว หรือ Rapid Test ซึ่งเป็นการตรวจหาเชื้อโดยน้ำลาย ปรากฏว่ามี 6 รายที่มีผลเป็นบวก และเพื่อความแม่นยำในการตรวจสอบจึงได้ส่งทั้ง 6 ราย ทำการตรวจหาเชื้อจากโพรงจมูกและคอ </t>
+  </si>
+  <si>
     <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
   </si>
   <si>
@@ -401,6 +413,12 @@
   </si>
   <si>
     <t>https://today.line.me/th/v2/article/vLe2Mj?utm_source=lineshare</t>
+  </si>
+  <si>
+    <t>https://mgronline.com/uptodate/detail/9630000131859</t>
+  </si>
+  <si>
+    <t>https://www.prachachat.net/politics/news-582260</t>
   </si>
 </sst>
 </file>
@@ -775,7 +793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -848,22 +866,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -895,19 +913,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -939,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -983,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1024,22 +1042,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1068,22 +1086,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1112,22 +1130,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1156,22 +1174,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1200,22 +1218,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1244,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1291,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1332,22 +1350,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1376,22 +1394,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1420,22 +1438,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1464,22 +1482,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1511,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1552,22 +1570,22 @@
         <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1596,22 +1614,22 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1640,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1684,22 +1702,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1728,22 +1746,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1772,22 +1790,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1816,22 +1834,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1860,22 +1878,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1904,22 +1922,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -1948,22 +1966,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -1992,22 +2010,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2039,19 +2057,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2080,22 +2098,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2124,22 +2142,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2168,22 +2186,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2215,19 +2233,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2259,19 +2277,19 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L34" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2303,19 +2321,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2347,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2388,22 +2406,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L37" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2432,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L38" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2476,22 +2494,22 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L39" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2520,22 +2538,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2564,22 +2582,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2611,19 +2629,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L42" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2655,19 +2673,19 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L43" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2696,22 +2714,22 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L44" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2743,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L45" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -2787,19 +2805,19 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J46" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L46" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -2828,22 +2846,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I47" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L47" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -2872,22 +2890,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L48" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -2916,22 +2934,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L49" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -2960,22 +2978,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I50" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J50" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L50" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3004,24 +3022,112 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J51" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L51" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52">
+        <v>13.2054213</v>
+      </c>
+      <c r="F52">
+        <v>99.9793013</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>71</v>
+      </c>
+      <c r="J52" t="s">
+        <v>72</v>
+      </c>
+      <c r="K52" t="s">
+        <v>70</v>
+      </c>
+      <c r="L52" t="s">
+        <v>108</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53">
+        <v>78</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="2">
+        <v>44190</v>
+      </c>
+      <c r="D53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53">
+        <v>13.7636001</v>
+      </c>
+      <c r="F53">
+        <v>100.5114624</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>70</v>
+      </c>
+      <c r="L53" t="s">
+        <v>109</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="N53">
         <v>0</v>
       </c>
     </row>
@@ -3077,6 +3183,8 @@
     <hyperlink ref="M49" r:id="rId48"/>
     <hyperlink ref="M50" r:id="rId49"/>
     <hyperlink ref="M51" r:id="rId50"/>
+    <hyperlink ref="M52" r:id="rId51"/>
+    <hyperlink ref="M53" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="158">
   <si>
     <t>id</t>
   </si>
@@ -67,18 +67,15 @@
     <t>sanitized</t>
   </si>
   <si>
+    <t>sanitizing</t>
+  </si>
+  <si>
     <t>confirmed</t>
   </si>
   <si>
-    <t>sanitizing</t>
-  </si>
-  <si>
     <t>suspected</t>
   </si>
   <si>
-    <t>ตลาดสดแสงจันทร์</t>
-  </si>
-  <si>
     <t>ห้างแพลตตินัม</t>
   </si>
   <si>
@@ -100,6 +97,15 @@
     <t>สยามสแควร์วัน</t>
   </si>
   <si>
+    <t>EVEANDBOY สาขา The Underground Siam Square One</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ร้านชีวิตชีวา สาขาสยามสแควร์วัน </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ร้านครัวดอกไม้ขาว สาขาสยามสแควร์วัน </t>
+  </si>
+  <si>
     <t>นนทบุรี</t>
   </si>
   <si>
@@ -118,6 +124,12 @@
     <t>ร้านแซ่บอีสานคาราโอเกะ ย่านเทเวศร์</t>
   </si>
   <si>
+    <t>ร้าน นมโจ สาขาประชาชื่น 39</t>
+  </si>
+  <si>
+    <t>เซ็นทรัลเวสต์เกต</t>
+  </si>
+  <si>
     <t>INC2 Tower B</t>
   </si>
   <si>
@@ -154,6 +166,9 @@
     <t>ตลาดชาวสยาม บางกรวย</t>
   </si>
   <si>
+    <t>ธนาคารกสิกรไทย สาขา โลตัสเพชรเกษม 81</t>
+  </si>
+  <si>
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
@@ -181,9 +196,15 @@
     <t>ปากซ.พหลโยธิน 52</t>
   </si>
   <si>
+    <t>สมศักดิ์ ปูอบ สาขา2 บีทีเอสกรุงธนบุรี</t>
+  </si>
+  <si>
     <t>ร้านก๋วยเตี๋ยว ในตลาดบางใหญ่</t>
   </si>
   <si>
+    <t>โครงการ สวนเพลิน มาร์เก็ต</t>
+  </si>
+  <si>
     <t>Lamptitude สาขาเอกมัย</t>
   </si>
   <si>
@@ -217,15 +238,18 @@
     <t>อ.บ้านแหลม จ.เพชรบุรี</t>
   </si>
   <si>
+    <t>ตลาดอ่อนนุช</t>
+  </si>
+  <si>
     <t>ทำเนียบรัฐบาล</t>
   </si>
   <si>
+    <t>female</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -235,9 +259,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20 ออกไปซื้อกับข้าวที่ตลาดแสงจันทร์ตอนเย็น สวมแมสก์ และใช้จ่ายผ่านแอพ</t>
-  </si>
-  <si>
     <t>เคสบุคลากร สวทช. ติดโควิด-19 ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
   </si>
   <si>
@@ -253,6 +274,15 @@
     <t>เคสเจ้าของร้านอาหารติดโควิด มีประวัติไปแพกุ้ง จ.สมุทรสาคร</t>
   </si>
   <si>
+    <t>อีฟแอนบอย ปิดสาขา The Underground Siam Square One บิ๊กคลีนนิ่ง หลังผู้ป่วยโควิดใช้บริการ</t>
+  </si>
+  <si>
+    <t>ร้านชีวิตชีวา'สยามฯปิดชั่วคราว เจ้าของร้านปูอบมานั่งกิน</t>
+  </si>
+  <si>
+    <t>ร้านครัวดอกไม้ขาว สาขาสยามสแควร์วัน ปิด Big Cleaning 1 วัน หลังพบไทม์ไลน์ผู้ติดเชื้อโควิด-19 มาใช้บริการ</t>
+  </si>
+  <si>
     <t xml:space="preserve">เคสแม่ค้ารถพุ่มพวงติดโควิด เป็นรถกระบะสีขาว ป้ายแดง ทะเบียน 8681 สมุทรปราการ </t>
   </si>
   <si>
@@ -265,6 +295,12 @@
     <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20 13 ธ.ค. แวะมาบุญครอง</t>
   </si>
   <si>
+    <t>พบผู้ติดโควิดมาใช้บริการ'นมโจ'สาขาประชาชื่น39</t>
+  </si>
+  <si>
+    <t>เซ็นทรัลเวสต์เกต แจง ฉีดพ่นน้ำยาฆ่าเชื้อทันที-ทั่วศูนย์การค้า หลังพบผู้ป่วยโควิดใช้บริการ</t>
+  </si>
+  <si>
     <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาปฏิบัติงานที่นี่วันที่ 16-17 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
   </si>
   <si>
@@ -289,6 +325,9 @@
     <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 19 ธ.ค. เวลา 20.00 น. ไปตลาดชาวสยาม บางกรวยพร้าว</t>
   </si>
   <si>
+    <t>ตรวจพบเชื้อ COVID-19 จากคุณรัตน์เจ้าของร้านสมศักดิ์ปูอบ สาขาบีทีเอสกรุงธนบุรี</t>
+  </si>
+  <si>
     <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
   </si>
   <si>
@@ -310,6 +349,9 @@
     <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ได้ออกมาเลือกตั้งหน้าหมู่บ้านและซื้อต้นไม้ ผู้ขายเป็นชาวพม่า</t>
   </si>
   <si>
+    <t>โครงการฯ ได้รับแจ้งจากเขตคลองเตยเรื่อง Time Line ของผู้ป่วยติดเชื้อไวรัสโควิด 19 ว่าได้เข้ามาใช้บริการที่ร้านนิตยาไก่ย่าง เมื่อวันที่ 21 ธันวาคม 2563 ระหว่างเวลา 13.00-14.00น.ที่ผ่านมา</t>
+  </si>
+  <si>
     <t>พนักงาน Lamptitude ติดเชื้อหลังจากกลับจากกระบี่ และเข้ามาที่นี่ตั้งแต่วันที่ 14-22 ธ.ค.</t>
   </si>
   <si>
@@ -343,27 +385,45 @@
     <t>พบเคสแม่ค้าพ่อค้าอาหารทะเลติดเชื้อโควิด-19 เชื่อมโยงกรณีตลาดอาหารทะเลที่สมุทรสาคร</t>
   </si>
   <si>
+    <t xml:space="preserve">ตลาดอ่อนนุช ประกาศ ทำความสะอาดใหญ่ และฉีดพ่นน้ำยาฆ่าเชื้อ แล้วเปิดทำการตามปกติแล้ว หลังจากหลายวันก่อนพบผู้ค้าอาหารทะเลที่รับมาจากสมุทรสาครติดโควิด-19  </t>
+  </si>
+  <si>
     <t xml:space="preserve">สุ่มตรวจ กลุ่ม ข้าราชการและเจ้าหน้าที่ของ สลน. จำนวน 350 ราย โดยวิธีการตรวจหาภูมิคุ้มกัน COVID-19 ด้วยชุดทดสอบแบบรวดเร็ว หรือ Rapid Test ซึ่งเป็นการตรวจหาเชื้อโดยน้ำลาย ปรากฏว่ามี 6 รายที่มีผลเป็นบวก และเพื่อความแม่นยำในการตรวจสอบจึงได้ส่งทั้ง 6 ราย ทำการตรวจหาเชื้อจากโพรงจมูกและคอ </t>
   </si>
   <si>
+    <t>https://liff.line.me/1454988218-NjbXbq18/v2/article/jpyamK?utm_source=copyshare</t>
+  </si>
+  <si>
+    <t>https://www.khaosod.co.th/breaking-news/news_5591909</t>
+  </si>
+  <si>
     <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
   </si>
   <si>
-    <t>https://liff.line.me/1454988218-NjbXbq18/v2/article/jpyamK?utm_source=copyshare</t>
-  </si>
-  <si>
-    <t>https://www.khaosod.co.th/breaking-news/news_5591909</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/SomsakPuOb/photos/a.237834942950311/3554401867960252/?type=3</t>
   </si>
   <si>
+    <t>https://www.matichon.co.th/social/news_2495701</t>
+  </si>
+  <si>
+    <t>https://www.dailynews.co.th/regional/814235</t>
+  </si>
+  <si>
+    <t>https://mgronline.com/onlinesection/detail/9630000130287</t>
+  </si>
+  <si>
     <t>https://www.thairath.co.th/news/local/central/1999153</t>
   </si>
   <si>
     <t>https://www.facebook.com/mbkcenterth/posts/3939890189363487</t>
   </si>
   <si>
+    <t>https://www.dailynews.co.th/regional/814463</t>
+  </si>
+  <si>
+    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2500853</t>
+  </si>
+  <si>
     <t>https://www.pptvhd36.com/news/%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%94%E0%B9%87%E0%B8%99%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99/138903</t>
   </si>
   <si>
@@ -376,6 +436,9 @@
     <t>https://mgronline.com/local/detail/9630000130818</t>
   </si>
   <si>
+    <t>https://www.facebook.com/SomsakPuOb/posts/3554410321292740</t>
+  </si>
+  <si>
     <t>https://www.thaipost.net/main/detail/87367</t>
   </si>
   <si>
@@ -391,6 +454,9 @@
     <t>https://www.facebook.com/twodosomething/posts/140825121150938</t>
   </si>
   <si>
+    <t>https://www.facebook.com/suanplernmarket/photos/a.407116596138751/1714728045377593/</t>
+  </si>
+  <si>
     <t>https://www.pptvhd36.com/news/%E0%B8%AA%E0%B8%B1%E0%B8%87%E0%B8%84%E0%B8%A1/138884</t>
   </si>
   <si>
@@ -416,6 +482,9 @@
   </si>
   <si>
     <t>https://mgronline.com/uptodate/detail/9630000131859</t>
+  </si>
+  <si>
+    <t>https://www.sanook.com/news/8324143/</t>
   </si>
   <si>
     <t>https://www.prachachat.net/politics/news-582260</t>
@@ -793,7 +862,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -845,43 +914,43 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>13.7185015</v>
+        <v>13.7499881</v>
       </c>
       <c r="F2">
-        <v>100.5079366</v>
+        <v>100.5393128</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>68</v>
+      <c r="H2">
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -889,7 +958,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -901,10 +970,10 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>13.7499881</v>
+        <v>13.6910012</v>
       </c>
       <c r="F3">
-        <v>100.5393128</v>
+        <v>100.4802337</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -913,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -933,7 +1002,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -945,10 +1014,10 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>13.6910012</v>
+        <v>13.7468252</v>
       </c>
       <c r="F4">
-        <v>100.4802337</v>
+        <v>100.538941</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -957,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -977,10 +1046,10 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>44178</v>
@@ -989,31 +1058,31 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>13.7468252</v>
+        <v>13.7519927</v>
       </c>
       <c r="F5">
-        <v>100.538941</v>
+        <v>100.5293886</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>0</v>
+      <c r="H5" t="s">
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1021,10 +1090,10 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>44178</v>
@@ -1033,31 +1102,31 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>13.7519927</v>
+        <v>14.1246719</v>
       </c>
       <c r="F6">
-        <v>100.5293886</v>
+        <v>100.603357</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1065,7 +1134,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -1077,31 +1146,31 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>14.1246719</v>
+        <v>14.1152336</v>
       </c>
       <c r="F7">
-        <v>100.603357</v>
+        <v>100.6005268</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1109,43 +1178,43 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8">
-        <v>14.1152336</v>
+        <v>13.7449539</v>
       </c>
       <c r="F8">
-        <v>100.6005268</v>
+        <v>100.5339095</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1153,10 +1222,10 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
         <v>44179</v>
@@ -1165,31 +1234,31 @@
         <v>27</v>
       </c>
       <c r="E9">
-        <v>13.7449539</v>
+        <v>13.7446331</v>
       </c>
       <c r="F9">
-        <v>100.5339095</v>
+        <v>100.5335668</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1197,43 +1266,43 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
       <c r="E10">
-        <v>13.8205741</v>
+        <v>13.74492074</v>
       </c>
       <c r="F10">
-        <v>100.4822683</v>
+        <v>100.5342369</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1241,43 +1310,43 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
       <c r="E11">
-        <v>13.5440411</v>
+        <v>13.74491756</v>
       </c>
       <c r="F11">
-        <v>100.2752457</v>
+        <v>100.5342154</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1285,10 +1354,10 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2">
         <v>44180</v>
@@ -1297,31 +1366,31 @@
         <v>30</v>
       </c>
       <c r="E12">
-        <v>13.6211105</v>
+        <v>13.8205741</v>
       </c>
       <c r="F12">
-        <v>100.4387341</v>
+        <v>100.4822683</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12">
-        <v>0</v>
+      <c r="H12" t="s">
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1329,10 +1398,10 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
         <v>44180</v>
@@ -1341,31 +1410,31 @@
         <v>31</v>
       </c>
       <c r="E13">
-        <v>13.7731761</v>
+        <v>13.5440411</v>
       </c>
       <c r="F13">
-        <v>100.4851346</v>
+        <v>100.2752457</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1373,10 +1442,10 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2">
         <v>44180</v>
@@ -1385,31 +1454,31 @@
         <v>32</v>
       </c>
       <c r="E14">
-        <v>13.74512653</v>
+        <v>13.6211105</v>
       </c>
       <c r="F14">
-        <v>100.5298302</v>
+        <v>100.4387341</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
-        <v>68</v>
+      <c r="H14">
+        <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L14" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1417,43 +1486,43 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E15">
-        <v>13.8330877</v>
+        <v>13.7731761</v>
       </c>
       <c r="F15">
-        <v>100.499237</v>
+        <v>100.4851346</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L15" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1461,43 +1530,43 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16">
-        <v>13.7689441</v>
+        <v>13.74512653</v>
       </c>
       <c r="F16">
-        <v>100.5046383</v>
+        <v>100.5298302</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1505,43 +1574,43 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E17">
-        <v>14.0782451</v>
+        <v>13.8330877</v>
       </c>
       <c r="F17">
-        <v>100.604118</v>
+        <v>100.499237</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17">
-        <v>0</v>
+      <c r="H17" t="s">
+        <v>76</v>
       </c>
       <c r="I17" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L17" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1549,43 +1618,43 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="D18" t="s">
         <v>35</v>
       </c>
       <c r="E18">
-        <v>13.86019768</v>
+        <v>13.7689441</v>
       </c>
       <c r="F18">
-        <v>100.7223304</v>
+        <v>100.5046383</v>
       </c>
       <c r="G18">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L18" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1593,43 +1662,43 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
       </c>
       <c r="E19">
-        <v>13.8578211</v>
+        <v>13.84341791</v>
       </c>
       <c r="F19">
-        <v>100.4105189</v>
+        <v>100.5419373</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1637,43 +1706,43 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="D20" t="s">
         <v>37</v>
       </c>
       <c r="E20">
-        <v>13.85934159</v>
+        <v>13.87694672</v>
       </c>
       <c r="F20">
-        <v>100.5849015</v>
+        <v>100.4115482</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L20" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1681,43 +1750,43 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
       </c>
       <c r="E21">
-        <v>13.87779142</v>
+        <v>14.0782451</v>
       </c>
       <c r="F21">
-        <v>100.4215436</v>
+        <v>100.604118</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21" t="s">
-        <v>69</v>
+      <c r="H21">
+        <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L21" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1725,43 +1794,43 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
       </c>
       <c r="E22">
-        <v>13.88376994</v>
+        <v>13.86019768</v>
       </c>
       <c r="F22">
-        <v>100.5843207</v>
+        <v>100.7223304</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L22" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1769,43 +1838,43 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="D23" t="s">
         <v>40</v>
       </c>
       <c r="E23">
-        <v>14.1487352</v>
+        <v>13.8578211</v>
       </c>
       <c r="F23">
-        <v>100.6155778</v>
+        <v>100.4105189</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L23" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1813,43 +1882,43 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="D24" t="s">
         <v>41</v>
       </c>
       <c r="E24">
-        <v>13.8057625</v>
+        <v>13.85934159</v>
       </c>
       <c r="F24">
-        <v>100.6621959</v>
+        <v>100.5849015</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L24" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1857,43 +1926,43 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="D25" t="s">
         <v>42</v>
       </c>
       <c r="E25">
-        <v>14.01215068</v>
+        <v>13.87779142</v>
       </c>
       <c r="F25">
-        <v>100.17523</v>
+        <v>100.4215436</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L25" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1901,43 +1970,43 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="D26" t="s">
         <v>43</v>
       </c>
       <c r="E26">
-        <v>13.8134088</v>
+        <v>13.88376994</v>
       </c>
       <c r="F26">
-        <v>100.5616103</v>
+        <v>100.5843207</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L26" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -1945,7 +2014,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -1957,31 +2026,31 @@
         <v>44</v>
       </c>
       <c r="E27">
-        <v>13.816493</v>
+        <v>14.1487352</v>
       </c>
       <c r="F27">
-        <v>100.5610062</v>
+        <v>100.6155778</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L27" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -1989,10 +2058,10 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2">
         <v>44184</v>
@@ -2001,31 +2070,31 @@
         <v>45</v>
       </c>
       <c r="E28">
-        <v>13.7966595</v>
+        <v>13.8057625</v>
       </c>
       <c r="F28">
-        <v>100.4755856</v>
+        <v>100.6621959</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2033,43 +2102,43 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
       </c>
       <c r="E29">
-        <v>13.5579068</v>
+        <v>14.01215068</v>
       </c>
       <c r="F29">
-        <v>100.270829</v>
+        <v>100.17523</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29">
-        <v>0</v>
+      <c r="H29" t="s">
+        <v>77</v>
       </c>
       <c r="I29" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L29" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2077,43 +2146,43 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D30" t="s">
         <v>47</v>
       </c>
       <c r="E30">
-        <v>13.7937004</v>
+        <v>13.8134088</v>
       </c>
       <c r="F30">
-        <v>100.6923144</v>
+        <v>100.5616103</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L30" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2121,43 +2190,43 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C31" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D31" t="s">
         <v>48</v>
       </c>
       <c r="E31">
-        <v>13.5455607</v>
+        <v>13.816493</v>
       </c>
       <c r="F31">
-        <v>100.2767611</v>
+        <v>100.5610062</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L31" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2165,43 +2234,43 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C32" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D32" t="s">
         <v>49</v>
       </c>
       <c r="E32">
-        <v>13.7204469</v>
+        <v>13.7966595</v>
       </c>
       <c r="F32">
-        <v>100.5004708</v>
+        <v>100.4755856</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L32" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2209,43 +2278,43 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C33" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E33">
-        <v>14.3355326</v>
+        <v>13.69121688</v>
       </c>
       <c r="F33">
-        <v>100.87017</v>
+        <v>100.3412194</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33">
-        <v>0</v>
+      <c r="H33" t="s">
+        <v>76</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L33" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2253,22 +2322,22 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C34" s="2">
         <v>44185</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E34">
-        <v>14.5786407</v>
+        <v>13.5579068</v>
       </c>
       <c r="F34">
-        <v>100.9662444</v>
+        <v>100.270829</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2277,19 +2346,19 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L34" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2297,43 +2366,43 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2">
         <v>44185</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E35">
-        <v>14.5116599</v>
+        <v>13.7937004</v>
       </c>
       <c r="F35">
-        <v>100.9094134</v>
+        <v>100.6923144</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35">
-        <v>0</v>
+      <c r="H35" t="s">
+        <v>76</v>
       </c>
       <c r="I35" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2341,43 +2410,43 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="2">
         <v>44185</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E36">
-        <v>14.1378761</v>
+        <v>13.5455607</v>
       </c>
       <c r="F36">
-        <v>100.8255049</v>
+        <v>100.2767611</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36">
-        <v>0</v>
+      <c r="H36" t="s">
+        <v>76</v>
       </c>
       <c r="I36" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L36" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2385,43 +2454,43 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C37" s="2">
         <v>44185</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E37">
-        <v>14.06566869</v>
+        <v>13.7204469</v>
       </c>
       <c r="F37">
-        <v>99.9821468</v>
+        <v>100.5004708</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L37" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2429,43 +2498,43 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C38" s="2">
         <v>44185</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E38">
-        <v>13.8220612</v>
+        <v>14.3355326</v>
       </c>
       <c r="F38">
-        <v>100.421874</v>
+        <v>100.87017</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38" t="s">
-        <v>69</v>
+      <c r="H38">
+        <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L38" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2473,43 +2542,43 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" s="2">
         <v>44185</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E39">
-        <v>13.8683169</v>
+        <v>14.5786407</v>
       </c>
       <c r="F39">
-        <v>100.4107308</v>
+        <v>100.9662444</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39" t="s">
-        <v>68</v>
+      <c r="H39">
+        <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L39" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2517,7 +2586,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -2529,31 +2598,31 @@
         <v>54</v>
       </c>
       <c r="E40">
-        <v>13.89757086</v>
+        <v>14.5116599</v>
       </c>
       <c r="F40">
-        <v>100.6098027</v>
+        <v>100.9094134</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40" t="s">
-        <v>68</v>
+      <c r="H40">
+        <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L40" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2561,43 +2630,43 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C41" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="D41" t="s">
         <v>55</v>
       </c>
       <c r="E41">
-        <v>13.8781452</v>
+        <v>14.1378761</v>
       </c>
       <c r="F41">
-        <v>100.4091302</v>
+        <v>100.8255049</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41" t="s">
-        <v>68</v>
+      <c r="H41">
+        <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L41" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2605,43 +2674,43 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C42" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="D42" t="s">
         <v>56</v>
       </c>
       <c r="E42">
-        <v>13.73541413</v>
+        <v>14.06566869</v>
       </c>
       <c r="F42">
-        <v>100.5877998</v>
+        <v>99.9821468</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42">
-        <v>0</v>
+      <c r="H42" t="s">
+        <v>77</v>
       </c>
       <c r="I42" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L42" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2649,43 +2718,43 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C43" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="D43" t="s">
         <v>57</v>
       </c>
       <c r="E43">
-        <v>13.78766192</v>
+        <v>13.8220612</v>
       </c>
       <c r="F43">
-        <v>100.5105938</v>
+        <v>100.421874</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43">
-        <v>0</v>
+      <c r="H43" t="s">
+        <v>76</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L43" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2693,40 +2762,40 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C44" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="D44" t="s">
         <v>58</v>
       </c>
       <c r="E44">
-        <v>13.5951449</v>
+        <v>13.8683169</v>
       </c>
       <c r="F44">
-        <v>100.5802135</v>
+        <v>100.4107308</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L44" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>127</v>
@@ -2737,43 +2806,43 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C45" s="2">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="D45" t="s">
         <v>59</v>
       </c>
       <c r="E45">
-        <v>13.7462524</v>
+        <v>13.89757086</v>
       </c>
       <c r="F45">
-        <v>100.5328635</v>
+        <v>100.6098027</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45">
-        <v>0</v>
+      <c r="H45" t="s">
+        <v>77</v>
       </c>
       <c r="I45" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L45" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -2781,43 +2850,43 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="2">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="D46" t="s">
         <v>60</v>
       </c>
       <c r="E46">
-        <v>13.7243591</v>
+        <v>13.72045903</v>
       </c>
       <c r="F46">
-        <v>100.5386589</v>
+        <v>100.5004852</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46">
-        <v>0</v>
+      <c r="H46" t="s">
+        <v>76</v>
       </c>
       <c r="I46" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -2825,43 +2894,43 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C47" s="2">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="D47" t="s">
         <v>61</v>
       </c>
       <c r="E47">
-        <v>13.54974685</v>
+        <v>13.8781452</v>
       </c>
       <c r="F47">
-        <v>100.2561435</v>
+        <v>100.4091302</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L47" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -2869,43 +2938,43 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="2">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="D48" t="s">
         <v>62</v>
       </c>
       <c r="E48">
-        <v>14.45160513</v>
+        <v>13.7164198</v>
       </c>
       <c r="F48">
-        <v>100.7230585</v>
+        <v>100.5716135</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L48" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -2913,43 +2982,43 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C49" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D49" t="s">
         <v>63</v>
       </c>
       <c r="E49">
-        <v>13.72836497</v>
+        <v>13.73541413</v>
       </c>
       <c r="F49">
-        <v>100.5350858</v>
+        <v>100.5877998</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49" t="s">
-        <v>70</v>
+      <c r="H49">
+        <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L49" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -2957,43 +3026,43 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C50" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D50" t="s">
         <v>64</v>
       </c>
       <c r="E50">
-        <v>13.7660558</v>
+        <v>13.78766192</v>
       </c>
       <c r="F50">
-        <v>100.6403032</v>
+        <v>100.5105938</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50" t="s">
-        <v>70</v>
+      <c r="H50">
+        <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L50" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3001,43 +3070,43 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C51" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D51" t="s">
         <v>65</v>
       </c>
       <c r="E51">
-        <v>13.710361</v>
+        <v>13.5951449</v>
       </c>
       <c r="F51">
-        <v>100.4073817</v>
+        <v>100.5802135</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I51" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L51" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3045,10 +3114,10 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C52" s="2">
         <v>44188</v>
@@ -3057,10 +3126,10 @@
         <v>66</v>
       </c>
       <c r="E52">
-        <v>13.2054213</v>
+        <v>13.7462524</v>
       </c>
       <c r="F52">
-        <v>99.9793013</v>
+        <v>100.5328635</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -3069,19 +3138,19 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L52" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3089,45 +3158,397 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53" s="2">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="D53" t="s">
         <v>67</v>
       </c>
       <c r="E53">
+        <v>13.7243591</v>
+      </c>
+      <c r="F53">
+        <v>100.5386589</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K53" t="s">
+        <v>78</v>
+      </c>
+      <c r="L53" t="s">
+        <v>116</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54">
+        <v>13.54974685</v>
+      </c>
+      <c r="F54">
+        <v>100.2561435</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+      <c r="J54" t="s">
+        <v>80</v>
+      </c>
+      <c r="K54" t="s">
+        <v>78</v>
+      </c>
+      <c r="L54" t="s">
+        <v>117</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55">
+        <v>82</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55">
+        <v>14.45160513</v>
+      </c>
+      <c r="F55">
+        <v>100.7230585</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>76</v>
+      </c>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+      <c r="J55" t="s">
+        <v>80</v>
+      </c>
+      <c r="K55" t="s">
+        <v>78</v>
+      </c>
+      <c r="L55" t="s">
+        <v>118</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56">
+        <v>83</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56">
+        <v>13.72836497</v>
+      </c>
+      <c r="F56">
+        <v>100.5350858</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>78</v>
+      </c>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+      <c r="J56" t="s">
+        <v>80</v>
+      </c>
+      <c r="K56" t="s">
+        <v>78</v>
+      </c>
+      <c r="L56" t="s">
+        <v>119</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57">
+        <v>84</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57">
+        <v>13.7660558</v>
+      </c>
+      <c r="F57">
+        <v>100.6403032</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>78</v>
+      </c>
+      <c r="I57" t="s">
+        <v>79</v>
+      </c>
+      <c r="J57" t="s">
+        <v>80</v>
+      </c>
+      <c r="K57" t="s">
+        <v>78</v>
+      </c>
+      <c r="L57" t="s">
+        <v>120</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58">
+        <v>85</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58">
+        <v>13.710361</v>
+      </c>
+      <c r="F58">
+        <v>100.4073817</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>78</v>
+      </c>
+      <c r="I58" t="s">
+        <v>79</v>
+      </c>
+      <c r="J58" t="s">
+        <v>80</v>
+      </c>
+      <c r="K58" t="s">
+        <v>78</v>
+      </c>
+      <c r="L58" t="s">
+        <v>121</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59">
+        <v>86</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D59" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59">
+        <v>13.2054213</v>
+      </c>
+      <c r="F59">
+        <v>99.9793013</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>79</v>
+      </c>
+      <c r="J59" t="s">
+        <v>80</v>
+      </c>
+      <c r="K59" t="s">
+        <v>78</v>
+      </c>
+      <c r="L59" t="s">
+        <v>122</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60">
+        <v>87</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D60" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60">
+        <v>13.7100705</v>
+      </c>
+      <c r="F60">
+        <v>100.6007069</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60" t="s">
+        <v>123</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61">
+        <v>88</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="2">
+        <v>44190</v>
+      </c>
+      <c r="D61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61">
         <v>13.7636001</v>
       </c>
-      <c r="F53">
+      <c r="F61">
         <v>100.5114624</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53" t="s">
-        <v>70</v>
-      </c>
-      <c r="L53" t="s">
-        <v>109</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="N53">
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>78</v>
+      </c>
+      <c r="L61" t="s">
+        <v>124</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N61">
         <v>0</v>
       </c>
     </row>
@@ -3167,12 +3588,12 @@
     <hyperlink ref="M33" r:id="rId32"/>
     <hyperlink ref="M34" r:id="rId33"/>
     <hyperlink ref="M35" r:id="rId34"/>
-    <hyperlink ref="M36" r:id="rId35" location="cxrecs_s"/>
+    <hyperlink ref="M36" r:id="rId35"/>
     <hyperlink ref="M37" r:id="rId36"/>
     <hyperlink ref="M38" r:id="rId37"/>
     <hyperlink ref="M39" r:id="rId38"/>
     <hyperlink ref="M40" r:id="rId39"/>
-    <hyperlink ref="M41" r:id="rId40"/>
+    <hyperlink ref="M41" r:id="rId40" location="cxrecs_s"/>
     <hyperlink ref="M42" r:id="rId41"/>
     <hyperlink ref="M43" r:id="rId42"/>
     <hyperlink ref="M44" r:id="rId43"/>
@@ -3185,6 +3606,14 @@
     <hyperlink ref="M51" r:id="rId50"/>
     <hyperlink ref="M52" r:id="rId51"/>
     <hyperlink ref="M53" r:id="rId52"/>
+    <hyperlink ref="M54" r:id="rId53"/>
+    <hyperlink ref="M55" r:id="rId54"/>
+    <hyperlink ref="M56" r:id="rId55"/>
+    <hyperlink ref="M57" r:id="rId56"/>
+    <hyperlink ref="M58" r:id="rId57"/>
+    <hyperlink ref="M59" r:id="rId58"/>
+    <hyperlink ref="M60" r:id="rId59"/>
+    <hyperlink ref="M61" r:id="rId60"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="161">
   <si>
     <t>id</t>
   </si>
@@ -241,6 +241,9 @@
     <t>ตลาดอ่อนนุช</t>
   </si>
   <si>
+    <t>สาธร ซิตี้ ทาวเวอร์</t>
+  </si>
+  <si>
     <t>ทำเนียบรัฐบาล</t>
   </si>
   <si>
@@ -388,6 +391,9 @@
     <t xml:space="preserve">ตลาดอ่อนนุช ประกาศ ทำความสะอาดใหญ่ และฉีดพ่นน้ำยาฆ่าเชื้อ แล้วเปิดทำการตามปกติแล้ว หลังจากหลายวันก่อนพบผู้ค้าอาหารทะเลที่รับมาจากสมุทรสาครติดโควิด-19  </t>
   </si>
   <si>
+    <t>พนักงานสาธรซิตี้ ทาวเวอร์ ติดโควิด</t>
+  </si>
+  <si>
     <t xml:space="preserve">สุ่มตรวจ กลุ่ม ข้าราชการและเจ้าหน้าที่ของ สลน. จำนวน 350 ราย โดยวิธีการตรวจหาภูมิคุ้มกัน COVID-19 ด้วยชุดทดสอบแบบรวดเร็ว หรือ Rapid Test ซึ่งเป็นการตรวจหาเชื้อโดยน้ำลาย ปรากฏว่ามี 6 รายที่มีผลเป็นบวก และเพื่อความแม่นยำในการตรวจสอบจึงได้ส่งทั้ง 6 ราย ทำการตรวจหาเชื้อจากโพรงจมูกและคอ </t>
   </si>
   <si>
@@ -485,6 +491,9 @@
   </si>
   <si>
     <t>https://www.sanook.com/news/8324143/</t>
+  </si>
+  <si>
+    <t>https://www.matichon.co.th/covid19/news_2500693</t>
   </si>
   <si>
     <t>https://www.prachachat.net/politics/news-582260</t>
@@ -862,7 +871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -938,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -982,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1026,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1067,22 +1076,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1111,22 +1120,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1155,22 +1164,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1199,22 +1208,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1243,22 +1252,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1287,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1331,22 +1340,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1375,22 +1384,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1419,22 +1428,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1466,19 +1475,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1507,22 +1516,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1551,22 +1560,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1595,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1639,22 +1648,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1683,22 +1692,22 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1727,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1774,19 +1783,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1815,22 +1824,22 @@
         <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1859,22 +1868,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1903,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1947,22 +1956,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1991,22 +2000,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2035,22 +2044,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2079,22 +2088,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2123,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2167,22 +2176,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2211,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2255,22 +2264,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2299,22 +2308,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2346,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2387,22 +2396,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2431,22 +2440,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2475,22 +2484,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2522,19 +2531,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2566,19 +2575,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2610,19 +2619,19 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2654,19 +2663,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2695,22 +2704,22 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2739,22 +2748,22 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2783,22 +2792,22 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2827,22 +2836,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -2871,22 +2880,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -2915,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -2959,22 +2968,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L48" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3006,19 +3015,19 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3050,19 +3059,19 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3091,22 +3100,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3138,19 +3147,19 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3182,19 +3191,19 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L53" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3223,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L54" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3267,22 +3276,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3311,22 +3320,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3355,22 +3364,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L57" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3399,22 +3408,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L58" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3446,19 +3455,19 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3499,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3513,42 +3522,86 @@
         <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C61" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D61" t="s">
         <v>75</v>
       </c>
       <c r="E61">
+        <v>13.721681</v>
+      </c>
+      <c r="F61">
+        <v>100.53</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>79</v>
+      </c>
+      <c r="I61" t="s">
+        <v>80</v>
+      </c>
+      <c r="J61" t="s">
+        <v>81</v>
+      </c>
+      <c r="K61" t="s">
+        <v>79</v>
+      </c>
+      <c r="L61" t="s">
+        <v>125</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62">
+        <v>89</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="2">
+        <v>44190</v>
+      </c>
+      <c r="D62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62">
         <v>13.7636001</v>
       </c>
-      <c r="F61">
+      <c r="F62">
         <v>100.5114624</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61" t="s">
-        <v>78</v>
-      </c>
-      <c r="L61" t="s">
-        <v>124</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="N61">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>79</v>
+      </c>
+      <c r="L62" t="s">
+        <v>126</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N62">
         <v>0</v>
       </c>
     </row>
@@ -3614,6 +3667,7 @@
     <hyperlink ref="M59" r:id="rId58"/>
     <hyperlink ref="M60" r:id="rId59"/>
     <hyperlink ref="M61" r:id="rId60"/>
+    <hyperlink ref="M62" r:id="rId61"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="165">
   <si>
     <t>id</t>
   </si>
@@ -244,6 +244,9 @@
     <t>สาธร ซิตี้ ทาวเวอร์</t>
   </si>
   <si>
+    <t>วัดเล่งเนยยี่ 2</t>
+  </si>
+  <si>
     <t>ทำเนียบรัฐบาล</t>
   </si>
   <si>
@@ -259,6 +262,9 @@
     <t>Thai</t>
   </si>
   <si>
+    <t>Burmese</t>
+  </si>
+  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -394,7 +400,10 @@
     <t>พนักงานสาธรซิตี้ ทาวเวอร์ ติดโควิด</t>
   </si>
   <si>
-    <t xml:space="preserve">สุ่มตรวจ กลุ่ม ข้าราชการและเจ้าหน้าที่ของ สลน. จำนวน 350 ราย โดยวิธีการตรวจหาภูมิคุ้มกัน COVID-19 ด้วยชุดทดสอบแบบรวดเร็ว หรือ Rapid Test ซึ่งเป็นการตรวจหาเชื้อโดยน้ำลาย ปรากฏว่ามี 6 รายที่มีผลเป็นบวก และเพื่อความแม่นยำในการตรวจสอบจึงได้ส่งทั้ง 6 ราย ทำการตรวจหาเชื้อจากโพรงจมูกและคอ </t>
+    <t>พบ 2 แม่ครัวชาวเมียนม่า ทำงานโรงครัววัดเล่งเน่ยยี่ 2 บางบัวทอง ติดโควิด-19</t>
+  </si>
+  <si>
+    <t>ผลตรวจซ้ำเจ้าหน้าที่ในทำเนียบรัฐบาล 6 ราย ไม่พบเชื้อ และได้มีการทำความสะอาดพ่นฆ่าเชื้อในทำเนียบรัฐบาลเรียบร้อยแล้ว</t>
   </si>
   <si>
     <t>https://liff.line.me/1454988218-NjbXbq18/v2/article/jpyamK?utm_source=copyshare</t>
@@ -496,7 +505,10 @@
     <t>https://www.matichon.co.th/covid19/news_2500693</t>
   </si>
   <si>
-    <t>https://www.prachachat.net/politics/news-582260</t>
+    <t>https://www.khaosod.co.th/covid-19/news_5610412</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/politic/2001897</t>
   </si>
 </sst>
 </file>
@@ -871,7 +883,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -947,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -991,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1035,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1076,22 +1088,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1120,22 +1132,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1164,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1208,22 +1220,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1252,22 +1264,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1296,22 +1308,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1340,22 +1352,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1384,22 +1396,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1428,22 +1440,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1475,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1516,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1560,22 +1572,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1604,22 +1616,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1648,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1692,22 +1704,22 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1736,22 +1748,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1783,19 +1795,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1824,22 +1836,22 @@
         <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1868,22 +1880,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1912,22 +1924,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1956,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2000,22 +2012,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2044,22 +2056,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2088,22 +2100,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2132,22 +2144,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L29" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2176,22 +2188,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2220,22 +2232,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2264,22 +2276,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2308,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2355,19 +2367,19 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2396,22 +2408,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2440,22 +2452,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L36" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2484,22 +2496,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L37" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2531,19 +2543,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L38" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2575,19 +2587,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L39" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2619,19 +2631,19 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L40" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2663,19 +2675,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L41" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2704,22 +2716,22 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L42" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2748,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L43" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2792,22 +2804,22 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L44" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2836,22 +2848,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L45" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -2880,22 +2892,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L46" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -2924,22 +2936,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J47" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L47" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -2968,22 +2980,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L48" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3015,19 +3027,19 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L49" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3059,19 +3071,19 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L50" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3100,22 +3112,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L51" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3147,19 +3159,19 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L52" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3191,19 +3203,19 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L53" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3232,22 +3244,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J54" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L54" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3276,22 +3288,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J55" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L55" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3320,22 +3332,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J56" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L56" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3364,22 +3376,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L57" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3408,22 +3420,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J58" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L58" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3455,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J59" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L59" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3508,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3540,22 +3552,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J61" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L61" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3566,42 +3578,86 @@
         <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D62" t="s">
         <v>76</v>
       </c>
       <c r="E62">
+        <v>13.9134431</v>
+      </c>
+      <c r="F62">
+        <v>100.4220473</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>78</v>
+      </c>
+      <c r="I62" t="s">
+        <v>82</v>
+      </c>
+      <c r="J62" t="s">
+        <v>83</v>
+      </c>
+      <c r="K62" t="s">
+        <v>80</v>
+      </c>
+      <c r="L62" t="s">
+        <v>128</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63">
+        <v>90</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="2">
+        <v>44191</v>
+      </c>
+      <c r="D63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63">
         <v>13.7636001</v>
       </c>
-      <c r="F62">
+      <c r="F63">
         <v>100.5114624</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62" t="s">
-        <v>79</v>
-      </c>
-      <c r="L62" t="s">
-        <v>126</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="N62">
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>80</v>
+      </c>
+      <c r="L63" t="s">
+        <v>129</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N63">
         <v>0</v>
       </c>
     </row>
@@ -3668,6 +3724,7 @@
     <hyperlink ref="M60" r:id="rId59"/>
     <hyperlink ref="M61" r:id="rId60"/>
     <hyperlink ref="M62" r:id="rId61"/>
+    <hyperlink ref="M63" r:id="rId62"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="171">
   <si>
     <t>id</t>
   </si>
@@ -250,6 +250,12 @@
     <t>ทำเนียบรัฐบาล</t>
   </si>
   <si>
+    <t>ร้านนิตยาไก่ย่าง</t>
+  </si>
+  <si>
+    <t>บ่อนใน อ.เมืองระยอง และ มาบตาพุด</t>
+  </si>
+  <si>
     <t>female</t>
   </si>
   <si>
@@ -406,6 +412,12 @@
     <t>ผลตรวจซ้ำเจ้าหน้าที่ในทำเนียบรัฐบาล 6 ราย ไม่พบเชื้อ และได้มีการทำความสะอาดพ่นฆ่าเชื้อในทำเนียบรัฐบาลเรียบร้อยแล้ว</t>
   </si>
   <si>
+    <t>ปิด “นิตยาไก่ย่าง” 3 วัน ในสามย่านมิตรทาวน์ หลังพบผู้ติดโควิดใช้บริการ</t>
+  </si>
+  <si>
+    <t>ระยองพบติดเชื้อโควิดเพิ่ม 37 ราย จากบ่อนพนันในอ.เมืองระยอง และมาบตาพุด</t>
+  </si>
+  <si>
     <t>https://liff.line.me/1454988218-NjbXbq18/v2/article/jpyamK?utm_source=copyshare</t>
   </si>
   <si>
@@ -509,6 +521,12 @@
   </si>
   <si>
     <t>https://www.thairath.co.th/news/politic/2001897</t>
+  </si>
+  <si>
+    <t>https://www.prachachat.net/marketing/news-582754</t>
+  </si>
+  <si>
+    <t>https://www.prachachat.net/general/news-582764</t>
   </si>
 </sst>
 </file>
@@ -883,7 +901,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -959,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1003,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1047,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1088,22 +1106,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1132,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1176,22 +1194,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1220,22 +1238,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1264,22 +1282,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1308,22 +1326,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1352,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1396,22 +1414,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1440,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1487,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1528,22 +1546,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1572,22 +1590,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1616,22 +1634,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1660,22 +1678,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1704,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1748,22 +1766,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1795,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1836,22 +1854,22 @@
         <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1880,22 +1898,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1924,22 +1942,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1968,22 +1986,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2012,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2056,22 +2074,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2100,22 +2118,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2144,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L29" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2188,22 +2206,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2232,22 +2250,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2276,22 +2294,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L32" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2320,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L33" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2367,19 +2385,19 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J34" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2408,22 +2426,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J35" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L35" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2452,22 +2470,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2496,22 +2514,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2543,19 +2561,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2587,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L39" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2631,19 +2649,19 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2675,19 +2693,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2716,22 +2734,22 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L42" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2760,22 +2778,22 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L43" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2804,22 +2822,22 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L44" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2848,22 +2866,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L45" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -2892,22 +2910,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L46" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -2936,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L47" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -2980,22 +2998,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L48" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3027,19 +3045,19 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J49" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L49" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3071,19 +3089,19 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L50" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3112,22 +3130,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L51" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3159,19 +3177,19 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J52" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L52" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3203,19 +3221,19 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J53" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L53" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3244,22 +3262,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I54" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J54" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L54" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3288,22 +3306,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L55" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3332,22 +3350,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J56" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L56" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3376,22 +3394,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J57" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K57" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L57" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3420,22 +3438,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J58" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L58" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3467,19 +3485,19 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J59" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K59" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L59" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3520,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3552,22 +3570,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I61" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J61" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L61" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3596,22 +3614,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I62" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J62" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K62" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L62" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3649,15 +3667,103 @@
         <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L63" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64">
+        <v>91</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="2">
+        <v>44191</v>
+      </c>
+      <c r="D64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64">
+        <v>13.734066</v>
+      </c>
+      <c r="F64">
+        <v>100.5278354</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>132</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65">
+        <v>92</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="2">
+        <v>44191</v>
+      </c>
+      <c r="D65" t="s">
+        <v>79</v>
+      </c>
+      <c r="E65">
+        <v>12.6483736</v>
+      </c>
+      <c r="F65">
+        <v>101.2273679</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>133</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N65">
         <v>0</v>
       </c>
     </row>
@@ -3725,6 +3831,8 @@
     <hyperlink ref="M61" r:id="rId60"/>
     <hyperlink ref="M62" r:id="rId61"/>
     <hyperlink ref="M63" r:id="rId62"/>
+    <hyperlink ref="M64" r:id="rId63"/>
+    <hyperlink ref="M65" r:id="rId64"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="188">
   <si>
     <t>id</t>
   </si>
@@ -106,6 +106,9 @@
     <t xml:space="preserve">ร้านครัวดอกไม้ขาว สาขาสยามสแควร์วัน </t>
   </si>
   <si>
+    <t>ธนาคารออมสินสาขาบางเลน</t>
+  </si>
+  <si>
     <t>นนทบุรี</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>ห้างมาบุญครอง</t>
   </si>
   <si>
+    <t>ห้างบิ๊กซี อ.เมือง นครปฐม</t>
+  </si>
+  <si>
     <t>ร้านแซ่บอีสานคาราโอเกะ ย่านเทเวศร์</t>
   </si>
   <si>
@@ -130,6 +136,9 @@
     <t>เซ็นทรัลเวสต์เกต</t>
   </si>
   <si>
+    <t>ตลาดนัดวัดสามง่าม ต.สามง่าม อ.ดอนตูม</t>
+  </si>
+  <si>
     <t>INC2 Tower B</t>
   </si>
   <si>
@@ -142,12 +151,21 @@
     <t>ตลาดสดเคหะบางบัว</t>
   </si>
   <si>
+    <t>โรงเรียนเจี้ยนหัว ต.บางเลน อ.บางเลน</t>
+  </si>
+  <si>
     <t>ซ.รุ่งเรือง 5 บางบัวทอง</t>
   </si>
   <si>
     <t>ตลาดแจ้งวัฒนะ ซ.6</t>
   </si>
   <si>
+    <t>โรงเรียนราษฎร์บำรุงวิทยา อ.ดอนตูม</t>
+  </si>
+  <si>
+    <t>โรงเรียนแสงอรุณ</t>
+  </si>
+  <si>
     <t>ตลาดหมู่บ้านศรีทอง จ.อยุธยา</t>
   </si>
   <si>
@@ -169,6 +187,9 @@
     <t>ธนาคารกสิกรไทย สาขา โลตัสเพชรเกษม 81</t>
   </si>
   <si>
+    <t>ตลาดนัดห้วยตะโก ต.พะเนียด อ.นครชัยศรี</t>
+  </si>
+  <si>
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
@@ -199,6 +220,15 @@
     <t>สมศักดิ์ ปูอบ สาขา2 บีทีเอสกรุงธนบุรี</t>
   </si>
   <si>
+    <t>มหาวิทยาลัยศิลปากร</t>
+  </si>
+  <si>
+    <t>วัดดอนยายหอม อ.เมือง</t>
+  </si>
+  <si>
+    <t>ที่ว่าการอำเภอบางเลน</t>
+  </si>
+  <si>
     <t>ร้านก๋วยเตี๋ยว ในตลาดบางใหญ่</t>
   </si>
   <si>
@@ -214,6 +244,12 @@
     <t>ตลาดเจดีย์</t>
   </si>
   <si>
+    <t>การไฟฟ้า อ.นครชัยศรี</t>
+  </si>
+  <si>
+    <t>ธนาคารไทยพานิชย์ สาขานครชัยศรี</t>
+  </si>
+  <si>
     <t>Siam Center</t>
   </si>
   <si>
@@ -241,12 +277,21 @@
     <t>ตลาดอ่อนนุช</t>
   </si>
   <si>
+    <t>ตลาดนัดท่าข้าม ต.บางระกำ อ.นครชัยศรี</t>
+  </si>
+  <si>
+    <t>ธนาคารกรุงไทย สาขานครชัยศรี</t>
+  </si>
+  <si>
     <t>สาธร ซิตี้ ทาวเวอร์</t>
   </si>
   <si>
     <t>วัดเล่งเนยยี่ 2</t>
   </si>
   <si>
+    <t>ศูนย์การแพทย์กาญจนาภิเษก อ.พุทธมณฑล</t>
+  </si>
+  <si>
     <t>ทำเนียบรัฐบาล</t>
   </si>
   <si>
@@ -298,6 +343,9 @@
     <t>ร้านครัวดอกไม้ขาว สาขาสยามสแควร์วัน ปิด Big Cleaning 1 วัน หลังพบไทม์ไลน์ผู้ติดเชื้อโควิด-19 มาใช้บริการ</t>
   </si>
   <si>
+    <t>ผู้ป่วย  covid-19 นครปฐม รายที่22-29</t>
+  </si>
+  <si>
     <t xml:space="preserve">เคสแม่ค้ารถพุ่มพวงติดโควิด เป็นรถกระบะสีขาว ป้ายแดง ทะเบียน 8681 สมุทรปราการ </t>
   </si>
   <si>
@@ -437,6 +485,9 @@
   </si>
   <si>
     <t>https://mgronline.com/onlinesection/detail/9630000130287</t>
+  </si>
+  <si>
+    <t>https://m.facebook.com/story.php?story_fbid=3200886696679973&amp;id=246608695441136&amp;sfnsn=mo</t>
   </si>
   <si>
     <t>https://www.thairath.co.th/news/local/central/1999153</t>
@@ -901,7 +952,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -977,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1021,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L3" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1065,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1106,22 +1157,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1150,22 +1201,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1194,22 +1245,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1238,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1282,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1326,22 +1377,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1370,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1396,40 +1447,40 @@
         <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
       <c r="E12">
-        <v>13.8205741</v>
+        <v>14.032751</v>
       </c>
       <c r="F12">
-        <v>100.4822683</v>
+        <v>100.166337</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L12" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1449,31 +1500,31 @@
         <v>31</v>
       </c>
       <c r="E13">
-        <v>13.5440411</v>
+        <v>13.8205741</v>
       </c>
       <c r="F13">
-        <v>100.2752457</v>
+        <v>100.4822683</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J13" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1484,7 +1535,7 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <v>44180</v>
@@ -1493,31 +1544,31 @@
         <v>32</v>
       </c>
       <c r="E14">
-        <v>13.6211105</v>
+        <v>13.5440411</v>
       </c>
       <c r="F14">
-        <v>100.4387341</v>
+        <v>100.2752457</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14">
-        <v>0</v>
+      <c r="H14" t="s">
+        <v>95</v>
       </c>
       <c r="I14" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J14" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L14" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1537,31 +1588,31 @@
         <v>33</v>
       </c>
       <c r="E15">
-        <v>13.7731761</v>
+        <v>13.6211105</v>
       </c>
       <c r="F15">
-        <v>100.4851346</v>
+        <v>100.4387341</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15" t="s">
-        <v>81</v>
+      <c r="H15">
+        <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J15" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L15" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1572,7 +1623,7 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2">
         <v>44180</v>
@@ -1581,31 +1632,31 @@
         <v>34</v>
       </c>
       <c r="E16">
-        <v>13.74512653</v>
+        <v>13.7731761</v>
       </c>
       <c r="F16">
-        <v>100.5298302</v>
+        <v>100.4851346</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J16" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L16" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1616,40 +1667,40 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E17">
-        <v>13.8330877</v>
+        <v>13.74512653</v>
       </c>
       <c r="F17">
-        <v>100.499237</v>
+        <v>100.5298302</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="I17" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J17" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L17" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1660,40 +1711,40 @@
         <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18">
-        <v>13.7689441</v>
+        <v>13.812836</v>
       </c>
       <c r="F18">
-        <v>100.5046383</v>
+        <v>100.07</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="I18" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J18" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L18" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1704,40 +1755,40 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
         <v>44181</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E19">
-        <v>13.84341791</v>
+        <v>13.8330877</v>
       </c>
       <c r="F19">
-        <v>100.5419373</v>
+        <v>100.499237</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J19" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L19" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1748,7 +1799,7 @@
         <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
         <v>44181</v>
@@ -1757,31 +1808,31 @@
         <v>37</v>
       </c>
       <c r="E20">
-        <v>13.87694672</v>
+        <v>13.7689441</v>
       </c>
       <c r="F20">
-        <v>100.4115482</v>
+        <v>100.5046383</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I20" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J20" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L20" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1792,40 +1843,40 @@
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
       </c>
       <c r="E21">
-        <v>14.0782451</v>
+        <v>13.84341791</v>
       </c>
       <c r="F21">
-        <v>100.604118</v>
+        <v>100.5419373</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21">
-        <v>0</v>
+      <c r="H21" t="s">
+        <v>97</v>
       </c>
       <c r="I21" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J21" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L21" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1836,40 +1887,40 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
       </c>
       <c r="E22">
-        <v>13.86019768</v>
+        <v>13.87694672</v>
       </c>
       <c r="F22">
-        <v>100.7223304</v>
+        <v>100.4115482</v>
       </c>
       <c r="G22">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J22" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L22" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1880,40 +1931,40 @@
         <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="D23" t="s">
         <v>40</v>
       </c>
       <c r="E23">
-        <v>13.8578211</v>
+        <v>13.964334</v>
       </c>
       <c r="F23">
-        <v>100.4105189</v>
+        <v>100.083426</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="I23" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J23" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K23" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L23" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1933,31 +1984,31 @@
         <v>41</v>
       </c>
       <c r="E24">
-        <v>13.85934159</v>
+        <v>14.0782451</v>
       </c>
       <c r="F24">
-        <v>100.5849015</v>
+        <v>100.604118</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" t="s">
-        <v>81</v>
+      <c r="H24">
+        <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J24" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K24" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L24" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1971,37 +2022,37 @@
         <v>15</v>
       </c>
       <c r="C25" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="D25" t="s">
         <v>42</v>
       </c>
       <c r="E25">
-        <v>13.87779142</v>
+        <v>13.86019768</v>
       </c>
       <c r="F25">
-        <v>100.4215436</v>
+        <v>100.7223304</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="I25" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J25" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K25" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L25" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2012,40 +2063,40 @@
         <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="D26" t="s">
         <v>43</v>
       </c>
       <c r="E26">
-        <v>13.88376994</v>
+        <v>13.8578211</v>
       </c>
       <c r="F26">
-        <v>100.5843207</v>
+        <v>100.4105189</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J26" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K26" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L26" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2059,37 +2110,37 @@
         <v>14</v>
       </c>
       <c r="C27" s="2">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="D27" t="s">
         <v>44</v>
       </c>
       <c r="E27">
-        <v>14.1487352</v>
+        <v>13.85934159</v>
       </c>
       <c r="F27">
-        <v>100.6155778</v>
+        <v>100.5849015</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="I27" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J27" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K27" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L27" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2100,40 +2151,40 @@
         <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="2">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="D28" t="s">
         <v>45</v>
       </c>
       <c r="E28">
-        <v>13.8057625</v>
+        <v>14.119413</v>
       </c>
       <c r="F28">
-        <v>100.6621959</v>
+        <v>100.118335</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I28" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J28" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K28" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L28" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2147,37 +2198,37 @@
         <v>15</v>
       </c>
       <c r="C29" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
       </c>
       <c r="E29">
-        <v>14.01215068</v>
+        <v>13.87779142</v>
       </c>
       <c r="F29">
-        <v>100.17523</v>
+        <v>100.4215436</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I29" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J29" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K29" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L29" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2191,37 +2242,37 @@
         <v>14</v>
       </c>
       <c r="C30" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="D30" t="s">
         <v>47</v>
       </c>
       <c r="E30">
-        <v>13.8134088</v>
+        <v>13.88376994</v>
       </c>
       <c r="F30">
-        <v>100.5616103</v>
+        <v>100.5843207</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="I30" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J30" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K30" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L30" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2235,37 +2286,37 @@
         <v>14</v>
       </c>
       <c r="C31" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="D31" t="s">
         <v>48</v>
       </c>
       <c r="E31">
-        <v>13.816493</v>
+        <v>13.965066</v>
       </c>
       <c r="F31">
-        <v>100.5610062</v>
+        <v>100.07959</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I31" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J31" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K31" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L31" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2279,37 +2330,37 @@
         <v>14</v>
       </c>
       <c r="C32" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="D32" t="s">
         <v>49</v>
       </c>
       <c r="E32">
-        <v>13.7966595</v>
+        <v>14.036373</v>
       </c>
       <c r="F32">
-        <v>100.4755856</v>
+        <v>100.168774</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I32" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J32" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K32" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2320,7 +2371,7 @@
         <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C33" s="2">
         <v>44184</v>
@@ -2329,31 +2380,31 @@
         <v>50</v>
       </c>
       <c r="E33">
-        <v>13.69121688</v>
+        <v>14.1487352</v>
       </c>
       <c r="F33">
-        <v>100.3412194</v>
+        <v>100.6155778</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I33" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J33" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K33" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L33" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2364,40 +2415,40 @@
         <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C34" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D34" t="s">
         <v>51</v>
       </c>
       <c r="E34">
-        <v>13.5579068</v>
+        <v>13.8057625</v>
       </c>
       <c r="F34">
-        <v>100.270829</v>
+        <v>100.6621959</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34">
-        <v>0</v>
+      <c r="H34" t="s">
+        <v>95</v>
       </c>
       <c r="I34" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J34" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2411,37 +2462,37 @@
         <v>15</v>
       </c>
       <c r="C35" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D35" t="s">
         <v>52</v>
       </c>
       <c r="E35">
-        <v>13.7937004</v>
+        <v>14.01215068</v>
       </c>
       <c r="F35">
-        <v>100.6923144</v>
+        <v>100.17523</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="I35" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J35" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L35" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2452,40 +2503,40 @@
         <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C36" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D36" t="s">
         <v>53</v>
       </c>
       <c r="E36">
-        <v>13.5455607</v>
+        <v>13.8134088</v>
       </c>
       <c r="F36">
-        <v>100.2767611</v>
+        <v>100.5616103</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I36" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J36" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K36" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L36" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2496,37 +2547,37 @@
         <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C37" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D37" t="s">
         <v>54</v>
       </c>
       <c r="E37">
-        <v>13.7204469</v>
+        <v>13.816493</v>
       </c>
       <c r="F37">
-        <v>100.5004708</v>
+        <v>100.5610062</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I37" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J37" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K37" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L37" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="M37" s="3" t="s">
         <v>151</v>
@@ -2543,37 +2594,37 @@
         <v>14</v>
       </c>
       <c r="C38" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E38">
-        <v>14.3355326</v>
+        <v>13.7966595</v>
       </c>
       <c r="F38">
-        <v>100.87017</v>
+        <v>100.4755856</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38">
-        <v>0</v>
+      <c r="H38" t="s">
+        <v>95</v>
       </c>
       <c r="I38" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J38" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K38" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L38" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2584,40 +2635,40 @@
         <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C39" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E39">
-        <v>14.5786407</v>
+        <v>13.69121688</v>
       </c>
       <c r="F39">
-        <v>100.9662444</v>
+        <v>100.3412194</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39">
-        <v>0</v>
+      <c r="H39" t="s">
+        <v>95</v>
       </c>
       <c r="I39" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J39" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L39" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2631,37 +2682,37 @@
         <v>14</v>
       </c>
       <c r="C40" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E40">
-        <v>14.5116599</v>
+        <v>13.79584</v>
       </c>
       <c r="F40">
-        <v>100.9094134</v>
+        <v>100.13118</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40">
-        <v>0</v>
+      <c r="H40" t="s">
+        <v>97</v>
       </c>
       <c r="I40" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J40" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2672,19 +2723,19 @@
         <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" s="2">
         <v>44185</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E41">
-        <v>14.1378761</v>
+        <v>13.5579068</v>
       </c>
       <c r="F41">
-        <v>100.8255049</v>
+        <v>100.270829</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2693,19 +2744,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J41" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K41" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L41" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2722,34 +2773,34 @@
         <v>44185</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E42">
-        <v>14.06566869</v>
+        <v>13.7937004</v>
       </c>
       <c r="F42">
-        <v>99.9821468</v>
+        <v>100.6923144</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I42" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J42" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K42" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L42" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2760,40 +2811,40 @@
         <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C43" s="2">
         <v>44185</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E43">
-        <v>13.8220612</v>
+        <v>13.5455607</v>
       </c>
       <c r="F43">
-        <v>100.421874</v>
+        <v>100.2767611</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I43" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J43" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K43" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L43" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2804,40 +2855,40 @@
         <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C44" s="2">
         <v>44185</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E44">
-        <v>13.8683169</v>
+        <v>13.7204469</v>
       </c>
       <c r="F44">
-        <v>100.4107308</v>
+        <v>100.5004708</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I44" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J44" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K44" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L44" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2854,34 +2905,34 @@
         <v>44185</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E45">
-        <v>13.89757086</v>
+        <v>14.3355326</v>
       </c>
       <c r="F45">
-        <v>100.6098027</v>
+        <v>100.87017</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45" t="s">
-        <v>81</v>
+      <c r="H45">
+        <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J45" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K45" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L45" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -2892,40 +2943,40 @@
         <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C46" s="2">
         <v>44185</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E46">
-        <v>13.72045903</v>
+        <v>14.5786407</v>
       </c>
       <c r="F46">
-        <v>100.5004852</v>
+        <v>100.9662444</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46" t="s">
-        <v>80</v>
+      <c r="H46">
+        <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J46" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K46" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L46" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -2936,40 +2987,40 @@
         <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="D47" t="s">
         <v>61</v>
       </c>
       <c r="E47">
-        <v>13.8781452</v>
+        <v>14.5116599</v>
       </c>
       <c r="F47">
-        <v>100.4091302</v>
+        <v>100.9094134</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47" t="s">
-        <v>81</v>
+      <c r="H47">
+        <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J47" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L47" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -2980,40 +3031,40 @@
         <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C48" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="D48" t="s">
         <v>62</v>
       </c>
       <c r="E48">
-        <v>13.7164198</v>
+        <v>14.1378761</v>
       </c>
       <c r="F48">
-        <v>100.5716135</v>
+        <v>100.8255049</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48" t="s">
-        <v>82</v>
+      <c r="H48">
+        <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J48" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K48" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L48" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3024,40 +3075,40 @@
         <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="D49" t="s">
         <v>63</v>
       </c>
       <c r="E49">
-        <v>13.73541413</v>
+        <v>14.06566869</v>
       </c>
       <c r="F49">
-        <v>100.5877998</v>
+        <v>99.9821468</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49">
-        <v>0</v>
+      <c r="H49" t="s">
+        <v>96</v>
       </c>
       <c r="I49" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J49" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K49" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L49" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3068,40 +3119,40 @@
         <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C50" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="D50" t="s">
         <v>64</v>
       </c>
       <c r="E50">
-        <v>13.78766192</v>
+        <v>13.8220612</v>
       </c>
       <c r="F50">
-        <v>100.5105938</v>
+        <v>100.421874</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50">
-        <v>0</v>
+      <c r="H50" t="s">
+        <v>95</v>
       </c>
       <c r="I50" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J50" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K50" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L50" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3112,40 +3163,40 @@
         <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C51" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="D51" t="s">
         <v>65</v>
       </c>
       <c r="E51">
-        <v>13.5951449</v>
+        <v>13.8683169</v>
       </c>
       <c r="F51">
-        <v>100.5802135</v>
+        <v>100.4107308</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="I51" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J51" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K51" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L51" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3156,40 +3207,40 @@
         <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C52" s="2">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="D52" t="s">
         <v>66</v>
       </c>
       <c r="E52">
-        <v>13.7462524</v>
+        <v>13.89757086</v>
       </c>
       <c r="F52">
-        <v>100.5328635</v>
+        <v>100.6098027</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52">
-        <v>0</v>
+      <c r="H52" t="s">
+        <v>96</v>
       </c>
       <c r="I52" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J52" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3200,40 +3251,40 @@
         <v>80</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C53" s="2">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="D53" t="s">
         <v>67</v>
       </c>
       <c r="E53">
-        <v>13.7243591</v>
+        <v>13.72045903</v>
       </c>
       <c r="F53">
-        <v>100.5386589</v>
+        <v>100.5004852</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53">
-        <v>0</v>
+      <c r="H53" t="s">
+        <v>95</v>
       </c>
       <c r="I53" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J53" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K53" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L53" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3244,40 +3295,40 @@
         <v>81</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C54" s="2">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="D54" t="s">
         <v>68</v>
       </c>
       <c r="E54">
-        <v>13.54974685</v>
+        <v>13.817137</v>
       </c>
       <c r="F54">
-        <v>100.2561435</v>
+        <v>100.041497</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I54" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J54" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K54" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L54" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3288,40 +3339,40 @@
         <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C55" s="2">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="D55" t="s">
         <v>69</v>
       </c>
       <c r="E55">
-        <v>14.45160513</v>
+        <v>13.737328</v>
       </c>
       <c r="F55">
-        <v>100.7230585</v>
+        <v>100.081218</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I55" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J55" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K55" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L55" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3332,40 +3383,40 @@
         <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C56" s="2">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="D56" t="s">
         <v>70</v>
       </c>
       <c r="E56">
-        <v>13.72836497</v>
+        <v>14.021384</v>
       </c>
       <c r="F56">
-        <v>100.5350858</v>
+        <v>100.165325</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="I56" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J56" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K56" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L56" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3376,40 +3427,40 @@
         <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" s="2">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="D57" t="s">
         <v>71</v>
       </c>
       <c r="E57">
-        <v>13.7660558</v>
+        <v>13.8781452</v>
       </c>
       <c r="F57">
-        <v>100.6403032</v>
+        <v>100.4091302</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I57" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J57" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K57" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L57" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3423,37 +3474,37 @@
         <v>16</v>
       </c>
       <c r="C58" s="2">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="D58" t="s">
         <v>72</v>
       </c>
       <c r="E58">
-        <v>13.710361</v>
+        <v>13.7164198</v>
       </c>
       <c r="F58">
-        <v>100.4073817</v>
+        <v>100.5716135</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="I58" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J58" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K58" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L58" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3464,19 +3515,19 @@
         <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C59" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D59" t="s">
         <v>73</v>
       </c>
       <c r="E59">
-        <v>13.2054213</v>
+        <v>13.73541413</v>
       </c>
       <c r="F59">
-        <v>99.9793013</v>
+        <v>100.5877998</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -3485,19 +3536,19 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J59" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K59" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L59" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3508,19 +3559,19 @@
         <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C60" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D60" t="s">
         <v>74</v>
       </c>
       <c r="E60">
-        <v>13.7100705</v>
+        <v>13.78766192</v>
       </c>
       <c r="F60">
-        <v>100.6007069</v>
+        <v>100.5105938</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3528,20 +3579,20 @@
       <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
+      <c r="I60" t="s">
+        <v>98</v>
+      </c>
+      <c r="J60" t="s">
+        <v>100</v>
+      </c>
+      <c r="K60" t="s">
+        <v>97</v>
       </c>
       <c r="L60" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3552,40 +3603,40 @@
         <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C61" s="2">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="D61" t="s">
         <v>75</v>
       </c>
       <c r="E61">
-        <v>13.721681</v>
+        <v>13.5951449</v>
       </c>
       <c r="F61">
-        <v>100.53</v>
+        <v>100.5802135</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I61" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J61" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K61" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L61" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3596,40 +3647,40 @@
         <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C62" s="2">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="D62" t="s">
         <v>76</v>
       </c>
       <c r="E62">
-        <v>13.9134431</v>
+        <v>13.803038</v>
       </c>
       <c r="F62">
-        <v>100.4220473</v>
+        <v>100.188902</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I62" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="J62" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K62" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L62" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3640,40 +3691,40 @@
         <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C63" s="2">
-        <v>44191</v>
+        <v>44187</v>
       </c>
       <c r="D63" t="s">
         <v>77</v>
       </c>
       <c r="E63">
-        <v>13.7636001</v>
+        <v>13.802276</v>
       </c>
       <c r="F63">
-        <v>100.5114624</v>
+        <v>100.19</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
+      <c r="H63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J63" t="s">
+        <v>100</v>
       </c>
       <c r="K63" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L63" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3684,19 +3735,19 @@
         <v>91</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C64" s="2">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="D64" t="s">
         <v>78</v>
       </c>
       <c r="E64">
-        <v>13.734066</v>
+        <v>13.7462524</v>
       </c>
       <c r="F64">
-        <v>100.5278354</v>
+        <v>100.5328635</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3704,20 +3755,20 @@
       <c r="H64">
         <v>0</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
+      <c r="I64" t="s">
+        <v>98</v>
+      </c>
+      <c r="J64" t="s">
+        <v>100</v>
+      </c>
+      <c r="K64" t="s">
+        <v>97</v>
       </c>
       <c r="L64" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3728,42 +3779,702 @@
         <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C65" s="2">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="D65" t="s">
         <v>79</v>
       </c>
       <c r="E65">
+        <v>13.7243591</v>
+      </c>
+      <c r="F65">
+        <v>100.5386589</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>98</v>
+      </c>
+      <c r="J65" t="s">
+        <v>100</v>
+      </c>
+      <c r="K65" t="s">
+        <v>97</v>
+      </c>
+      <c r="L65" t="s">
+        <v>137</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66">
+        <v>93</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66">
+        <v>13.54974685</v>
+      </c>
+      <c r="F66">
+        <v>100.2561435</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>95</v>
+      </c>
+      <c r="I66" t="s">
+        <v>98</v>
+      </c>
+      <c r="J66" t="s">
+        <v>100</v>
+      </c>
+      <c r="K66" t="s">
+        <v>97</v>
+      </c>
+      <c r="L66" t="s">
+        <v>138</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67">
+        <v>94</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D67" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67">
+        <v>14.45160513</v>
+      </c>
+      <c r="F67">
+        <v>100.7230585</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>95</v>
+      </c>
+      <c r="I67" t="s">
+        <v>98</v>
+      </c>
+      <c r="J67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K67" t="s">
+        <v>97</v>
+      </c>
+      <c r="L67" t="s">
+        <v>139</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68">
+        <v>95</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D68" t="s">
+        <v>82</v>
+      </c>
+      <c r="E68">
+        <v>13.72836497</v>
+      </c>
+      <c r="F68">
+        <v>100.5350858</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>97</v>
+      </c>
+      <c r="I68" t="s">
+        <v>98</v>
+      </c>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+      <c r="K68" t="s">
+        <v>97</v>
+      </c>
+      <c r="L68" t="s">
+        <v>140</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69">
+        <v>96</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D69" t="s">
+        <v>83</v>
+      </c>
+      <c r="E69">
+        <v>13.7660558</v>
+      </c>
+      <c r="F69">
+        <v>100.6403032</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>97</v>
+      </c>
+      <c r="I69" t="s">
+        <v>98</v>
+      </c>
+      <c r="J69" t="s">
+        <v>100</v>
+      </c>
+      <c r="K69" t="s">
+        <v>97</v>
+      </c>
+      <c r="L69" t="s">
+        <v>141</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70">
+        <v>97</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D70" t="s">
+        <v>84</v>
+      </c>
+      <c r="E70">
+        <v>13.710361</v>
+      </c>
+      <c r="F70">
+        <v>100.4073817</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>97</v>
+      </c>
+      <c r="I70" t="s">
+        <v>98</v>
+      </c>
+      <c r="J70" t="s">
+        <v>100</v>
+      </c>
+      <c r="K70" t="s">
+        <v>97</v>
+      </c>
+      <c r="L70" t="s">
+        <v>142</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71">
+        <v>98</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D71" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71">
+        <v>13.2054213</v>
+      </c>
+      <c r="F71">
+        <v>99.9793013</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+      <c r="K71" t="s">
+        <v>97</v>
+      </c>
+      <c r="L71" t="s">
+        <v>143</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72">
+        <v>99</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D72" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72">
+        <v>13.7100705</v>
+      </c>
+      <c r="F72">
+        <v>100.6007069</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>144</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73">
+        <v>100</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D73" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" t="s">
+        <v>98</v>
+      </c>
+      <c r="J73" t="s">
+        <v>100</v>
+      </c>
+      <c r="K73" t="s">
+        <v>97</v>
+      </c>
+      <c r="L73" t="s">
+        <v>109</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74">
+        <v>101</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D74" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74">
+        <v>13.802283</v>
+      </c>
+      <c r="F74">
+        <v>100.184509</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>97</v>
+      </c>
+      <c r="I74" t="s">
+        <v>98</v>
+      </c>
+      <c r="J74" t="s">
+        <v>100</v>
+      </c>
+      <c r="K74" t="s">
+        <v>97</v>
+      </c>
+      <c r="L74" t="s">
+        <v>109</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75">
+        <v>102</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="2">
+        <v>44189</v>
+      </c>
+      <c r="D75" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75">
+        <v>13.721681</v>
+      </c>
+      <c r="F75">
+        <v>100.53</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>97</v>
+      </c>
+      <c r="I75" t="s">
+        <v>98</v>
+      </c>
+      <c r="J75" t="s">
+        <v>100</v>
+      </c>
+      <c r="K75" t="s">
+        <v>97</v>
+      </c>
+      <c r="L75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76">
+        <v>103</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="2">
+        <v>44189</v>
+      </c>
+      <c r="D76" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76">
+        <v>13.9134431</v>
+      </c>
+      <c r="F76">
+        <v>100.4220473</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>95</v>
+      </c>
+      <c r="I76" t="s">
+        <v>99</v>
+      </c>
+      <c r="J76" t="s">
+        <v>100</v>
+      </c>
+      <c r="K76" t="s">
+        <v>97</v>
+      </c>
+      <c r="L76" t="s">
+        <v>146</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77">
+        <v>104</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="2">
+        <v>44189</v>
+      </c>
+      <c r="D77" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77">
+        <v>13.786588</v>
+      </c>
+      <c r="F77">
+        <v>100.321233</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I77" t="s">
+        <v>98</v>
+      </c>
+      <c r="J77" t="s">
+        <v>100</v>
+      </c>
+      <c r="K77" t="s">
+        <v>97</v>
+      </c>
+      <c r="L77" t="s">
+        <v>109</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78">
+        <v>105</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="2">
+        <v>44191</v>
+      </c>
+      <c r="D78" t="s">
+        <v>92</v>
+      </c>
+      <c r="E78">
+        <v>13.7636001</v>
+      </c>
+      <c r="F78">
+        <v>100.5114624</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>97</v>
+      </c>
+      <c r="L78" t="s">
+        <v>147</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79">
+        <v>106</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="2">
+        <v>44191</v>
+      </c>
+      <c r="D79" t="s">
+        <v>93</v>
+      </c>
+      <c r="E79">
+        <v>13.734066</v>
+      </c>
+      <c r="F79">
+        <v>100.5278354</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>148</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80">
+        <v>107</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="2">
+        <v>44191</v>
+      </c>
+      <c r="D80" t="s">
+        <v>94</v>
+      </c>
+      <c r="E80">
         <v>12.6483736</v>
       </c>
-      <c r="F65">
+      <c r="F80">
         <v>101.2273679</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65" t="s">
-        <v>133</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N65">
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>149</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N80">
         <v>0</v>
       </c>
     </row>
@@ -3808,14 +4519,14 @@
     <hyperlink ref="M38" r:id="rId37"/>
     <hyperlink ref="M39" r:id="rId38"/>
     <hyperlink ref="M40" r:id="rId39"/>
-    <hyperlink ref="M41" r:id="rId40" location="cxrecs_s"/>
+    <hyperlink ref="M41" r:id="rId40"/>
     <hyperlink ref="M42" r:id="rId41"/>
     <hyperlink ref="M43" r:id="rId42"/>
     <hyperlink ref="M44" r:id="rId43"/>
     <hyperlink ref="M45" r:id="rId44"/>
     <hyperlink ref="M46" r:id="rId45"/>
     <hyperlink ref="M47" r:id="rId46"/>
-    <hyperlink ref="M48" r:id="rId47"/>
+    <hyperlink ref="M48" r:id="rId47" location="cxrecs_s"/>
     <hyperlink ref="M49" r:id="rId48"/>
     <hyperlink ref="M50" r:id="rId49"/>
     <hyperlink ref="M51" r:id="rId50"/>
@@ -3833,6 +4544,21 @@
     <hyperlink ref="M63" r:id="rId62"/>
     <hyperlink ref="M64" r:id="rId63"/>
     <hyperlink ref="M65" r:id="rId64"/>
+    <hyperlink ref="M66" r:id="rId65"/>
+    <hyperlink ref="M67" r:id="rId66"/>
+    <hyperlink ref="M68" r:id="rId67"/>
+    <hyperlink ref="M69" r:id="rId68"/>
+    <hyperlink ref="M70" r:id="rId69"/>
+    <hyperlink ref="M71" r:id="rId70"/>
+    <hyperlink ref="M72" r:id="rId71"/>
+    <hyperlink ref="M73" r:id="rId72"/>
+    <hyperlink ref="M74" r:id="rId73"/>
+    <hyperlink ref="M75" r:id="rId74"/>
+    <hyperlink ref="M76" r:id="rId75"/>
+    <hyperlink ref="M77" r:id="rId76"/>
+    <hyperlink ref="M78" r:id="rId77"/>
+    <hyperlink ref="M79" r:id="rId78"/>
+    <hyperlink ref="M80" r:id="rId79"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="178">
   <si>
     <t>id</t>
   </si>
@@ -61,39 +61,21 @@
     <t>patient_has_been_here</t>
   </si>
   <si>
+    <t>sanitized</t>
+  </si>
+  <si>
+    <t>sanitizing</t>
+  </si>
+  <si>
     <t>unspecified_location</t>
   </si>
   <si>
-    <t>sanitized</t>
-  </si>
-  <si>
-    <t>sanitizing</t>
-  </si>
-  <si>
     <t>confirmed</t>
   </si>
   <si>
     <t>suspected</t>
   </si>
   <si>
-    <t>ห้างแพลตตินัม</t>
-  </si>
-  <si>
-    <t>ตลาดอินดี้ ดาวคะนอง</t>
-  </si>
-  <si>
-    <t>Central World</t>
-  </si>
-  <si>
-    <t>ร้านกาแฟใกล้สถานีราชเทวี</t>
-  </si>
-  <si>
-    <t>สยามคูโบต้า นวนคร</t>
-  </si>
-  <si>
-    <t>บิ๊กซี สาขานวนคร</t>
-  </si>
-  <si>
     <t>สยามสแควร์วัน</t>
   </si>
   <si>
@@ -304,12 +286,12 @@
     <t>female</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>Thai</t>
   </si>
   <si>
@@ -319,18 +301,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>เคสบุคลากร สวทช. ติดโควิด-19 ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 13 ธ.ค. เวลา 12.00 น. ขึ้นบีทีเอสจากสถานีห้าแยกลาดพร้าว ไปลง สถานีราชเทวี และไปร้านกาแฟใกล้สถานี </t>
-  </si>
-  <si>
-    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20 13 ธ.ค. นัดคุยงานกับลูกค้าที่บริษัทคูโบต้า นวนคร</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20 13 ธ.ค. แวะบิ๊กซี สาขานวนคร เพื่อเปลี่ยนชุด</t>
-  </si>
-  <si>
     <t>เคสเจ้าของร้านอาหารติดโควิด มีประวัติไปแพกุ้ง จ.สมุทรสาคร</t>
   </si>
   <si>
@@ -466,46 +436,46 @@
     <t>ระยองพบติดเชื้อโควิดเพิ่ม 37 ราย จากบ่อนพนันในอ.เมืองระยอง และมาบตาพุด</t>
   </si>
   <si>
+    <t>https://www.facebook.com/SomsakPuOb/photos/a.237834942950311/3554401867960252/?type=3</t>
+  </si>
+  <si>
+    <t>https://www.matichon.co.th/social/news_2495701</t>
+  </si>
+  <si>
+    <t>https://www.dailynews.co.th/regional/814235</t>
+  </si>
+  <si>
+    <t>https://mgronline.com/onlinesection/detail/9630000130287</t>
+  </si>
+  <si>
+    <t>https://m.facebook.com/story.php?story_fbid=3200886696679973&amp;id=246608695441136&amp;sfnsn=mo</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/central/1999153</t>
+  </si>
+  <si>
     <t>https://liff.line.me/1454988218-NjbXbq18/v2/article/jpyamK?utm_source=copyshare</t>
   </si>
   <si>
+    <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/mbkcenterth/posts/3939890189363487</t>
+  </si>
+  <si>
+    <t>https://www.dailynews.co.th/regional/814463</t>
+  </si>
+  <si>
+    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2500853</t>
+  </si>
+  <si>
+    <t>https://www.pptvhd36.com/news/%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%94%E0%B9%87%E0%B8%99%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99/138903</t>
+  </si>
+  <si>
+    <t>https://www.dailynews.co.th/regional/814914</t>
+  </si>
+  <si>
     <t>https://www.khaosod.co.th/breaking-news/news_5591909</t>
-  </si>
-  <si>
-    <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SomsakPuOb/photos/a.237834942950311/3554401867960252/?type=3</t>
-  </si>
-  <si>
-    <t>https://www.matichon.co.th/social/news_2495701</t>
-  </si>
-  <si>
-    <t>https://www.dailynews.co.th/regional/814235</t>
-  </si>
-  <si>
-    <t>https://mgronline.com/onlinesection/detail/9630000130287</t>
-  </si>
-  <si>
-    <t>https://m.facebook.com/story.php?story_fbid=3200886696679973&amp;id=246608695441136&amp;sfnsn=mo</t>
-  </si>
-  <si>
-    <t>https://www.thairath.co.th/news/local/central/1999153</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/mbkcenterth/posts/3939890189363487</t>
-  </si>
-  <si>
-    <t>https://www.dailynews.co.th/regional/814463</t>
-  </si>
-  <si>
-    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2500853</t>
-  </si>
-  <si>
-    <t>https://www.pptvhd36.com/news/%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%94%E0%B9%87%E0%B8%99%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99/138903</t>
-  </si>
-  <si>
-    <t>https://www.dailynews.co.th/regional/814914</t>
   </si>
   <si>
     <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
@@ -952,7 +922,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1004,43 +974,43 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>13.7499881</v>
+        <v>13.7449539</v>
       </c>
       <c r="F2">
-        <v>100.5393128</v>
+        <v>100.5339095</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0</v>
+      <c r="H2" t="s">
+        <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1048,43 +1018,43 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>13.6910012</v>
+        <v>13.7446331</v>
       </c>
       <c r="F3">
-        <v>100.4802337</v>
+        <v>100.5335668</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>0</v>
+      <c r="H3" t="s">
+        <v>89</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1092,43 +1062,43 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>13.7468252</v>
+        <v>13.74492074</v>
       </c>
       <c r="F4">
-        <v>100.538941</v>
+        <v>100.5342369</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>0</v>
+      <c r="H4" t="s">
+        <v>89</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" t="s">
         <v>97</v>
       </c>
-      <c r="L4" t="s">
-        <v>101</v>
-      </c>
       <c r="M4" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1136,43 +1106,43 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>13.7519927</v>
+        <v>13.74491756</v>
       </c>
       <c r="F5">
-        <v>100.5293886</v>
+        <v>100.5342154</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" t="s">
         <v>98</v>
       </c>
-      <c r="J5" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L5" t="s">
-        <v>102</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1180,43 +1150,43 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>14.1246719</v>
+        <v>14.032751</v>
       </c>
       <c r="F6">
-        <v>100.603357</v>
+        <v>100.166337</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1224,43 +1194,43 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
-        <v>44178</v>
+        <v>44180</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>14.1152336</v>
+        <v>13.8205741</v>
       </c>
       <c r="F7">
-        <v>100.6005268</v>
+        <v>100.4822683</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
         <v>100</v>
       </c>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" t="s">
-        <v>104</v>
-      </c>
       <c r="M7" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1268,43 +1238,43 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>44179</v>
+        <v>44180</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8">
-        <v>13.7449539</v>
+        <v>13.5440411</v>
       </c>
       <c r="F8">
-        <v>100.5339095</v>
+        <v>100.2752457</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
         <v>95</v>
       </c>
-      <c r="I8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" t="s">
-        <v>105</v>
-      </c>
       <c r="M8" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1312,43 +1282,43 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
-        <v>44179</v>
+        <v>44180</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
       </c>
       <c r="E9">
-        <v>13.7446331</v>
+        <v>13.6211105</v>
       </c>
       <c r="F9">
-        <v>100.5335668</v>
+        <v>100.4387341</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
-        <v>95</v>
+      <c r="H9">
+        <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1356,43 +1326,43 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2">
-        <v>44179</v>
+        <v>44180</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
       <c r="E10">
-        <v>13.74492074</v>
+        <v>13.7731761</v>
       </c>
       <c r="F10">
-        <v>100.5342369</v>
+        <v>100.4851346</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1400,43 +1370,43 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2">
-        <v>44179</v>
+        <v>44180</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
       <c r="E11">
-        <v>13.74491756</v>
+        <v>13.74512653</v>
       </c>
       <c r="F11">
-        <v>100.5342154</v>
+        <v>100.5298302</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1444,43 +1414,43 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>44179</v>
+        <v>44180</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
       <c r="E12">
-        <v>14.032751</v>
+        <v>13.812836</v>
       </c>
       <c r="F12">
-        <v>100.166337</v>
+        <v>100.07</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1488,43 +1458,43 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>13.8205741</v>
+        <v>13.8330877</v>
       </c>
       <c r="F13">
-        <v>100.4822683</v>
+        <v>100.499237</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" t="s">
         <v>100</v>
       </c>
-      <c r="K13" t="s">
-        <v>97</v>
-      </c>
-      <c r="L13" t="s">
-        <v>110</v>
-      </c>
       <c r="M13" s="3" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1532,43 +1502,43 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14">
-        <v>13.5440411</v>
+        <v>13.7689441</v>
       </c>
       <c r="F14">
-        <v>100.2752457</v>
+        <v>100.5046383</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K14" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1576,43 +1546,43 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15">
-        <v>13.6211105</v>
+        <v>13.84341791</v>
       </c>
       <c r="F15">
-        <v>100.4387341</v>
+        <v>100.5419373</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15">
-        <v>0</v>
+      <c r="H15" t="s">
+        <v>90</v>
       </c>
       <c r="I15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K15" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L15" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1620,43 +1590,43 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16">
-        <v>13.7731761</v>
+        <v>13.87694672</v>
       </c>
       <c r="F16">
-        <v>100.4851346</v>
+        <v>100.4115482</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L16" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1664,43 +1634,43 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17">
-        <v>13.74512653</v>
+        <v>13.964334</v>
       </c>
       <c r="F17">
-        <v>100.5298302</v>
+        <v>100.083426</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J17" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K17" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L17" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1708,43 +1678,43 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="2">
-        <v>44180</v>
+        <v>44182</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18">
-        <v>13.812836</v>
+        <v>14.0782451</v>
       </c>
       <c r="F18">
-        <v>100.07</v>
+        <v>100.604118</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18" t="s">
-        <v>97</v>
+      <c r="H18">
+        <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J18" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K18" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1752,43 +1722,43 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E19">
-        <v>13.8330877</v>
+        <v>13.86019768</v>
       </c>
       <c r="F19">
-        <v>100.499237</v>
+        <v>100.7223304</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1796,43 +1766,43 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="D20" t="s">
         <v>37</v>
       </c>
       <c r="E20">
-        <v>13.7689441</v>
+        <v>13.8578211</v>
       </c>
       <c r="F20">
-        <v>100.5046383</v>
+        <v>100.4105189</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K20" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L20" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1840,43 +1810,43 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
       </c>
       <c r="E21">
-        <v>13.84341791</v>
+        <v>13.85934159</v>
       </c>
       <c r="F21">
-        <v>100.5419373</v>
+        <v>100.5849015</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1884,43 +1854,43 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
       </c>
       <c r="E22">
-        <v>13.87694672</v>
+        <v>14.119413</v>
       </c>
       <c r="F22">
-        <v>100.4115482</v>
+        <v>100.118335</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I22" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J22" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L22" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1928,43 +1898,43 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
-        <v>44181</v>
+        <v>44183</v>
       </c>
       <c r="D23" t="s">
         <v>40</v>
       </c>
       <c r="E23">
-        <v>13.964334</v>
+        <v>13.87779142</v>
       </c>
       <c r="F23">
-        <v>100.083426</v>
+        <v>100.4215436</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I23" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J23" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K23" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L23" t="s">
         <v>109</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1972,43 +1942,43 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D24" t="s">
         <v>41</v>
       </c>
       <c r="E24">
-        <v>14.0782451</v>
+        <v>13.88376994</v>
       </c>
       <c r="F24">
-        <v>100.604118</v>
+        <v>100.5843207</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24">
-        <v>0</v>
+      <c r="H24" t="s">
+        <v>91</v>
       </c>
       <c r="I24" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J24" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K24" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L24" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2016,43 +1986,43 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D25" t="s">
         <v>42</v>
       </c>
       <c r="E25">
-        <v>13.86019768</v>
+        <v>13.965066</v>
       </c>
       <c r="F25">
-        <v>100.7223304</v>
+        <v>100.07959</v>
       </c>
       <c r="G25">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I25" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J25" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K25" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L25" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2060,43 +2030,43 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D26" t="s">
         <v>43</v>
       </c>
       <c r="E26">
-        <v>13.8578211</v>
+        <v>14.036373</v>
       </c>
       <c r="F26">
-        <v>100.4105189</v>
+        <v>100.168774</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J26" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K26" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L26" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2104,43 +2074,43 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="2">
-        <v>44182</v>
+        <v>44184</v>
       </c>
       <c r="D27" t="s">
         <v>44</v>
       </c>
       <c r="E27">
-        <v>13.85934159</v>
+        <v>14.1487352</v>
       </c>
       <c r="F27">
-        <v>100.5849015</v>
+        <v>100.6155778</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I27" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J27" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K27" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L27" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2148,43 +2118,43 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>44182</v>
+        <v>44184</v>
       </c>
       <c r="D28" t="s">
         <v>45</v>
       </c>
       <c r="E28">
-        <v>14.119413</v>
+        <v>13.8057625</v>
       </c>
       <c r="F28">
-        <v>100.118335</v>
+        <v>100.6621959</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I28" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J28" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" t="s">
+        <v>90</v>
+      </c>
+      <c r="L28" t="s">
         <v>100</v>
       </c>
-      <c r="K28" t="s">
-        <v>97</v>
-      </c>
-      <c r="L28" t="s">
-        <v>109</v>
-      </c>
       <c r="M28" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2192,43 +2162,43 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
       </c>
       <c r="E29">
-        <v>13.87779142</v>
+        <v>14.01215068</v>
       </c>
       <c r="F29">
-        <v>100.4215436</v>
+        <v>100.17523</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J29" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K29" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L29" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2236,43 +2206,43 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D30" t="s">
         <v>47</v>
       </c>
       <c r="E30">
-        <v>13.88376994</v>
+        <v>13.8134088</v>
       </c>
       <c r="F30">
-        <v>100.5843207</v>
+        <v>100.5616103</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J30" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K30" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L30" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2280,43 +2250,43 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D31" t="s">
         <v>48</v>
       </c>
       <c r="E31">
-        <v>13.965066</v>
+        <v>13.816493</v>
       </c>
       <c r="F31">
-        <v>100.07959</v>
+        <v>100.5610062</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I31" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J31" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L31" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2324,43 +2294,43 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D32" t="s">
         <v>49</v>
       </c>
       <c r="E32">
-        <v>14.036373</v>
+        <v>13.7966595</v>
       </c>
       <c r="F32">
-        <v>100.168774</v>
+        <v>100.4755856</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I32" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J32" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K32" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L32" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2368,10 +2338,10 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C33" s="2">
         <v>44184</v>
@@ -2380,31 +2350,31 @@
         <v>50</v>
       </c>
       <c r="E33">
-        <v>14.1487352</v>
+        <v>13.69121688</v>
       </c>
       <c r="F33">
-        <v>100.6155778</v>
+        <v>100.3412194</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J33" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K33" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L33" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2412,10 +2382,10 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="2">
         <v>44184</v>
@@ -2424,31 +2394,31 @@
         <v>51</v>
       </c>
       <c r="E34">
-        <v>13.8057625</v>
+        <v>13.79584</v>
       </c>
       <c r="F34">
-        <v>100.6621959</v>
+        <v>100.13118</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I34" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J34" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K34" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L34" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2456,43 +2426,43 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C35" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D35" t="s">
         <v>52</v>
       </c>
       <c r="E35">
-        <v>14.01215068</v>
+        <v>13.5579068</v>
       </c>
       <c r="F35">
-        <v>100.17523</v>
+        <v>100.270829</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35" t="s">
-        <v>96</v>
+      <c r="H35">
+        <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J35" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L35" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2500,43 +2470,43 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C36" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D36" t="s">
         <v>53</v>
       </c>
       <c r="E36">
-        <v>13.8134088</v>
+        <v>13.7937004</v>
       </c>
       <c r="F36">
-        <v>100.5616103</v>
+        <v>100.6923144</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J36" t="s">
+        <v>94</v>
+      </c>
+      <c r="K36" t="s">
+        <v>90</v>
+      </c>
+      <c r="L36" t="s">
         <v>100</v>
       </c>
-      <c r="K36" t="s">
-        <v>97</v>
-      </c>
-      <c r="L36" t="s">
-        <v>122</v>
-      </c>
       <c r="M36" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2544,43 +2514,43 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C37" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D37" t="s">
         <v>54</v>
       </c>
       <c r="E37">
-        <v>13.816493</v>
+        <v>13.5455607</v>
       </c>
       <c r="F37">
-        <v>100.5610062</v>
+        <v>100.2767611</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I37" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J37" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K37" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L37" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2588,43 +2558,43 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C38" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D38" t="s">
         <v>55</v>
       </c>
       <c r="E38">
-        <v>13.7966595</v>
+        <v>13.7204469</v>
       </c>
       <c r="F38">
-        <v>100.4755856</v>
+        <v>100.5004708</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38" t="s">
+        <v>92</v>
+      </c>
+      <c r="J38" t="s">
+        <v>94</v>
+      </c>
+      <c r="K38" t="s">
+        <v>90</v>
+      </c>
+      <c r="L38" t="s">
         <v>95</v>
       </c>
-      <c r="I38" t="s">
-        <v>98</v>
-      </c>
-      <c r="J38" t="s">
-        <v>100</v>
-      </c>
-      <c r="K38" t="s">
-        <v>97</v>
-      </c>
-      <c r="L38" t="s">
-        <v>123</v>
-      </c>
       <c r="M38" s="3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2632,43 +2602,43 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C39" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E39">
-        <v>13.69121688</v>
+        <v>14.3355326</v>
       </c>
       <c r="F39">
-        <v>100.3412194</v>
+        <v>100.87017</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39" t="s">
-        <v>95</v>
+      <c r="H39">
+        <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J39" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K39" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L39" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2676,43 +2646,43 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
       </c>
       <c r="C40" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E40">
-        <v>13.79584</v>
+        <v>14.5786407</v>
       </c>
       <c r="F40">
-        <v>100.13118</v>
+        <v>100.9662444</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40" t="s">
-        <v>97</v>
+      <c r="H40">
+        <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J40" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K40" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L40" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2720,22 +2690,22 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C41" s="2">
         <v>44185</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E41">
-        <v>13.5579068</v>
+        <v>14.5116599</v>
       </c>
       <c r="F41">
-        <v>100.270829</v>
+        <v>100.9094134</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2744,19 +2714,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J41" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L41" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2764,43 +2734,43 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C42" s="2">
         <v>44185</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E42">
-        <v>13.7937004</v>
+        <v>14.1378761</v>
       </c>
       <c r="F42">
-        <v>100.6923144</v>
+        <v>100.8255049</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42" t="s">
-        <v>95</v>
+      <c r="H42">
+        <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J42" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K42" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L42" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2808,43 +2778,43 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" s="2">
         <v>44185</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E43">
-        <v>13.5455607</v>
+        <v>14.06566869</v>
       </c>
       <c r="F43">
-        <v>100.2767611</v>
+        <v>99.9821468</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I43" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J43" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K43" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L43" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2852,43 +2822,43 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C44" s="2">
         <v>44185</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E44">
-        <v>13.7204469</v>
+        <v>13.8220612</v>
       </c>
       <c r="F44">
-        <v>100.5004708</v>
+        <v>100.421874</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J44" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L44" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2896,43 +2866,43 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C45" s="2">
         <v>44185</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E45">
-        <v>14.3355326</v>
+        <v>13.8683169</v>
       </c>
       <c r="F45">
-        <v>100.87017</v>
+        <v>100.4107308</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45">
-        <v>0</v>
+      <c r="H45" t="s">
+        <v>91</v>
       </c>
       <c r="I45" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J45" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L45" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -2940,7 +2910,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -2949,34 +2919,34 @@
         <v>44185</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E46">
-        <v>14.5786407</v>
+        <v>13.89757086</v>
       </c>
       <c r="F46">
-        <v>100.9662444</v>
+        <v>100.6098027</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46">
-        <v>0</v>
+      <c r="H46" t="s">
+        <v>91</v>
       </c>
       <c r="I46" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J46" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K46" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L46" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -2984,10 +2954,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C47" s="2">
         <v>44185</v>
@@ -2996,31 +2966,31 @@
         <v>61</v>
       </c>
       <c r="E47">
-        <v>14.5116599</v>
+        <v>13.72045903</v>
       </c>
       <c r="F47">
-        <v>100.9094134</v>
+        <v>100.5004852</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47">
-        <v>0</v>
+      <c r="H47" t="s">
+        <v>89</v>
       </c>
       <c r="I47" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J47" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K47" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L47" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3028,10 +2998,10 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C48" s="2">
         <v>44185</v>
@@ -3040,31 +3010,31 @@
         <v>62</v>
       </c>
       <c r="E48">
-        <v>14.1378761</v>
+        <v>13.817137</v>
       </c>
       <c r="F48">
-        <v>100.8255049</v>
+        <v>100.041497</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48">
-        <v>0</v>
+      <c r="H48" t="s">
+        <v>90</v>
       </c>
       <c r="I48" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J48" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K48" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L48" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3072,10 +3042,10 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" s="2">
         <v>44185</v>
@@ -3084,31 +3054,31 @@
         <v>63</v>
       </c>
       <c r="E49">
-        <v>14.06566869</v>
+        <v>13.737328</v>
       </c>
       <c r="F49">
-        <v>99.9821468</v>
+        <v>100.081218</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I49" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K49" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L49" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3116,10 +3086,10 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C50" s="2">
         <v>44185</v>
@@ -3128,31 +3098,31 @@
         <v>64</v>
       </c>
       <c r="E50">
-        <v>13.8220612</v>
+        <v>14.021384</v>
       </c>
       <c r="F50">
-        <v>100.421874</v>
+        <v>100.165325</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I50" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J50" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K50" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L50" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3160,43 +3130,43 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C51" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D51" t="s">
         <v>65</v>
       </c>
       <c r="E51">
-        <v>13.8683169</v>
+        <v>13.8781452</v>
       </c>
       <c r="F51">
-        <v>100.4107308</v>
+        <v>100.4091302</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I51" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J51" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K51" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L51" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3204,43 +3174,43 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C52" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D52" t="s">
         <v>66</v>
       </c>
       <c r="E52">
-        <v>13.89757086</v>
+        <v>13.7164198</v>
       </c>
       <c r="F52">
-        <v>100.6098027</v>
+        <v>100.5716135</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I52" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J52" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K52" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L52" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3248,43 +3218,43 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C53" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="D53" t="s">
         <v>67</v>
       </c>
       <c r="E53">
-        <v>13.72045903</v>
+        <v>13.73541413</v>
       </c>
       <c r="F53">
-        <v>100.5004852</v>
+        <v>100.5877998</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53" t="s">
-        <v>95</v>
+      <c r="H53">
+        <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J53" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K53" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3292,43 +3262,43 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
       </c>
       <c r="C54" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="D54" t="s">
         <v>68</v>
       </c>
       <c r="E54">
-        <v>13.817137</v>
+        <v>13.78766192</v>
       </c>
       <c r="F54">
-        <v>100.041497</v>
+        <v>100.5105938</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="H54" t="s">
-        <v>97</v>
+      <c r="H54">
+        <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J54" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K54" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L54" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3336,43 +3306,43 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C55" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="D55" t="s">
         <v>69</v>
       </c>
       <c r="E55">
-        <v>13.737328</v>
+        <v>13.5951449</v>
       </c>
       <c r="F55">
-        <v>100.081218</v>
+        <v>100.5802135</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I55" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J55" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K55" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L55" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3380,43 +3350,43 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="D56" t="s">
         <v>70</v>
       </c>
       <c r="E56">
-        <v>14.021384</v>
+        <v>13.803038</v>
       </c>
       <c r="F56">
-        <v>100.165325</v>
+        <v>100.188902</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I56" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J56" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K56" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L56" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3424,43 +3394,43 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D57" t="s">
         <v>71</v>
       </c>
       <c r="E57">
-        <v>13.8781452</v>
+        <v>13.802276</v>
       </c>
       <c r="F57">
-        <v>100.4091302</v>
+        <v>100.19</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I57" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J57" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K57" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L57" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3468,43 +3438,43 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" s="2">
-        <v>44186</v>
+        <v>44188</v>
       </c>
       <c r="D58" t="s">
         <v>72</v>
       </c>
       <c r="E58">
-        <v>13.7164198</v>
+        <v>13.7462524</v>
       </c>
       <c r="F58">
-        <v>100.5716135</v>
+        <v>100.5328635</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58" t="s">
-        <v>97</v>
+      <c r="H58">
+        <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J58" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K58" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L58" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3512,22 +3482,22 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C59" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D59" t="s">
         <v>73</v>
       </c>
       <c r="E59">
-        <v>13.73541413</v>
+        <v>13.7243591</v>
       </c>
       <c r="F59">
-        <v>100.5877998</v>
+        <v>100.5386589</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -3536,19 +3506,19 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J59" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K59" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L59" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3556,43 +3526,43 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C60" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D60" t="s">
         <v>74</v>
       </c>
       <c r="E60">
-        <v>13.78766192</v>
+        <v>13.54974685</v>
       </c>
       <c r="F60">
-        <v>100.5105938</v>
+        <v>100.2561435</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60">
-        <v>0</v>
+      <c r="H60" t="s">
+        <v>89</v>
       </c>
       <c r="I60" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J60" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K60" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L60" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3600,43 +3570,43 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C61" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D61" t="s">
         <v>75</v>
       </c>
       <c r="E61">
-        <v>13.5951449</v>
+        <v>14.45160513</v>
       </c>
       <c r="F61">
-        <v>100.5802135</v>
+        <v>100.7230585</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I61" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J61" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K61" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L61" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3644,43 +3614,43 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C62" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D62" t="s">
         <v>76</v>
       </c>
       <c r="E62">
-        <v>13.803038</v>
+        <v>13.72836497</v>
       </c>
       <c r="F62">
-        <v>100.188902</v>
+        <v>100.5350858</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I62" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J62" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K62" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L62" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3688,43 +3658,43 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C63" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D63" t="s">
         <v>77</v>
       </c>
       <c r="E63">
-        <v>13.802276</v>
+        <v>13.7660558</v>
       </c>
       <c r="F63">
-        <v>100.19</v>
+        <v>100.6403032</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I63" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J63" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K63" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L63" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3732,10 +3702,10 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64" s="2">
         <v>44188</v>
@@ -3744,31 +3714,31 @@
         <v>78</v>
       </c>
       <c r="E64">
-        <v>13.7462524</v>
+        <v>13.710361</v>
       </c>
       <c r="F64">
-        <v>100.5328635</v>
+        <v>100.4073817</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64">
-        <v>0</v>
+      <c r="H64" t="s">
+        <v>90</v>
       </c>
       <c r="I64" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J64" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K64" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L64" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3776,10 +3746,10 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C65" s="2">
         <v>44188</v>
@@ -3788,10 +3758,10 @@
         <v>79</v>
       </c>
       <c r="E65">
-        <v>13.7243591</v>
+        <v>13.2054213</v>
       </c>
       <c r="F65">
-        <v>100.5386589</v>
+        <v>99.9793013</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -3800,19 +3770,19 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J65" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K65" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L65" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -3820,10 +3790,10 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C66" s="2">
         <v>44188</v>
@@ -3832,31 +3802,31 @@
         <v>80</v>
       </c>
       <c r="E66">
-        <v>13.54974685</v>
+        <v>13.7100705</v>
       </c>
       <c r="F66">
-        <v>100.2561435</v>
+        <v>100.6007069</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66" t="s">
-        <v>95</v>
-      </c>
-      <c r="I66" t="s">
-        <v>98</v>
-      </c>
-      <c r="J66" t="s">
-        <v>100</v>
-      </c>
-      <c r="K66" t="s">
-        <v>97</v>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -3864,10 +3834,10 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C67" s="2">
         <v>44188</v>
@@ -3876,31 +3846,31 @@
         <v>81</v>
       </c>
       <c r="E67">
-        <v>14.45160513</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>100.7230585</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I67" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J67" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K67" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L67" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -3908,10 +3878,10 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C68" s="2">
         <v>44188</v>
@@ -3920,31 +3890,31 @@
         <v>82</v>
       </c>
       <c r="E68">
-        <v>13.72836497</v>
+        <v>13.802283</v>
       </c>
       <c r="F68">
-        <v>100.5350858</v>
+        <v>100.184509</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I68" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J68" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K68" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L68" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -3952,43 +3922,43 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C69" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D69" t="s">
         <v>83</v>
       </c>
       <c r="E69">
-        <v>13.7660558</v>
+        <v>13.721681</v>
       </c>
       <c r="F69">
-        <v>100.6403032</v>
+        <v>100.53</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I69" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J69" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K69" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L69" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -3996,43 +3966,43 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C70" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D70" t="s">
         <v>84</v>
       </c>
       <c r="E70">
-        <v>13.710361</v>
+        <v>13.9134431</v>
       </c>
       <c r="F70">
-        <v>100.4073817</v>
+        <v>100.4220473</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I70" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J70" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K70" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L70" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4040,43 +4010,43 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C71" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D71" t="s">
         <v>85</v>
       </c>
       <c r="E71">
-        <v>13.2054213</v>
+        <v>13.786588</v>
       </c>
       <c r="F71">
-        <v>99.9793013</v>
+        <v>100.321233</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71">
-        <v>0</v>
+      <c r="H71" t="s">
+        <v>90</v>
       </c>
       <c r="I71" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J71" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K71" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L71" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4084,22 +4054,22 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C72" s="2">
-        <v>44188</v>
+        <v>44191</v>
       </c>
       <c r="D72" t="s">
         <v>86</v>
       </c>
       <c r="E72">
-        <v>13.7100705</v>
+        <v>13.7636001</v>
       </c>
       <c r="F72">
-        <v>100.6007069</v>
+        <v>100.5114624</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -4113,14 +4083,14 @@
       <c r="J72">
         <v>0</v>
       </c>
-      <c r="K72">
-        <v>0</v>
+      <c r="K72" t="s">
+        <v>90</v>
       </c>
       <c r="L72" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4128,43 +4098,43 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C73" s="2">
-        <v>44188</v>
+        <v>44191</v>
       </c>
       <c r="D73" t="s">
         <v>87</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>13.734066</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>100.5278354</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73" t="s">
-        <v>97</v>
-      </c>
-      <c r="I73" t="s">
-        <v>98</v>
-      </c>
-      <c r="J73" t="s">
-        <v>100</v>
-      </c>
-      <c r="K73" t="s">
-        <v>97</v>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4172,309 +4142,45 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C74" s="2">
-        <v>44188</v>
+        <v>44191</v>
       </c>
       <c r="D74" t="s">
         <v>88</v>
       </c>
       <c r="E74">
-        <v>13.802283</v>
+        <v>12.6483736</v>
       </c>
       <c r="F74">
-        <v>100.184509</v>
+        <v>101.2273679</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="H74" t="s">
-        <v>97</v>
-      </c>
-      <c r="I74" t="s">
-        <v>98</v>
-      </c>
-      <c r="J74" t="s">
-        <v>100</v>
-      </c>
-      <c r="K74" t="s">
-        <v>97</v>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="N74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75">
-        <v>102</v>
-      </c>
-      <c r="B75" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" s="2">
-        <v>44189</v>
-      </c>
-      <c r="D75" t="s">
-        <v>89</v>
-      </c>
-      <c r="E75">
-        <v>13.721681</v>
-      </c>
-      <c r="F75">
-        <v>100.53</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75" t="s">
-        <v>97</v>
-      </c>
-      <c r="I75" t="s">
-        <v>98</v>
-      </c>
-      <c r="J75" t="s">
-        <v>100</v>
-      </c>
-      <c r="K75" t="s">
-        <v>97</v>
-      </c>
-      <c r="L75" t="s">
-        <v>145</v>
-      </c>
-      <c r="M75" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76">
-        <v>103</v>
-      </c>
-      <c r="B76" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="2">
-        <v>44189</v>
-      </c>
-      <c r="D76" t="s">
-        <v>90</v>
-      </c>
-      <c r="E76">
-        <v>13.9134431</v>
-      </c>
-      <c r="F76">
-        <v>100.4220473</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76" t="s">
-        <v>95</v>
-      </c>
-      <c r="I76" t="s">
-        <v>99</v>
-      </c>
-      <c r="J76" t="s">
-        <v>100</v>
-      </c>
-      <c r="K76" t="s">
-        <v>97</v>
-      </c>
-      <c r="L76" t="s">
-        <v>146</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77">
-        <v>104</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" s="2">
-        <v>44189</v>
-      </c>
-      <c r="D77" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77">
-        <v>13.786588</v>
-      </c>
-      <c r="F77">
-        <v>100.321233</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77" t="s">
-        <v>97</v>
-      </c>
-      <c r="I77" t="s">
-        <v>98</v>
-      </c>
-      <c r="J77" t="s">
-        <v>100</v>
-      </c>
-      <c r="K77" t="s">
-        <v>97</v>
-      </c>
-      <c r="L77" t="s">
-        <v>109</v>
-      </c>
-      <c r="M77" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78">
-        <v>105</v>
-      </c>
-      <c r="B78" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="2">
-        <v>44191</v>
-      </c>
-      <c r="D78" t="s">
-        <v>92</v>
-      </c>
-      <c r="E78">
-        <v>13.7636001</v>
-      </c>
-      <c r="F78">
-        <v>100.5114624</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78" t="s">
-        <v>97</v>
-      </c>
-      <c r="L78" t="s">
-        <v>147</v>
-      </c>
-      <c r="M78" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79">
-        <v>106</v>
-      </c>
-      <c r="B79" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" s="2">
-        <v>44191</v>
-      </c>
-      <c r="D79" t="s">
-        <v>93</v>
-      </c>
-      <c r="E79">
-        <v>13.734066</v>
-      </c>
-      <c r="F79">
-        <v>100.5278354</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79" t="s">
-        <v>148</v>
-      </c>
-      <c r="M79" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80">
-        <v>107</v>
-      </c>
-      <c r="B80" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="2">
-        <v>44191</v>
-      </c>
-      <c r="D80" t="s">
-        <v>94</v>
-      </c>
-      <c r="E80">
-        <v>12.6483736</v>
-      </c>
-      <c r="F80">
-        <v>101.2273679</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80" t="s">
-        <v>149</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="N80">
         <v>0</v>
       </c>
     </row>
@@ -4520,13 +4226,13 @@
     <hyperlink ref="M39" r:id="rId38"/>
     <hyperlink ref="M40" r:id="rId39"/>
     <hyperlink ref="M41" r:id="rId40"/>
-    <hyperlink ref="M42" r:id="rId41"/>
+    <hyperlink ref="M42" r:id="rId41" location="cxrecs_s"/>
     <hyperlink ref="M43" r:id="rId42"/>
     <hyperlink ref="M44" r:id="rId43"/>
     <hyperlink ref="M45" r:id="rId44"/>
     <hyperlink ref="M46" r:id="rId45"/>
     <hyperlink ref="M47" r:id="rId46"/>
-    <hyperlink ref="M48" r:id="rId47" location="cxrecs_s"/>
+    <hyperlink ref="M48" r:id="rId47"/>
     <hyperlink ref="M49" r:id="rId48"/>
     <hyperlink ref="M50" r:id="rId49"/>
     <hyperlink ref="M51" r:id="rId50"/>
@@ -4553,12 +4259,6 @@
     <hyperlink ref="M72" r:id="rId71"/>
     <hyperlink ref="M73" r:id="rId72"/>
     <hyperlink ref="M74" r:id="rId73"/>
-    <hyperlink ref="M75" r:id="rId74"/>
-    <hyperlink ref="M76" r:id="rId75"/>
-    <hyperlink ref="M77" r:id="rId76"/>
-    <hyperlink ref="M78" r:id="rId77"/>
-    <hyperlink ref="M79" r:id="rId78"/>
-    <hyperlink ref="M80" r:id="rId79"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="186">
   <si>
     <t>id</t>
   </si>
@@ -232,6 +232,12 @@
     <t>ธนาคารไทยพานิชย์ สาขานครชัยศรี</t>
   </si>
   <si>
+    <t>ร้าน เจเจ ชาบู&amp;ปิ้งย่าง สรงประภาดอนเมือง</t>
+  </si>
+  <si>
+    <t>ตลาดโอโซนวัน</t>
+  </si>
+  <si>
     <t>Siam Center</t>
   </si>
   <si>
@@ -265,6 +271,9 @@
     <t>ธนาคารกรุงไทย สาขานครชัยศรี</t>
   </si>
   <si>
+    <t>สนามบินดอนเมือง</t>
+  </si>
+  <si>
     <t>สาธร ซิตี้ ทาวเวอร์</t>
   </si>
   <si>
@@ -274,6 +283,9 @@
     <t>ศูนย์การแพทย์กาญจนาภิเษก อ.พุทธมณฑล</t>
   </si>
   <si>
+    <t xml:space="preserve">JW Condo @Donmuang </t>
+  </si>
+  <si>
     <t>ทำเนียบรัฐบาล</t>
   </si>
   <si>
@@ -394,6 +406,12 @@
     <t>มีรายงานข่าวว่าพ่อค้าที่ติดโควิด-19 รับอาหารทะเลจากตลาดในจ.สมุทรสาครมาขายที่นี่</t>
   </si>
   <si>
+    <t>คอนโดย่านดอนเมืองพบคนติด ‘โควิด’ ฝึกงานสนามบิน-เดินตลาด</t>
+  </si>
+  <si>
+    <t>ตลาดโอโซนวัน ประกาศปิด 2 วัน หลังพบคนติดเชื้อโควิดเข้ามาใช้บริการ</t>
+  </si>
+  <si>
     <t>สยามเซ็นเตอร์' ประกาศยืนยันมี พนง.ร้านอาหารติดเชื้อโควิด-19 ขอปิดบริการพื้นที่เสี่ยง 3 วัน</t>
   </si>
   <si>
@@ -512,6 +530,12 @@
   </si>
   <si>
     <t>https://www.khaosod.co.th/covid-19/news_5583210</t>
+  </si>
+  <si>
+    <t>https://www.matichon.co.th/covid19/news_2502106</t>
+  </si>
+  <si>
+    <t>https://www.matichon.co.th/covid19/news_2502134</t>
   </si>
   <si>
     <t>https://ch3thailandnews.bectero.com/news/224324</t>
@@ -922,7 +946,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -995,22 +1019,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1039,22 +1063,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1083,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1127,22 +1151,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1171,22 +1195,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1215,22 +1239,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1259,22 +1283,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1306,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1347,22 +1371,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1391,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1435,22 +1459,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1479,22 +1503,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1523,22 +1547,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1567,22 +1591,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1611,22 +1635,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L16" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1655,22 +1679,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L17" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1702,19 +1726,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J18" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1743,22 +1767,22 @@
         <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L19" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1787,22 +1811,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J20" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L20" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1831,22 +1855,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L21" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1875,22 +1899,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K22" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L22" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1919,22 +1943,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J23" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K23" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L23" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1963,22 +1987,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J24" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K24" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L24" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2007,22 +2031,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J25" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K25" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L25" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2051,22 +2075,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I26" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J26" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K26" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L26" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2095,22 +2119,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J27" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K27" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L27" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2139,22 +2163,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J28" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K28" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L28" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2183,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I29" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J29" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K29" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L29" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2227,22 +2251,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K30" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L30" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2271,22 +2295,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J31" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K31" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L31" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2315,22 +2339,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I32" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J32" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K32" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L32" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2359,22 +2383,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I33" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J33" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L33" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2403,22 +2427,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I34" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J34" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K34" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L34" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2450,19 +2474,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J35" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K35" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L35" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2491,22 +2515,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I36" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J36" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K36" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L36" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2535,22 +2559,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I37" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J37" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K37" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L37" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2579,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I38" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J38" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K38" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L38" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2626,19 +2650,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J39" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K39" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L39" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2670,19 +2694,19 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J40" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K40" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L40" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2714,19 +2738,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J41" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K41" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L41" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2758,19 +2782,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J42" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K42" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L42" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2799,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I43" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J43" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K43" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L43" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2843,22 +2867,22 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I44" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J44" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K44" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L44" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2887,22 +2911,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I45" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J45" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K45" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L45" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -2931,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I46" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J46" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K46" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L46" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -2975,22 +2999,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I47" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J47" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K47" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L47" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3019,22 +3043,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I48" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J48" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K48" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L48" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3063,22 +3087,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I49" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J49" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K49" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L49" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3107,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I50" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J50" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K50" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L50" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3151,22 +3175,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I51" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J51" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K51" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L51" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3195,22 +3219,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I52" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J52" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K52" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L52" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3242,19 +3266,19 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J53" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K53" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L53" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3286,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J54" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K54" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L54" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3327,22 +3351,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I55" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J55" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K55" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L55" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3371,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I56" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J56" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K56" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L56" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3415,22 +3439,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I57" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J57" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K57" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L57" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3441,40 +3465,40 @@
         <v>91</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D58" t="s">
         <v>72</v>
       </c>
       <c r="E58">
-        <v>13.7462524</v>
+        <v>13.928974</v>
       </c>
       <c r="F58">
-        <v>100.5328635</v>
+        <v>100.577365</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58">
-        <v>0</v>
+      <c r="H58" t="s">
+        <v>94</v>
       </c>
       <c r="I58" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J58" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K58" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L58" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3485,40 +3509,40 @@
         <v>92</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C59" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D59" t="s">
         <v>73</v>
       </c>
       <c r="E59">
-        <v>13.7243591</v>
+        <v>13.929686</v>
       </c>
       <c r="F59">
-        <v>100.5386589</v>
+        <v>100.576</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="H59">
-        <v>0</v>
+      <c r="H59" t="s">
+        <v>94</v>
       </c>
       <c r="I59" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J59" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K59" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L59" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3529,7 +3553,7 @@
         <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C60" s="2">
         <v>44188</v>
@@ -3538,31 +3562,31 @@
         <v>74</v>
       </c>
       <c r="E60">
-        <v>13.54974685</v>
+        <v>13.7462524</v>
       </c>
       <c r="F60">
-        <v>100.2561435</v>
+        <v>100.5328635</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60" t="s">
-        <v>89</v>
+      <c r="H60">
+        <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J60" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K60" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L60" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3582,31 +3606,31 @@
         <v>75</v>
       </c>
       <c r="E61">
-        <v>14.45160513</v>
+        <v>13.7243591</v>
       </c>
       <c r="F61">
-        <v>100.7230585</v>
+        <v>100.5386589</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
-      <c r="H61" t="s">
-        <v>89</v>
+      <c r="H61">
+        <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J61" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K61" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L61" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3617,7 +3641,7 @@
         <v>95</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C62" s="2">
         <v>44188</v>
@@ -3626,31 +3650,31 @@
         <v>76</v>
       </c>
       <c r="E62">
-        <v>13.72836497</v>
+        <v>13.54974685</v>
       </c>
       <c r="F62">
-        <v>100.5350858</v>
+        <v>100.2561435</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I62" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J62" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K62" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L62" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3661,7 +3685,7 @@
         <v>96</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C63" s="2">
         <v>44188</v>
@@ -3670,31 +3694,31 @@
         <v>77</v>
       </c>
       <c r="E63">
-        <v>13.7660558</v>
+        <v>14.45160513</v>
       </c>
       <c r="F63">
-        <v>100.6403032</v>
+        <v>100.7230585</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I63" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J63" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K63" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L63" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3714,31 +3738,31 @@
         <v>78</v>
       </c>
       <c r="E64">
-        <v>13.710361</v>
+        <v>13.72836497</v>
       </c>
       <c r="F64">
-        <v>100.4073817</v>
+        <v>100.5350858</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I64" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J64" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K64" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L64" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3749,7 +3773,7 @@
         <v>98</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C65" s="2">
         <v>44188</v>
@@ -3758,31 +3782,31 @@
         <v>79</v>
       </c>
       <c r="E65">
-        <v>13.2054213</v>
+        <v>13.7660558</v>
       </c>
       <c r="F65">
-        <v>99.9793013</v>
+        <v>100.6403032</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65">
-        <v>0</v>
+      <c r="H65" t="s">
+        <v>94</v>
       </c>
       <c r="I65" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J65" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K65" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L65" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -3802,31 +3826,31 @@
         <v>80</v>
       </c>
       <c r="E66">
-        <v>13.7100705</v>
+        <v>13.710361</v>
       </c>
       <c r="F66">
-        <v>100.6007069</v>
+        <v>100.4073817</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
+      <c r="H66" t="s">
+        <v>94</v>
+      </c>
+      <c r="I66" t="s">
+        <v>96</v>
+      </c>
+      <c r="J66" t="s">
+        <v>98</v>
+      </c>
+      <c r="K66" t="s">
+        <v>94</v>
       </c>
       <c r="L66" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -3837,7 +3861,7 @@
         <v>100</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C67" s="2">
         <v>44188</v>
@@ -3846,31 +3870,31 @@
         <v>81</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>13.2054213</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>99.9793013</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67" t="s">
-        <v>90</v>
+      <c r="H67">
+        <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J67" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K67" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L67" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -3881,7 +3905,7 @@
         <v>101</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C68" s="2">
         <v>44188</v>
@@ -3890,31 +3914,31 @@
         <v>82</v>
       </c>
       <c r="E68">
-        <v>13.802283</v>
+        <v>13.7100705</v>
       </c>
       <c r="F68">
-        <v>100.184509</v>
+        <v>100.6007069</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68" t="s">
-        <v>90</v>
-      </c>
-      <c r="I68" t="s">
-        <v>92</v>
-      </c>
-      <c r="J68" t="s">
-        <v>94</v>
-      </c>
-      <c r="K68" t="s">
-        <v>90</v>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -3928,37 +3952,37 @@
         <v>14</v>
       </c>
       <c r="C69" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D69" t="s">
         <v>83</v>
       </c>
       <c r="E69">
-        <v>13.721681</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>100.53</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I69" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J69" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K69" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L69" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -3969,40 +3993,40 @@
         <v>103</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C70" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D70" t="s">
         <v>84</v>
       </c>
       <c r="E70">
-        <v>13.9134431</v>
+        <v>13.802283</v>
       </c>
       <c r="F70">
-        <v>100.4220473</v>
+        <v>100.184509</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I70" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J70" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K70" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L70" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4016,37 +4040,37 @@
         <v>14</v>
       </c>
       <c r="C71" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D71" t="s">
         <v>85</v>
       </c>
       <c r="E71">
-        <v>13.786588</v>
+        <v>13.91857</v>
       </c>
       <c r="F71">
-        <v>100.321233</v>
+        <v>100.601606</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I71" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J71" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K71" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L71" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4057,40 +4081,40 @@
         <v>105</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C72" s="2">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="D72" t="s">
         <v>86</v>
       </c>
       <c r="E72">
-        <v>13.7636001</v>
+        <v>13.721681</v>
       </c>
       <c r="F72">
-        <v>100.5114624</v>
+        <v>100.53</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
+      <c r="H72" t="s">
+        <v>94</v>
+      </c>
+      <c r="I72" t="s">
+        <v>96</v>
+      </c>
+      <c r="J72" t="s">
+        <v>98</v>
       </c>
       <c r="K72" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L72" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4104,37 +4128,37 @@
         <v>18</v>
       </c>
       <c r="C73" s="2">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="D73" t="s">
         <v>87</v>
       </c>
       <c r="E73">
-        <v>13.734066</v>
+        <v>13.9134431</v>
       </c>
       <c r="F73">
-        <v>100.5278354</v>
+        <v>100.4220473</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
+      <c r="H73" t="s">
+        <v>93</v>
+      </c>
+      <c r="I73" t="s">
+        <v>97</v>
+      </c>
+      <c r="J73" t="s">
+        <v>98</v>
+      </c>
+      <c r="K73" t="s">
+        <v>94</v>
       </c>
       <c r="L73" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4145,42 +4169,218 @@
         <v>107</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C74" s="2">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="D74" t="s">
         <v>88</v>
       </c>
       <c r="E74">
+        <v>13.786588</v>
+      </c>
+      <c r="F74">
+        <v>100.321233</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>94</v>
+      </c>
+      <c r="I74" t="s">
+        <v>96</v>
+      </c>
+      <c r="J74" t="s">
+        <v>98</v>
+      </c>
+      <c r="K74" t="s">
+        <v>94</v>
+      </c>
+      <c r="L74" t="s">
+        <v>103</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75">
+        <v>108</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="2">
+        <v>44190</v>
+      </c>
+      <c r="D75" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75">
+        <v>13.924252</v>
+      </c>
+      <c r="F75">
+        <v>100.597945</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>94</v>
+      </c>
+      <c r="I75" t="s">
+        <v>96</v>
+      </c>
+      <c r="J75" t="s">
+        <v>98</v>
+      </c>
+      <c r="K75" t="s">
+        <v>94</v>
+      </c>
+      <c r="L75" t="s">
+        <v>130</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76">
+        <v>109</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="2">
+        <v>44191</v>
+      </c>
+      <c r="D76" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76">
+        <v>13.7636001</v>
+      </c>
+      <c r="F76">
+        <v>100.5114624</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>94</v>
+      </c>
+      <c r="L76" t="s">
+        <v>143</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77">
+        <v>110</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="2">
+        <v>44191</v>
+      </c>
+      <c r="D77" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77">
+        <v>13.734066</v>
+      </c>
+      <c r="F77">
+        <v>100.5278354</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77" t="s">
+        <v>144</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78">
+        <v>111</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="2">
+        <v>44191</v>
+      </c>
+      <c r="D78" t="s">
+        <v>92</v>
+      </c>
+      <c r="E78">
         <v>12.6483736</v>
       </c>
-      <c r="F74">
+      <c r="F78">
         <v>101.2273679</v>
       </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74" t="s">
-        <v>139</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="N74">
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>145</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N78">
         <v>0</v>
       </c>
     </row>
@@ -4259,6 +4459,10 @@
     <hyperlink ref="M72" r:id="rId71"/>
     <hyperlink ref="M73" r:id="rId72"/>
     <hyperlink ref="M74" r:id="rId73"/>
+    <hyperlink ref="M75" r:id="rId74"/>
+    <hyperlink ref="M76" r:id="rId75"/>
+    <hyperlink ref="M77" r:id="rId76"/>
+    <hyperlink ref="M78" r:id="rId77"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="190">
   <si>
     <t>id</t>
   </si>
@@ -202,7 +202,7 @@
     <t>สมศักดิ์ ปูอบ สาขา2 บีทีเอสกรุงธนบุรี</t>
   </si>
   <si>
-    <t>มหาวิทยาลัยศิลปากร</t>
+    <t>คณะวิทยาศาสตร์ มหาวิทยาลัยศิลปากร</t>
   </si>
   <si>
     <t>วัดดอนยายหอม อ.เมือง</t>
@@ -295,6 +295,12 @@
     <t>บ่อนใน อ.เมืองระยอง และ มาบตาพุด</t>
   </si>
   <si>
+    <t>สถานที่ลักลอบเล่นการพนัน บขส. อ.เมือง จ.ระยอง</t>
+  </si>
+  <si>
+    <t>สถานที่ลักลอบเล่นการพนันหลัง ร้านนำชัย พัทยาเหนือ อำเภอบางละมุง จังหวัดชลบุรี</t>
+  </si>
+  <si>
     <t>female</t>
   </si>
   <si>
@@ -454,6 +460,9 @@
     <t>ระยองพบติดเชื้อโควิดเพิ่ม 37 ราย จากบ่อนพนันในอ.เมืองระยอง และมาบตาพุด</t>
   </si>
   <si>
+    <t>สาธารณสุขจังหวัดชลบุรีแฉพื้นที่บ่อนพนัน เชื่อมระยอง เปิด 3 บ่อนจุดเสี่ยงแพร่เชื้อโควิดพุ่ง</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/SomsakPuOb/photos/a.237834942950311/3554401867960252/?type=3</t>
   </si>
   <si>
@@ -572,6 +581,9 @@
   </si>
   <si>
     <t>https://www.prachachat.net/general/news-582764</t>
+  </si>
+  <si>
+    <t>https://www.prachachat.net/general/news-582966</t>
   </si>
 </sst>
 </file>
@@ -946,7 +958,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1019,22 +1031,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1063,22 +1075,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1107,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1151,22 +1163,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1195,22 +1207,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1239,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1283,22 +1295,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1330,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1371,22 +1383,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1415,22 +1427,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1459,22 +1471,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1503,22 +1515,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1547,22 +1559,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1591,22 +1603,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1635,22 +1647,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1679,22 +1691,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1726,19 +1738,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1767,22 +1779,22 @@
         <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1811,22 +1823,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1855,22 +1867,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1899,22 +1911,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1943,22 +1955,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L23" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1987,22 +1999,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2031,22 +2043,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2075,22 +2087,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2119,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I27" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J27" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2163,22 +2175,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2207,22 +2219,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2251,22 +2263,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2295,22 +2307,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2339,22 +2351,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I32" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K32" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2383,22 +2395,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L33" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2427,22 +2439,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I34" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J34" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2474,19 +2486,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J35" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L35" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2515,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K36" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L36" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2559,22 +2571,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I37" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J37" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K37" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L37" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2603,22 +2615,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I38" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J38" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K38" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L38" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2650,19 +2662,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J39" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L39" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2694,19 +2706,19 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L40" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2738,19 +2750,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J41" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K41" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2782,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J42" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K42" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L42" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2823,22 +2835,22 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I43" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J43" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K43" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L43" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2867,22 +2879,22 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I44" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J44" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K44" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L44" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2911,22 +2923,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I45" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J45" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K45" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L45" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -2955,22 +2967,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I46" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J46" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K46" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L46" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -2999,22 +3011,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I47" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J47" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L47" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3043,22 +3055,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K48" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L48" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3087,22 +3099,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I49" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J49" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K49" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L49" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3131,22 +3143,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I50" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J50" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K50" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L50" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3175,22 +3187,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I51" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J51" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K51" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L51" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3219,22 +3231,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I52" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J52" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L52" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3266,19 +3278,19 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J53" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K53" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L53" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3310,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J54" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K54" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L54" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3351,22 +3363,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I55" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J55" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K55" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L55" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3395,22 +3407,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I56" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J56" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K56" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L56" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3439,22 +3451,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I57" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J57" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L57" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3483,22 +3495,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I58" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J58" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K58" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L58" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3527,22 +3539,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J59" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K59" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L59" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3574,19 +3586,19 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J60" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K60" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L60" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3618,19 +3630,19 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K61" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L61" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3659,22 +3671,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J62" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K62" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L62" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3703,22 +3715,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I63" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J63" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K63" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L63" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3747,22 +3759,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I64" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J64" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K64" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L64" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3791,22 +3803,22 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I65" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J65" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K65" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L65" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -3835,22 +3847,22 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I66" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J66" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K66" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L66" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -3882,19 +3894,19 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J67" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K67" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -3935,10 +3947,10 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -3967,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I69" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J69" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K69" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L69" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4011,22 +4023,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I70" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J70" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K70" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L70" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4055,22 +4067,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I71" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J71" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K71" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L71" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4099,22 +4111,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I72" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J72" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K72" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L72" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4143,22 +4155,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I73" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J73" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K73" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L73" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4187,22 +4199,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I74" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J74" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K74" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L74" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4231,22 +4243,22 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I75" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J75" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K75" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L75" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4284,13 +4296,13 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L76" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4331,10 +4343,10 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4375,12 +4387,100 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79">
+        <v>112</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="2">
+        <v>44192</v>
+      </c>
+      <c r="D79" t="s">
+        <v>93</v>
+      </c>
+      <c r="E79">
+        <v>12.6836172</v>
+      </c>
+      <c r="F79">
+        <v>101.273757</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>96</v>
+      </c>
+      <c r="L79" t="s">
+        <v>148</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80">
+        <v>113</v>
+      </c>
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="2">
+        <v>44192</v>
+      </c>
+      <c r="D80" t="s">
+        <v>94</v>
+      </c>
+      <c r="E80">
+        <v>12.9730033</v>
+      </c>
+      <c r="F80">
+        <v>100.9029061</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>96</v>
+      </c>
+      <c r="L80" t="s">
+        <v>148</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N80">
         <v>0</v>
       </c>
     </row>
@@ -4463,6 +4563,8 @@
     <hyperlink ref="M76" r:id="rId75"/>
     <hyperlink ref="M77" r:id="rId76"/>
     <hyperlink ref="M78" r:id="rId77"/>
+    <hyperlink ref="M79" r:id="rId78"/>
+    <hyperlink ref="M80" r:id="rId79"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -4410,10 +4410,10 @@
         <v>93</v>
       </c>
       <c r="E79">
-        <v>12.6836172</v>
+        <v>12.6844183</v>
       </c>
       <c r="F79">
-        <v>101.273757</v>
+        <v>101.2742991</v>
       </c>
       <c r="G79">
         <v>0</v>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="192">
   <si>
     <t>id</t>
   </si>
@@ -58,6 +58,9 @@
     <t>parentcase</t>
   </si>
   <si>
+    <t>unspecified_location</t>
+  </si>
+  <si>
     <t>patient_has_been_here</t>
   </si>
   <si>
@@ -67,30 +70,12 @@
     <t>sanitizing</t>
   </si>
   <si>
-    <t>unspecified_location</t>
-  </si>
-  <si>
     <t>confirmed</t>
   </si>
   <si>
     <t>suspected</t>
   </si>
   <si>
-    <t>สยามสแควร์วัน</t>
-  </si>
-  <si>
-    <t>EVEANDBOY สาขา The Underground Siam Square One</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ร้านชีวิตชีวา สาขาสยามสแควร์วัน </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ร้านครัวดอกไม้ขาว สาขาสยามสแควร์วัน </t>
-  </si>
-  <si>
-    <t>ธนาคารออมสินสาขาบางเลน</t>
-  </si>
-  <si>
     <t>นนทบุรี</t>
   </si>
   <si>
@@ -172,6 +157,9 @@
     <t>ตลาดนัดห้วยตะโก ต.พะเนียด อ.นครชัยศรี</t>
   </si>
   <si>
+    <t>เกทเวย์ แอท บางซื่อ</t>
+  </si>
+  <si>
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
@@ -211,6 +199,12 @@
     <t>ที่ว่าการอำเภอบางเลน</t>
   </si>
   <si>
+    <t>โลตัสพลัสมอลล์ บางใหญ่</t>
+  </si>
+  <si>
+    <t>ร้านเชฟอ้วนก๋วยเตี๋ยวหมูนายแกละ-บางใหญ่</t>
+  </si>
+  <si>
     <t>ร้านก๋วยเตี๋ยว ในตลาดบางใหญ่</t>
   </si>
   <si>
@@ -238,6 +232,12 @@
     <t>ตลาดโอโซนวัน</t>
   </si>
   <si>
+    <t>ตลาดศาลาน้ำร้อน</t>
+  </si>
+  <si>
+    <t>แมคโครนครอินทร์</t>
+  </si>
+  <si>
     <t>Siam Center</t>
   </si>
   <si>
@@ -301,15 +301,18 @@
     <t>สถานที่ลักลอบเล่นการพนันหลัง ร้านนำชัย พัทยาเหนือ อำเภอบางละมุง จังหวัดชลบุรี</t>
   </si>
   <si>
+    <t>รัฐสภา</t>
+  </si>
+  <si>
     <t>female</t>
   </si>
   <si>
+    <t>male</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
     <t>Thai</t>
   </si>
   <si>
@@ -319,33 +322,24 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t xml:space="preserve">เคสแม่ค้ารถพุ่มพวงติดโควิด เป็นรถกระบะสีขาว ป้ายแดง ทะเบียน 8681 สมุทรปราการ </t>
+  </si>
+  <si>
     <t>เคสเจ้าของร้านอาหารติดโควิด มีประวัติไปแพกุ้ง จ.สมุทรสาคร</t>
   </si>
   <si>
-    <t>อีฟแอนบอย ปิดสาขา The Underground Siam Square One บิ๊กคลีนนิ่ง หลังผู้ป่วยโควิดใช้บริการ</t>
-  </si>
-  <si>
-    <t>ร้านชีวิตชีวา'สยามฯปิดชั่วคราว เจ้าของร้านปูอบมานั่งกิน</t>
-  </si>
-  <si>
-    <t>ร้านครัวดอกไม้ขาว สาขาสยามสแควร์วัน ปิด Big Cleaning 1 วัน หลังพบไทม์ไลน์ผู้ติดเชื้อโควิด-19 มาใช้บริการ</t>
+    <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาต่อใบขับขี่ที่นี่วันที่ 15 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20 13 ธ.ค. แวะมาบุญครอง</t>
   </si>
   <si>
     <t>ผู้ป่วย  covid-19 นครปฐม รายที่22-29</t>
   </si>
   <si>
-    <t xml:space="preserve">เคสแม่ค้ารถพุ่มพวงติดโควิด เป็นรถกระบะสีขาว ป้ายแดง ทะเบียน 8681 สมุทรปราการ </t>
-  </si>
-  <si>
-    <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาต่อใบขับขี่ที่นี่วันที่ 15 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20 13 ธ.ค. แวะมาบุญครอง</t>
-  </si>
-  <si>
     <t>พบผู้ติดโควิดมาใช้บริการ'นมโจ'สาขาประชาชื่น39</t>
   </si>
   <si>
@@ -379,6 +373,9 @@
     <t>ตรวจพบเชื้อ COVID-19 จากคุณรัตน์เจ้าของร้านสมศักดิ์ปูอบ สาขาบีทีเอสกรุงธนบุรี</t>
   </si>
   <si>
+    <t>เกทเวย์ แอท บางซื่อ ชี้แจงกรณีพบผู้ติดเชื้อโควิดเข้าใช้บริการ</t>
+  </si>
+  <si>
     <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
   </si>
   <si>
@@ -400,6 +397,12 @@
     <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ได้ออกมาเลือกตั้งหน้าหมู่บ้านและซื้อต้นไม้ ผู้ขายเป็นชาวพม่า</t>
   </si>
   <si>
+    <t>ตรวจพบเชื้อ COVID-19 เจ้าของร้านสมศักดิ์ปูอบ สาขาบีทีเอสกรุงธนบุรี</t>
+  </si>
+  <si>
+    <t>4 ผู้ป่วยโควิด นนทบุรีเชื่อมโยงตลาดทะเลไทย สมุทรสาคร</t>
+  </si>
+  <si>
     <t>โครงการฯ ได้รับแจ้งจากเขตคลองเตยเรื่อง Time Line ของผู้ป่วยติดเชื้อไวรัสโควิด 19 ว่าได้เข้ามาใช้บริการที่ร้านนิตยาไก่ย่าง เมื่อวันที่ 21 ธันวาคม 2563 ระหว่างเวลา 13.00-14.00น.ที่ผ่านมา</t>
   </si>
   <si>
@@ -463,33 +466,27 @@
     <t>สาธารณสุขจังหวัดชลบุรีแฉพื้นที่บ่อนพนัน เชื่อมระยอง เปิด 3 บ่อนจุดเสี่ยงแพร่เชื้อโควิดพุ่ง</t>
   </si>
   <si>
+    <t>ผลการตรวจออกมายืนยันแล้วว่า ชายที่เข้าร่วมประชุมอนุกรรมาธิการฯ พนันออนไลน์ในสภา ติดโควิด-19</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/central/1999153</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/SomsakPuOb/photos/a.237834942950311/3554401867960252/?type=3</t>
   </si>
   <si>
-    <t>https://www.matichon.co.th/social/news_2495701</t>
-  </si>
-  <si>
-    <t>https://www.dailynews.co.th/regional/814235</t>
-  </si>
-  <si>
-    <t>https://mgronline.com/onlinesection/detail/9630000130287</t>
+    <t>https://liff.line.me/1454988218-NjbXbq18/v2/article/jpyamK?utm_source=copyshare</t>
+  </si>
+  <si>
+    <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/mbkcenterth/posts/3939890189363487</t>
   </si>
   <si>
     <t>https://m.facebook.com/story.php?story_fbid=3200886696679973&amp;id=246608695441136&amp;sfnsn=mo</t>
   </si>
   <si>
-    <t>https://www.thairath.co.th/news/local/central/1999153</t>
-  </si>
-  <si>
-    <t>https://liff.line.me/1454988218-NjbXbq18/v2/article/jpyamK?utm_source=copyshare</t>
-  </si>
-  <si>
-    <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/mbkcenterth/posts/3939890189363487</t>
-  </si>
-  <si>
     <t>https://www.dailynews.co.th/regional/814463</t>
   </si>
   <si>
@@ -514,6 +511,9 @@
     <t>https://www.facebook.com/SomsakPuOb/posts/3554410321292740</t>
   </si>
   <si>
+    <t>https://www.onbnews.today/post/43979</t>
+  </si>
+  <si>
     <t>https://www.thaipost.net/main/detail/87367</t>
   </si>
   <si>
@@ -529,6 +529,9 @@
     <t>https://www.facebook.com/twodosomething/posts/140825121150938</t>
   </si>
   <si>
+    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2499640</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/suanplernmarket/photos/a.407116596138751/1714728045377593/</t>
   </si>
   <si>
@@ -584,6 +587,9 @@
   </si>
   <si>
     <t>https://www.prachachat.net/general/news-582966</t>
+  </si>
+  <si>
+    <t>https://www.matichon.co.th/politics/news_2503046</t>
   </si>
 </sst>
 </file>
@@ -958,7 +964,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1010,43 +1016,43 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="2">
-        <v>44179</v>
+        <v>44180</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>13.7449539</v>
+        <v>13.8205741</v>
       </c>
       <c r="F2">
-        <v>100.5339095</v>
+        <v>100.4822683</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1054,43 +1060,43 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
-        <v>44179</v>
+        <v>44180</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>13.7446331</v>
+        <v>13.5440411</v>
       </c>
       <c r="F3">
-        <v>100.5335668</v>
+        <v>100.2752457</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1098,43 +1104,43 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>44179</v>
+        <v>44180</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>13.74492074</v>
+        <v>13.6211105</v>
       </c>
       <c r="F4">
-        <v>100.5342369</v>
+        <v>100.4387341</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>95</v>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1142,43 +1148,43 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
-        <v>44179</v>
+        <v>44180</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>13.74491756</v>
+        <v>13.7731761</v>
       </c>
       <c r="F5">
-        <v>100.5342154</v>
+        <v>100.4851346</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1186,43 +1192,43 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>44179</v>
+        <v>44180</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>14.032751</v>
+        <v>13.74512653</v>
       </c>
       <c r="F6">
-        <v>100.166337</v>
+        <v>100.5298302</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1230,10 +1236,10 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>44180</v>
@@ -1242,31 +1248,31 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>13.8205741</v>
+        <v>13.812836</v>
       </c>
       <c r="F7">
-        <v>100.4822683</v>
+        <v>100.07</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1274,43 +1280,43 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>13.5440411</v>
+        <v>13.8330877</v>
       </c>
       <c r="F8">
-        <v>100.2752457</v>
+        <v>100.499237</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1318,43 +1324,43 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>13.6211105</v>
+        <v>13.7689441</v>
       </c>
       <c r="F9">
-        <v>100.4387341</v>
+        <v>100.5046383</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>0</v>
+      <c r="H9" t="s">
+        <v>97</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1362,43 +1368,43 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>13.7731761</v>
+        <v>13.84341791</v>
       </c>
       <c r="F10">
-        <v>100.4851346</v>
+        <v>100.5419373</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L10" t="s">
         <v>108</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1406,43 +1412,43 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11">
-        <v>13.74512653</v>
+        <v>13.87694672</v>
       </c>
       <c r="F11">
-        <v>100.5298302</v>
+        <v>100.4115482</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L11" t="s">
         <v>109</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1450,43 +1456,43 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12">
-        <v>13.812836</v>
+        <v>13.964334</v>
       </c>
       <c r="F12">
-        <v>100.07</v>
+        <v>100.083426</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1494,43 +1500,43 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E13">
-        <v>13.8330877</v>
+        <v>14.0782451</v>
       </c>
       <c r="F13">
-        <v>100.499237</v>
+        <v>100.604118</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" t="s">
-        <v>95</v>
+      <c r="H13">
+        <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1538,43 +1544,43 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
       </c>
       <c r="E14">
-        <v>13.7689441</v>
+        <v>13.86019768</v>
       </c>
       <c r="F14">
-        <v>100.5046383</v>
+        <v>100.7223304</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
         <v>97</v>
       </c>
       <c r="I14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1582,43 +1588,43 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
       </c>
       <c r="E15">
-        <v>13.84341791</v>
+        <v>13.8578211</v>
       </c>
       <c r="F15">
-        <v>100.5419373</v>
+        <v>100.4105189</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1626,43 +1632,43 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
       </c>
       <c r="E16">
-        <v>13.87694672</v>
+        <v>13.85934159</v>
       </c>
       <c r="F16">
-        <v>100.4115482</v>
+        <v>100.5849015</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1670,43 +1676,43 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="D17" t="s">
         <v>34</v>
       </c>
       <c r="E17">
-        <v>13.964334</v>
+        <v>14.119413</v>
       </c>
       <c r="F17">
-        <v>100.083426</v>
+        <v>100.118335</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1714,43 +1720,43 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D18" t="s">
         <v>35</v>
       </c>
       <c r="E18">
-        <v>14.0782451</v>
+        <v>13.87779142</v>
       </c>
       <c r="F18">
-        <v>100.604118</v>
+        <v>100.4215436</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18">
-        <v>0</v>
+      <c r="H18" t="s">
+        <v>96</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1758,40 +1764,40 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
       </c>
       <c r="E19">
-        <v>13.86019768</v>
+        <v>13.88376994</v>
       </c>
       <c r="F19">
-        <v>100.7223304</v>
+        <v>100.5843207</v>
       </c>
       <c r="G19">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
         <v>97</v>
       </c>
       <c r="I19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>160</v>
@@ -1802,40 +1808,40 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D20" t="s">
         <v>37</v>
       </c>
       <c r="E20">
-        <v>13.8578211</v>
+        <v>13.965066</v>
       </c>
       <c r="F20">
-        <v>100.4105189</v>
+        <v>100.07959</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>156</v>
@@ -1846,43 +1852,43 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
       </c>
       <c r="E21">
-        <v>13.85934159</v>
+        <v>14.036373</v>
       </c>
       <c r="F21">
-        <v>100.5849015</v>
+        <v>100.168774</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L21" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1890,22 +1896,22 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
-        <v>44182</v>
+        <v>44184</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
       </c>
       <c r="E22">
-        <v>14.119413</v>
+        <v>14.1487352</v>
       </c>
       <c r="F22">
-        <v>100.118335</v>
+        <v>100.6155778</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1914,19 +1920,19 @@
         <v>96</v>
       </c>
       <c r="I22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L22" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1934,43 +1940,43 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D23" t="s">
         <v>40</v>
       </c>
       <c r="E23">
-        <v>13.87779142</v>
+        <v>13.8057625</v>
       </c>
       <c r="F23">
-        <v>100.4215436</v>
+        <v>100.6621959</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L23" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1978,22 +1984,22 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D24" t="s">
         <v>41</v>
       </c>
       <c r="E24">
-        <v>13.88376994</v>
+        <v>14.01215068</v>
       </c>
       <c r="F24">
-        <v>100.5843207</v>
+        <v>100.17523</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2002,19 +2008,19 @@
         <v>97</v>
       </c>
       <c r="I24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2022,22 +2028,22 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D25" t="s">
         <v>42</v>
       </c>
       <c r="E25">
-        <v>13.965066</v>
+        <v>13.8134088</v>
       </c>
       <c r="F25">
-        <v>100.07959</v>
+        <v>100.5616103</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2046,19 +2052,19 @@
         <v>96</v>
       </c>
       <c r="I25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L25" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2066,22 +2072,22 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D26" t="s">
         <v>43</v>
       </c>
       <c r="E26">
-        <v>14.036373</v>
+        <v>13.816493</v>
       </c>
       <c r="F26">
-        <v>100.168774</v>
+        <v>100.5610062</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2090,19 +2096,19 @@
         <v>96</v>
       </c>
       <c r="I26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L26" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2110,10 +2116,10 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2">
         <v>44184</v>
@@ -2122,31 +2128,31 @@
         <v>44</v>
       </c>
       <c r="E27">
-        <v>14.1487352</v>
+        <v>13.7966595</v>
       </c>
       <c r="F27">
-        <v>100.6155778</v>
+        <v>100.4755856</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K27" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2154,7 +2160,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -2166,31 +2172,31 @@
         <v>45</v>
       </c>
       <c r="E28">
-        <v>13.8057625</v>
+        <v>13.69121688</v>
       </c>
       <c r="F28">
-        <v>100.6621959</v>
+        <v>100.3412194</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L28" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2198,10 +2204,10 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2">
         <v>44184</v>
@@ -2210,31 +2216,31 @@
         <v>46</v>
       </c>
       <c r="E29">
-        <v>14.01215068</v>
+        <v>13.79584</v>
       </c>
       <c r="F29">
-        <v>100.17523</v>
+        <v>100.13118</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L29" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2242,10 +2248,10 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2">
         <v>44184</v>
@@ -2254,31 +2260,31 @@
         <v>47</v>
       </c>
       <c r="E30">
-        <v>13.8134088</v>
+        <v>13.80564274</v>
       </c>
       <c r="F30">
-        <v>100.5616103</v>
+        <v>100.5238077</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2286,43 +2292,43 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D31" t="s">
         <v>48</v>
       </c>
       <c r="E31">
-        <v>13.816493</v>
+        <v>13.5579068</v>
       </c>
       <c r="F31">
-        <v>100.5610062</v>
+        <v>100.270829</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31" t="s">
-        <v>95</v>
+      <c r="H31">
+        <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2330,43 +2336,43 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D32" t="s">
         <v>49</v>
       </c>
       <c r="E32">
-        <v>13.7966595</v>
+        <v>13.7937004</v>
       </c>
       <c r="F32">
-        <v>100.4755856</v>
+        <v>100.6923144</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K32" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L32" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2374,43 +2380,43 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C33" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D33" t="s">
         <v>50</v>
       </c>
       <c r="E33">
-        <v>13.69121688</v>
+        <v>13.5455607</v>
       </c>
       <c r="F33">
-        <v>100.3412194</v>
+        <v>100.2767611</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2418,22 +2424,22 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C34" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D34" t="s">
         <v>51</v>
       </c>
       <c r="E34">
-        <v>13.79584</v>
+        <v>13.7204469</v>
       </c>
       <c r="F34">
-        <v>100.13118</v>
+        <v>100.5004708</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2442,19 +2448,19 @@
         <v>96</v>
       </c>
       <c r="I34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K34" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2462,22 +2468,22 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2">
         <v>44185</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35">
-        <v>13.5579068</v>
+        <v>14.3355326</v>
       </c>
       <c r="F35">
-        <v>100.270829</v>
+        <v>100.87017</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2486,19 +2492,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K35" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2506,43 +2512,43 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C36" s="2">
         <v>44185</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E36">
-        <v>13.7937004</v>
+        <v>14.5786407</v>
       </c>
       <c r="F36">
-        <v>100.6923144</v>
+        <v>100.9662444</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36" t="s">
-        <v>95</v>
+      <c r="H36">
+        <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L36" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2550,43 +2556,43 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C37" s="2">
         <v>44185</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E37">
-        <v>13.5455607</v>
+        <v>14.5116599</v>
       </c>
       <c r="F37">
-        <v>100.2767611</v>
+        <v>100.9094134</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37" t="s">
-        <v>95</v>
+      <c r="H37">
+        <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L37" t="s">
         <v>122</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2594,43 +2600,43 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C38" s="2">
         <v>44185</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E38">
-        <v>13.7204469</v>
+        <v>14.1378761</v>
       </c>
       <c r="F38">
-        <v>100.5004708</v>
+        <v>100.8255049</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38" t="s">
-        <v>95</v>
+      <c r="H38">
+        <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K38" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L38" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2638,7 +2644,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -2647,34 +2653,34 @@
         <v>44185</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E39">
-        <v>14.3355326</v>
+        <v>14.06566869</v>
       </c>
       <c r="F39">
-        <v>100.87017</v>
+        <v>99.9821468</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39">
-        <v>0</v>
+      <c r="H39" t="s">
+        <v>97</v>
       </c>
       <c r="I39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K39" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2682,43 +2688,43 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C40" s="2">
         <v>44185</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E40">
-        <v>14.5786407</v>
+        <v>13.8220612</v>
       </c>
       <c r="F40">
-        <v>100.9662444</v>
+        <v>100.421874</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40">
-        <v>0</v>
+      <c r="H40" t="s">
+        <v>96</v>
       </c>
       <c r="I40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K40" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L40" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2726,7 +2732,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -2738,31 +2744,31 @@
         <v>55</v>
       </c>
       <c r="E41">
-        <v>14.5116599</v>
+        <v>13.8683169</v>
       </c>
       <c r="F41">
-        <v>100.9094134</v>
+        <v>100.4107308</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41">
-        <v>0</v>
+      <c r="H41" t="s">
+        <v>97</v>
       </c>
       <c r="I41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K41" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L41" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2770,10 +2776,10 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C42" s="2">
         <v>44185</v>
@@ -2782,31 +2788,31 @@
         <v>56</v>
       </c>
       <c r="E42">
-        <v>14.1378761</v>
+        <v>13.89757086</v>
       </c>
       <c r="F42">
-        <v>100.8255049</v>
+        <v>100.6098027</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42">
-        <v>0</v>
+      <c r="H42" t="s">
+        <v>97</v>
       </c>
       <c r="I42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K42" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L42" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2814,7 +2820,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
@@ -2826,28 +2832,28 @@
         <v>57</v>
       </c>
       <c r="E43">
-        <v>14.06566869</v>
+        <v>13.72045903</v>
       </c>
       <c r="F43">
-        <v>99.9821468</v>
+        <v>100.5004852</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K43" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>164</v>
@@ -2858,7 +2864,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
@@ -2870,31 +2876,31 @@
         <v>58</v>
       </c>
       <c r="E44">
-        <v>13.8220612</v>
+        <v>13.817137</v>
       </c>
       <c r="F44">
-        <v>100.421874</v>
+        <v>100.041497</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K44" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L44" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2902,10 +2908,10 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C45" s="2">
         <v>44185</v>
@@ -2914,28 +2920,28 @@
         <v>59</v>
       </c>
       <c r="E45">
-        <v>13.8683169</v>
+        <v>13.737328</v>
       </c>
       <c r="F45">
-        <v>100.4107308</v>
+        <v>100.081218</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K45" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L45" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>156</v>
@@ -2946,10 +2952,10 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C46" s="2">
         <v>44185</v>
@@ -2958,31 +2964,31 @@
         <v>60</v>
       </c>
       <c r="E46">
-        <v>13.89757086</v>
+        <v>14.021384</v>
       </c>
       <c r="F46">
-        <v>100.6098027</v>
+        <v>100.165325</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K46" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L46" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -2990,10 +2996,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="2">
         <v>44185</v>
@@ -3002,31 +3008,31 @@
         <v>61</v>
       </c>
       <c r="E47">
-        <v>13.72045903</v>
+        <v>13.82347979</v>
       </c>
       <c r="F47">
-        <v>100.5004852</v>
+        <v>100.4101224</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K47" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L47" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3034,10 +3040,10 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C48" s="2">
         <v>44185</v>
@@ -3046,31 +3052,31 @@
         <v>62</v>
       </c>
       <c r="E48">
-        <v>13.817137</v>
+        <v>13.82622351</v>
       </c>
       <c r="F48">
-        <v>100.041497</v>
+        <v>100.4124415</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L48" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3078,43 +3084,43 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
       </c>
       <c r="C49" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D49" t="s">
         <v>63</v>
       </c>
       <c r="E49">
-        <v>13.737328</v>
+        <v>13.8781452</v>
       </c>
       <c r="F49">
-        <v>100.081218</v>
+        <v>100.4091302</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L49" t="s">
         <v>105</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3122,43 +3128,43 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C50" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D50" t="s">
         <v>64</v>
       </c>
       <c r="E50">
-        <v>14.021384</v>
+        <v>13.7164198</v>
       </c>
       <c r="F50">
-        <v>100.165325</v>
+        <v>100.5716135</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K50" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L50" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3166,43 +3172,43 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C51" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D51" t="s">
         <v>65</v>
       </c>
       <c r="E51">
-        <v>13.8781452</v>
+        <v>13.73541413</v>
       </c>
       <c r="F51">
-        <v>100.4091302</v>
+        <v>100.5877998</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51" t="s">
-        <v>97</v>
+      <c r="H51">
+        <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K51" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L51" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3210,43 +3216,43 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D52" t="s">
         <v>66</v>
       </c>
       <c r="E52">
-        <v>13.7164198</v>
+        <v>13.78766192</v>
       </c>
       <c r="F52">
-        <v>100.5716135</v>
+        <v>100.5105938</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52" t="s">
-        <v>96</v>
+      <c r="H52">
+        <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K52" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L52" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3254,10 +3260,10 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C53" s="2">
         <v>44187</v>
@@ -3266,31 +3272,31 @@
         <v>67</v>
       </c>
       <c r="E53">
-        <v>13.73541413</v>
+        <v>13.5951449</v>
       </c>
       <c r="F53">
-        <v>100.5877998</v>
+        <v>100.5802135</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53">
-        <v>0</v>
+      <c r="H53" t="s">
+        <v>97</v>
       </c>
       <c r="I53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J53" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K53" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L53" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3298,10 +3304,10 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C54" s="2">
         <v>44187</v>
@@ -3310,31 +3316,31 @@
         <v>68</v>
       </c>
       <c r="E54">
-        <v>13.78766192</v>
+        <v>13.803038</v>
       </c>
       <c r="F54">
-        <v>100.5105938</v>
+        <v>100.188902</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="H54">
-        <v>0</v>
+      <c r="H54" t="s">
+        <v>98</v>
       </c>
       <c r="I54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J54" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K54" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L54" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3342,10 +3348,10 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C55" s="2">
         <v>44187</v>
@@ -3354,31 +3360,31 @@
         <v>69</v>
       </c>
       <c r="E55">
-        <v>13.5951449</v>
+        <v>13.802276</v>
       </c>
       <c r="F55">
-        <v>100.5802135</v>
+        <v>100.19</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J55" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K55" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L55" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3386,10 +3392,10 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C56" s="2">
         <v>44187</v>
@@ -3398,31 +3404,31 @@
         <v>70</v>
       </c>
       <c r="E56">
-        <v>13.803038</v>
+        <v>13.928974</v>
       </c>
       <c r="F56">
-        <v>100.188902</v>
+        <v>100.577365</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I56" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J56" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K56" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L56" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3430,10 +3436,10 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C57" s="2">
         <v>44187</v>
@@ -3442,31 +3448,31 @@
         <v>71</v>
       </c>
       <c r="E57">
-        <v>13.802276</v>
+        <v>13.929686</v>
       </c>
       <c r="F57">
-        <v>100.19</v>
+        <v>100.576</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I57" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J57" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K57" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L57" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3474,10 +3480,10 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C58" s="2">
         <v>44187</v>
@@ -3486,31 +3492,31 @@
         <v>72</v>
       </c>
       <c r="E58">
-        <v>13.928974</v>
+        <v>13.76033018</v>
       </c>
       <c r="F58">
-        <v>100.577365</v>
+        <v>100.4796436</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J58" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K58" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L58" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3518,10 +3524,10 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C59" s="2">
         <v>44187</v>
@@ -3530,31 +3536,31 @@
         <v>73</v>
       </c>
       <c r="E59">
-        <v>13.929686</v>
+        <v>13.82853997</v>
       </c>
       <c r="F59">
-        <v>100.576</v>
+        <v>100.4842102</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I59" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J59" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L59" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3562,10 +3568,10 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C60" s="2">
         <v>44188</v>
@@ -3586,19 +3592,19 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J60" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K60" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3606,7 +3612,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
         <v>18</v>
@@ -3630,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J61" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K61" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3650,7 +3656,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
@@ -3671,22 +3677,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I62" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J62" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L62" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3694,7 +3700,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
@@ -3715,22 +3721,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I63" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J63" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K63" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L63" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3738,10 +3744,10 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C64" s="2">
         <v>44188</v>
@@ -3759,22 +3765,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I64" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K64" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L64" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3782,10 +3788,10 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C65" s="2">
         <v>44188</v>
@@ -3803,22 +3809,22 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J65" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K65" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L65" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -3826,10 +3832,10 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C66" s="2">
         <v>44188</v>
@@ -3847,22 +3853,22 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I66" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K66" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -3870,10 +3876,10 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C67" s="2">
         <v>44188</v>
@@ -3894,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K67" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L67" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -3914,10 +3920,10 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C68" s="2">
         <v>44188</v>
@@ -3947,10 +3953,10 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -3958,10 +3964,10 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C69" s="2">
         <v>44188</v>
@@ -3979,22 +3985,22 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K69" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L69" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4002,10 +4008,10 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C70" s="2">
         <v>44188</v>
@@ -4023,22 +4029,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K70" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L70" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4046,10 +4052,10 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C71" s="2">
         <v>44188</v>
@@ -4067,22 +4073,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J71" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K71" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L71" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4090,10 +4096,10 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C72" s="2">
         <v>44189</v>
@@ -4111,22 +4117,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K72" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L72" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4134,7 +4140,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
@@ -4155,22 +4161,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I73" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J73" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K73" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4178,10 +4184,10 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C74" s="2">
         <v>44189</v>
@@ -4199,22 +4205,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J74" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K74" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L74" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4222,10 +4228,10 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C75" s="2">
         <v>44190</v>
@@ -4243,22 +4249,22 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I75" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J75" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K75" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L75" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4266,10 +4272,10 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C76" s="2">
         <v>44191</v>
@@ -4296,13 +4302,13 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L76" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4310,7 +4316,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B77" t="s">
         <v>18</v>
@@ -4343,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4354,10 +4360,10 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C78" s="2">
         <v>44191</v>
@@ -4387,10 +4393,10 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4398,10 +4404,10 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C79" s="2">
         <v>44192</v>
@@ -4428,13 +4434,13 @@
         <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L79" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4442,10 +4448,10 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C80" s="2">
         <v>44192</v>
@@ -4472,15 +4478,59 @@
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L80" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81">
+        <v>119</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="2">
+        <v>44192</v>
+      </c>
+      <c r="D81" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81">
+        <v>13.7946069</v>
+      </c>
+      <c r="F81">
+        <v>100.5161808</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>98</v>
+      </c>
+      <c r="L81" t="s">
+        <v>150</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N81">
         <v>0</v>
       </c>
     </row>
@@ -4522,11 +4572,11 @@
     <hyperlink ref="M35" r:id="rId34"/>
     <hyperlink ref="M36" r:id="rId35"/>
     <hyperlink ref="M37" r:id="rId36"/>
-    <hyperlink ref="M38" r:id="rId37"/>
+    <hyperlink ref="M38" r:id="rId37" location="cxrecs_s"/>
     <hyperlink ref="M39" r:id="rId38"/>
     <hyperlink ref="M40" r:id="rId39"/>
     <hyperlink ref="M41" r:id="rId40"/>
-    <hyperlink ref="M42" r:id="rId41" location="cxrecs_s"/>
+    <hyperlink ref="M42" r:id="rId41"/>
     <hyperlink ref="M43" r:id="rId42"/>
     <hyperlink ref="M44" r:id="rId43"/>
     <hyperlink ref="M45" r:id="rId44"/>
@@ -4565,6 +4615,7 @@
     <hyperlink ref="M78" r:id="rId77"/>
     <hyperlink ref="M79" r:id="rId78"/>
     <hyperlink ref="M80" r:id="rId79"/>
+    <hyperlink ref="M81" r:id="rId80"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="199">
   <si>
     <t>id</t>
   </si>
@@ -160,6 +160,9 @@
     <t>เกทเวย์ แอท บางซื่อ</t>
   </si>
   <si>
+    <t>เมเจอร์ปิ่นเกล้า</t>
+  </si>
+  <si>
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
@@ -211,6 +214,9 @@
     <t>โครงการ สวนเพลิน มาร์เก็ต</t>
   </si>
   <si>
+    <t>การประปาพระโขนง</t>
+  </si>
+  <si>
     <t>Lamptitude สาขาเอกมัย</t>
   </si>
   <si>
@@ -274,6 +280,9 @@
     <t>สนามบินดอนเมือง</t>
   </si>
   <si>
+    <t>โรงงาน Big Star</t>
+  </si>
+  <si>
     <t>สาธร ซิตี้ ทาวเวอร์</t>
   </si>
   <si>
@@ -376,6 +385,9 @@
     <t>เกทเวย์ แอท บางซื่อ ชี้แจงกรณีพบผู้ติดเชื้อโควิดเข้าใช้บริการ</t>
   </si>
   <si>
+    <t>โฆษกกทม.ทยอยเปิดไทม์ไลน์ ติดเชื้อโควิดในกรุงเทพฯ 75 คนแล้ว ไล่สอบสวนโรค พบไปหลายห้าง ดูหนัง คาราโอเกะ</t>
+  </si>
+  <si>
     <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
   </si>
   <si>
@@ -448,6 +460,9 @@
     <t xml:space="preserve">ตลาดอ่อนนุช ประกาศ ทำความสะอาดใหญ่ และฉีดพ่นน้ำยาฆ่าเชื้อ แล้วเปิดทำการตามปกติแล้ว หลังจากหลายวันก่อนพบผู้ค้าอาหารทะเลที่รับมาจากสมุทรสาครติดโควิด-19  </t>
   </si>
   <si>
+    <t>กทม.เก็บน้ำลายคนงานโรงงานบิ๊กสตาร์ 200 คน กลุ่มเสี่ยงหลังพบ 3 คนติดโควิด</t>
+  </si>
+  <si>
     <t>พนักงานสาธรซิตี้ ทาวเวอร์ ติดโควิด</t>
   </si>
   <si>
@@ -514,6 +529,9 @@
     <t>https://www.onbnews.today/post/43979</t>
   </si>
   <si>
+    <t>https://www.pptvhd36.com/news/%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%A0%E0%B8%B2%E0%B8%9E/139122</t>
+  </si>
+  <si>
     <t>https://www.thaipost.net/main/detail/87367</t>
   </si>
   <si>
@@ -569,6 +587,9 @@
   </si>
   <si>
     <t>https://www.sanook.com/news/8324143/</t>
+  </si>
+  <si>
+    <t>https://www.prachachat.net/general/news-582425</t>
   </si>
   <si>
     <t>https://www.matichon.co.th/covid19/news_2500693</t>
@@ -964,7 +985,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1037,22 +1058,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1081,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1128,19 +1149,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1169,22 +1190,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1213,22 +1234,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1257,22 +1278,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1301,22 +1322,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1345,22 +1366,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1389,22 +1410,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1433,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1477,22 +1498,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L12" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1524,19 +1545,19 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1565,22 +1586,22 @@
         <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1609,22 +1630,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1653,22 +1674,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1697,22 +1718,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J17" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1741,22 +1762,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1785,22 +1806,22 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L19" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1829,22 +1850,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1873,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J21" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1917,22 +1938,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J22" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1961,22 +1982,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J23" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L23" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2005,22 +2026,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K24" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2049,22 +2070,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J25" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L25" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2093,22 +2114,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J26" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K26" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L26" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2137,22 +2158,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J27" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2181,22 +2202,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J28" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L28" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2225,22 +2246,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J29" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K29" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L29" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2269,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J30" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K30" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2295,40 +2316,40 @@
         <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D31" t="s">
         <v>48</v>
       </c>
       <c r="E31">
-        <v>13.5579068</v>
+        <v>13.77870414</v>
       </c>
       <c r="F31">
-        <v>100.270829</v>
+        <v>100.4778649</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31">
-        <v>0</v>
+      <c r="H31" t="s">
+        <v>101</v>
       </c>
       <c r="I31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J31" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K31" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L31" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2339,7 +2360,7 @@
         <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2">
         <v>44185</v>
@@ -2348,31 +2369,31 @@
         <v>49</v>
       </c>
       <c r="E32">
-        <v>13.7937004</v>
+        <v>13.5579068</v>
       </c>
       <c r="F32">
-        <v>100.6923144</v>
+        <v>100.270829</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32" t="s">
-        <v>96</v>
+      <c r="H32">
+        <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J32" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K32" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L32" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2383,7 +2404,7 @@
         <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C33" s="2">
         <v>44185</v>
@@ -2392,31 +2413,31 @@
         <v>50</v>
       </c>
       <c r="E33">
-        <v>13.5455607</v>
+        <v>13.7937004</v>
       </c>
       <c r="F33">
-        <v>100.2767611</v>
+        <v>100.6923144</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J33" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K33" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L33" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2427,7 +2448,7 @@
         <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" s="2">
         <v>44185</v>
@@ -2436,31 +2457,31 @@
         <v>51</v>
       </c>
       <c r="E34">
-        <v>13.7204469</v>
+        <v>13.5455607</v>
       </c>
       <c r="F34">
-        <v>100.5004708</v>
+        <v>100.2767611</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J34" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K34" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L34" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2471,40 +2492,40 @@
         <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C35" s="2">
         <v>44185</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E35">
-        <v>14.3355326</v>
+        <v>13.7204469</v>
       </c>
       <c r="F35">
-        <v>100.87017</v>
+        <v>100.5004708</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35">
-        <v>0</v>
+      <c r="H35" t="s">
+        <v>99</v>
       </c>
       <c r="I35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J35" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K35" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L35" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2521,13 +2542,13 @@
         <v>44185</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E36">
-        <v>14.5786407</v>
+        <v>14.3355326</v>
       </c>
       <c r="F36">
-        <v>100.9662444</v>
+        <v>100.87017</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2536,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J36" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K36" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L36" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2565,13 +2586,13 @@
         <v>44185</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E37">
-        <v>14.5116599</v>
+        <v>14.5786407</v>
       </c>
       <c r="F37">
-        <v>100.9094134</v>
+        <v>100.9662444</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2580,19 +2601,19 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J37" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K37" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L37" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2603,7 +2624,7 @@
         <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C38" s="2">
         <v>44185</v>
@@ -2612,10 +2633,10 @@
         <v>52</v>
       </c>
       <c r="E38">
-        <v>14.1378761</v>
+        <v>14.5116599</v>
       </c>
       <c r="F38">
-        <v>100.8255049</v>
+        <v>100.9094134</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2624,19 +2645,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J38" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K38" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L38" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2647,7 +2668,7 @@
         <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C39" s="2">
         <v>44185</v>
@@ -2656,31 +2677,31 @@
         <v>53</v>
       </c>
       <c r="E39">
-        <v>14.06566869</v>
+        <v>14.1378761</v>
       </c>
       <c r="F39">
-        <v>99.9821468</v>
+        <v>100.8255049</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39" t="s">
-        <v>97</v>
+      <c r="H39">
+        <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J39" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K39" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L39" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2691,7 +2712,7 @@
         <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C40" s="2">
         <v>44185</v>
@@ -2700,31 +2721,31 @@
         <v>54</v>
       </c>
       <c r="E40">
-        <v>13.8220612</v>
+        <v>14.06566869</v>
       </c>
       <c r="F40">
-        <v>100.421874</v>
+        <v>99.9821468</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J40" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K40" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L40" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2735,7 +2756,7 @@
         <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C41" s="2">
         <v>44185</v>
@@ -2744,31 +2765,31 @@
         <v>55</v>
       </c>
       <c r="E41">
-        <v>13.8683169</v>
+        <v>13.8220612</v>
       </c>
       <c r="F41">
-        <v>100.4107308</v>
+        <v>100.421874</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J41" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K41" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L41" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2779,7 +2800,7 @@
         <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" s="2">
         <v>44185</v>
@@ -2788,31 +2809,31 @@
         <v>56</v>
       </c>
       <c r="E42">
-        <v>13.89757086</v>
+        <v>13.8683169</v>
       </c>
       <c r="F42">
-        <v>100.6098027</v>
+        <v>100.4107308</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J42" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K42" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L42" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2823,7 +2844,7 @@
         <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C43" s="2">
         <v>44185</v>
@@ -2832,31 +2853,31 @@
         <v>57</v>
       </c>
       <c r="E43">
-        <v>13.72045903</v>
+        <v>13.89757086</v>
       </c>
       <c r="F43">
-        <v>100.5004852</v>
+        <v>100.6098027</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J43" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K43" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L43" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2867,7 +2888,7 @@
         <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C44" s="2">
         <v>44185</v>
@@ -2876,31 +2897,31 @@
         <v>58</v>
       </c>
       <c r="E44">
-        <v>13.817137</v>
+        <v>13.72045903</v>
       </c>
       <c r="F44">
-        <v>100.041497</v>
+        <v>100.5004852</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J44" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K44" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L44" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2920,31 +2941,31 @@
         <v>59</v>
       </c>
       <c r="E45">
-        <v>13.737328</v>
+        <v>13.817137</v>
       </c>
       <c r="F45">
-        <v>100.081218</v>
+        <v>100.041497</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I45" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J45" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K45" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L45" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -2964,31 +2985,31 @@
         <v>60</v>
       </c>
       <c r="E46">
-        <v>14.021384</v>
+        <v>13.737328</v>
       </c>
       <c r="F46">
-        <v>100.165325</v>
+        <v>100.081218</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I46" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J46" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K46" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L46" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3008,31 +3029,31 @@
         <v>61</v>
       </c>
       <c r="E47">
-        <v>13.82347979</v>
+        <v>14.021384</v>
       </c>
       <c r="F47">
-        <v>100.4101224</v>
+        <v>100.165325</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J47" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K47" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L47" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3052,31 +3073,31 @@
         <v>62</v>
       </c>
       <c r="E48">
-        <v>13.82622351</v>
+        <v>13.82347979</v>
       </c>
       <c r="F48">
-        <v>100.4124415</v>
+        <v>100.4101224</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J48" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K48" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L48" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3087,40 +3108,40 @@
         <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="D49" t="s">
         <v>63</v>
       </c>
       <c r="E49">
-        <v>13.8781452</v>
+        <v>13.82622351</v>
       </c>
       <c r="F49">
-        <v>100.4091302</v>
+        <v>100.4124415</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J49" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K49" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L49" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3131,7 +3152,7 @@
         <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C50" s="2">
         <v>44186</v>
@@ -3140,31 +3161,31 @@
         <v>64</v>
       </c>
       <c r="E50">
-        <v>13.7164198</v>
+        <v>13.8781452</v>
       </c>
       <c r="F50">
-        <v>100.5716135</v>
+        <v>100.4091302</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J50" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K50" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L50" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3175,40 +3196,40 @@
         <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C51" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D51" t="s">
         <v>65</v>
       </c>
       <c r="E51">
-        <v>13.73541413</v>
+        <v>13.7164198</v>
       </c>
       <c r="F51">
-        <v>100.5877998</v>
+        <v>100.5716135</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51">
-        <v>0</v>
+      <c r="H51" t="s">
+        <v>101</v>
       </c>
       <c r="I51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J51" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K51" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L51" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3222,37 +3243,37 @@
         <v>15</v>
       </c>
       <c r="C52" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D52" t="s">
         <v>66</v>
       </c>
       <c r="E52">
-        <v>13.78766192</v>
+        <v>13.70807262</v>
       </c>
       <c r="F52">
-        <v>100.5105938</v>
+        <v>100.59964</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52">
-        <v>0</v>
+      <c r="H52" t="s">
+        <v>101</v>
       </c>
       <c r="I52" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J52" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K52" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L52" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3263,7 +3284,7 @@
         <v>91</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C53" s="2">
         <v>44187</v>
@@ -3272,31 +3293,31 @@
         <v>67</v>
       </c>
       <c r="E53">
-        <v>13.5951449</v>
+        <v>13.73541413</v>
       </c>
       <c r="F53">
-        <v>100.5802135</v>
+        <v>100.5877998</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53" t="s">
-        <v>97</v>
+      <c r="H53">
+        <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J53" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K53" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L53" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3316,31 +3337,31 @@
         <v>68</v>
       </c>
       <c r="E54">
-        <v>13.803038</v>
+        <v>13.78766192</v>
       </c>
       <c r="F54">
-        <v>100.188902</v>
+        <v>100.5105938</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="H54" t="s">
-        <v>98</v>
+      <c r="H54">
+        <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J54" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K54" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L54" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3351,7 +3372,7 @@
         <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C55" s="2">
         <v>44187</v>
@@ -3360,31 +3381,31 @@
         <v>69</v>
       </c>
       <c r="E55">
-        <v>13.802276</v>
+        <v>13.5951449</v>
       </c>
       <c r="F55">
-        <v>100.19</v>
+        <v>100.5802135</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I55" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J55" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K55" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L55" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3404,31 +3425,31 @@
         <v>70</v>
       </c>
       <c r="E56">
-        <v>13.928974</v>
+        <v>13.803038</v>
       </c>
       <c r="F56">
-        <v>100.577365</v>
+        <v>100.188902</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I56" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J56" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K56" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L56" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3448,31 +3469,31 @@
         <v>71</v>
       </c>
       <c r="E57">
-        <v>13.929686</v>
+        <v>13.802276</v>
       </c>
       <c r="F57">
-        <v>100.576</v>
+        <v>100.19</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I57" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J57" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K57" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L57" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3492,31 +3513,31 @@
         <v>72</v>
       </c>
       <c r="E58">
-        <v>13.76033018</v>
+        <v>13.928974</v>
       </c>
       <c r="F58">
-        <v>100.4796436</v>
+        <v>100.577365</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I58" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J58" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K58" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L58" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3536,31 +3557,31 @@
         <v>73</v>
       </c>
       <c r="E59">
-        <v>13.82853997</v>
+        <v>13.929686</v>
       </c>
       <c r="F59">
-        <v>100.4842102</v>
+        <v>100.576</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J59" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K59" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L59" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3571,40 +3592,40 @@
         <v>98</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D60" t="s">
         <v>74</v>
       </c>
       <c r="E60">
-        <v>13.7462524</v>
+        <v>13.76033018</v>
       </c>
       <c r="F60">
-        <v>100.5328635</v>
+        <v>100.4796436</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60">
-        <v>0</v>
+      <c r="H60" t="s">
+        <v>101</v>
       </c>
       <c r="I60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J60" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K60" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L60" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3615,40 +3636,40 @@
         <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C61" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D61" t="s">
         <v>75</v>
       </c>
       <c r="E61">
-        <v>13.7243591</v>
+        <v>13.82853997</v>
       </c>
       <c r="F61">
-        <v>100.5386589</v>
+        <v>100.4842102</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
-      <c r="H61">
-        <v>0</v>
+      <c r="H61" t="s">
+        <v>101</v>
       </c>
       <c r="I61" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J61" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K61" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3659,7 +3680,7 @@
         <v>100</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C62" s="2">
         <v>44188</v>
@@ -3668,31 +3689,31 @@
         <v>76</v>
       </c>
       <c r="E62">
-        <v>13.54974685</v>
+        <v>13.7462524</v>
       </c>
       <c r="F62">
-        <v>100.2561435</v>
+        <v>100.5328635</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="H62" t="s">
-        <v>96</v>
+      <c r="H62">
+        <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J62" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K62" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L62" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3712,31 +3733,31 @@
         <v>77</v>
       </c>
       <c r="E63">
-        <v>14.45160513</v>
+        <v>13.7243591</v>
       </c>
       <c r="F63">
-        <v>100.7230585</v>
+        <v>100.5386589</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63" t="s">
-        <v>96</v>
+      <c r="H63">
+        <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J63" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L63" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3747,7 +3768,7 @@
         <v>102</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C64" s="2">
         <v>44188</v>
@@ -3756,31 +3777,31 @@
         <v>78</v>
       </c>
       <c r="E64">
-        <v>13.72836497</v>
+        <v>13.54974685</v>
       </c>
       <c r="F64">
-        <v>100.5350858</v>
+        <v>100.2561435</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J64" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L64" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3791,7 +3812,7 @@
         <v>103</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C65" s="2">
         <v>44188</v>
@@ -3800,31 +3821,31 @@
         <v>79</v>
       </c>
       <c r="E65">
-        <v>13.7660558</v>
+        <v>14.45160513</v>
       </c>
       <c r="F65">
-        <v>100.6403032</v>
+        <v>100.7230585</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J65" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K65" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L65" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -3844,31 +3865,31 @@
         <v>80</v>
       </c>
       <c r="E66">
-        <v>13.710361</v>
+        <v>13.72836497</v>
       </c>
       <c r="F66">
-        <v>100.4073817</v>
+        <v>100.5350858</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I66" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K66" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L66" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -3879,7 +3900,7 @@
         <v>105</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C67" s="2">
         <v>44188</v>
@@ -3888,31 +3909,31 @@
         <v>81</v>
       </c>
       <c r="E67">
-        <v>13.2054213</v>
+        <v>13.7660558</v>
       </c>
       <c r="F67">
-        <v>99.9793013</v>
+        <v>100.6403032</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67">
-        <v>0</v>
+      <c r="H67" t="s">
+        <v>101</v>
       </c>
       <c r="I67" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K67" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L67" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -3932,31 +3953,31 @@
         <v>82</v>
       </c>
       <c r="E68">
-        <v>13.7100705</v>
+        <v>13.710361</v>
       </c>
       <c r="F68">
-        <v>100.6007069</v>
+        <v>100.4073817</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
+      <c r="H68" t="s">
+        <v>101</v>
+      </c>
+      <c r="I68" t="s">
+        <v>102</v>
+      </c>
+      <c r="J68" t="s">
+        <v>104</v>
+      </c>
+      <c r="K68" t="s">
+        <v>101</v>
       </c>
       <c r="L68" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -3967,7 +3988,7 @@
         <v>107</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C69" s="2">
         <v>44188</v>
@@ -3976,31 +3997,31 @@
         <v>83</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>13.2054213</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>99.9793013</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="H69" t="s">
-        <v>98</v>
+      <c r="H69">
+        <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J69" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K69" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L69" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4011,7 +4032,7 @@
         <v>108</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C70" s="2">
         <v>44188</v>
@@ -4020,31 +4041,31 @@
         <v>84</v>
       </c>
       <c r="E70">
-        <v>13.802283</v>
+        <v>13.7100705</v>
       </c>
       <c r="F70">
-        <v>100.184509</v>
+        <v>100.6007069</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70" t="s">
-        <v>98</v>
-      </c>
-      <c r="I70" t="s">
-        <v>99</v>
-      </c>
-      <c r="J70" t="s">
-        <v>101</v>
-      </c>
-      <c r="K70" t="s">
-        <v>98</v>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4064,31 +4085,31 @@
         <v>85</v>
       </c>
       <c r="E71">
-        <v>13.91857</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>100.601606</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I71" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J71" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K71" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L71" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4102,37 +4123,37 @@
         <v>15</v>
       </c>
       <c r="C72" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D72" t="s">
         <v>86</v>
       </c>
       <c r="E72">
-        <v>13.721681</v>
+        <v>13.802283</v>
       </c>
       <c r="F72">
-        <v>100.53</v>
+        <v>100.184509</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I72" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J72" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K72" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L72" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4143,40 +4164,40 @@
         <v>111</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C73" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D73" t="s">
         <v>87</v>
       </c>
       <c r="E73">
-        <v>13.9134431</v>
+        <v>13.91857</v>
       </c>
       <c r="F73">
-        <v>100.4220473</v>
+        <v>100.601606</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I73" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J73" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K73" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L73" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4190,37 +4211,37 @@
         <v>15</v>
       </c>
       <c r="C74" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D74" t="s">
         <v>88</v>
       </c>
       <c r="E74">
-        <v>13.786588</v>
+        <v>13.6171972</v>
       </c>
       <c r="F74">
-        <v>100.321233</v>
+        <v>100.3791504</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I74" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J74" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K74" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L74" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4234,37 +4255,37 @@
         <v>15</v>
       </c>
       <c r="C75" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D75" t="s">
         <v>89</v>
       </c>
       <c r="E75">
-        <v>13.924252</v>
+        <v>13.721681</v>
       </c>
       <c r="F75">
-        <v>100.597945</v>
+        <v>100.53</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I75" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J75" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K75" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L75" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4275,40 +4296,40 @@
         <v>114</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C76" s="2">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="D76" t="s">
         <v>90</v>
       </c>
       <c r="E76">
-        <v>13.7636001</v>
+        <v>13.9134431</v>
       </c>
       <c r="F76">
-        <v>100.5114624</v>
+        <v>100.4220473</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
+      <c r="H76" t="s">
+        <v>99</v>
+      </c>
+      <c r="I76" t="s">
+        <v>103</v>
+      </c>
+      <c r="J76" t="s">
+        <v>104</v>
       </c>
       <c r="K76" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L76" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4319,40 +4340,40 @@
         <v>115</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C77" s="2">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="D77" t="s">
         <v>91</v>
       </c>
       <c r="E77">
-        <v>13.734066</v>
+        <v>13.786588</v>
       </c>
       <c r="F77">
-        <v>100.5278354</v>
+        <v>100.321233</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
+      <c r="H77" t="s">
+        <v>101</v>
+      </c>
+      <c r="I77" t="s">
+        <v>102</v>
+      </c>
+      <c r="J77" t="s">
+        <v>104</v>
+      </c>
+      <c r="K77" t="s">
+        <v>101</v>
       </c>
       <c r="L77" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4363,40 +4384,40 @@
         <v>116</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C78" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D78" t="s">
         <v>92</v>
       </c>
       <c r="E78">
-        <v>12.6483736</v>
+        <v>13.924252</v>
       </c>
       <c r="F78">
-        <v>101.2273679</v>
+        <v>100.597945</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
+      <c r="H78" t="s">
+        <v>101</v>
+      </c>
+      <c r="I78" t="s">
+        <v>102</v>
+      </c>
+      <c r="J78" t="s">
+        <v>104</v>
+      </c>
+      <c r="K78" t="s">
+        <v>101</v>
       </c>
       <c r="L78" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4407,19 +4428,19 @@
         <v>117</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C79" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D79" t="s">
         <v>93</v>
       </c>
       <c r="E79">
-        <v>12.6844183</v>
+        <v>13.7636001</v>
       </c>
       <c r="F79">
-        <v>101.2742991</v>
+        <v>100.5114624</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -4434,13 +4455,13 @@
         <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L79" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4451,19 +4472,19 @@
         <v>118</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C80" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D80" t="s">
         <v>94</v>
       </c>
       <c r="E80">
-        <v>12.9730033</v>
+        <v>13.734066</v>
       </c>
       <c r="F80">
-        <v>100.9029061</v>
+        <v>100.5278354</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -4477,14 +4498,14 @@
       <c r="J80">
         <v>0</v>
       </c>
-      <c r="K80" t="s">
-        <v>98</v>
+      <c r="K80">
+        <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4495,42 +4516,174 @@
         <v>119</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C81" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D81" t="s">
         <v>95</v>
       </c>
       <c r="E81">
+        <v>12.6483736</v>
+      </c>
+      <c r="F81">
+        <v>101.2273679</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81" t="s">
+        <v>153</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82">
+        <v>120</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="2">
+        <v>44192</v>
+      </c>
+      <c r="D82" t="s">
+        <v>96</v>
+      </c>
+      <c r="E82">
+        <v>12.6844183</v>
+      </c>
+      <c r="F82">
+        <v>101.2742991</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>101</v>
+      </c>
+      <c r="L82" t="s">
+        <v>154</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83">
+        <v>121</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="2">
+        <v>44192</v>
+      </c>
+      <c r="D83" t="s">
+        <v>97</v>
+      </c>
+      <c r="E83">
+        <v>12.9730033</v>
+      </c>
+      <c r="F83">
+        <v>100.9029061</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>101</v>
+      </c>
+      <c r="L83" t="s">
+        <v>154</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84">
+        <v>122</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="2">
+        <v>44192</v>
+      </c>
+      <c r="D84" t="s">
+        <v>98</v>
+      </c>
+      <c r="E84">
         <v>13.7946069</v>
       </c>
-      <c r="F81">
+      <c r="F84">
         <v>100.5161808</v>
       </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81" t="s">
-        <v>98</v>
-      </c>
-      <c r="L81" t="s">
-        <v>150</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="N81">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>101</v>
+      </c>
+      <c r="L84" t="s">
+        <v>155</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N84">
         <v>0</v>
       </c>
     </row>
@@ -4572,8 +4725,8 @@
     <hyperlink ref="M35" r:id="rId34"/>
     <hyperlink ref="M36" r:id="rId35"/>
     <hyperlink ref="M37" r:id="rId36"/>
-    <hyperlink ref="M38" r:id="rId37" location="cxrecs_s"/>
-    <hyperlink ref="M39" r:id="rId38"/>
+    <hyperlink ref="M38" r:id="rId37"/>
+    <hyperlink ref="M39" r:id="rId38" location="cxrecs_s"/>
     <hyperlink ref="M40" r:id="rId39"/>
     <hyperlink ref="M41" r:id="rId40"/>
     <hyperlink ref="M42" r:id="rId41"/>
@@ -4616,6 +4769,9 @@
     <hyperlink ref="M79" r:id="rId78"/>
     <hyperlink ref="M80" r:id="rId79"/>
     <hyperlink ref="M81" r:id="rId80"/>
+    <hyperlink ref="M82" r:id="rId81"/>
+    <hyperlink ref="M83" r:id="rId82"/>
+    <hyperlink ref="M84" r:id="rId83"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="202">
   <si>
     <t>id</t>
   </si>
@@ -313,6 +313,9 @@
     <t>รัฐสภา</t>
   </si>
   <si>
+    <t>ร้านท่าเรือภัตตาคาร มหาชัย</t>
+  </si>
+  <si>
     <t>female</t>
   </si>
   <si>
@@ -484,6 +487,9 @@
     <t>ผลการตรวจออกมายืนยันแล้วว่า ชายที่เข้าร่วมประชุมอนุกรรมาธิการฯ พนันออนไลน์ในสภา ติดโควิด-19</t>
   </si>
   <si>
+    <t>ผู้ว่าฯ สมุทรสาคร พา “อนุทิน” ตรวจตลาดกลางกุ้ง ก่อนติดโควิด 1 วัน</t>
+  </si>
+  <si>
     <t>https://www.thairath.co.th/news/local/central/1999153</t>
   </si>
   <si>
@@ -611,6 +617,9 @@
   </si>
   <si>
     <t>https://www.matichon.co.th/politics/news_2503046</t>
+  </si>
+  <si>
+    <t>https://www.prachachat.net/general/news-583401</t>
   </si>
 </sst>
 </file>
@@ -985,7 +994,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1058,22 +1067,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1102,22 +1111,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1149,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1190,22 +1199,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1234,22 +1243,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1278,22 +1287,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1322,22 +1331,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1366,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1410,22 +1419,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1454,22 +1463,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1498,22 +1507,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1545,19 +1554,19 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1586,22 +1595,22 @@
         <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1630,22 +1639,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1674,22 +1683,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1718,22 +1727,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1762,22 +1771,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1806,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1850,22 +1859,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1894,22 +1903,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1938,22 +1947,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1982,22 +1991,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2026,22 +2035,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2070,22 +2079,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2114,22 +2123,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2158,22 +2167,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2202,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2246,22 +2255,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2290,22 +2299,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2334,22 +2343,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2381,19 +2390,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2422,22 +2431,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2466,22 +2475,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2510,22 +2519,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2557,19 +2566,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2601,19 +2610,19 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2645,19 +2654,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2689,19 +2698,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2730,22 +2739,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2774,22 +2783,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2818,22 +2827,22 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2862,22 +2871,22 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2906,22 +2915,22 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2950,22 +2959,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -2994,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3038,22 +3047,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3082,22 +3091,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3126,22 +3135,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3170,22 +3179,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3214,22 +3223,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3258,22 +3267,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3305,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3349,19 +3358,19 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K54" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3390,22 +3399,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I55" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3434,22 +3443,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3478,22 +3487,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J57" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L57" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3522,22 +3531,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I58" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K58" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3566,22 +3575,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K59" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L59" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3610,22 +3619,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I60" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J60" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3654,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J61" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K61" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3701,19 +3710,19 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J62" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K62" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L62" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3745,19 +3754,19 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3786,22 +3795,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I64" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J64" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K64" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L64" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3830,22 +3839,22 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I65" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J65" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L65" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -3874,22 +3883,22 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I66" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -3918,22 +3927,22 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I67" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J67" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K67" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L67" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -3962,22 +3971,22 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I68" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L68" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4009,19 +4018,19 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J69" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L69" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4062,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4094,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L71" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4138,22 +4147,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J72" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K72" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L72" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4182,22 +4191,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L73" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4226,22 +4235,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K74" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4270,22 +4279,22 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I75" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J75" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K75" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L75" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4314,22 +4323,22 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K76" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L76" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4358,22 +4367,22 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I77" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J77" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K77" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4402,22 +4411,22 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I78" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K78" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L78" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4455,13 +4464,13 @@
         <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L79" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4502,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4546,10 +4555,10 @@
         <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4587,13 +4596,13 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L82" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4631,13 +4640,13 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L83" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4675,15 +4684,59 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
+        <v>102</v>
+      </c>
+      <c r="L84" t="s">
+        <v>156</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85">
+        <v>123</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="2">
+        <v>44192</v>
+      </c>
+      <c r="D85" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85">
+        <v>13.54448567</v>
+      </c>
+      <c r="F85">
+        <v>100.2752027</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
         <v>101</v>
       </c>
-      <c r="L84" t="s">
-        <v>155</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="N84">
+      <c r="I85" t="s">
+        <v>103</v>
+      </c>
+      <c r="J85" t="s">
+        <v>105</v>
+      </c>
+      <c r="K85" t="s">
+        <v>102</v>
+      </c>
+      <c r="L85" t="s">
+        <v>157</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N85">
         <v>0</v>
       </c>
     </row>
@@ -4772,6 +4825,7 @@
     <hyperlink ref="M82" r:id="rId81"/>
     <hyperlink ref="M83" r:id="rId82"/>
     <hyperlink ref="M84" r:id="rId83"/>
+    <hyperlink ref="M85" r:id="rId84"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="211">
   <si>
     <t>id</t>
   </si>
@@ -61,39 +61,24 @@
     <t>unspecified_location</t>
   </si>
   <si>
+    <t>sanitizing</t>
+  </si>
+  <si>
     <t>patient_has_been_here</t>
   </si>
   <si>
+    <t>confirmed</t>
+  </si>
+  <si>
+    <t>suspected</t>
+  </si>
+  <si>
     <t>sanitized</t>
   </si>
   <si>
-    <t>sanitizing</t>
-  </si>
-  <si>
-    <t>confirmed</t>
-  </si>
-  <si>
-    <t>suspected</t>
-  </si>
-  <si>
     <t>นนทบุรี</t>
   </si>
   <si>
-    <t>แพกุ้งขนาดเล็ก บริเวณใกล้หอนาฬิกา</t>
-  </si>
-  <si>
-    <t>สำนักงานขนส่งเขตบางขุนเทียน</t>
-  </si>
-  <si>
-    <t>สถานบันเทิงอีสานกรองแก้ว</t>
-  </si>
-  <si>
-    <t>ห้างมาบุญครอง</t>
-  </si>
-  <si>
-    <t>ห้างบิ๊กซี อ.เมือง นครปฐม</t>
-  </si>
-  <si>
     <t>ร้านแซ่บอีสานคาราโอเกะ ย่านเทเวศร์</t>
   </si>
   <si>
@@ -121,6 +106,9 @@
     <t>โรงเรียนเจี้ยนหัว ต.บางเลน อ.บางเลน</t>
   </si>
   <si>
+    <t>สวทช.</t>
+  </si>
+  <si>
     <t>ซ.รุ่งเรือง 5 บางบัวทอง</t>
   </si>
   <si>
@@ -163,6 +151,15 @@
     <t>เมเจอร์ปิ่นเกล้า</t>
   </si>
   <si>
+    <t>ตลาดแสมดำ</t>
+  </si>
+  <si>
+    <t>ธนาคารกสิกรไทย สาขาบิ๊กซีอ่อนนุช</t>
+  </si>
+  <si>
+    <t>สนามบอล ย่านลาดพร้าว80</t>
+  </si>
+  <si>
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
@@ -208,6 +205,15 @@
     <t>ร้านเชฟอ้วนก๋วยเตี๋ยวหมูนายแกละ-บางใหญ่</t>
   </si>
   <si>
+    <t>ตลาดบางแค</t>
+  </si>
+  <si>
+    <t>การเคหะวัดพระเงิน</t>
+  </si>
+  <si>
+    <t>ร้านข้าวแกงแม่เสี้ยน ปั๊ม ปตท.</t>
+  </si>
+  <si>
     <t>ร้านก๋วยเตี๋ยว ในตลาดบางใหญ่</t>
   </si>
   <si>
@@ -217,6 +223,12 @@
     <t>การประปาพระโขนง</t>
   </si>
   <si>
+    <t>ขนส่งสายใต้ใหม่</t>
+  </si>
+  <si>
+    <t>สนามสปอร์ตคลับ ย่านปรีดีพนมยงค์</t>
+  </si>
+  <si>
     <t>Lamptitude สาขาเอกมัย</t>
   </si>
   <si>
@@ -316,6 +328,15 @@
     <t>ร้านท่าเรือภัตตาคาร มหาชัย</t>
   </si>
   <si>
+    <t>ตู้มวยเทพประสิทธิ์ บางละมุง</t>
+  </si>
+  <si>
+    <t>ตู้มวยฝนจางนางหาย ถนนพระยาสัจจา</t>
+  </si>
+  <si>
+    <t>Bone (night club)</t>
+  </si>
+  <si>
     <t>female</t>
   </si>
   <si>
@@ -337,27 +358,18 @@
     <t xml:space="preserve">เคสแม่ค้ารถพุ่มพวงติดโควิด เป็นรถกระบะสีขาว ป้ายแดง ทะเบียน 8681 สมุทรปราการ </t>
   </si>
   <si>
-    <t>เคสเจ้าของร้านอาหารติดโควิด มีประวัติไปแพกุ้ง จ.สมุทรสาคร</t>
-  </si>
-  <si>
-    <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาต่อใบขับขี่ที่นี่วันที่ 15 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
-  </si>
-  <si>
     <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20</t>
   </si>
   <si>
-    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20 13 ธ.ค. แวะมาบุญครอง</t>
+    <t>พบผู้ติดโควิดมาใช้บริการ'นมโจ'สาขาประชาชื่น39</t>
+  </si>
+  <si>
+    <t>เซ็นทรัลเวสต์เกต แจง ฉีดพ่นน้ำยาฆ่าเชื้อทันที-ทั่วศูนย์การค้า หลังพบผู้ป่วยโควิดใช้บริการ</t>
   </si>
   <si>
     <t>ผู้ป่วย  covid-19 นครปฐม รายที่22-29</t>
   </si>
   <si>
-    <t>พบผู้ติดโควิดมาใช้บริการ'นมโจ'สาขาประชาชื่น39</t>
-  </si>
-  <si>
-    <t>เซ็นทรัลเวสต์เกต แจง ฉีดพ่นน้ำยาฆ่าเชื้อทันที-ทั่วศูนย์การค้า หลังพบผู้ป่วยโควิดใช้บริการ</t>
-  </si>
-  <si>
     <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาปฏิบัติงานที่นี่วันที่ 16-17 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
   </si>
   <si>
@@ -367,6 +379,9 @@
     <t>เคสผู้ติดเชื้อโควิด-19 ชายขายอาหารทะเลปากซ.พหล52</t>
   </si>
   <si>
+    <t>Timeline ผู้ติดเชื้อ covid19 กทม. รายที่ 22-43</t>
+  </si>
+  <si>
     <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย วันที่ 14-18 ธค. เวลา 17.00-21.00 น. จะทำงานร้านขายของชำ ซ.รุ่งเรือง 5 บางบัวทอง</t>
   </si>
   <si>
@@ -487,63 +502,69 @@
     <t>ผลการตรวจออกมายืนยันแล้วว่า ชายที่เข้าร่วมประชุมอนุกรรมาธิการฯ พนันออนไลน์ในสภา ติดโควิด-19</t>
   </si>
   <si>
-    <t>ผู้ว่าฯ สมุทรสาคร พา “อนุทิน” ตรวจตลาดกลางกุ้ง ก่อนติดโควิด 1 วัน</t>
+    <t>ผู้ว่าฯ สมุทรสาคร พา รมต.สาธารณะสุข ตรวจตลาดกลางกุ้ง ก่อนติดโควิด 1 วัน</t>
+  </si>
+  <si>
+    <t>ขอให้ผู้ที่มาที่นี่ตั้งแต่วันที่ 1 ธ.ค. เฝ้าระวัง สังเกตอาการ</t>
+  </si>
+  <si>
+    <t>ผู้ใดเดินทางมาที่นี่ตั้งแต่วันที่ 15 ธ.ค. ขอให้เฝ้าระวัง สังเกตอาการ</t>
+  </si>
+  <si>
+    <t>ผู้ใดเดินทางมาที่นี่ตั้งแต่วันที่ 5 ธ.ค. ขอให้เฝ้าระวัง สังเกตอาการ</t>
   </si>
   <si>
     <t>https://www.thairath.co.th/news/local/central/1999153</t>
   </si>
   <si>
+    <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
+  </si>
+  <si>
+    <t>https://www.dailynews.co.th/regional/814463</t>
+  </si>
+  <si>
+    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2500853</t>
+  </si>
+  <si>
+    <t>https://m.facebook.com/story.php?story_fbid=3200886696679973&amp;id=246608695441136&amp;sfnsn=mo</t>
+  </si>
+  <si>
+    <t>https://liff.line.me/1454988218-NjbXbq18/v2/article/jpyamK?utm_source=copyshare</t>
+  </si>
+  <si>
+    <t>https://www.pptvhd36.com/news/%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%94%E0%B9%87%E0%B8%99%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99/138903</t>
+  </si>
+  <si>
+    <t>https://www.dailynews.co.th/regional/814914</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/posts/3119216564844610</t>
+  </si>
+  <si>
+    <t>https://www.khaosod.co.th/breaking-news/news_5591909</t>
+  </si>
+  <si>
+    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
+  </si>
+  <si>
+    <t>https://mgronline.com/local/detail/9630000130818</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SomsakPuOb/posts/3554410321292740</t>
+  </si>
+  <si>
+    <t>https://www.onbnews.today/post/43979</t>
+  </si>
+  <si>
+    <t>https://www.pptvhd36.com/news/%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%A0%E0%B8%B2%E0%B8%9E/139122</t>
+  </si>
+  <si>
+    <t>https://www.thaipost.net/main/detail/87367</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/SomsakPuOb/photos/a.237834942950311/3554401867960252/?type=3</t>
   </si>
   <si>
-    <t>https://liff.line.me/1454988218-NjbXbq18/v2/article/jpyamK?utm_source=copyshare</t>
-  </si>
-  <si>
-    <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/mbkcenterth/posts/3939890189363487</t>
-  </si>
-  <si>
-    <t>https://m.facebook.com/story.php?story_fbid=3200886696679973&amp;id=246608695441136&amp;sfnsn=mo</t>
-  </si>
-  <si>
-    <t>https://www.dailynews.co.th/regional/814463</t>
-  </si>
-  <si>
-    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2500853</t>
-  </si>
-  <si>
-    <t>https://www.pptvhd36.com/news/%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%94%E0%B9%87%E0%B8%99%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99/138903</t>
-  </si>
-  <si>
-    <t>https://www.dailynews.co.th/regional/814914</t>
-  </si>
-  <si>
-    <t>https://www.khaosod.co.th/breaking-news/news_5591909</t>
-  </si>
-  <si>
-    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
-  </si>
-  <si>
-    <t>https://mgronline.com/local/detail/9630000130818</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SomsakPuOb/posts/3554410321292740</t>
-  </si>
-  <si>
-    <t>https://www.onbnews.today/post/43979</t>
-  </si>
-  <si>
-    <t>https://www.pptvhd36.com/news/%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%A0%E0%B8%B2%E0%B8%9E/139122</t>
-  </si>
-  <si>
-    <t>https://www.thaipost.net/main/detail/87367</t>
-  </si>
-  <si>
-    <t>https://www.thairath.co.th/news/local/east/1998735</t>
-  </si>
-  <si>
     <t>https://www.thairath.co.th/news/local/central/1998711</t>
   </si>
   <si>
@@ -620,6 +641,12 @@
   </si>
   <si>
     <t>https://www.prachachat.net/general/news-583401</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/318251788326658/photos/a.319526161532554/1902163179935503/?type=3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/318251788326658/photos/a.319526161532554/1902105926607895/?type=3</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1021,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1046,43 +1073,43 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="2">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>13.8205741</v>
+        <v>13.8330877</v>
       </c>
       <c r="F2">
-        <v>100.4822683</v>
+        <v>100.499237</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1090,43 +1117,43 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>13.5440411</v>
+        <v>13.7689441</v>
       </c>
       <c r="F3">
-        <v>100.2752457</v>
+        <v>100.5046383</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1134,43 +1161,43 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>13.6211105</v>
+        <v>13.84341791</v>
       </c>
       <c r="F4">
-        <v>100.4387341</v>
+        <v>100.5419373</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>0</v>
+      <c r="H4" t="s">
+        <v>109</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1178,43 +1205,43 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>13.7731761</v>
+        <v>13.87694672</v>
       </c>
       <c r="F5">
-        <v>100.4851346</v>
+        <v>100.4115482</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1222,43 +1249,43 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>13.74512653</v>
+        <v>13.964334</v>
       </c>
       <c r="F6">
-        <v>100.5298302</v>
+        <v>100.083426</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1266,43 +1293,43 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>44180</v>
+        <v>44182</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>13.812836</v>
+        <v>14.0782451</v>
       </c>
       <c r="F7">
-        <v>100.07</v>
+        <v>100.604118</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
-        <v>102</v>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1310,43 +1337,43 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>13.8330877</v>
+        <v>13.86019768</v>
       </c>
       <c r="F8">
-        <v>100.499237</v>
+        <v>100.7223304</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1354,43 +1381,43 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>13.7689441</v>
+        <v>13.8578211</v>
       </c>
       <c r="F9">
-        <v>100.5046383</v>
+        <v>100.4105189</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1398,43 +1425,43 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10">
-        <v>13.84341791</v>
+        <v>13.85934159</v>
       </c>
       <c r="F10">
-        <v>100.5419373</v>
+        <v>100.5849015</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1442,43 +1469,43 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>13.87694672</v>
+        <v>14.119413</v>
       </c>
       <c r="F11">
-        <v>100.4115482</v>
+        <v>100.118335</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1486,43 +1513,43 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12">
-        <v>13.964334</v>
+        <v>14.07688153</v>
       </c>
       <c r="F12">
-        <v>100.083426</v>
+        <v>100.6017061</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1530,43 +1557,43 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13">
-        <v>14.0782451</v>
+        <v>13.87779142</v>
       </c>
       <c r="F13">
-        <v>100.604118</v>
+        <v>100.4215436</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>0</v>
+      <c r="H13" t="s">
+        <v>107</v>
       </c>
       <c r="I13" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J13" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1574,43 +1601,43 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14">
-        <v>13.86019768</v>
+        <v>13.88376994</v>
       </c>
       <c r="F14">
-        <v>100.7223304</v>
+        <v>100.5843207</v>
       </c>
       <c r="G14">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I14" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J14" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K14" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1618,43 +1645,43 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15">
-        <v>13.8578211</v>
+        <v>13.965066</v>
       </c>
       <c r="F15">
-        <v>100.4105189</v>
+        <v>100.07959</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I15" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K15" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L15" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1662,43 +1689,43 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16">
-        <v>13.85934159</v>
+        <v>14.036373</v>
       </c>
       <c r="F16">
-        <v>100.5849015</v>
+        <v>100.168774</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J16" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K16" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1706,43 +1733,43 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2">
-        <v>44182</v>
+        <v>44184</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17">
-        <v>14.119413</v>
+        <v>14.1487352</v>
       </c>
       <c r="F17">
-        <v>100.118335</v>
+        <v>100.6155778</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I17" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J17" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K17" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1750,43 +1777,43 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18">
-        <v>13.87779142</v>
+        <v>13.8057625</v>
       </c>
       <c r="F18">
-        <v>100.4215436</v>
+        <v>100.6621959</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I18" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K18" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1794,43 +1821,43 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19">
-        <v>13.88376994</v>
+        <v>14.01215068</v>
       </c>
       <c r="F19">
-        <v>100.5843207</v>
+        <v>100.17523</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I19" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J19" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K19" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L19" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1838,43 +1865,43 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20">
-        <v>13.965066</v>
+        <v>13.8134088</v>
       </c>
       <c r="F20">
-        <v>100.07959</v>
+        <v>100.5616103</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I20" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J20" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K20" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L20" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1882,43 +1909,43 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21">
-        <v>14.036373</v>
+        <v>13.816493</v>
       </c>
       <c r="F21">
-        <v>100.168774</v>
+        <v>100.5610062</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I21" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J21" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K21" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1926,43 +1953,43 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2">
         <v>44184</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22">
-        <v>14.1487352</v>
+        <v>13.7966595</v>
       </c>
       <c r="F22">
-        <v>100.6155778</v>
+        <v>100.4755856</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I22" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J22" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K22" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L22" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1970,43 +1997,43 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2">
         <v>44184</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23">
-        <v>13.8057625</v>
+        <v>13.69121688</v>
       </c>
       <c r="F23">
-        <v>100.6621959</v>
+        <v>100.3412194</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I23" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J23" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K23" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L23" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2014,40 +2041,40 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2">
         <v>44184</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24">
-        <v>14.01215068</v>
+        <v>13.79584</v>
       </c>
       <c r="F24">
-        <v>100.17523</v>
+        <v>100.13118</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I24" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J24" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K24" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>170</v>
@@ -2058,43 +2085,43 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25" s="2">
         <v>44184</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25">
-        <v>13.8134088</v>
+        <v>13.80564274</v>
       </c>
       <c r="F25">
-        <v>100.5616103</v>
+        <v>100.5238077</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I25" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J25" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K25" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L25" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2102,43 +2129,43 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2">
         <v>44184</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26">
-        <v>13.816493</v>
+        <v>13.77870414</v>
       </c>
       <c r="F26">
-        <v>100.5610062</v>
+        <v>100.4778649</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I26" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J26" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K26" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L26" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2146,43 +2173,43 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27" s="2">
         <v>44184</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E27">
-        <v>13.7966595</v>
+        <v>13.61347071</v>
       </c>
       <c r="F27">
-        <v>100.4755856</v>
+        <v>100.3824876</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I27" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J27" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K27" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L27" t="s">
         <v>121</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2190,43 +2217,43 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="2">
         <v>44184</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28">
-        <v>13.69121688</v>
+        <v>13.70935</v>
       </c>
       <c r="F28">
-        <v>100.3412194</v>
+        <v>100.6014532</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I28" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J28" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K28" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2234,43 +2261,43 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C29" s="2">
         <v>44184</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29">
-        <v>13.79584</v>
+        <v>13.78281463</v>
       </c>
       <c r="F29">
-        <v>100.13118</v>
+        <v>100.5995981</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I29" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J29" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K29" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L29" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2278,43 +2305,43 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E30">
-        <v>13.80564274</v>
+        <v>13.5579068</v>
       </c>
       <c r="F30">
-        <v>100.5238077</v>
+        <v>100.270829</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30" t="s">
-        <v>100</v>
+      <c r="H30">
+        <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K30" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2322,43 +2349,43 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E31">
-        <v>13.77870414</v>
+        <v>13.7937004</v>
       </c>
       <c r="F31">
-        <v>100.4778649</v>
+        <v>100.6923144</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I31" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J31" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K31" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L31" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2366,43 +2393,43 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="2">
         <v>44185</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E32">
-        <v>13.5579068</v>
+        <v>13.5455607</v>
       </c>
       <c r="F32">
-        <v>100.270829</v>
+        <v>100.2767611</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32">
-        <v>0</v>
+      <c r="H32" t="s">
+        <v>107</v>
       </c>
       <c r="I32" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J32" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K32" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L32" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2410,43 +2437,43 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C33" s="2">
         <v>44185</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E33">
-        <v>13.7937004</v>
+        <v>14.3355326</v>
       </c>
       <c r="F33">
-        <v>100.6923144</v>
+        <v>100.87017</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33" t="s">
-        <v>100</v>
+      <c r="H33">
+        <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J33" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L33" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2454,10 +2481,10 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34" s="2">
         <v>44185</v>
@@ -2466,31 +2493,31 @@
         <v>51</v>
       </c>
       <c r="E34">
-        <v>13.5455607</v>
+        <v>14.5786407</v>
       </c>
       <c r="F34">
-        <v>100.2767611</v>
+        <v>100.9662444</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34" t="s">
-        <v>100</v>
+      <c r="H34">
+        <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J34" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K34" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L34" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2498,43 +2525,43 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="2">
         <v>44185</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35">
-        <v>13.7204469</v>
+        <v>14.5116599</v>
       </c>
       <c r="F35">
-        <v>100.5004708</v>
+        <v>100.9094134</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35" t="s">
-        <v>100</v>
+      <c r="H35">
+        <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J35" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K35" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L35" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2542,10 +2569,10 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C36" s="2">
         <v>44185</v>
@@ -2554,10 +2581,10 @@
         <v>52</v>
       </c>
       <c r="E36">
-        <v>14.3355326</v>
+        <v>14.1378761</v>
       </c>
       <c r="F36">
-        <v>100.87017</v>
+        <v>100.8255049</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2566,19 +2593,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J36" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K36" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L36" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2586,43 +2613,43 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" s="2">
         <v>44185</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E37">
-        <v>14.5786407</v>
+        <v>14.06566869</v>
       </c>
       <c r="F37">
-        <v>100.9662444</v>
+        <v>99.9821468</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37">
-        <v>0</v>
+      <c r="H37" t="s">
+        <v>108</v>
       </c>
       <c r="I37" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J37" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K37" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L37" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2630,43 +2657,43 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C38" s="2">
         <v>44185</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E38">
-        <v>14.5116599</v>
+        <v>13.8220612</v>
       </c>
       <c r="F38">
-        <v>100.9094134</v>
+        <v>100.421874</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38">
-        <v>0</v>
+      <c r="H38" t="s">
+        <v>107</v>
       </c>
       <c r="I38" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J38" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K38" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L38" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2674,43 +2701,43 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C39" s="2">
         <v>44185</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E39">
-        <v>14.1378761</v>
+        <v>13.8683169</v>
       </c>
       <c r="F39">
-        <v>100.8255049</v>
+        <v>100.4107308</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39">
-        <v>0</v>
+      <c r="H39" t="s">
+        <v>108</v>
       </c>
       <c r="I39" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J39" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K39" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L39" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2718,43 +2745,43 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C40" s="2">
         <v>44185</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E40">
-        <v>14.06566869</v>
+        <v>13.89757086</v>
       </c>
       <c r="F40">
-        <v>99.9821468</v>
+        <v>100.6098027</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I40" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J40" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K40" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L40" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2762,40 +2789,40 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" s="2">
         <v>44185</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E41">
-        <v>13.8220612</v>
+        <v>13.72045903</v>
       </c>
       <c r="F41">
-        <v>100.421874</v>
+        <v>100.5004852</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I41" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J41" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K41" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L41" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>178</v>
@@ -2806,43 +2833,43 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C42" s="2">
         <v>44185</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E42">
-        <v>13.8683169</v>
+        <v>13.817137</v>
       </c>
       <c r="F42">
-        <v>100.4107308</v>
+        <v>100.041497</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I42" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J42" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K42" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L42" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2850,43 +2877,43 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C43" s="2">
         <v>44185</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E43">
-        <v>13.89757086</v>
+        <v>13.737328</v>
       </c>
       <c r="F43">
-        <v>100.6098027</v>
+        <v>100.081218</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I43" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J43" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K43" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2894,43 +2921,43 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="2">
         <v>44185</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E44">
-        <v>13.72045903</v>
+        <v>14.021384</v>
       </c>
       <c r="F44">
-        <v>100.5004852</v>
+        <v>100.165325</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I44" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J44" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K44" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L44" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2938,43 +2965,43 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C45" s="2">
         <v>44185</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E45">
-        <v>13.817137</v>
+        <v>13.82347979</v>
       </c>
       <c r="F45">
-        <v>100.041497</v>
+        <v>100.4101224</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I45" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J45" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K45" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L45" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -2982,43 +3009,43 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C46" s="2">
         <v>44185</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E46">
-        <v>13.737328</v>
+        <v>13.82622351</v>
       </c>
       <c r="F46">
-        <v>100.081218</v>
+        <v>100.4124415</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I46" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J46" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K46" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L46" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3026,43 +3053,43 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C47" s="2">
         <v>44185</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E47">
-        <v>14.021384</v>
+        <v>13.71100665</v>
       </c>
       <c r="F47">
-        <v>100.165325</v>
+        <v>100.4234972</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I47" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J47" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K47" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L47" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3070,43 +3097,43 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C48" s="2">
         <v>44185</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E48">
-        <v>13.82347979</v>
+        <v>13.81780926</v>
       </c>
       <c r="F48">
-        <v>100.4101224</v>
+        <v>100.3981472</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I48" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J48" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K48" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L48" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3114,43 +3141,43 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C49" s="2">
         <v>44185</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E49">
-        <v>13.82622351</v>
+        <v>13.95701015</v>
       </c>
       <c r="F49">
-        <v>100.4124415</v>
+        <v>100.404266</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I49" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J49" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K49" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L49" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3158,7 +3185,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -3167,7 +3194,7 @@
         <v>44186</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E50">
         <v>13.8781452</v>
@@ -3179,22 +3206,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I50" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J50" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K50" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L50" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3202,16 +3229,16 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C51" s="2">
         <v>44186</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E51">
         <v>13.7164198</v>
@@ -3223,22 +3250,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I51" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J51" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K51" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L51" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3246,16 +3273,16 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C52" s="2">
         <v>44186</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E52">
         <v>13.70807262</v>
@@ -3267,22 +3294,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I52" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J52" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K52" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L52" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3290,43 +3317,43 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C53" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E53">
-        <v>13.73541413</v>
+        <v>13.78051515</v>
       </c>
       <c r="F53">
-        <v>100.5877998</v>
+        <v>100.4226823</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53">
-        <v>0</v>
+      <c r="H53" t="s">
+        <v>107</v>
       </c>
       <c r="I53" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J53" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K53" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L53" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3334,43 +3361,43 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C54" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E54">
-        <v>13.78766192</v>
+        <v>13.7355293</v>
       </c>
       <c r="F54">
-        <v>100.5105938</v>
+        <v>100.5979688</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="H54">
-        <v>0</v>
+      <c r="H54" t="s">
+        <v>109</v>
       </c>
       <c r="I54" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J54" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K54" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L54" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3378,43 +3405,43 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C55" s="2">
         <v>44187</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E55">
-        <v>13.5951449</v>
+        <v>13.73541413</v>
       </c>
       <c r="F55">
-        <v>100.5802135</v>
+        <v>100.5877998</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55" t="s">
-        <v>101</v>
+      <c r="H55">
+        <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J55" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K55" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L55" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3422,43 +3449,43 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C56" s="2">
         <v>44187</v>
       </c>
       <c r="D56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E56">
-        <v>13.803038</v>
+        <v>13.78766192</v>
       </c>
       <c r="F56">
-        <v>100.188902</v>
+        <v>100.5105938</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56" t="s">
-        <v>102</v>
+      <c r="H56">
+        <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J56" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K56" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L56" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3466,43 +3493,43 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C57" s="2">
         <v>44187</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E57">
-        <v>13.802276</v>
+        <v>13.5951449</v>
       </c>
       <c r="F57">
-        <v>100.19</v>
+        <v>100.5802135</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I57" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J57" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K57" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L57" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3510,43 +3537,43 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C58" s="2">
         <v>44187</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E58">
-        <v>13.928974</v>
+        <v>13.803038</v>
       </c>
       <c r="F58">
-        <v>100.577365</v>
+        <v>100.188902</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I58" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J58" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K58" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L58" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3554,43 +3581,43 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C59" s="2">
         <v>44187</v>
       </c>
       <c r="D59" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E59">
-        <v>13.929686</v>
+        <v>13.802276</v>
       </c>
       <c r="F59">
-        <v>100.576</v>
+        <v>100.19</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I59" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J59" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K59" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L59" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3598,43 +3625,43 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C60" s="2">
         <v>44187</v>
       </c>
       <c r="D60" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E60">
-        <v>13.76033018</v>
+        <v>13.928974</v>
       </c>
       <c r="F60">
-        <v>100.4796436</v>
+        <v>100.577365</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I60" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J60" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K60" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L60" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3642,43 +3669,43 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C61" s="2">
         <v>44187</v>
       </c>
       <c r="D61" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E61">
-        <v>13.82853997</v>
+        <v>13.929686</v>
       </c>
       <c r="F61">
-        <v>100.4842102</v>
+        <v>100.576</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I61" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J61" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K61" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L61" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3686,40 +3713,40 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D62" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E62">
-        <v>13.7462524</v>
+        <v>13.76033018</v>
       </c>
       <c r="F62">
-        <v>100.5328635</v>
+        <v>100.4796436</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="H62">
-        <v>0</v>
+      <c r="H62" t="s">
+        <v>109</v>
       </c>
       <c r="I62" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J62" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K62" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L62" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>186</v>
@@ -3730,43 +3757,43 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C63" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D63" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E63">
-        <v>13.7243591</v>
+        <v>13.82853997</v>
       </c>
       <c r="F63">
-        <v>100.5386589</v>
+        <v>100.4842102</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63">
-        <v>0</v>
+      <c r="H63" t="s">
+        <v>109</v>
       </c>
       <c r="I63" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J63" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K63" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3774,43 +3801,43 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C64" s="2">
         <v>44188</v>
       </c>
       <c r="D64" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E64">
-        <v>13.54974685</v>
+        <v>13.7462524</v>
       </c>
       <c r="F64">
-        <v>100.2561435</v>
+        <v>100.5328635</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64" t="s">
-        <v>100</v>
+      <c r="H64">
+        <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J64" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K64" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L64" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3818,43 +3845,43 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C65" s="2">
         <v>44188</v>
       </c>
       <c r="D65" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E65">
-        <v>14.45160513</v>
+        <v>13.7243591</v>
       </c>
       <c r="F65">
-        <v>100.7230585</v>
+        <v>100.5386589</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65" t="s">
-        <v>100</v>
+      <c r="H65">
+        <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J65" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K65" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L65" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -3862,43 +3889,43 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C66" s="2">
         <v>44188</v>
       </c>
       <c r="D66" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E66">
-        <v>13.72836497</v>
+        <v>13.54974685</v>
       </c>
       <c r="F66">
-        <v>100.5350858</v>
+        <v>100.2561435</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I66" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J66" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K66" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L66" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -3906,43 +3933,43 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C67" s="2">
         <v>44188</v>
       </c>
       <c r="D67" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E67">
-        <v>13.7660558</v>
+        <v>14.45160513</v>
       </c>
       <c r="F67">
-        <v>100.6403032</v>
+        <v>100.7230585</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I67" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J67" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K67" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L67" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -3950,43 +3977,43 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C68" s="2">
         <v>44188</v>
       </c>
       <c r="D68" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E68">
-        <v>13.710361</v>
+        <v>13.72836497</v>
       </c>
       <c r="F68">
-        <v>100.4073817</v>
+        <v>100.5350858</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I68" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J68" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K68" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L68" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -3994,43 +4021,43 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C69" s="2">
         <v>44188</v>
       </c>
       <c r="D69" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E69">
-        <v>13.2054213</v>
+        <v>13.7660558</v>
       </c>
       <c r="F69">
-        <v>99.9793013</v>
+        <v>100.6403032</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="H69">
-        <v>0</v>
+      <c r="H69" t="s">
+        <v>109</v>
       </c>
       <c r="I69" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J69" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K69" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L69" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4038,43 +4065,43 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C70" s="2">
         <v>44188</v>
       </c>
       <c r="D70" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E70">
-        <v>13.7100705</v>
+        <v>13.710361</v>
       </c>
       <c r="F70">
-        <v>100.6007069</v>
+        <v>100.4073817</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
+      <c r="H70" t="s">
+        <v>109</v>
+      </c>
+      <c r="I70" t="s">
+        <v>110</v>
+      </c>
+      <c r="J70" t="s">
+        <v>112</v>
+      </c>
+      <c r="K70" t="s">
+        <v>109</v>
       </c>
       <c r="L70" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4082,43 +4109,43 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C71" s="2">
         <v>44188</v>
       </c>
       <c r="D71" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>13.2054213</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>99.9793013</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71" t="s">
-        <v>102</v>
+      <c r="H71">
+        <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J71" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K71" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L71" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4126,43 +4153,43 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C72" s="2">
         <v>44188</v>
       </c>
       <c r="D72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E72">
-        <v>13.802283</v>
+        <v>13.7100705</v>
       </c>
       <c r="F72">
-        <v>100.184509</v>
+        <v>100.6007069</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72" t="s">
-        <v>102</v>
-      </c>
-      <c r="I72" t="s">
-        <v>103</v>
-      </c>
-      <c r="J72" t="s">
-        <v>105</v>
-      </c>
-      <c r="K72" t="s">
-        <v>102</v>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4170,43 +4197,43 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C73" s="2">
         <v>44188</v>
       </c>
       <c r="D73" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E73">
-        <v>13.91857</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>100.601606</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I73" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J73" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K73" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L73" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4214,43 +4241,43 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C74" s="2">
         <v>44188</v>
       </c>
       <c r="D74" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E74">
-        <v>13.6171972</v>
+        <v>13.802283</v>
       </c>
       <c r="F74">
-        <v>100.3791504</v>
+        <v>100.184509</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I74" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J74" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K74" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L74" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4258,43 +4285,43 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C75" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E75">
-        <v>13.721681</v>
+        <v>13.91857</v>
       </c>
       <c r="F75">
-        <v>100.53</v>
+        <v>100.601606</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I75" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J75" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K75" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L75" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4302,43 +4329,43 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C76" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D76" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E76">
-        <v>13.9134431</v>
+        <v>13.6171972</v>
       </c>
       <c r="F76">
-        <v>100.4220473</v>
+        <v>100.3791504</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I76" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J76" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K76" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L76" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4346,43 +4373,43 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C77" s="2">
         <v>44189</v>
       </c>
       <c r="D77" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E77">
-        <v>13.786588</v>
+        <v>13.721681</v>
       </c>
       <c r="F77">
-        <v>100.321233</v>
+        <v>100.53</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I77" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J77" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K77" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L77" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4390,43 +4417,43 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C78" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D78" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E78">
-        <v>13.924252</v>
+        <v>13.9134431</v>
       </c>
       <c r="F78">
-        <v>100.597945</v>
+        <v>100.4220473</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I78" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J78" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K78" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L78" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4434,43 +4461,43 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
       </c>
       <c r="C79" s="2">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="D79" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E79">
-        <v>13.7636001</v>
+        <v>13.786588</v>
       </c>
       <c r="F79">
-        <v>100.5114624</v>
+        <v>100.321233</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
+      <c r="H79" t="s">
+        <v>109</v>
+      </c>
+      <c r="I79" t="s">
+        <v>110</v>
+      </c>
+      <c r="J79" t="s">
+        <v>112</v>
       </c>
       <c r="K79" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L79" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4478,43 +4505,43 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C80" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E80">
-        <v>13.734066</v>
+        <v>13.924252</v>
       </c>
       <c r="F80">
-        <v>100.5278354</v>
+        <v>100.597945</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
+      <c r="H80" t="s">
+        <v>109</v>
+      </c>
+      <c r="I80" t="s">
+        <v>110</v>
+      </c>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+      <c r="K80" t="s">
+        <v>109</v>
       </c>
       <c r="L80" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4522,22 +4549,22 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C81" s="2">
         <v>44191</v>
       </c>
       <c r="D81" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E81">
-        <v>12.6483736</v>
+        <v>13.7636001</v>
       </c>
       <c r="F81">
-        <v>101.2273679</v>
+        <v>100.5114624</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -4551,14 +4578,14 @@
       <c r="J81">
         <v>0</v>
       </c>
-      <c r="K81">
-        <v>0</v>
+      <c r="K81" t="s">
+        <v>109</v>
       </c>
       <c r="L81" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4566,22 +4593,22 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C82" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D82" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E82">
-        <v>12.6844183</v>
+        <v>13.734066</v>
       </c>
       <c r="F82">
-        <v>101.2742991</v>
+        <v>100.5278354</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -4595,14 +4622,14 @@
       <c r="J82">
         <v>0</v>
       </c>
-      <c r="K82" t="s">
-        <v>102</v>
+      <c r="K82">
+        <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4610,22 +4637,22 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B83" t="s">
         <v>14</v>
       </c>
       <c r="C83" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D83" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E83">
-        <v>12.9730033</v>
+        <v>12.6483736</v>
       </c>
       <c r="F83">
-        <v>100.9029061</v>
+        <v>101.2273679</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -4639,14 +4666,14 @@
       <c r="J83">
         <v>0</v>
       </c>
-      <c r="K83" t="s">
-        <v>102</v>
+      <c r="K83">
+        <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4654,22 +4681,22 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C84" s="2">
         <v>44192</v>
       </c>
       <c r="D84" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E84">
-        <v>13.7946069</v>
+        <v>12.6844183</v>
       </c>
       <c r="F84">
-        <v>100.5161808</v>
+        <v>101.2742991</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -4684,13 +4711,13 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L84" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -4698,45 +4725,265 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C85" s="2">
         <v>44192</v>
       </c>
       <c r="D85" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E85">
+        <v>12.9730033</v>
+      </c>
+      <c r="F85">
+        <v>100.9029061</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" t="s">
+        <v>109</v>
+      </c>
+      <c r="L85" t="s">
+        <v>160</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86">
+        <v>131</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="2">
+        <v>44192</v>
+      </c>
+      <c r="D86" t="s">
+        <v>102</v>
+      </c>
+      <c r="E86">
+        <v>13.7946069</v>
+      </c>
+      <c r="F86">
+        <v>100.5161808</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>109</v>
+      </c>
+      <c r="L86" t="s">
+        <v>161</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87">
+        <v>132</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="2">
+        <v>44192</v>
+      </c>
+      <c r="D87" t="s">
+        <v>103</v>
+      </c>
+      <c r="E87">
         <v>13.54448567</v>
       </c>
-      <c r="F85">
+      <c r="F87">
         <v>100.2752027</v>
       </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85" t="s">
-        <v>101</v>
-      </c>
-      <c r="I85" t="s">
-        <v>103</v>
-      </c>
-      <c r="J85" t="s">
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>108</v>
+      </c>
+      <c r="I87" t="s">
+        <v>110</v>
+      </c>
+      <c r="J87" t="s">
+        <v>112</v>
+      </c>
+      <c r="K87" t="s">
+        <v>109</v>
+      </c>
+      <c r="L87" t="s">
+        <v>162</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88">
+        <v>133</v>
+      </c>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D88" t="s">
+        <v>104</v>
+      </c>
+      <c r="E88">
+        <v>12.9098775</v>
+      </c>
+      <c r="F88">
+        <v>100.891563</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>109</v>
+      </c>
+      <c r="I88" t="s">
+        <v>110</v>
+      </c>
+      <c r="J88" t="s">
+        <v>112</v>
+      </c>
+      <c r="K88" t="s">
+        <v>109</v>
+      </c>
+      <c r="L88" t="s">
+        <v>163</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89">
+        <v>134</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D89" t="s">
         <v>105</v>
       </c>
-      <c r="K85" t="s">
-        <v>102</v>
-      </c>
-      <c r="L85" t="s">
-        <v>157</v>
-      </c>
-      <c r="M85" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="N85">
+      <c r="E89">
+        <v>13.3535702</v>
+      </c>
+      <c r="F89">
+        <v>100.9765439</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89" t="s">
+        <v>109</v>
+      </c>
+      <c r="L89" t="s">
+        <v>164</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90">
+        <v>135</v>
+      </c>
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D90" t="s">
+        <v>106</v>
+      </c>
+      <c r="E90">
+        <v>12.948902</v>
+      </c>
+      <c r="F90">
+        <v>100.891292</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>109</v>
+      </c>
+      <c r="L90" t="s">
+        <v>165</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="N90">
         <v>0</v>
       </c>
     </row>
@@ -4776,10 +5023,10 @@
     <hyperlink ref="M33" r:id="rId32"/>
     <hyperlink ref="M34" r:id="rId33"/>
     <hyperlink ref="M35" r:id="rId34"/>
-    <hyperlink ref="M36" r:id="rId35"/>
+    <hyperlink ref="M36" r:id="rId35" location="cxrecs_s"/>
     <hyperlink ref="M37" r:id="rId36"/>
     <hyperlink ref="M38" r:id="rId37"/>
-    <hyperlink ref="M39" r:id="rId38" location="cxrecs_s"/>
+    <hyperlink ref="M39" r:id="rId38"/>
     <hyperlink ref="M40" r:id="rId39"/>
     <hyperlink ref="M41" r:id="rId40"/>
     <hyperlink ref="M42" r:id="rId41"/>
@@ -4826,6 +5073,11 @@
     <hyperlink ref="M83" r:id="rId82"/>
     <hyperlink ref="M84" r:id="rId83"/>
     <hyperlink ref="M85" r:id="rId84"/>
+    <hyperlink ref="M86" r:id="rId85"/>
+    <hyperlink ref="M87" r:id="rId86"/>
+    <hyperlink ref="M88" r:id="rId87"/>
+    <hyperlink ref="M89" r:id="rId88"/>
+    <hyperlink ref="M90" r:id="rId89"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="218">
   <si>
     <t>id</t>
   </si>
@@ -337,6 +337,15 @@
     <t>Bone (night club)</t>
   </si>
   <si>
+    <t>บ่อนเนินสูง อ.ท่าใหม่ จ.จันทบุรี</t>
+  </si>
+  <si>
+    <t>บ่อนแสนตุ้ง อ.เขาสมิง จ.ตราด</t>
+  </si>
+  <si>
+    <t>บ่อนหนองสีงา อ.นางายอาม จ.จันทบุรี</t>
+  </si>
+  <si>
     <t>female</t>
   </si>
   <si>
@@ -514,6 +523,15 @@
     <t>ผู้ใดเดินทางมาที่นี่ตั้งแต่วันที่ 5 ธ.ค. ขอให้เฝ้าระวัง สังเกตอาการ</t>
   </si>
   <si>
+    <t xml:space="preserve">ผู้ป่วยโควิด-19 ท่านหนึ่งไปบ่อนทุกวันตั้งแต่ 19-25 ธ.ค. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ผู้ป่วยโควิด-19 ท่านหนึ่งไปบ่อนนี้วันที่ 18 ธ.ค. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ผู้ป่วยโควิด-19 ท่านหนึ่งไปบ่อนนี้วันที่ 19 ธ.ค. </t>
+  </si>
+  <si>
     <t>https://www.thairath.co.th/news/local/central/1999153</t>
   </si>
   <si>
@@ -647,6 +665,9 @@
   </si>
   <si>
     <t>https://www.facebook.com/318251788326658/photos/a.319526161532554/1902105926607895/?type=3</t>
+  </si>
+  <si>
+    <t>https://m.facebook.com/1683658098593742/posts/2643302882629254/?d=n</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1042,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1094,22 +1115,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1138,22 +1159,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1182,22 +1203,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1226,22 +1247,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1270,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1317,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1358,22 +1379,22 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1402,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1446,22 +1467,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1490,22 +1511,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1534,22 +1555,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1578,22 +1599,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1622,22 +1643,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1666,22 +1687,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1710,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K16" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1754,22 +1775,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1798,22 +1819,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1842,22 +1863,22 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I19" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J19" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K19" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1886,22 +1907,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1930,22 +1951,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J21" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L21" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1974,22 +1995,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K22" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L22" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2018,22 +2039,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I23" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J23" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K23" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2062,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K24" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2106,22 +2127,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I25" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J25" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2150,22 +2171,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I26" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J26" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K26" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L26" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2194,22 +2215,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I27" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J27" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K27" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2238,22 +2259,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I28" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J28" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K28" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L28" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2282,22 +2303,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J29" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K29" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L29" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2329,19 +2350,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J30" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K30" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2370,22 +2391,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I31" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J31" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K31" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L31" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2414,22 +2435,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I32" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J32" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K32" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L32" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2461,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K33" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L33" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2505,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J34" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K34" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L34" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2549,19 +2570,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J35" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K35" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L35" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2593,19 +2614,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J36" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K36" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L36" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2634,22 +2655,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I37" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J37" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K37" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L37" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2678,22 +2699,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I38" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J38" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K38" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L38" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2722,22 +2743,22 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I39" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J39" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K39" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L39" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2766,22 +2787,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I40" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J40" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K40" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L40" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2810,22 +2831,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I41" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J41" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K41" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L41" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2854,22 +2875,22 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I42" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J42" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K42" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2898,22 +2919,22 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I43" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J43" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K43" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L43" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2942,22 +2963,22 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I44" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J44" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K44" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L44" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2986,22 +3007,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I45" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J45" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K45" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L45" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3030,22 +3051,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I46" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J46" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K46" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L46" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3074,22 +3095,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I47" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J47" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K47" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L47" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3118,22 +3139,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I48" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J48" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K48" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L48" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3162,22 +3183,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I49" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J49" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K49" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L49" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3206,22 +3227,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I50" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J50" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K50" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L50" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3250,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I51" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K51" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L51" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3294,22 +3315,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I52" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J52" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K52" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L52" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3338,22 +3359,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I53" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J53" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K53" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L53" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3382,22 +3403,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I54" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J54" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K54" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L54" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3429,19 +3450,19 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J55" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K55" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L55" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3473,19 +3494,19 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J56" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K56" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L56" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3514,22 +3535,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I57" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J57" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K57" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L57" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3558,22 +3579,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I58" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J58" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K58" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L58" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3602,22 +3623,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I59" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J59" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K59" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L59" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3646,22 +3667,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I60" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J60" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K60" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L60" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3690,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I61" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J61" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K61" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L61" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3734,22 +3755,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I62" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J62" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K62" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L62" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3778,22 +3799,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I63" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K63" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L63" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3825,19 +3846,19 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J64" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L64" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3869,19 +3890,19 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J65" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K65" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L65" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -3910,22 +3931,22 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I66" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J66" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K66" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L66" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -3954,22 +3975,22 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I67" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J67" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K67" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L67" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -3998,22 +4019,22 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I68" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J68" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K68" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L68" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4042,22 +4063,22 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I69" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J69" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K69" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L69" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4086,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I70" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J70" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K70" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L70" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4133,19 +4154,19 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J71" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K71" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L71" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4186,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4218,22 +4239,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I73" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J73" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K73" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L73" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4262,22 +4283,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I74" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J74" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L74" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4306,22 +4327,22 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J75" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L75" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4350,22 +4371,22 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J76" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K76" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L76" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4394,22 +4415,22 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I77" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K77" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L77" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4438,22 +4459,22 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I78" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K78" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L78" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4482,22 +4503,22 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I79" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J79" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K79" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L79" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4526,22 +4547,22 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I80" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J80" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K80" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L80" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4579,13 +4600,13 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L81" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4626,10 +4647,10 @@
         <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4670,10 +4691,10 @@
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4711,13 +4732,13 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L84" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -4755,13 +4776,13 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L85" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -4799,13 +4820,13 @@
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L86" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -4834,22 +4855,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I87" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J87" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K87" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L87" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -4878,22 +4899,22 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I88" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J88" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K88" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L88" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -4931,13 +4952,13 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L89" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -4975,15 +4996,147 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
+        <v>112</v>
+      </c>
+      <c r="L90" t="s">
+        <v>168</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91">
+        <v>136</v>
+      </c>
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D91" t="s">
+        <v>107</v>
+      </c>
+      <c r="E91">
+        <v>12.6495877</v>
+      </c>
+      <c r="F91">
+        <v>102.0329425</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>112</v>
+      </c>
+      <c r="L91" t="s">
+        <v>169</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92">
+        <v>137</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E92">
+        <v>12.3757564</v>
+      </c>
+      <c r="F92">
+        <v>102.3818628</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>112</v>
+      </c>
+      <c r="L92" t="s">
+        <v>170</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93">
+        <v>138</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D93" t="s">
         <v>109</v>
       </c>
-      <c r="L90" t="s">
-        <v>165</v>
-      </c>
-      <c r="M90" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="N90">
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>112</v>
+      </c>
+      <c r="L93" t="s">
+        <v>171</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="N93">
         <v>0</v>
       </c>
     </row>
@@ -5078,6 +5231,9 @@
     <hyperlink ref="M88" r:id="rId87"/>
     <hyperlink ref="M89" r:id="rId88"/>
     <hyperlink ref="M90" r:id="rId89"/>
+    <hyperlink ref="M91" r:id="rId90"/>
+    <hyperlink ref="M92" r:id="rId91"/>
+    <hyperlink ref="M93" r:id="rId92"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="221">
   <si>
     <t>id</t>
   </si>
@@ -346,6 +346,9 @@
     <t>บ่อนหนองสีงา อ.นางายอาม จ.จันทบุรี</t>
   </si>
   <si>
+    <t>ร้านน้องใหม่ พลาซ่า</t>
+  </si>
+  <si>
     <t>female</t>
   </si>
   <si>
@@ -532,6 +535,9 @@
     <t xml:space="preserve">ผู้ป่วยโควิด-19 ท่านหนึ่งไปบ่อนนี้วันที่ 19 ธ.ค. </t>
   </si>
   <si>
+    <t>พบการระบาดในหมู่นักเที่ยวสถานบันเทิง</t>
+  </si>
+  <si>
     <t>https://www.thairath.co.th/news/local/central/1999153</t>
   </si>
   <si>
@@ -668,6 +674,9 @@
   </si>
   <si>
     <t>https://m.facebook.com/1683658098593742/posts/2643302882629254/?d=n</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/697561723/posts/10157849125566724/?d=n</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1051,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1115,22 +1124,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1159,22 +1168,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1203,22 +1212,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1247,22 +1256,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1291,22 +1300,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1338,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1379,22 +1388,22 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1423,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1467,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1511,22 +1520,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1555,22 +1564,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1599,22 +1608,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1643,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1687,22 +1696,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1731,22 +1740,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1775,22 +1784,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1819,22 +1828,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1863,22 +1872,22 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1907,22 +1916,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1951,22 +1960,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1995,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2039,22 +2048,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2083,22 +2092,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2127,22 +2136,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2171,22 +2180,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2215,22 +2224,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2259,22 +2268,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2303,22 +2312,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2350,19 +2359,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2391,22 +2400,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2435,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2482,19 +2491,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2526,19 +2535,19 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2570,19 +2579,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2614,19 +2623,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2655,22 +2664,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2699,22 +2708,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2743,22 +2752,22 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2787,22 +2796,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2831,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2875,22 +2884,22 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2919,22 +2928,22 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2963,22 +2972,22 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3007,22 +3016,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L45" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3051,22 +3060,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3095,22 +3104,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L47" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3139,22 +3148,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I48" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L48" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3183,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I49" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3227,22 +3236,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L50" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3271,22 +3280,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I51" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L51" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3315,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I52" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3359,22 +3368,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L53" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3403,22 +3412,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I54" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J54" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L54" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3450,19 +3459,19 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3494,19 +3503,19 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J56" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L56" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3535,22 +3544,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J57" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K57" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3579,22 +3588,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J58" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K58" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L58" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3623,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I59" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J59" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3667,22 +3676,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I60" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J60" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L60" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3711,22 +3720,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J61" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3755,22 +3764,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I62" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J62" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K62" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3799,22 +3808,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J63" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L63" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3846,19 +3855,19 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J64" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K64" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L64" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3890,19 +3899,19 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J65" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K65" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L65" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -3931,22 +3940,22 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I66" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J66" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K66" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L66" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -3975,22 +3984,22 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I67" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J67" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K67" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L67" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4019,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I68" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J68" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K68" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L68" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4063,22 +4072,22 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I69" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J69" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K69" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L69" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4107,22 +4116,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I70" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J70" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K70" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4154,19 +4163,19 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J71" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K71" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L71" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4207,10 +4216,10 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4239,22 +4248,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I73" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J73" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K73" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L73" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4283,22 +4292,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I74" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K74" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4327,22 +4336,22 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I75" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J75" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K75" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4371,22 +4380,22 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I76" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J76" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K76" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4415,22 +4424,22 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I77" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J77" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K77" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L77" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4459,22 +4468,22 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I78" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J78" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K78" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L78" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4503,22 +4512,22 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I79" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J79" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L79" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4547,22 +4556,22 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J80" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L80" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4600,13 +4609,13 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L81" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4647,10 +4656,10 @@
         <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4691,10 +4700,10 @@
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4732,13 +4741,13 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L84" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -4776,13 +4785,13 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L85" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -4820,13 +4829,13 @@
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L86" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -4855,22 +4864,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I87" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J87" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K87" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L87" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -4899,22 +4908,22 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I88" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J88" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K88" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L88" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -4952,13 +4961,13 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L89" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -4996,13 +5005,13 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L90" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5040,13 +5049,13 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L91" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5084,13 +5093,13 @@
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L92" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5110,10 +5119,10 @@
         <v>109</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>12.7246169</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>101.9362794</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -5128,15 +5137,59 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L93" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94">
+        <v>139</v>
+      </c>
+      <c r="B94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D94" t="s">
+        <v>110</v>
+      </c>
+      <c r="E94">
+        <v>13.772986</v>
+      </c>
+      <c r="F94">
+        <v>100.4855148</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>113</v>
+      </c>
+      <c r="L94" t="s">
+        <v>173</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="N94">
         <v>0</v>
       </c>
     </row>
@@ -5234,6 +5287,7 @@
     <hyperlink ref="M91" r:id="rId90"/>
     <hyperlink ref="M92" r:id="rId91"/>
     <hyperlink ref="M93" r:id="rId92"/>
+    <hyperlink ref="M94" r:id="rId93"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="252">
   <si>
     <t>id</t>
   </si>
@@ -58,15 +58,15 @@
     <t>parentcase</t>
   </si>
   <si>
+    <t>patient_has_been_here</t>
+  </si>
+  <si>
     <t>unspecified_location</t>
   </si>
   <si>
     <t>sanitizing</t>
   </si>
   <si>
-    <t>patient_has_been_here</t>
-  </si>
-  <si>
     <t>confirmed</t>
   </si>
   <si>
@@ -76,21 +76,6 @@
     <t>sanitized</t>
   </si>
   <si>
-    <t>นนทบุรี</t>
-  </si>
-  <si>
-    <t>ร้านแซ่บอีสานคาราโอเกะ ย่านเทเวศร์</t>
-  </si>
-  <si>
-    <t>ร้าน นมโจ สาขาประชาชื่น 39</t>
-  </si>
-  <si>
-    <t>เซ็นทรัลเวสต์เกต</t>
-  </si>
-  <si>
-    <t>ตลาดนัดวัดสามง่าม ต.สามง่าม อ.ดอนตูม</t>
-  </si>
-  <si>
     <t>INC2 Tower B</t>
   </si>
   <si>
@@ -121,6 +106,27 @@
     <t>โรงเรียนแสงอรุณ</t>
   </si>
   <si>
+    <t>คณะออกแบบนิเทศ มหาวิทยาลัยราชภัฏนครปฐม</t>
+  </si>
+  <si>
+    <t>ห้างเทสโก้ โลตัสกำแพงแสน</t>
+  </si>
+  <si>
+    <t>บิ๊กซี ดาวคะนอง</t>
+  </si>
+  <si>
+    <t>Riverside plaza คลองสาน</t>
+  </si>
+  <si>
+    <t>Tree on 3 พระราม3</t>
+  </si>
+  <si>
+    <t>Makro สาทร</t>
+  </si>
+  <si>
+    <t>ร้านอาหาร คาราโอเกะ ใบไม้ร่าเริง</t>
+  </si>
+  <si>
     <t>ตลาดหมู่บ้านศรีทอง จ.อยุธยา</t>
   </si>
   <si>
@@ -160,6 +166,18 @@
     <t>สนามบอล ย่านลาดพร้าว80</t>
   </si>
   <si>
+    <t>ข้าวต้มจัดเต็ม แยกอุโมงค์พัฒนาการ</t>
+  </si>
+  <si>
+    <t>2929 สุขุมวิท77</t>
+  </si>
+  <si>
+    <t>โฮมโปร นางลิ้นจี่</t>
+  </si>
+  <si>
+    <t>ตลาดสุขสวัสดิ์</t>
+  </si>
+  <si>
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
@@ -214,6 +232,27 @@
     <t>ร้านข้าวแกงแม่เสี้ยน ปั๊ม ปตท.</t>
   </si>
   <si>
+    <t>รร. วัดราษฎร์ภิรมย์วราราม ต.สระสี่มุม</t>
+  </si>
+  <si>
+    <t>รร. พระปฐมวิทยาลัย2</t>
+  </si>
+  <si>
+    <t>บิ๊กซี นครปฐม</t>
+  </si>
+  <si>
+    <t>ซีคอน ศรีนครินทร์</t>
+  </si>
+  <si>
+    <t>เซ็นทรัลอีสวิลล์</t>
+  </si>
+  <si>
+    <t>Fashion island รามอินทรา</t>
+  </si>
+  <si>
+    <t>วัดบางม่วง</t>
+  </si>
+  <si>
     <t>ร้านก๋วยเตี๋ยว ในตลาดบางใหญ่</t>
   </si>
   <si>
@@ -229,6 +268,15 @@
     <t>สนามสปอร์ตคลับ ย่านปรีดีพนมยงค์</t>
   </si>
   <si>
+    <t>สนามแบดมินตัน 71 sport club</t>
+  </si>
+  <si>
+    <t>สหกรณ์ออมทรัพย์ กรมส่งเสริมการปกครองท้องถิ่น</t>
+  </si>
+  <si>
+    <t>เลอ ปา สิริ พระราม5</t>
+  </si>
+  <si>
     <t>Lamptitude สาขาเอกมัย</t>
   </si>
   <si>
@@ -256,6 +304,15 @@
     <t>แมคโครนครอินทร์</t>
   </si>
   <si>
+    <t>โรงน้ำแข็งตลาดบางหลวง อำเภอบางเลน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ตลาดนัดสี่แยกเสืออีด่าง ม.6 </t>
+  </si>
+  <si>
+    <t>แมคโคร ศาลายา</t>
+  </si>
+  <si>
     <t>Siam Center</t>
   </si>
   <si>
@@ -295,6 +352,9 @@
     <t>โรงงาน Big Star</t>
   </si>
   <si>
+    <t>ม.ร.ภ. รำไพพรรณี</t>
+  </si>
+  <si>
     <t>สาธร ซิตี้ ทาวเวอร์</t>
   </si>
   <si>
@@ -304,9 +364,30 @@
     <t>ศูนย์การแพทย์กาญจนาภิเษก อ.พุทธมณฑล</t>
   </si>
   <si>
+    <t>ตลาดท่าข้าม</t>
+  </si>
+  <si>
+    <t>ตลาดปฐมมงคล</t>
+  </si>
+  <si>
+    <t>Golden Golf and Sport Club</t>
+  </si>
+  <si>
+    <t>สี่แยกบางนา</t>
+  </si>
+  <si>
+    <t>บิ๊กซี บางนา</t>
+  </si>
+  <si>
     <t xml:space="preserve">JW Condo @Donmuang </t>
   </si>
   <si>
+    <t>ซิสเลอร์ เซ็นทรัลระยอง</t>
+  </si>
+  <si>
+    <t>TOPS เซ็นทรัลระยอง</t>
+  </si>
+  <si>
     <t>ทำเนียบรัฐบาล</t>
   </si>
   <si>
@@ -316,6 +397,12 @@
     <t>บ่อนใน อ.เมืองระยอง และ มาบตาพุด</t>
   </si>
   <si>
+    <t>เซ็นทรัลระยอง</t>
+  </si>
+  <si>
+    <t>โรงเรียน ระยองวิทยาคม</t>
+  </si>
+  <si>
     <t>สถานที่ลักลอบเล่นการพนัน บขส. อ.เมือง จ.ระยอง</t>
   </si>
   <si>
@@ -349,15 +436,15 @@
     <t>ร้านน้องใหม่ พลาซ่า</t>
   </si>
   <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>female</t>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>Thai</t>
   </si>
   <si>
@@ -367,39 +454,39 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาปฏิบัติงานที่นี่วันที่ 16-17 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยโควิด-19 ชายวัย 37 ปี ส่งอาหารทะเลจากสมุทรสาคร ไปยังตลาดคลองสามวา และตลาดในจังหวัดปทุมธานี 2 แห่ง ระหว่างวันที่ 1-17 ธันวาคม 2563</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20</t>
+  </si>
+  <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 ชายขายอาหารทะเลปากซ.พหล52</t>
+  </si>
+  <si>
+    <t>ผู้ป่วย  covid-19 นครปฐม รายที่22-29</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ติดเชื้อ covid19 กทม. รายที่ 22-43</t>
+  </si>
+  <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย วันที่ 14-18 ธค. เวลา 17.00-21.00 น. จะทำงานร้านขายของชำ ซ.รุ่งเรือง 5 บางบัวทอง</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยโควิด-19 จังหวัดนครปฐม รายที่38-53</t>
+  </si>
+  <si>
+    <t>กทม.เปิดไทม์ไลน์ 17 ผู้ติดเชื้อ 'โควิด' รายใหม่ เป็นรายที่ 58-74</t>
+  </si>
+  <si>
+    <t>พบผู้ป่วยติดเชื้อโควิด-19 ไม่มีอาการ จำนวน 1 ราย เป็นหญิง เดินทางกลับมาจากการไปทำงานที่ร้านเสริมสวยใน จ.เชียงใหม่</t>
+  </si>
+  <si>
     <t xml:space="preserve">เคสแม่ค้ารถพุ่มพวงติดโควิด เป็นรถกระบะสีขาว ป้ายแดง ทะเบียน 8681 สมุทรปราการ </t>
   </si>
   <si>
-    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20</t>
-  </si>
-  <si>
-    <t>พบผู้ติดโควิดมาใช้บริการ'นมโจ'สาขาประชาชื่น39</t>
-  </si>
-  <si>
-    <t>เซ็นทรัลเวสต์เกต แจง ฉีดพ่นน้ำยาฆ่าเชื้อทันที-ทั่วศูนย์การค้า หลังพบผู้ป่วยโควิดใช้บริการ</t>
-  </si>
-  <si>
-    <t>ผู้ป่วย  covid-19 นครปฐม รายที่22-29</t>
-  </si>
-  <si>
-    <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาปฏิบัติงานที่นี่วันที่ 16-17 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยโควิด-19 ชายวัย 37 ปี ส่งอาหารทะเลจากสมุทรสาคร ไปยังตลาดคลองสามวา และตลาดในจังหวัดปทุมธานี 2 แห่ง ระหว่างวันที่ 1-17 ธันวาคม 2563</t>
-  </si>
-  <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 ชายขายอาหารทะเลปากซ.พหล52</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ติดเชื้อ covid19 กทม. รายที่ 22-43</t>
-  </si>
-  <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย วันที่ 14-18 ธค. เวลา 17.00-21.00 น. จะทำงานร้านขายของชำ ซ.รุ่งเรือง 5 บางบัวทอง</t>
-  </si>
-  <si>
-    <t>พบผู้ป่วยติดเชื้อโควิด-19 ไม่มีอาการ จำนวน 1 ราย เป็นหญิง เดินทางกลับมาจากการไปทำงานที่ร้านเสริมสวยใน จ.เชียงใหม่</t>
-  </si>
-  <si>
     <t>พบผู้ป่วยโควิด-19 ชาย มาบ่อนไก่ชนในบางเลน</t>
   </si>
   <si>
@@ -493,6 +580,9 @@
     <t>กทม.เก็บน้ำลายคนงานโรงงานบิ๊กสตาร์ 200 คน กลุ่มเสี่ยงหลังพบ 3 คนติดโควิด</t>
   </si>
   <si>
+    <t>ผู้ป่วยโควิด-19 ครูระยองวิทยาคม</t>
+  </si>
+  <si>
     <t>พนักงานสาธรซิตี้ ทาวเวอร์ ติดโควิด</t>
   </si>
   <si>
@@ -538,39 +628,39 @@
     <t>พบการระบาดในหมู่นักเที่ยวสถานบันเทิง</t>
   </si>
   <si>
+    <t>https://liff.line.me/1454988218-NjbXbq18/v2/article/jpyamK?utm_source=copyshare</t>
+  </si>
+  <si>
+    <t>https://www.pptvhd36.com/news/%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%94%E0%B9%87%E0%B8%99%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99/138903</t>
+  </si>
+  <si>
+    <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
+  </si>
+  <si>
+    <t>https://www.dailynews.co.th/regional/814914</t>
+  </si>
+  <si>
+    <t>https://m.facebook.com/story.php?story_fbid=3200886696679973&amp;id=246608695441136&amp;sfnsn=mo</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/posts/3119216564844610</t>
+  </si>
+  <si>
+    <t>https://www.khaosod.co.th/breaking-news/news_5591909</t>
+  </si>
+  <si>
+    <t>https://www.bangkokbiznews.com/news/detail/914766</t>
+  </si>
+  <si>
+    <t>https://www.dailynews.co.th/regional/815860?fbclid=IwAR3PpSq-k4gEnCMnvk_ZSa14-a7-sRcbK55EljOEMDm-7Ze-6SmVJNFfAuU</t>
+  </si>
+  <si>
+    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
+  </si>
+  <si>
     <t>https://www.thairath.co.th/news/local/central/1999153</t>
   </si>
   <si>
-    <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
-  </si>
-  <si>
-    <t>https://www.dailynews.co.th/regional/814463</t>
-  </si>
-  <si>
-    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2500853</t>
-  </si>
-  <si>
-    <t>https://m.facebook.com/story.php?story_fbid=3200886696679973&amp;id=246608695441136&amp;sfnsn=mo</t>
-  </si>
-  <si>
-    <t>https://liff.line.me/1454988218-NjbXbq18/v2/article/jpyamK?utm_source=copyshare</t>
-  </si>
-  <si>
-    <t>https://www.pptvhd36.com/news/%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%94%E0%B9%87%E0%B8%99%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99/138903</t>
-  </si>
-  <si>
-    <t>https://www.dailynews.co.th/regional/814914</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/posts/3119216564844610</t>
-  </si>
-  <si>
-    <t>https://www.khaosod.co.th/breaking-news/news_5591909</t>
-  </si>
-  <si>
-    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
-  </si>
-  <si>
     <t>https://mgronline.com/local/detail/9630000130818</t>
   </si>
   <si>
@@ -641,6 +731,9 @@
   </si>
   <si>
     <t>https://www.prachachat.net/general/news-582425</t>
+  </si>
+  <si>
+    <t>https://thethaiger.com/th/news/396105/</t>
   </si>
   <si>
     <t>https://www.matichon.co.th/covid19/news_2500693</t>
@@ -1051,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1103,43 +1196,43 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>13.8330877</v>
+        <v>14.0782451</v>
       </c>
       <c r="F2">
-        <v>100.499237</v>
+        <v>100.604118</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>111</v>
+      <c r="H2">
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J2" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L2" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1147,43 +1240,43 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>13.7689441</v>
+        <v>13.86019768</v>
       </c>
       <c r="F3">
-        <v>100.5046383</v>
+        <v>100.7223304</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J3" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K3" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L3" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1191,43 +1284,43 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>13.84341791</v>
+        <v>13.8578211</v>
       </c>
       <c r="F4">
-        <v>100.5419373</v>
+        <v>100.4105189</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="I4" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L4" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1235,43 +1328,43 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>13.87694672</v>
+        <v>13.85934159</v>
       </c>
       <c r="F5">
-        <v>100.4115482</v>
+        <v>100.5849015</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="I5" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K5" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L5" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1279,43 +1372,43 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>13.964334</v>
+        <v>14.119413</v>
       </c>
       <c r="F6">
-        <v>100.083426</v>
+        <v>100.118335</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I6" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K6" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L6" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1323,10 +1416,10 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
         <v>44182</v>
@@ -1335,31 +1428,31 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>14.0782451</v>
+        <v>14.07688153</v>
       </c>
       <c r="F7">
-        <v>100.604118</v>
+        <v>100.6017061</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>0</v>
+      <c r="H7" t="s">
+        <v>141</v>
       </c>
       <c r="I7" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J7" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L7" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1367,43 +1460,43 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8">
-        <v>13.86019768</v>
+        <v>13.87779142</v>
       </c>
       <c r="F8">
-        <v>100.7223304</v>
+        <v>100.4215436</v>
       </c>
       <c r="G8">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J8" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L8" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1411,43 +1504,43 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
       </c>
       <c r="E9">
-        <v>13.8578211</v>
+        <v>13.88376994</v>
       </c>
       <c r="F9">
-        <v>100.4105189</v>
+        <v>100.5843207</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L9" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1455,43 +1548,43 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
       <c r="E10">
-        <v>13.85934159</v>
+        <v>13.965066</v>
       </c>
       <c r="F10">
-        <v>100.5849015</v>
+        <v>100.07959</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1499,43 +1592,43 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
       <c r="E11">
-        <v>14.119413</v>
+        <v>14.036373</v>
       </c>
       <c r="F11">
-        <v>100.118335</v>
+        <v>100.168774</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1543,43 +1636,43 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
       <c r="E12">
-        <v>14.07688153</v>
+        <v>13.83669407</v>
       </c>
       <c r="F12">
-        <v>100.6017061</v>
+        <v>100.0271654</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1587,7 +1680,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1599,31 +1692,31 @@
         <v>31</v>
       </c>
       <c r="E13">
-        <v>13.87779142</v>
+        <v>13.99173744</v>
       </c>
       <c r="F13">
-        <v>100.4215436</v>
+        <v>99.99699669</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="I13" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1631,10 +1724,10 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2">
         <v>44183</v>
@@ -1643,31 +1736,31 @@
         <v>32</v>
       </c>
       <c r="E14">
-        <v>13.88376994</v>
+        <v>13.69901194</v>
       </c>
       <c r="F14">
-        <v>100.5843207</v>
+        <v>100.4829165</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="I14" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1675,10 +1768,10 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2">
         <v>44183</v>
@@ -1687,31 +1780,31 @@
         <v>33</v>
       </c>
       <c r="E15">
-        <v>13.965066</v>
+        <v>13.70486214</v>
       </c>
       <c r="F15">
-        <v>100.07959</v>
+        <v>100.4913754</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I15" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J15" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1719,10 +1812,10 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2">
         <v>44183</v>
@@ -1731,31 +1824,31 @@
         <v>34</v>
       </c>
       <c r="E16">
-        <v>14.036373</v>
+        <v>13.69115508</v>
       </c>
       <c r="F16">
-        <v>100.168774</v>
+        <v>100.5045287</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I16" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J16" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1763,43 +1856,43 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="D17" t="s">
         <v>35</v>
       </c>
       <c r="E17">
-        <v>14.1487352</v>
+        <v>13.70976833</v>
       </c>
       <c r="F17">
-        <v>100.6155778</v>
+        <v>100.5352559</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="I17" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K17" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L17" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1807,43 +1900,43 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="D18" t="s">
         <v>36</v>
       </c>
       <c r="E18">
-        <v>13.8057625</v>
+        <v>13.71466823</v>
       </c>
       <c r="F18">
-        <v>100.6621959</v>
+        <v>100.643611</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J18" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K18" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L18" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1851,7 +1944,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1863,31 +1956,31 @@
         <v>37</v>
       </c>
       <c r="E19">
-        <v>14.01215068</v>
+        <v>14.1487352</v>
       </c>
       <c r="F19">
-        <v>100.17523</v>
+        <v>100.6155778</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I19" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K19" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L19" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1895,10 +1988,10 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
         <v>44184</v>
@@ -1907,31 +2000,31 @@
         <v>38</v>
       </c>
       <c r="E20">
-        <v>13.8134088</v>
+        <v>13.8057625</v>
       </c>
       <c r="F20">
-        <v>100.5616103</v>
+        <v>100.6621959</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="I20" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J20" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K20" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L20" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1939,10 +2032,10 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
         <v>44184</v>
@@ -1951,31 +2044,31 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>13.816493</v>
+        <v>14.01215068</v>
       </c>
       <c r="F21">
-        <v>100.5610062</v>
+        <v>100.17523</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="I21" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J21" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K21" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L21" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1983,10 +2076,10 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2">
         <v>44184</v>
@@ -1995,31 +2088,31 @@
         <v>40</v>
       </c>
       <c r="E22">
-        <v>13.7966595</v>
+        <v>13.8134088</v>
       </c>
       <c r="F22">
-        <v>100.4755856</v>
+        <v>100.5616103</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="I22" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J22" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K22" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L22" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2027,10 +2120,10 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2">
         <v>44184</v>
@@ -2039,31 +2132,31 @@
         <v>41</v>
       </c>
       <c r="E23">
-        <v>13.69121688</v>
+        <v>13.816493</v>
       </c>
       <c r="F23">
-        <v>100.3412194</v>
+        <v>100.5610062</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="I23" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J23" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K23" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L23" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2071,10 +2164,10 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2">
         <v>44184</v>
@@ -2083,31 +2176,31 @@
         <v>42</v>
       </c>
       <c r="E24">
-        <v>13.79584</v>
+        <v>13.7966595</v>
       </c>
       <c r="F24">
-        <v>100.13118</v>
+        <v>100.4755856</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="I24" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J24" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K24" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L24" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2115,7 +2208,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -2127,31 +2220,31 @@
         <v>43</v>
       </c>
       <c r="E25">
-        <v>13.80564274</v>
+        <v>13.69121688</v>
       </c>
       <c r="F25">
-        <v>100.5238077</v>
+        <v>100.3412194</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="I25" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J25" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K25" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L25" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2159,10 +2252,10 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" s="2">
         <v>44184</v>
@@ -2171,31 +2264,31 @@
         <v>44</v>
       </c>
       <c r="E26">
-        <v>13.77870414</v>
+        <v>13.79584</v>
       </c>
       <c r="F26">
-        <v>100.4778649</v>
+        <v>100.13118</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I26" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J26" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K26" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L26" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2203,10 +2296,10 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2">
         <v>44184</v>
@@ -2215,31 +2308,31 @@
         <v>45</v>
       </c>
       <c r="E27">
-        <v>13.61347071</v>
+        <v>13.80564274</v>
       </c>
       <c r="F27">
-        <v>100.3824876</v>
+        <v>100.5238077</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="I27" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J27" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K27" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L27" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2247,10 +2340,10 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C28" s="2">
         <v>44184</v>
@@ -2259,31 +2352,31 @@
         <v>46</v>
       </c>
       <c r="E28">
-        <v>13.70935</v>
+        <v>13.77870414</v>
       </c>
       <c r="F28">
-        <v>100.6014532</v>
+        <v>100.4778649</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I28" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J28" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K28" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L28" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2291,10 +2384,10 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C29" s="2">
         <v>44184</v>
@@ -2303,31 +2396,31 @@
         <v>47</v>
       </c>
       <c r="E29">
-        <v>13.78281463</v>
+        <v>13.61347071</v>
       </c>
       <c r="F29">
-        <v>100.5995981</v>
+        <v>100.3824876</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I29" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J29" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K29" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L29" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2335,43 +2428,43 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D30" t="s">
         <v>48</v>
       </c>
       <c r="E30">
-        <v>13.5579068</v>
+        <v>13.70935</v>
       </c>
       <c r="F30">
-        <v>100.270829</v>
+        <v>100.6014532</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>0</v>
+      <c r="H30" t="s">
+        <v>141</v>
       </c>
       <c r="I30" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J30" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K30" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L30" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2379,43 +2472,43 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D31" t="s">
         <v>49</v>
       </c>
       <c r="E31">
-        <v>13.7937004</v>
+        <v>13.78281463</v>
       </c>
       <c r="F31">
-        <v>100.6923144</v>
+        <v>100.5995981</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="I31" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J31" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K31" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L31" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2423,43 +2516,43 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C32" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D32" t="s">
         <v>50</v>
       </c>
       <c r="E32">
-        <v>13.5455607</v>
+        <v>13.73739373</v>
       </c>
       <c r="F32">
-        <v>100.2767611</v>
+        <v>100.6165954</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="I32" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J32" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K32" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L32" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2467,43 +2560,43 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D33" t="s">
         <v>51</v>
       </c>
       <c r="E33">
-        <v>14.3355326</v>
+        <v>13.71433565</v>
       </c>
       <c r="F33">
-        <v>100.87017</v>
+        <v>100.647891</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33">
-        <v>0</v>
+      <c r="H33" t="s">
+        <v>141</v>
       </c>
       <c r="I33" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J33" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K33" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L33" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2511,43 +2604,43 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C34" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E34">
-        <v>14.5786407</v>
+        <v>13.71020819</v>
       </c>
       <c r="F34">
-        <v>100.9662444</v>
+        <v>100.5427674</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34">
-        <v>0</v>
+      <c r="H34" t="s">
+        <v>141</v>
       </c>
       <c r="I34" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J34" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K34" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L34" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2555,43 +2648,43 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C35" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E35">
-        <v>14.5116599</v>
+        <v>13.63894185</v>
       </c>
       <c r="F35">
-        <v>100.9094134</v>
+        <v>100.5263216</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35">
-        <v>0</v>
+      <c r="H35" t="s">
+        <v>141</v>
       </c>
       <c r="I35" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J35" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K35" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L35" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2599,22 +2692,22 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" s="2">
         <v>44185</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E36">
-        <v>14.1378761</v>
+        <v>13.5579068</v>
       </c>
       <c r="F36">
-        <v>100.8255049</v>
+        <v>100.270829</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2623,19 +2716,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J36" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K36" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L36" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2643,43 +2736,43 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C37" s="2">
         <v>44185</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E37">
-        <v>14.06566869</v>
+        <v>13.7937004</v>
       </c>
       <c r="F37">
-        <v>99.9821468</v>
+        <v>100.6923144</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I37" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J37" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K37" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L37" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2687,43 +2780,43 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C38" s="2">
         <v>44185</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E38">
-        <v>13.8220612</v>
+        <v>13.5455607</v>
       </c>
       <c r="F38">
-        <v>100.421874</v>
+        <v>100.2767611</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="I38" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J38" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K38" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L38" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2731,7 +2824,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -2740,34 +2833,34 @@
         <v>44185</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E39">
-        <v>13.8683169</v>
+        <v>14.3355326</v>
       </c>
       <c r="F39">
-        <v>100.4107308</v>
+        <v>100.87017</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39" t="s">
-        <v>112</v>
+      <c r="H39">
+        <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J39" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K39" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L39" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2775,43 +2868,43 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C40" s="2">
         <v>44185</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E40">
-        <v>13.89757086</v>
+        <v>14.5786407</v>
       </c>
       <c r="F40">
-        <v>100.6098027</v>
+        <v>100.9662444</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40" t="s">
-        <v>112</v>
+      <c r="H40">
+        <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J40" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K40" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L40" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2819,10 +2912,10 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="2">
         <v>44185</v>
@@ -2831,31 +2924,31 @@
         <v>57</v>
       </c>
       <c r="E41">
-        <v>13.72045903</v>
+        <v>14.5116599</v>
       </c>
       <c r="F41">
-        <v>100.5004852</v>
+        <v>100.9094134</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41" t="s">
-        <v>111</v>
+      <c r="H41">
+        <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J41" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K41" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L41" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2863,10 +2956,10 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C42" s="2">
         <v>44185</v>
@@ -2875,31 +2968,31 @@
         <v>58</v>
       </c>
       <c r="E42">
-        <v>13.817137</v>
+        <v>14.1378761</v>
       </c>
       <c r="F42">
-        <v>100.041497</v>
+        <v>100.8255049</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42" t="s">
-        <v>113</v>
+      <c r="H42">
+        <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J42" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K42" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L42" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2907,10 +3000,10 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" s="2">
         <v>44185</v>
@@ -2919,31 +3012,31 @@
         <v>59</v>
       </c>
       <c r="E43">
-        <v>13.737328</v>
+        <v>14.06566869</v>
       </c>
       <c r="F43">
-        <v>100.081218</v>
+        <v>99.9821468</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="I43" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J43" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K43" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L43" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2951,10 +3044,10 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C44" s="2">
         <v>44185</v>
@@ -2963,31 +3056,31 @@
         <v>60</v>
       </c>
       <c r="E44">
-        <v>14.021384</v>
+        <v>13.8220612</v>
       </c>
       <c r="F44">
-        <v>100.165325</v>
+        <v>100.421874</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="I44" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J44" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K44" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L44" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2995,10 +3088,10 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45" s="2">
         <v>44185</v>
@@ -3007,31 +3100,31 @@
         <v>61</v>
       </c>
       <c r="E45">
-        <v>13.82347979</v>
+        <v>13.8683169</v>
       </c>
       <c r="F45">
-        <v>100.4101224</v>
+        <v>100.4107308</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="I45" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J45" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K45" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L45" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3039,10 +3132,10 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C46" s="2">
         <v>44185</v>
@@ -3051,31 +3144,31 @@
         <v>62</v>
       </c>
       <c r="E46">
-        <v>13.82622351</v>
+        <v>13.89757086</v>
       </c>
       <c r="F46">
-        <v>100.4124415</v>
+        <v>100.6098027</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="I46" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J46" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K46" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L46" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3083,7 +3176,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
@@ -3095,31 +3188,31 @@
         <v>63</v>
       </c>
       <c r="E47">
-        <v>13.71100665</v>
+        <v>13.72045903</v>
       </c>
       <c r="F47">
-        <v>100.4234972</v>
+        <v>100.5004852</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I47" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J47" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K47" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L47" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3127,10 +3220,10 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C48" s="2">
         <v>44185</v>
@@ -3139,31 +3232,31 @@
         <v>64</v>
       </c>
       <c r="E48">
-        <v>13.81780926</v>
+        <v>13.817137</v>
       </c>
       <c r="F48">
-        <v>100.3981472</v>
+        <v>100.041497</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I48" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J48" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K48" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L48" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3171,10 +3264,10 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C49" s="2">
         <v>44185</v>
@@ -3183,31 +3276,31 @@
         <v>65</v>
       </c>
       <c r="E49">
-        <v>13.95701015</v>
+        <v>13.737328</v>
       </c>
       <c r="F49">
-        <v>100.404266</v>
+        <v>100.081218</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I49" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J49" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K49" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L49" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3215,43 +3308,43 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="D50" t="s">
         <v>66</v>
       </c>
       <c r="E50">
-        <v>13.8781452</v>
+        <v>14.021384</v>
       </c>
       <c r="F50">
-        <v>100.4091302</v>
+        <v>100.165325</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="I50" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J50" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K50" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L50" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3259,43 +3352,43 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C51" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="D51" t="s">
         <v>67</v>
       </c>
       <c r="E51">
-        <v>13.7164198</v>
+        <v>13.82347979</v>
       </c>
       <c r="F51">
-        <v>100.5716135</v>
+        <v>100.4101224</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I51" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J51" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K51" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L51" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3303,43 +3396,43 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C52" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="D52" t="s">
         <v>68</v>
       </c>
       <c r="E52">
-        <v>13.70807262</v>
+        <v>13.82622351</v>
       </c>
       <c r="F52">
-        <v>100.59964</v>
+        <v>100.4124415</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I52" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J52" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K52" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L52" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3347,43 +3440,43 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C53" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="D53" t="s">
         <v>69</v>
       </c>
       <c r="E53">
-        <v>13.78051515</v>
+        <v>13.71100665</v>
       </c>
       <c r="F53">
-        <v>100.4226823</v>
+        <v>100.4234972</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="I53" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J53" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K53" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L53" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3391,43 +3484,43 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C54" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="D54" t="s">
         <v>70</v>
       </c>
       <c r="E54">
-        <v>13.7355293</v>
+        <v>13.81780926</v>
       </c>
       <c r="F54">
-        <v>100.5979688</v>
+        <v>100.3981472</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I54" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J54" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K54" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L54" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3435,43 +3528,43 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C55" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="D55" t="s">
         <v>71</v>
       </c>
       <c r="E55">
-        <v>13.73541413</v>
+        <v>13.95701015</v>
       </c>
       <c r="F55">
-        <v>100.5877998</v>
+        <v>100.404266</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55">
-        <v>0</v>
+      <c r="H55" t="s">
+        <v>141</v>
       </c>
       <c r="I55" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J55" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K55" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L55" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3479,43 +3572,43 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C56" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="D56" t="s">
         <v>72</v>
       </c>
       <c r="E56">
-        <v>13.78766192</v>
+        <v>14.06478568</v>
       </c>
       <c r="F56">
-        <v>100.5105938</v>
+        <v>100.0502624</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56">
-        <v>0</v>
+      <c r="H56" t="s">
+        <v>141</v>
       </c>
       <c r="I56" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J56" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K56" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L56" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3523,43 +3616,43 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C57" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="D57" t="s">
         <v>73</v>
       </c>
       <c r="E57">
-        <v>13.5951449</v>
+        <v>13.73106738</v>
       </c>
       <c r="F57">
-        <v>100.5802135</v>
+        <v>100.0732375</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="I57" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J57" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K57" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L57" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3567,43 +3660,43 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C58" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="D58" t="s">
         <v>74</v>
       </c>
       <c r="E58">
-        <v>13.803038</v>
+        <v>13.8122326</v>
       </c>
       <c r="F58">
-        <v>100.188902</v>
+        <v>100.0726883</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I58" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J58" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K58" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L58" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3611,43 +3704,43 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C59" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="D59" t="s">
         <v>75</v>
       </c>
       <c r="E59">
-        <v>13.802276</v>
+        <v>13.69415224</v>
       </c>
       <c r="F59">
-        <v>100.19</v>
+        <v>100.6478267</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I59" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J59" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K59" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L59" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3655,43 +3748,43 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C60" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="D60" t="s">
         <v>76</v>
       </c>
       <c r="E60">
-        <v>13.928974</v>
+        <v>13.80243028</v>
       </c>
       <c r="F60">
-        <v>100.577365</v>
+        <v>100.6151197</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I60" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J60" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K60" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L60" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3699,43 +3792,43 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C61" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="D61" t="s">
         <v>77</v>
       </c>
       <c r="E61">
-        <v>13.929686</v>
+        <v>13.82571976</v>
       </c>
       <c r="F61">
-        <v>100.576</v>
+        <v>100.6794424</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I61" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J61" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K61" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L61" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3743,43 +3836,43 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C62" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="D62" t="s">
         <v>78</v>
       </c>
       <c r="E62">
-        <v>13.76033018</v>
+        <v>13.83106898</v>
       </c>
       <c r="F62">
-        <v>100.4796436</v>
+        <v>100.3729686</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I62" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J62" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K62" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L62" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3787,43 +3880,43 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D63" t="s">
         <v>79</v>
       </c>
       <c r="E63">
-        <v>13.82853997</v>
+        <v>13.8781452</v>
       </c>
       <c r="F63">
-        <v>100.4842102</v>
+        <v>100.4091302</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="I63" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J63" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K63" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L63" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3831,43 +3924,43 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
       </c>
       <c r="C64" s="2">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="D64" t="s">
         <v>80</v>
       </c>
       <c r="E64">
-        <v>13.7462524</v>
+        <v>13.7164198</v>
       </c>
       <c r="F64">
-        <v>100.5328635</v>
+        <v>100.5716135</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64">
-        <v>0</v>
+      <c r="H64" t="s">
+        <v>141</v>
       </c>
       <c r="I64" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J64" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K64" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L64" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3875,43 +3968,43 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C65" s="2">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="D65" t="s">
         <v>81</v>
       </c>
       <c r="E65">
-        <v>13.7243591</v>
+        <v>13.70807262</v>
       </c>
       <c r="F65">
-        <v>100.5386589</v>
+        <v>100.59964</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65">
-        <v>0</v>
+      <c r="H65" t="s">
+        <v>141</v>
       </c>
       <c r="I65" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J65" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K65" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L65" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -3919,43 +4012,43 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C66" s="2">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="D66" t="s">
         <v>82</v>
       </c>
       <c r="E66">
-        <v>13.54974685</v>
+        <v>13.78051515</v>
       </c>
       <c r="F66">
-        <v>100.2561435</v>
+        <v>100.4226823</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="I66" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J66" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K66" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L66" t="s">
         <v>151</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -3963,43 +4056,43 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C67" s="2">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="D67" t="s">
         <v>83</v>
       </c>
       <c r="E67">
-        <v>14.45160513</v>
+        <v>13.7355293</v>
       </c>
       <c r="F67">
-        <v>100.7230585</v>
+        <v>100.5979688</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="I67" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J67" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K67" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4007,43 +4100,43 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C68" s="2">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="D68" t="s">
         <v>84</v>
       </c>
       <c r="E68">
-        <v>13.72836497</v>
+        <v>13.73406154</v>
       </c>
       <c r="F68">
-        <v>100.5350858</v>
+        <v>100.5967948</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I68" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J68" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K68" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L68" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4051,43 +4144,43 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C69" s="2">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="D69" t="s">
         <v>85</v>
       </c>
       <c r="E69">
-        <v>13.7660558</v>
+        <v>13.7738673</v>
       </c>
       <c r="F69">
-        <v>100.6403032</v>
+        <v>100.5093218</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I69" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J69" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K69" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L69" t="s">
         <v>154</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4095,43 +4188,43 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C70" s="2">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="D70" t="s">
         <v>86</v>
       </c>
       <c r="E70">
-        <v>13.710361</v>
+        <v>13.82650614</v>
       </c>
       <c r="F70">
-        <v>100.4073817</v>
+        <v>100.4860605</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I70" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J70" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K70" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4139,22 +4232,22 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
       </c>
       <c r="C71" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D71" t="s">
         <v>87</v>
       </c>
       <c r="E71">
-        <v>13.2054213</v>
+        <v>13.73541413</v>
       </c>
       <c r="F71">
-        <v>99.9793013</v>
+        <v>100.5877998</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -4163,19 +4256,19 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J71" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K71" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L71" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4183,22 +4276,22 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C72" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D72" t="s">
         <v>88</v>
       </c>
       <c r="E72">
-        <v>13.7100705</v>
+        <v>13.78766192</v>
       </c>
       <c r="F72">
-        <v>100.6007069</v>
+        <v>100.5105938</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -4206,20 +4299,20 @@
       <c r="H72">
         <v>0</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
+      <c r="I72" t="s">
+        <v>143</v>
+      </c>
+      <c r="J72" t="s">
+        <v>145</v>
+      </c>
+      <c r="K72" t="s">
+        <v>141</v>
       </c>
       <c r="L72" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4227,43 +4320,43 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C73" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D73" t="s">
         <v>89</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>13.5951449</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>100.5802135</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="I73" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J73" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K73" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L73" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4271,43 +4364,43 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C74" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D74" t="s">
         <v>90</v>
       </c>
       <c r="E74">
-        <v>13.802283</v>
+        <v>13.803038</v>
       </c>
       <c r="F74">
-        <v>100.184509</v>
+        <v>100.188902</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I74" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J74" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K74" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L74" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4315,43 +4408,43 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C75" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D75" t="s">
         <v>91</v>
       </c>
       <c r="E75">
-        <v>13.91857</v>
+        <v>13.802143</v>
       </c>
       <c r="F75">
-        <v>100.601606</v>
+        <v>100.19</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I75" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J75" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K75" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L75" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4359,43 +4452,43 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C76" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D76" t="s">
         <v>92</v>
       </c>
       <c r="E76">
-        <v>13.6171972</v>
+        <v>13.928974</v>
       </c>
       <c r="F76">
-        <v>100.3791504</v>
+        <v>100.577365</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I76" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J76" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K76" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L76" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4403,43 +4496,43 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C77" s="2">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="D77" t="s">
         <v>93</v>
       </c>
       <c r="E77">
-        <v>13.721681</v>
+        <v>13.929686</v>
       </c>
       <c r="F77">
-        <v>100.53</v>
+        <v>100.576</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I77" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J77" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K77" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L77" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4447,43 +4540,43 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C78" s="2">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="D78" t="s">
         <v>94</v>
       </c>
       <c r="E78">
-        <v>13.9134431</v>
+        <v>13.76033018</v>
       </c>
       <c r="F78">
-        <v>100.4220473</v>
+        <v>100.4796436</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="I78" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="J78" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K78" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L78" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4491,43 +4584,43 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C79" s="2">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="D79" t="s">
         <v>95</v>
       </c>
       <c r="E79">
-        <v>13.786588</v>
+        <v>13.82853997</v>
       </c>
       <c r="F79">
-        <v>100.321233</v>
+        <v>100.4842102</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I79" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J79" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K79" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L79" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4535,43 +4628,43 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C80" s="2">
-        <v>44190</v>
+        <v>44187</v>
       </c>
       <c r="D80" t="s">
         <v>96</v>
       </c>
       <c r="E80">
-        <v>13.924252</v>
+        <v>14.01020378</v>
       </c>
       <c r="F80">
-        <v>100.597945</v>
+        <v>100.1768909</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I80" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J80" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K80" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L80" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4579,40 +4672,40 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C81" s="2">
-        <v>44191</v>
+        <v>44187</v>
       </c>
       <c r="D81" t="s">
         <v>97</v>
       </c>
       <c r="E81">
-        <v>13.7636001</v>
+        <v>14.04839109</v>
       </c>
       <c r="F81">
-        <v>100.5114624</v>
+        <v>100.0198852</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
+      <c r="H81" t="s">
+        <v>141</v>
+      </c>
+      <c r="I81" t="s">
+        <v>143</v>
+      </c>
+      <c r="J81" t="s">
+        <v>145</v>
       </c>
       <c r="K81" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L81" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>211</v>
@@ -4623,40 +4716,40 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C82" s="2">
-        <v>44191</v>
+        <v>44187</v>
       </c>
       <c r="D82" t="s">
         <v>98</v>
       </c>
       <c r="E82">
-        <v>13.734066</v>
+        <v>13.80175861</v>
       </c>
       <c r="F82">
-        <v>100.5278354</v>
+        <v>100.3053076</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
+      <c r="H82" t="s">
+        <v>141</v>
+      </c>
+      <c r="I82" t="s">
+        <v>143</v>
+      </c>
+      <c r="J82" t="s">
+        <v>145</v>
+      </c>
+      <c r="K82" t="s">
+        <v>141</v>
       </c>
       <c r="L82" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M82" s="3" t="s">
         <v>212</v>
@@ -4667,22 +4760,22 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C83" s="2">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="D83" t="s">
         <v>99</v>
       </c>
       <c r="E83">
-        <v>12.6483736</v>
+        <v>13.7462524</v>
       </c>
       <c r="F83">
-        <v>101.2273679</v>
+        <v>100.5328635</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -4690,20 +4783,20 @@
       <c r="H83">
         <v>0</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
+      <c r="I83" t="s">
+        <v>143</v>
+      </c>
+      <c r="J83" t="s">
+        <v>145</v>
+      </c>
+      <c r="K83" t="s">
+        <v>141</v>
       </c>
       <c r="L83" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4711,22 +4804,22 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C84" s="2">
-        <v>44192</v>
+        <v>44188</v>
       </c>
       <c r="D84" t="s">
         <v>100</v>
       </c>
       <c r="E84">
-        <v>12.6844183</v>
+        <v>13.7243591</v>
       </c>
       <c r="F84">
-        <v>101.2742991</v>
+        <v>100.5386589</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -4734,20 +4827,20 @@
       <c r="H84">
         <v>0</v>
       </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
+      <c r="I84" t="s">
+        <v>143</v>
+      </c>
+      <c r="J84" t="s">
+        <v>145</v>
       </c>
       <c r="K84" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L84" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -4755,43 +4848,43 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C85" s="2">
-        <v>44192</v>
+        <v>44188</v>
       </c>
       <c r="D85" t="s">
         <v>101</v>
       </c>
       <c r="E85">
-        <v>12.9730033</v>
+        <v>13.54974685</v>
       </c>
       <c r="F85">
-        <v>100.9029061</v>
+        <v>100.2561435</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
+      <c r="H85" t="s">
+        <v>142</v>
+      </c>
+      <c r="I85" t="s">
+        <v>143</v>
+      </c>
+      <c r="J85" t="s">
+        <v>145</v>
       </c>
       <c r="K85" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L85" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -4799,43 +4892,43 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C86" s="2">
-        <v>44192</v>
+        <v>44188</v>
       </c>
       <c r="D86" t="s">
         <v>102</v>
       </c>
       <c r="E86">
-        <v>13.7946069</v>
+        <v>14.45160513</v>
       </c>
       <c r="F86">
-        <v>100.5161808</v>
+        <v>100.7230585</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
+      <c r="H86" t="s">
+        <v>142</v>
+      </c>
+      <c r="I86" t="s">
+        <v>143</v>
+      </c>
+      <c r="J86" t="s">
+        <v>145</v>
       </c>
       <c r="K86" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L86" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -4843,43 +4936,43 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C87" s="2">
-        <v>44192</v>
+        <v>44188</v>
       </c>
       <c r="D87" t="s">
         <v>103</v>
       </c>
       <c r="E87">
-        <v>13.54448567</v>
+        <v>13.72836497</v>
       </c>
       <c r="F87">
-        <v>100.2752027</v>
+        <v>100.5350858</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="I87" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J87" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K87" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L87" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -4887,43 +4980,43 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C88" s="2">
-        <v>44194</v>
+        <v>44188</v>
       </c>
       <c r="D88" t="s">
         <v>104</v>
       </c>
       <c r="E88">
-        <v>12.9098775</v>
+        <v>13.7660558</v>
       </c>
       <c r="F88">
-        <v>100.891563</v>
+        <v>100.6403032</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I88" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="J88" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K88" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L88" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -4931,43 +5024,43 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C89" s="2">
-        <v>44194</v>
+        <v>44188</v>
       </c>
       <c r="D89" t="s">
         <v>105</v>
       </c>
       <c r="E89">
-        <v>13.3535702</v>
+        <v>13.710361</v>
       </c>
       <c r="F89">
-        <v>100.9765439</v>
+        <v>100.4073817</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
+      <c r="H89" t="s">
+        <v>141</v>
+      </c>
+      <c r="I89" t="s">
+        <v>143</v>
+      </c>
+      <c r="J89" t="s">
+        <v>145</v>
       </c>
       <c r="K89" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L89" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -4975,22 +5068,22 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C90" s="2">
-        <v>44194</v>
+        <v>44188</v>
       </c>
       <c r="D90" t="s">
         <v>106</v>
       </c>
       <c r="E90">
-        <v>12.948902</v>
+        <v>13.2054213</v>
       </c>
       <c r="F90">
-        <v>100.891292</v>
+        <v>99.9793013</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -4998,20 +5091,20 @@
       <c r="H90">
         <v>0</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
+      <c r="I90" t="s">
+        <v>143</v>
+      </c>
+      <c r="J90" t="s">
+        <v>145</v>
       </c>
       <c r="K90" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L90" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5019,22 +5112,22 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C91" s="2">
-        <v>44194</v>
+        <v>44188</v>
       </c>
       <c r="D91" t="s">
         <v>107</v>
       </c>
       <c r="E91">
-        <v>12.6495877</v>
+        <v>13.7100705</v>
       </c>
       <c r="F91">
-        <v>102.0329425</v>
+        <v>100.6007069</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -5048,14 +5141,14 @@
       <c r="J91">
         <v>0</v>
       </c>
-      <c r="K91" t="s">
-        <v>113</v>
+      <c r="K91">
+        <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5063,43 +5156,43 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B92" t="s">
         <v>14</v>
       </c>
       <c r="C92" s="2">
-        <v>44194</v>
+        <v>44188</v>
       </c>
       <c r="D92" t="s">
         <v>108</v>
       </c>
       <c r="E92">
-        <v>12.3757564</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>102.3818628</v>
+        <v>0</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
+      <c r="H92" t="s">
+        <v>141</v>
+      </c>
+      <c r="I92" t="s">
+        <v>143</v>
+      </c>
+      <c r="J92" t="s">
+        <v>145</v>
       </c>
       <c r="K92" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L92" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5107,43 +5200,43 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B93" t="s">
         <v>14</v>
       </c>
       <c r="C93" s="2">
-        <v>44194</v>
+        <v>44188</v>
       </c>
       <c r="D93" t="s">
         <v>109</v>
       </c>
       <c r="E93">
-        <v>12.7246169</v>
+        <v>13.802283</v>
       </c>
       <c r="F93">
-        <v>101.9362794</v>
+        <v>100.184509</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
+      <c r="H93" t="s">
+        <v>141</v>
+      </c>
+      <c r="I93" t="s">
+        <v>143</v>
+      </c>
+      <c r="J93" t="s">
+        <v>145</v>
       </c>
       <c r="K93" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L93" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5151,45 +5244,1321 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C94" s="2">
-        <v>44194</v>
+        <v>44188</v>
       </c>
       <c r="D94" t="s">
         <v>110</v>
       </c>
       <c r="E94">
+        <v>13.91857</v>
+      </c>
+      <c r="F94">
+        <v>100.601606</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>141</v>
+      </c>
+      <c r="I94" t="s">
+        <v>143</v>
+      </c>
+      <c r="J94" t="s">
+        <v>145</v>
+      </c>
+      <c r="K94" t="s">
+        <v>141</v>
+      </c>
+      <c r="L94" t="s">
+        <v>176</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95">
+        <v>147</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D95" t="s">
+        <v>111</v>
+      </c>
+      <c r="E95">
+        <v>13.6171972</v>
+      </c>
+      <c r="F95">
+        <v>100.3791504</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>141</v>
+      </c>
+      <c r="I95" t="s">
+        <v>143</v>
+      </c>
+      <c r="J95" t="s">
+        <v>145</v>
+      </c>
+      <c r="K95" t="s">
+        <v>141</v>
+      </c>
+      <c r="L95" t="s">
+        <v>187</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96">
+        <v>148</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D96" t="s">
+        <v>112</v>
+      </c>
+      <c r="E96">
+        <v>12.66469676</v>
+      </c>
+      <c r="F96">
+        <v>102.1037094</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>140</v>
+      </c>
+      <c r="I96" t="s">
+        <v>143</v>
+      </c>
+      <c r="J96" t="s">
+        <v>145</v>
+      </c>
+      <c r="K96" t="s">
+        <v>141</v>
+      </c>
+      <c r="L96" t="s">
+        <v>188</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97">
+        <v>149</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="2">
+        <v>44189</v>
+      </c>
+      <c r="D97" t="s">
+        <v>113</v>
+      </c>
+      <c r="E97">
+        <v>13.721681</v>
+      </c>
+      <c r="F97">
+        <v>100.53</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>141</v>
+      </c>
+      <c r="I97" t="s">
+        <v>143</v>
+      </c>
+      <c r="J97" t="s">
+        <v>145</v>
+      </c>
+      <c r="K97" t="s">
+        <v>141</v>
+      </c>
+      <c r="L97" t="s">
+        <v>189</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98">
+        <v>150</v>
+      </c>
+      <c r="B98" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="2">
+        <v>44189</v>
+      </c>
+      <c r="D98" t="s">
+        <v>114</v>
+      </c>
+      <c r="E98">
+        <v>13.9134431</v>
+      </c>
+      <c r="F98">
+        <v>100.4220473</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>142</v>
+      </c>
+      <c r="I98" t="s">
+        <v>144</v>
+      </c>
+      <c r="J98" t="s">
+        <v>145</v>
+      </c>
+      <c r="K98" t="s">
+        <v>141</v>
+      </c>
+      <c r="L98" t="s">
+        <v>190</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99">
+        <v>151</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="2">
+        <v>44189</v>
+      </c>
+      <c r="D99" t="s">
+        <v>115</v>
+      </c>
+      <c r="E99">
+        <v>13.786588</v>
+      </c>
+      <c r="F99">
+        <v>100.321233</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>141</v>
+      </c>
+      <c r="I99" t="s">
+        <v>143</v>
+      </c>
+      <c r="J99" t="s">
+        <v>145</v>
+      </c>
+      <c r="K99" t="s">
+        <v>141</v>
+      </c>
+      <c r="L99" t="s">
+        <v>150</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100">
+        <v>152</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="2">
+        <v>44189</v>
+      </c>
+      <c r="D100" t="s">
+        <v>116</v>
+      </c>
+      <c r="E100">
+        <v>13.65357633</v>
+      </c>
+      <c r="F100">
+        <v>100.4481482</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>141</v>
+      </c>
+      <c r="I100" t="s">
+        <v>143</v>
+      </c>
+      <c r="J100" t="s">
+        <v>145</v>
+      </c>
+      <c r="K100" t="s">
+        <v>141</v>
+      </c>
+      <c r="L100" t="s">
+        <v>153</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101">
+        <v>153</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="2">
+        <v>44189</v>
+      </c>
+      <c r="D101" t="s">
+        <v>117</v>
+      </c>
+      <c r="E101">
+        <v>13.81456113</v>
+      </c>
+      <c r="F101">
+        <v>100.0630594</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>141</v>
+      </c>
+      <c r="I101" t="s">
+        <v>143</v>
+      </c>
+      <c r="J101" t="s">
+        <v>145</v>
+      </c>
+      <c r="K101" t="s">
+        <v>141</v>
+      </c>
+      <c r="L101" t="s">
+        <v>153</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102">
+        <v>154</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="2">
+        <v>44189</v>
+      </c>
+      <c r="D102" t="s">
+        <v>118</v>
+      </c>
+      <c r="E102">
+        <v>12.68783188</v>
+      </c>
+      <c r="F102">
+        <v>101.2114545</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>140</v>
+      </c>
+      <c r="I102" t="s">
+        <v>143</v>
+      </c>
+      <c r="J102" t="s">
+        <v>145</v>
+      </c>
+      <c r="K102" t="s">
+        <v>141</v>
+      </c>
+      <c r="L102" t="s">
+        <v>188</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103">
+        <v>155</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="2">
+        <v>44189</v>
+      </c>
+      <c r="D103" t="s">
+        <v>119</v>
+      </c>
+      <c r="E103">
+        <v>13.67342423</v>
+      </c>
+      <c r="F103">
+        <v>100.6069256</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103" t="s">
+        <v>141</v>
+      </c>
+      <c r="I103" t="s">
+        <v>143</v>
+      </c>
+      <c r="J103" t="s">
+        <v>145</v>
+      </c>
+      <c r="K103" t="s">
+        <v>141</v>
+      </c>
+      <c r="L103" t="s">
+        <v>154</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104">
+        <v>156</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="2">
+        <v>44189</v>
+      </c>
+      <c r="D104" t="s">
+        <v>120</v>
+      </c>
+      <c r="E104">
+        <v>13.6680206</v>
+      </c>
+      <c r="F104">
+        <v>100.6354649</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>141</v>
+      </c>
+      <c r="I104" t="s">
+        <v>143</v>
+      </c>
+      <c r="J104" t="s">
+        <v>145</v>
+      </c>
+      <c r="K104" t="s">
+        <v>141</v>
+      </c>
+      <c r="L104" t="s">
+        <v>154</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105">
+        <v>157</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="2">
+        <v>44190</v>
+      </c>
+      <c r="D105" t="s">
+        <v>121</v>
+      </c>
+      <c r="E105">
+        <v>13.924252</v>
+      </c>
+      <c r="F105">
+        <v>100.597945</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>141</v>
+      </c>
+      <c r="I105" t="s">
+        <v>143</v>
+      </c>
+      <c r="J105" t="s">
+        <v>145</v>
+      </c>
+      <c r="K105" t="s">
+        <v>141</v>
+      </c>
+      <c r="L105" t="s">
+        <v>176</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106">
+        <v>158</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="2">
+        <v>44190</v>
+      </c>
+      <c r="D106" t="s">
+        <v>122</v>
+      </c>
+      <c r="E106">
+        <v>12.69670286</v>
+      </c>
+      <c r="F106">
+        <v>101.2683573</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>140</v>
+      </c>
+      <c r="I106" t="s">
+        <v>143</v>
+      </c>
+      <c r="J106" t="s">
+        <v>145</v>
+      </c>
+      <c r="K106" t="s">
+        <v>141</v>
+      </c>
+      <c r="L106" t="s">
+        <v>188</v>
+      </c>
+      <c r="M106" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107">
+        <v>159</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="2">
+        <v>44190</v>
+      </c>
+      <c r="D107" t="s">
+        <v>123</v>
+      </c>
+      <c r="E107">
+        <v>12.69574994</v>
+      </c>
+      <c r="F107">
+        <v>101.2674706</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107" t="s">
+        <v>140</v>
+      </c>
+      <c r="I107" t="s">
+        <v>143</v>
+      </c>
+      <c r="J107" t="s">
+        <v>145</v>
+      </c>
+      <c r="K107" t="s">
+        <v>141</v>
+      </c>
+      <c r="L107" t="s">
+        <v>188</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108">
+        <v>160</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="2">
+        <v>44191</v>
+      </c>
+      <c r="D108" t="s">
+        <v>124</v>
+      </c>
+      <c r="E108">
+        <v>13.7636001</v>
+      </c>
+      <c r="F108">
+        <v>100.5114624</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108" t="s">
+        <v>141</v>
+      </c>
+      <c r="L108" t="s">
+        <v>191</v>
+      </c>
+      <c r="M108" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109">
+        <v>161</v>
+      </c>
+      <c r="B109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="2">
+        <v>44191</v>
+      </c>
+      <c r="D109" t="s">
+        <v>125</v>
+      </c>
+      <c r="E109">
+        <v>13.734066</v>
+      </c>
+      <c r="F109">
+        <v>100.5278354</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109" t="s">
+        <v>192</v>
+      </c>
+      <c r="M109" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110">
+        <v>162</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="2">
+        <v>44191</v>
+      </c>
+      <c r="D110" t="s">
+        <v>126</v>
+      </c>
+      <c r="E110">
+        <v>12.6483736</v>
+      </c>
+      <c r="F110">
+        <v>101.2273679</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110" t="s">
+        <v>193</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111">
+        <v>163</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="2">
+        <v>44191</v>
+      </c>
+      <c r="D111" t="s">
+        <v>127</v>
+      </c>
+      <c r="E111">
+        <v>12.69691038</v>
+      </c>
+      <c r="F111">
+        <v>101.268451</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111" t="s">
+        <v>140</v>
+      </c>
+      <c r="I111" t="s">
+        <v>143</v>
+      </c>
+      <c r="J111" t="s">
+        <v>145</v>
+      </c>
+      <c r="K111" t="s">
+        <v>141</v>
+      </c>
+      <c r="L111" t="s">
+        <v>188</v>
+      </c>
+      <c r="M111" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112">
+        <v>164</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="2">
+        <v>44191</v>
+      </c>
+      <c r="D112" t="s">
+        <v>128</v>
+      </c>
+      <c r="E112">
+        <v>12.66695256</v>
+      </c>
+      <c r="F112">
+        <v>101.2738756</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112" t="s">
+        <v>140</v>
+      </c>
+      <c r="I112" t="s">
+        <v>143</v>
+      </c>
+      <c r="J112" t="s">
+        <v>145</v>
+      </c>
+      <c r="K112" t="s">
+        <v>141</v>
+      </c>
+      <c r="L112" t="s">
+        <v>188</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113">
+        <v>165</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="2">
+        <v>44192</v>
+      </c>
+      <c r="D113" t="s">
+        <v>129</v>
+      </c>
+      <c r="E113">
+        <v>12.6844183</v>
+      </c>
+      <c r="F113">
+        <v>101.2742991</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113" t="s">
+        <v>141</v>
+      </c>
+      <c r="L113" t="s">
+        <v>194</v>
+      </c>
+      <c r="M113" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114">
+        <v>166</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="2">
+        <v>44192</v>
+      </c>
+      <c r="D114" t="s">
+        <v>130</v>
+      </c>
+      <c r="E114">
+        <v>12.9730033</v>
+      </c>
+      <c r="F114">
+        <v>100.9029061</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114" t="s">
+        <v>141</v>
+      </c>
+      <c r="L114" t="s">
+        <v>194</v>
+      </c>
+      <c r="M114" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115">
+        <v>167</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="2">
+        <v>44192</v>
+      </c>
+      <c r="D115" t="s">
+        <v>131</v>
+      </c>
+      <c r="E115">
+        <v>13.7946069</v>
+      </c>
+      <c r="F115">
+        <v>100.5161808</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115" t="s">
+        <v>141</v>
+      </c>
+      <c r="L115" t="s">
+        <v>195</v>
+      </c>
+      <c r="M115" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116">
+        <v>168</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="2">
+        <v>44192</v>
+      </c>
+      <c r="D116" t="s">
+        <v>132</v>
+      </c>
+      <c r="E116">
+        <v>13.54448567</v>
+      </c>
+      <c r="F116">
+        <v>100.2752027</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>140</v>
+      </c>
+      <c r="I116" t="s">
+        <v>143</v>
+      </c>
+      <c r="J116" t="s">
+        <v>145</v>
+      </c>
+      <c r="K116" t="s">
+        <v>141</v>
+      </c>
+      <c r="L116" t="s">
+        <v>196</v>
+      </c>
+      <c r="M116" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117">
+        <v>169</v>
+      </c>
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D117" t="s">
+        <v>133</v>
+      </c>
+      <c r="E117">
+        <v>12.9098775</v>
+      </c>
+      <c r="F117">
+        <v>100.891563</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117" t="s">
+        <v>141</v>
+      </c>
+      <c r="I117" t="s">
+        <v>143</v>
+      </c>
+      <c r="J117" t="s">
+        <v>145</v>
+      </c>
+      <c r="K117" t="s">
+        <v>141</v>
+      </c>
+      <c r="L117" t="s">
+        <v>197</v>
+      </c>
+      <c r="M117" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118">
+        <v>170</v>
+      </c>
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D118" t="s">
+        <v>134</v>
+      </c>
+      <c r="E118">
+        <v>13.3535702</v>
+      </c>
+      <c r="F118">
+        <v>100.9765439</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118" t="s">
+        <v>141</v>
+      </c>
+      <c r="L118" t="s">
+        <v>198</v>
+      </c>
+      <c r="M118" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119">
+        <v>171</v>
+      </c>
+      <c r="B119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D119" t="s">
+        <v>135</v>
+      </c>
+      <c r="E119">
+        <v>12.948902</v>
+      </c>
+      <c r="F119">
+        <v>100.891292</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119" t="s">
+        <v>141</v>
+      </c>
+      <c r="L119" t="s">
+        <v>199</v>
+      </c>
+      <c r="M119" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120">
+        <v>172</v>
+      </c>
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D120" t="s">
+        <v>136</v>
+      </c>
+      <c r="E120">
+        <v>12.6495877</v>
+      </c>
+      <c r="F120">
+        <v>102.0329425</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120" t="s">
+        <v>141</v>
+      </c>
+      <c r="L120" t="s">
+        <v>200</v>
+      </c>
+      <c r="M120" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121">
+        <v>173</v>
+      </c>
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D121" t="s">
+        <v>137</v>
+      </c>
+      <c r="E121">
+        <v>12.3757564</v>
+      </c>
+      <c r="F121">
+        <v>102.3818628</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121" t="s">
+        <v>141</v>
+      </c>
+      <c r="L121" t="s">
+        <v>201</v>
+      </c>
+      <c r="M121" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122">
+        <v>174</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D122" t="s">
+        <v>138</v>
+      </c>
+      <c r="E122">
+        <v>12.7246169</v>
+      </c>
+      <c r="F122">
+        <v>101.9362794</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122" t="s">
+        <v>141</v>
+      </c>
+      <c r="L122" t="s">
+        <v>202</v>
+      </c>
+      <c r="M122" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123">
+        <v>175</v>
+      </c>
+      <c r="B123" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D123" t="s">
+        <v>139</v>
+      </c>
+      <c r="E123">
         <v>13.772986</v>
       </c>
-      <c r="F94">
+      <c r="F123">
         <v>100.4855148</v>
       </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94" t="s">
-        <v>113</v>
-      </c>
-      <c r="L94" t="s">
-        <v>173</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="N94">
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123" t="s">
+        <v>141</v>
+      </c>
+      <c r="L123" t="s">
+        <v>203</v>
+      </c>
+      <c r="M123" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="N123">
         <v>0</v>
       </c>
     </row>
@@ -5229,13 +6598,13 @@
     <hyperlink ref="M33" r:id="rId32"/>
     <hyperlink ref="M34" r:id="rId33"/>
     <hyperlink ref="M35" r:id="rId34"/>
-    <hyperlink ref="M36" r:id="rId35" location="cxrecs_s"/>
+    <hyperlink ref="M36" r:id="rId35"/>
     <hyperlink ref="M37" r:id="rId36"/>
     <hyperlink ref="M38" r:id="rId37"/>
     <hyperlink ref="M39" r:id="rId38"/>
     <hyperlink ref="M40" r:id="rId39"/>
     <hyperlink ref="M41" r:id="rId40"/>
-    <hyperlink ref="M42" r:id="rId41"/>
+    <hyperlink ref="M42" r:id="rId41" location="cxrecs_s"/>
     <hyperlink ref="M43" r:id="rId42"/>
     <hyperlink ref="M44" r:id="rId43"/>
     <hyperlink ref="M45" r:id="rId44"/>
@@ -5288,6 +6657,35 @@
     <hyperlink ref="M92" r:id="rId91"/>
     <hyperlink ref="M93" r:id="rId92"/>
     <hyperlink ref="M94" r:id="rId93"/>
+    <hyperlink ref="M95" r:id="rId94"/>
+    <hyperlink ref="M96" r:id="rId95"/>
+    <hyperlink ref="M97" r:id="rId96"/>
+    <hyperlink ref="M98" r:id="rId97"/>
+    <hyperlink ref="M99" r:id="rId98"/>
+    <hyperlink ref="M100" r:id="rId99"/>
+    <hyperlink ref="M101" r:id="rId100"/>
+    <hyperlink ref="M102" r:id="rId101"/>
+    <hyperlink ref="M103" r:id="rId102"/>
+    <hyperlink ref="M104" r:id="rId103"/>
+    <hyperlink ref="M105" r:id="rId104"/>
+    <hyperlink ref="M106" r:id="rId105"/>
+    <hyperlink ref="M107" r:id="rId106"/>
+    <hyperlink ref="M108" r:id="rId107"/>
+    <hyperlink ref="M109" r:id="rId108"/>
+    <hyperlink ref="M110" r:id="rId109"/>
+    <hyperlink ref="M111" r:id="rId110"/>
+    <hyperlink ref="M112" r:id="rId111"/>
+    <hyperlink ref="M113" r:id="rId112"/>
+    <hyperlink ref="M114" r:id="rId113"/>
+    <hyperlink ref="M115" r:id="rId114"/>
+    <hyperlink ref="M116" r:id="rId115"/>
+    <hyperlink ref="M117" r:id="rId116"/>
+    <hyperlink ref="M118" r:id="rId117"/>
+    <hyperlink ref="M119" r:id="rId118"/>
+    <hyperlink ref="M120" r:id="rId119"/>
+    <hyperlink ref="M121" r:id="rId120"/>
+    <hyperlink ref="M122" r:id="rId121"/>
+    <hyperlink ref="M123" r:id="rId122"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="255">
   <si>
     <t>id</t>
   </si>
@@ -415,6 +415,9 @@
     <t>ร้านท่าเรือภัตตาคาร มหาชัย</t>
   </si>
   <si>
+    <t>อาคารนานมีบุ๊คส์ สุขุมวิท31</t>
+  </si>
+  <si>
     <t>ตู้มวยเทพประสิทธิ์ บางละมุง</t>
   </si>
   <si>
@@ -607,6 +610,9 @@
     <t>ผู้ว่าฯ สมุทรสาคร พา รมต.สาธารณะสุข ตรวจตลาดกลางกุ้ง ก่อนติดโควิด 1 วัน</t>
   </si>
   <si>
+    <t>นานมีบุ๊คส์ พนง.ติดโควิด แจ้งผู้ติดต่อ เฝ้าระวัง-สังเกตอาการ</t>
+  </si>
+  <si>
     <t>ขอให้ผู้ที่มาที่นี่ตั้งแต่วันที่ 1 ธ.ค. เฝ้าระวัง สังเกตอาการ</t>
   </si>
   <si>
@@ -758,6 +764,9 @@
   </si>
   <si>
     <t>https://www.prachachat.net/general/news-583401</t>
+  </si>
+  <si>
+    <t>https://www.prachachat.net/general/news-585006</t>
   </si>
   <si>
     <t>https://www.facebook.com/318251788326658/photos/a.319526161532554/1902163179935503/?type=3</t>
@@ -1144,7 +1153,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1220,19 +1229,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1261,22 +1270,22 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1305,22 +1314,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1349,22 +1358,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1393,22 +1402,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1437,22 +1446,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1481,22 +1490,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1525,22 +1534,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1569,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1613,22 +1622,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1657,22 +1666,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1701,22 +1710,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1745,22 +1754,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1789,22 +1798,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1833,22 +1842,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1877,22 +1886,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1921,22 +1930,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1965,22 +1974,22 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2009,22 +2018,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2053,22 +2062,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2097,22 +2106,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2141,22 +2150,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2185,22 +2194,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2229,22 +2238,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2273,22 +2282,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2317,22 +2326,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2361,22 +2370,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2405,22 +2414,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2449,22 +2458,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2493,22 +2502,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2537,22 +2546,22 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2581,22 +2590,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2625,22 +2634,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2669,22 +2678,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2716,19 +2725,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2757,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2801,22 +2810,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2848,19 +2857,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2892,19 +2901,19 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2936,19 +2945,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2980,19 +2989,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3021,22 +3030,22 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3065,22 +3074,22 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3109,22 +3118,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K45" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3153,22 +3162,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3197,22 +3206,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I47" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3241,22 +3250,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3285,22 +3294,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3329,22 +3338,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I50" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L50" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3373,22 +3382,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K51" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3417,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I52" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K52" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3461,22 +3470,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I53" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3505,22 +3514,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I54" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J54" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K54" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3549,22 +3558,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J55" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K55" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L55" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3593,22 +3602,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J56" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3637,22 +3646,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3681,22 +3690,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I58" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3725,22 +3734,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I59" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K59" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L59" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3769,22 +3778,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K60" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L60" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3813,22 +3822,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I61" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J61" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K61" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L61" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3857,22 +3866,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I62" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J62" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L62" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3901,22 +3910,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K63" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3945,22 +3954,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I64" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K64" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L64" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3989,22 +3998,22 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I65" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K65" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L65" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4033,22 +4042,22 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J66" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K66" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L66" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4077,22 +4086,22 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I67" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J67" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K67" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L67" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4121,22 +4130,22 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I68" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J68" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L68" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4165,22 +4174,22 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J69" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L69" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4209,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I70" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J70" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K70" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4256,19 +4265,19 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J71" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K71" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L71" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4300,19 +4309,19 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J72" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K72" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L72" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4341,22 +4350,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I73" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K73" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L73" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4385,22 +4394,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I74" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K74" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L74" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4429,22 +4438,22 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I75" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J75" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K75" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4473,22 +4482,22 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I76" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J76" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K76" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L76" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4517,22 +4526,22 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J77" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K77" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L77" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4561,22 +4570,22 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J78" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K78" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L78" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4605,22 +4614,22 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I79" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J79" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L79" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4649,22 +4658,22 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I80" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J80" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K80" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L80" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4693,22 +4702,22 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I81" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J81" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K81" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L81" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4737,22 +4746,22 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I82" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J82" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K82" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L82" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4784,19 +4793,19 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J83" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K83" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L83" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4828,19 +4837,19 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J84" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K84" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L84" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -4869,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I85" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J85" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K85" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L85" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -4913,22 +4922,22 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I86" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J86" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K86" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L86" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -4957,22 +4966,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I87" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J87" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K87" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L87" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5001,22 +5010,22 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I88" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J88" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K88" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L88" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5045,22 +5054,22 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I89" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J89" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K89" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L89" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5092,19 +5101,19 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J90" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K90" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L90" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5145,10 +5154,10 @@
         <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5177,22 +5186,22 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I92" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J92" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K92" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L92" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5221,22 +5230,22 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I93" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J93" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K93" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L93" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5265,22 +5274,22 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I94" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J94" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K94" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L94" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5309,22 +5318,22 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I95" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J95" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K95" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L95" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5353,22 +5362,22 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I96" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J96" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K96" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L96" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5397,22 +5406,22 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I97" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J97" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K97" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L97" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5441,22 +5450,22 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I98" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J98" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K98" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L98" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5485,22 +5494,22 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I99" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J99" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K99" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L99" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5529,22 +5538,22 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I100" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J100" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K100" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L100" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5573,22 +5582,22 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I101" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J101" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K101" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L101" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5617,22 +5626,22 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I102" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J102" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K102" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L102" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5661,22 +5670,22 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I103" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J103" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K103" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L103" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5705,22 +5714,22 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I104" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J104" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K104" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L104" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5749,22 +5758,22 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I105" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J105" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K105" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L105" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5793,22 +5802,22 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I106" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J106" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K106" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L106" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -5837,22 +5846,22 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I107" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J107" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K107" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L107" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -5890,13 +5899,13 @@
         <v>0</v>
       </c>
       <c r="K108" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L108" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -5937,10 +5946,10 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -5981,10 +5990,10 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6013,22 +6022,22 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I111" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J111" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K111" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L111" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6057,22 +6066,22 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I112" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J112" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K112" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L112" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6110,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L113" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6154,13 +6163,13 @@
         <v>0</v>
       </c>
       <c r="K114" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L114" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6198,13 +6207,13 @@
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L115" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6233,22 +6242,22 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I116" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J116" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K116" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L116" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6259,40 +6268,40 @@
         <v>169</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C117" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D117" t="s">
         <v>133</v>
       </c>
       <c r="E117">
-        <v>12.9098775</v>
+        <v>13.73545544</v>
       </c>
       <c r="F117">
-        <v>100.891563</v>
+        <v>100.5661584</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I117" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J117" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K117" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L117" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6312,31 +6321,31 @@
         <v>134</v>
       </c>
       <c r="E118">
-        <v>13.3535702</v>
+        <v>12.9098775</v>
       </c>
       <c r="F118">
-        <v>100.9765439</v>
+        <v>100.891563</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
+      <c r="H118" t="s">
+        <v>142</v>
+      </c>
+      <c r="I118" t="s">
+        <v>144</v>
+      </c>
+      <c r="J118" t="s">
+        <v>146</v>
       </c>
       <c r="K118" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L118" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6347,7 +6356,7 @@
         <v>171</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C119" s="2">
         <v>44194</v>
@@ -6356,10 +6365,10 @@
         <v>135</v>
       </c>
       <c r="E119">
-        <v>12.948902</v>
+        <v>13.3535702</v>
       </c>
       <c r="F119">
-        <v>100.891292</v>
+        <v>100.9765439</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -6374,13 +6383,13 @@
         <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L119" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6391,7 +6400,7 @@
         <v>172</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C120" s="2">
         <v>44194</v>
@@ -6400,10 +6409,10 @@
         <v>136</v>
       </c>
       <c r="E120">
-        <v>12.6495877</v>
+        <v>12.948902</v>
       </c>
       <c r="F120">
-        <v>102.0329425</v>
+        <v>100.891292</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -6418,13 +6427,13 @@
         <v>0</v>
       </c>
       <c r="K120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L120" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6444,10 +6453,10 @@
         <v>137</v>
       </c>
       <c r="E121">
-        <v>12.3757564</v>
+        <v>12.6495877</v>
       </c>
       <c r="F121">
-        <v>102.3818628</v>
+        <v>102.0329425</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6462,13 +6471,13 @@
         <v>0</v>
       </c>
       <c r="K121" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L121" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6488,10 +6497,10 @@
         <v>138</v>
       </c>
       <c r="E122">
-        <v>12.7246169</v>
+        <v>12.3757564</v>
       </c>
       <c r="F122">
-        <v>101.9362794</v>
+        <v>102.3818628</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6506,13 +6515,13 @@
         <v>0</v>
       </c>
       <c r="K122" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L122" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6523,7 +6532,7 @@
         <v>175</v>
       </c>
       <c r="B123" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C123" s="2">
         <v>44194</v>
@@ -6532,33 +6541,77 @@
         <v>139</v>
       </c>
       <c r="E123">
+        <v>12.7246169</v>
+      </c>
+      <c r="F123">
+        <v>101.9362794</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123" t="s">
+        <v>142</v>
+      </c>
+      <c r="L123" t="s">
+        <v>204</v>
+      </c>
+      <c r="M123" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124">
+        <v>176</v>
+      </c>
+      <c r="B124" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D124" t="s">
+        <v>140</v>
+      </c>
+      <c r="E124">
         <v>13.772986</v>
       </c>
-      <c r="F123">
+      <c r="F124">
         <v>100.4855148</v>
       </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
-      <c r="K123" t="s">
-        <v>141</v>
-      </c>
-      <c r="L123" t="s">
-        <v>203</v>
-      </c>
-      <c r="M123" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="N123">
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124" t="s">
+        <v>142</v>
+      </c>
+      <c r="L124" t="s">
+        <v>205</v>
+      </c>
+      <c r="M124" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="N124">
         <v>0</v>
       </c>
     </row>
@@ -6686,6 +6739,7 @@
     <hyperlink ref="M121" r:id="rId120"/>
     <hyperlink ref="M122" r:id="rId121"/>
     <hyperlink ref="M123" r:id="rId122"/>
+    <hyperlink ref="M124" r:id="rId123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -364,7 +364,7 @@
     <t>ศูนย์การแพทย์กาญจนาภิเษก อ.พุทธมณฑล</t>
   </si>
   <si>
-    <t>ตลาดท่าข้าม</t>
+    <t>ตลาดท่าข้าม อ.นครชัยศรี</t>
   </si>
   <si>
     <t>ตลาดปฐมมงคล</t>
@@ -5520,7 +5520,7 @@
         <v>152</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C100" s="2">
         <v>44189</v>
@@ -5529,10 +5529,10 @@
         <v>116</v>
       </c>
       <c r="E100">
-        <v>13.65357633</v>
+        <v>13.8017434</v>
       </c>
       <c r="F100">
-        <v>100.4481482</v>
+        <v>100.1879465</v>
       </c>
       <c r="G100">
         <v>0</v>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="309">
   <si>
     <t>id</t>
   </si>
@@ -58,12 +58,12 @@
     <t>parentcase</t>
   </si>
   <si>
+    <t>unspecified_location</t>
+  </si>
+  <si>
     <t>patient_has_been_here</t>
   </si>
   <si>
-    <t>unspecified_location</t>
-  </si>
-  <si>
     <t>sanitizing</t>
   </si>
   <si>
@@ -76,24 +76,6 @@
     <t>sanitized</t>
   </si>
   <si>
-    <t>INC2 Tower B</t>
-  </si>
-  <si>
-    <t>ตลาด เขตคลองสามวา</t>
-  </si>
-  <si>
-    <t>ร้านชาบู ในตลาดพระปิ่น 3</t>
-  </si>
-  <si>
-    <t>ตลาดสดเคหะบางบัว</t>
-  </si>
-  <si>
-    <t>โรงเรียนเจี้ยนหัว ต.บางเลน อ.บางเลน</t>
-  </si>
-  <si>
-    <t>สวทช.</t>
-  </si>
-  <si>
     <t>ซ.รุ่งเรือง 5 บางบัวทอง</t>
   </si>
   <si>
@@ -127,6 +109,9 @@
     <t>ร้านอาหาร คาราโอเกะ ใบไม้ร่าเริง</t>
   </si>
   <si>
+    <t>หมูกระทะ ร้านอิกคิว จรัญสนิทวงศ์</t>
+  </si>
+  <si>
     <t>ตลาดหมู่บ้านศรีทอง จ.อยุธยา</t>
   </si>
   <si>
@@ -253,6 +238,9 @@
     <t>วัดบางม่วง</t>
   </si>
   <si>
+    <t>สนามฟุตบอลหญ้าเทียม BQ เพชรเกษม 68</t>
+  </si>
+  <si>
     <t>ร้านก๋วยเตี๋ยว ในตลาดบางใหญ่</t>
   </si>
   <si>
@@ -277,6 +265,9 @@
     <t>เลอ ปา สิริ พระราม5</t>
   </si>
   <si>
+    <t>Mคอนโด จตุจักร</t>
+  </si>
+  <si>
     <t>Lamptitude สาขาเอกมัย</t>
   </si>
   <si>
@@ -313,6 +304,9 @@
     <t>แมคโคร ศาลายา</t>
   </si>
   <si>
+    <t>ตลาดมิตรมงคล เขตบางขุนเทียน</t>
+  </si>
+  <si>
     <t>Siam Center</t>
   </si>
   <si>
@@ -355,6 +349,12 @@
     <t>ม.ร.ภ. รำไพพรรณี</t>
   </si>
   <si>
+    <t>วัดศิริพงษ์</t>
+  </si>
+  <si>
+    <t>บ้านเด็กพิการซ้ำซ้อน รามอินทรา</t>
+  </si>
+  <si>
     <t>สาธร ซิตี้ ทาวเวอร์</t>
   </si>
   <si>
@@ -379,6 +379,15 @@
     <t>บิ๊กซี บางนา</t>
   </si>
   <si>
+    <t>มิสตา คาเฟ่ ถ.สุขาภิบาล 5</t>
+  </si>
+  <si>
+    <t>ตลาดสินรวยดี เพชรเกษม41</t>
+  </si>
+  <si>
+    <t>บริษัทเมืองไทยแคปปิตอล ปากซอยจรัญ49</t>
+  </si>
+  <si>
     <t xml:space="preserve">JW Condo @Donmuang </t>
   </si>
   <si>
@@ -388,6 +397,18 @@
     <t>TOPS เซ็นทรัลระยอง</t>
   </si>
   <si>
+    <t>mrt บางแค</t>
+  </si>
+  <si>
+    <t>mrt เตาปูน</t>
+  </si>
+  <si>
+    <t>ห้างตั้งฮั่วเส็ง</t>
+  </si>
+  <si>
+    <t>BBQ Plaza เซ็นทรัลปิ่นเกล้า</t>
+  </si>
+  <si>
     <t>ทำเนียบรัฐบาล</t>
   </si>
   <si>
@@ -403,6 +424,9 @@
     <t>โรงเรียน ระยองวิทยาคม</t>
   </si>
   <si>
+    <t>ร้านบ้านสวนสิริน ถ.วัชรพล</t>
+  </si>
+  <si>
     <t>สถานที่ลักลอบเล่นการพนัน บขส. อ.เมือง จ.ระยอง</t>
   </si>
   <si>
@@ -415,6 +439,9 @@
     <t>ร้านท่าเรือภัตตาคาร มหาชัย</t>
   </si>
   <si>
+    <t>ตลาดบางบอน</t>
+  </si>
+  <si>
     <t>อาคารนานมีบุ๊คส์ สุขุมวิท31</t>
   </si>
   <si>
@@ -439,15 +466,129 @@
     <t>ร้านน้องใหม่ พลาซ่า</t>
   </si>
   <si>
+    <t>ตู้มวยเทพประสิทธิ์ อ.บางละมุง</t>
+  </si>
+  <si>
+    <t>ศาลจังหวัด พัทยา อ.บางละมุง</t>
+  </si>
+  <si>
+    <t>Lek Hotel พัทยาสาย 2 อ.บางละมุง</t>
+  </si>
+  <si>
+    <t>ธนาคารกรุงไทย หมู่5 อ.สัตหีบ</t>
+  </si>
+  <si>
+    <t>ศูนย์สุขภาพชุมชนตำบลสัตหีบ</t>
+  </si>
+  <si>
+    <t>ศาลเจ้านาจา ต.อ่างศิลา อ.เมือง</t>
+  </si>
+  <si>
+    <t>ร้านอาหารเอ็มเค เซ็นทรัลชลบุรี</t>
+  </si>
+  <si>
+    <t>ตลาดเห่าดง ต.ห้วยใหญ่ อ.บางละมุง</t>
+  </si>
+  <si>
+    <t>ตลาดประมงอ่างศิลา อ.เมือง</t>
+  </si>
+  <si>
+    <t>นาริ บุฟเฟ่ต์ อ.เมือง</t>
+  </si>
+  <si>
+    <t>ร้านเสือโหย อ.เมืองระยอง</t>
+  </si>
+  <si>
+    <t>ร้านอาหารในโรงภาพยนตร์เทศบันเทิง อ.เมืองระยอง</t>
+  </si>
+  <si>
+    <t>สนามแบดมินตัน ทไวไลน์คอร์ท ใกล้ รพ.กรุงเทพระยอง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flick ผับ </t>
+  </si>
+  <si>
+    <t>ตลาดวัดลุ่ม</t>
+  </si>
+  <si>
+    <t>โรงเรียนมัธยมตากสินระยอง ห้อง ม.4/12</t>
+  </si>
+  <si>
+    <t>สถานีขนส่งจันทบุรี</t>
+  </si>
+  <si>
+    <t>วัดป่าคลองกุ้ง</t>
+  </si>
+  <si>
+    <t>ร้านเจ๊แต๋น เสริมสวย นาเกลือ</t>
+  </si>
+  <si>
+    <t>อพาร์ทเมนท์วีพีสุขเกษม</t>
+  </si>
+  <si>
+    <t>ตลาดไร่วนาสินธุ์</t>
+  </si>
+  <si>
+    <t>ร้าน TA Phone เซ็นทรัลเฟสพัทยา</t>
+  </si>
+  <si>
+    <t>เซเว่น ปากซอยสุขุมวิท53 เนินพลับพลา</t>
+  </si>
+  <si>
+    <t>ร้านมิกซ์ 37 พัทยากลาง</t>
+  </si>
+  <si>
+    <t>ธนาคารกรุงไทย เนินพลับหวาน</t>
+  </si>
+  <si>
+    <t>เดอะ กลาสเฮาส์ นาจอมเทียน</t>
+  </si>
+  <si>
+    <t>ตลาดเคหะเทพประสิทธิ์</t>
+  </si>
+  <si>
+    <t>วัดหลวงพ่ออี๋</t>
+  </si>
+  <si>
+    <t>ร้าน Chester Grill โลตัสพัทยาเหนือ</t>
+  </si>
+  <si>
+    <t>ตลาดหน้าวัดหนองเกตุใหญ่</t>
+  </si>
+  <si>
+    <t>อพาร์ทเมนท์สแปนิชเพลส</t>
+  </si>
+  <si>
+    <t>ตลาดนัดสระบัวหนองเกตุใหญ่</t>
+  </si>
+  <si>
+    <t>ตลาดนัดทางรถไฟหนองเกตุใหญ่</t>
+  </si>
+  <si>
+    <t>ตลาดโรงโป๊ะ</t>
+  </si>
+  <si>
+    <t>ตลาดโพธิสาร</t>
+  </si>
+  <si>
+    <t>ร้านบุญถาวร สาขาพัทยา</t>
+  </si>
+  <si>
+    <t>ร้านบุญถาวร สาขาสัตหีบ</t>
+  </si>
+  <si>
+    <t>ร้านสเต็ก 700 ไร่</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>Thai</t>
   </si>
   <si>
@@ -457,84 +598,81 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาปฏิบัติงานที่นี่วันที่ 16-17 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยโควิด-19 ชายวัย 37 ปี ส่งอาหารทะเลจากสมุทรสาคร ไปยังตลาดคลองสามวา และตลาดในจังหวัดปทุมธานี 2 แห่ง ระหว่างวันที่ 1-17 ธันวาคม 2563</t>
+    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย วันที่ 14-18 ธค. เวลา 17.00-21.00 น. จะทำงานร้านขายของชำ ซ.รุ่งเรือง 5 บางบัวทอง</t>
+  </si>
+  <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 ชายขายอาหารทะเลปากซ.พหล52</t>
+  </si>
+  <si>
+    <t>ผู้ป่วย  covid-19 นครปฐม รายที่22-29</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยโควิด-19 จังหวัดนครปฐม รายที่38-53</t>
+  </si>
+  <si>
+    <t>กทม.เปิดไทม์ไลน์ 17 ผู้ติดเชื้อ 'โควิด' รายใหม่ เป็นรายที่ 58-74</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ติดเชื้อที่อยู่ใน กทม.</t>
+  </si>
+  <si>
+    <t>พบผู้ป่วยติดเชื้อโควิด-19 ไม่มีอาการ จำนวน 1 ราย เป็นหญิง เดินทางกลับมาจากการไปทำงานที่ร้านเสริมสวยใน จ.เชียงใหม่</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เคสแม่ค้ารถพุ่มพวงติดโควิด เป็นรถกระบะสีขาว ป้ายแดง ทะเบียน 8681 สมุทรปราการ </t>
+  </si>
+  <si>
+    <t>พบผู้ป่วยโควิด-19 ชาย มาบ่อนไก่ชนในบางเลน</t>
+  </si>
+  <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 19 ธ.ค. เวลา 10.00 น. ไปห้างสรรพสินค้ายูเนียนมอลล์ และเดินข้ามมาเซ็นทรัลลาดพร้าว</t>
+  </si>
+  <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 19 ธ.ค. เวลา 20.00 น. ไปตลาดชาวสยาม บางกรวยพร้าว</t>
+  </si>
+  <si>
+    <t>ตรวจพบเชื้อ COVID-19 จากคุณรัตน์เจ้าของร้านสมศักดิ์ปูอบ สาขาบีทีเอสกรุงธนบุรี</t>
+  </si>
+  <si>
+    <t>เกทเวย์ แอท บางซื่อ ชี้แจงกรณีพบผู้ติดเชื้อโควิดเข้าใช้บริการ</t>
+  </si>
+  <si>
+    <t>โฆษกกทม.ทยอยเปิดไทม์ไลน์ ติดเชื้อโควิดในกรุงเทพฯ 75 คนแล้ว ไล่สอบสวนโรค พบไปหลายห้าง ดูหนัง คาราโอเกะ</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ติดเชื้อ covid19 กทม. รายที่ 22-43</t>
+  </si>
+  <si>
+    <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
+  </si>
+  <si>
+    <t>เคสเจ้าของร้านอาหารติดโควิด มีประวัติไปแพกุ้ง ตลาดยายพ่วง มหาชัย</t>
+  </si>
+  <si>
+    <t>ขอให้ผู้ที่ไปใช้บริการร้านอาหาร ตั้งแต่วันที่ 15-20 ธ.ค. 2563 เป็นต้นมา ณ ร้านแจ่วฮ้อนตาแป๊ะบุฟเฟ่ 149 ซึ่งมี 3 สาขา สาขาที่ 1 อำเภอหนองแค สาขา 2 อำเภอแก่งคอย และสาขา 3 อำเภอเมืองสระบุรี และตลาดหนองเสือ จ.ปทุมธานี ได้สังเกตอาการตนเองเป็นเวลา 14 วัน ให้สวมหน้ากากอนามัย หรือหน้ากากผ้าตลอดเวลา หลีกเลี่ยงคลุกคลีใกล้ชิดกับผู้อื่น</t>
+  </si>
+  <si>
+    <t>เจ้าของร้านอาหารที่ติดโควิดได้ไปขายเนื้อสดที่ตลาด</t>
+  </si>
+  <si>
+    <t>เคสผู้ป่วยโควิด-19 ชาย อยู่ต.บางหลวง อ.บางเลน จ.นครปฐม</t>
+  </si>
+  <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย  20 ธ.ค. เวลา 10.00 น. ไปคาเฟ่ Two Do Someting</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ได้ออกมาเลือกตั้งหน้าหมู่บ้านและซื้อต้นไม้ ผู้ขายเป็นชาวพม่า</t>
+  </si>
+  <si>
+    <t>ตรวจพบเชื้อ COVID-19 เจ้าของร้านสมศักดิ์ปูอบ สาขาบีทีเอสกรุงธนบุรี</t>
+  </si>
+  <si>
+    <t>4 ผู้ป่วยโควิด นนทบุรีเชื่อมโยงตลาดทะเลไทย สมุทรสาคร</t>
   </si>
   <si>
     <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20</t>
   </si>
   <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 ชายขายอาหารทะเลปากซ.พหล52</t>
-  </si>
-  <si>
-    <t>ผู้ป่วย  covid-19 นครปฐม รายที่22-29</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ติดเชื้อ covid19 กทม. รายที่ 22-43</t>
-  </si>
-  <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย วันที่ 14-18 ธค. เวลา 17.00-21.00 น. จะทำงานร้านขายของชำ ซ.รุ่งเรือง 5 บางบัวทอง</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยโควิด-19 จังหวัดนครปฐม รายที่38-53</t>
-  </si>
-  <si>
-    <t>กทม.เปิดไทม์ไลน์ 17 ผู้ติดเชื้อ 'โควิด' รายใหม่ เป็นรายที่ 58-74</t>
-  </si>
-  <si>
-    <t>พบผู้ป่วยติดเชื้อโควิด-19 ไม่มีอาการ จำนวน 1 ราย เป็นหญิง เดินทางกลับมาจากการไปทำงานที่ร้านเสริมสวยใน จ.เชียงใหม่</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เคสแม่ค้ารถพุ่มพวงติดโควิด เป็นรถกระบะสีขาว ป้ายแดง ทะเบียน 8681 สมุทรปราการ </t>
-  </si>
-  <si>
-    <t>พบผู้ป่วยโควิด-19 ชาย มาบ่อนไก่ชนในบางเลน</t>
-  </si>
-  <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 19 ธ.ค. เวลา 10.00 น. ไปห้างสรรพสินค้ายูเนียนมอลล์ และเดินข้ามมาเซ็นทรัลลาดพร้าว</t>
-  </si>
-  <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 19 ธ.ค. เวลา 20.00 น. ไปตลาดชาวสยาม บางกรวยพร้าว</t>
-  </si>
-  <si>
-    <t>ตรวจพบเชื้อ COVID-19 จากคุณรัตน์เจ้าของร้านสมศักดิ์ปูอบ สาขาบีทีเอสกรุงธนบุรี</t>
-  </si>
-  <si>
-    <t>เกทเวย์ แอท บางซื่อ ชี้แจงกรณีพบผู้ติดเชื้อโควิดเข้าใช้บริการ</t>
-  </si>
-  <si>
-    <t>โฆษกกทม.ทยอยเปิดไทม์ไลน์ ติดเชื้อโควิดในกรุงเทพฯ 75 คนแล้ว ไล่สอบสวนโรค พบไปหลายห้าง ดูหนัง คาราโอเกะ</t>
-  </si>
-  <si>
-    <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
-  </si>
-  <si>
-    <t>เคสเจ้าของร้านอาหารติดโควิด มีประวัติไปแพกุ้ง ตลาดยายพ่วง มหาชัย</t>
-  </si>
-  <si>
-    <t>ขอให้ผู้ที่ไปใช้บริการร้านอาหาร ตั้งแต่วันที่ 15-20 ธ.ค. 2563 เป็นต้นมา ณ ร้านแจ่วฮ้อนตาแป๊ะบุฟเฟ่ 149 ซึ่งมี 3 สาขา สาขาที่ 1 อำเภอหนองแค สาขา 2 อำเภอแก่งคอย และสาขา 3 อำเภอเมืองสระบุรี และตลาดหนองเสือ จ.ปทุมธานี ได้สังเกตอาการตนเองเป็นเวลา 14 วัน ให้สวมหน้ากากอนามัย หรือหน้ากากผ้าตลอดเวลา หลีกเลี่ยงคลุกคลีใกล้ชิดกับผู้อื่น</t>
-  </si>
-  <si>
-    <t>เจ้าของร้านอาหารที่ติดโควิดได้ไปขายเนื้อสดที่ตลาด</t>
-  </si>
-  <si>
-    <t>เคสผู้ป่วยโควิด-19 ชาย อยู่ต.บางหลวง อ.บางเลน จ.นครปฐม</t>
-  </si>
-  <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย  20 ธ.ค. เวลา 10.00 น. ไปคาเฟ่ Two Do Someting</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ได้ออกมาเลือกตั้งหน้าหมู่บ้านและซื้อต้นไม้ ผู้ขายเป็นชาวพม่า</t>
-  </si>
-  <si>
-    <t>ตรวจพบเชื้อ COVID-19 เจ้าของร้านสมศักดิ์ปูอบ สาขาบีทีเอสกรุงธนบุรี</t>
-  </si>
-  <si>
-    <t>4 ผู้ป่วยโควิด นนทบุรีเชื่อมโยงตลาดทะเลไทย สมุทรสาคร</t>
-  </si>
-  <si>
     <t>โครงการฯ ได้รับแจ้งจากเขตคลองเตยเรื่อง Time Line ของผู้ป่วยติดเชื้อไวรัสโควิด 19 ว่าได้เข้ามาใช้บริการที่ร้านนิตยาไก่ย่าง เมื่อวันที่ 21 ธันวาคม 2563 ระหว่างเวลา 13.00-14.00น.ที่ผ่านมา</t>
   </si>
   <si>
@@ -586,6 +724,9 @@
     <t>ผู้ป่วยโควิด-19 ครูระยองวิทยาคม</t>
   </si>
   <si>
+    <t>เปิด Timeline​ ผู้ติดเชื้อ​ สายไหม​ รายที่ 4</t>
+  </si>
+  <si>
     <t>พนักงานสาธรซิตี้ ทาวเวอร์ ติดโควิด</t>
   </si>
   <si>
@@ -634,66 +775,75 @@
     <t>พบการระบาดในหมู่นักเที่ยวสถานบันเทิง</t>
   </si>
   <si>
-    <t>https://liff.line.me/1454988218-NjbXbq18/v2/article/jpyamK?utm_source=copyshare</t>
-  </si>
-  <si>
-    <t>https://www.pptvhd36.com/news/%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%94%E0%B9%87%E0%B8%99%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99/138903</t>
+    <t>รวมสถานที่เสี่ยง COVID-19 ในเขตภาคตะวันออก จ.ชลบุรี</t>
+  </si>
+  <si>
+    <t>รวมสถานที่เสี่ยง COVID-19 ในเขตภาคตะวันออก จ.ระยอง</t>
+  </si>
+  <si>
+    <t>รวมสถานที่เสี่ยง COVID-19 ในเขตภาคตะวันออก จ.จันทบุรี</t>
+  </si>
+  <si>
+    <t>ท่านใดเดินทางไปยังสถานที่ ในวันและเวลา ดังต่อไปนี้ หากมีอาการผิดปกติทางระบบทางเดินหายใจภายใน 14 วัน นับจากวันที่ไปสถานที่ดังกล่าว ติดต่อโรงพยาบาลรัฐในพื้นที่ของท่านทันที หรือโทรสายด่วน!!! 038-119-777</t>
+  </si>
+  <si>
+    <t>https://www.khaosod.co.th/breaking-news/news_5591909</t>
+  </si>
+  <si>
+    <t>https://www.dailynews.co.th/regional/814914</t>
+  </si>
+  <si>
+    <t>https://m.facebook.com/story.php?story_fbid=3200886696679973&amp;id=246608695441136&amp;sfnsn=mo</t>
+  </si>
+  <si>
+    <t>https://www.bangkokbiznews.com/news/detail/914766</t>
+  </si>
+  <si>
+    <t>https://www.dailynews.co.th/regional/815860?fbclid=IwAR3PpSq-k4gEnCMnvk_ZSa14-a7-sRcbK55EljOEMDm-7Ze-6SmVJNFfAuU</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/posts/3125681800864753</t>
+  </si>
+  <si>
+    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/central/1999153</t>
+  </si>
+  <si>
+    <t>https://mgronline.com/local/detail/9630000130818</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SomsakPuOb/posts/3554410321292740</t>
+  </si>
+  <si>
+    <t>https://www.onbnews.today/post/43979</t>
+  </si>
+  <si>
+    <t>https://www.pptvhd36.com/news/%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%A0%E0%B8%B2%E0%B8%9E/139122</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/posts/3119216564844610</t>
+  </si>
+  <si>
+    <t>https://www.thaipost.net/main/detail/87367</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SomsakPuOb/photos/a.237834942950311/3554401867960252/?type=3</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/central/1998711</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/central/1998795?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0&amp;cx_rec_section=news&amp;cx_rec_topic=local#cxrecs_s</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/twodosomething/posts/140825121150938</t>
   </si>
   <si>
     <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
   </si>
   <si>
-    <t>https://www.dailynews.co.th/regional/814914</t>
-  </si>
-  <si>
-    <t>https://m.facebook.com/story.php?story_fbid=3200886696679973&amp;id=246608695441136&amp;sfnsn=mo</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/posts/3119216564844610</t>
-  </si>
-  <si>
-    <t>https://www.khaosod.co.th/breaking-news/news_5591909</t>
-  </si>
-  <si>
-    <t>https://www.bangkokbiznews.com/news/detail/914766</t>
-  </si>
-  <si>
-    <t>https://www.dailynews.co.th/regional/815860?fbclid=IwAR3PpSq-k4gEnCMnvk_ZSa14-a7-sRcbK55EljOEMDm-7Ze-6SmVJNFfAuU</t>
-  </si>
-  <si>
-    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
-  </si>
-  <si>
-    <t>https://www.thairath.co.th/news/local/central/1999153</t>
-  </si>
-  <si>
-    <t>https://mgronline.com/local/detail/9630000130818</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SomsakPuOb/posts/3554410321292740</t>
-  </si>
-  <si>
-    <t>https://www.onbnews.today/post/43979</t>
-  </si>
-  <si>
-    <t>https://www.pptvhd36.com/news/%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%A0%E0%B8%B2%E0%B8%9E/139122</t>
-  </si>
-  <si>
-    <t>https://www.thaipost.net/main/detail/87367</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SomsakPuOb/photos/a.237834942950311/3554401867960252/?type=3</t>
-  </si>
-  <si>
-    <t>https://www.thairath.co.th/news/local/central/1998711</t>
-  </si>
-  <si>
-    <t>https://www.thairath.co.th/news/local/central/1998795?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0&amp;cx_rec_section=news&amp;cx_rec_topic=local#cxrecs_s</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/twodosomething/posts/140825121150938</t>
-  </si>
-  <si>
     <t>https://www.matichon.co.th/covid19/thai-covid19/news_2499640</t>
   </si>
   <si>
@@ -742,6 +892,9 @@
     <t>https://thethaiger.com/th/news/396105/</t>
   </si>
   <si>
+    <t>https://www.facebook.com/saimaitongrot/photos/a.105315881483233/107708831243938/</t>
+  </si>
+  <si>
     <t>https://www.matichon.co.th/covid19/news_2500693</t>
   </si>
   <si>
@@ -779,6 +932,15 @@
   </si>
   <si>
     <t>https://www.facebook.com/697561723/posts/10157849125566724/?d=n</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/cbhfanpage/photos/a.569788396433870/3675630602516285/?type=3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/v.khunplome/photos/a.108967520710932/214330606841289</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/v.khunplome/photos/a.108967524044265/214275353513481/?type=3</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1315,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1205,43 +1367,43 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>14.0782451</v>
+        <v>13.87779142</v>
       </c>
       <c r="F2">
-        <v>100.604118</v>
+        <v>100.4215436</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0</v>
+      <c r="H2" t="s">
+        <v>188</v>
       </c>
       <c r="I2" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J2" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K2" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L2" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1249,43 +1411,43 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>13.86019768</v>
+        <v>13.88376994</v>
       </c>
       <c r="F3">
-        <v>100.7223304</v>
+        <v>100.5843207</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="I3" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J3" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K3" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L3" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1293,43 +1455,43 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>13.8578211</v>
+        <v>13.965066</v>
       </c>
       <c r="F4">
-        <v>100.4105189</v>
+        <v>100.07959</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="I4" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J4" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K4" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L4" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1337,43 +1499,43 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>13.85934159</v>
+        <v>14.036373</v>
       </c>
       <c r="F5">
-        <v>100.5849015</v>
+        <v>100.168774</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="I5" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J5" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K5" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L5" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1381,43 +1543,43 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>14.119413</v>
+        <v>13.83669407</v>
       </c>
       <c r="F6">
-        <v>100.118335</v>
+        <v>100.0271654</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I6" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J6" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K6" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L6" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1425,43 +1587,43 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>14.07688153</v>
+        <v>13.99173744</v>
       </c>
       <c r="F7">
-        <v>100.6017061</v>
+        <v>99.99699669</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I7" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J7" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L7" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1469,7 +1631,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1481,31 +1643,31 @@
         <v>26</v>
       </c>
       <c r="E8">
-        <v>13.87779142</v>
+        <v>13.69901194</v>
       </c>
       <c r="F8">
-        <v>100.4215436</v>
+        <v>100.4829165</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="I8" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J8" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K8" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L8" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1513,10 +1675,10 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
         <v>44183</v>
@@ -1525,31 +1687,31 @@
         <v>27</v>
       </c>
       <c r="E9">
-        <v>13.88376994</v>
+        <v>13.70486214</v>
       </c>
       <c r="F9">
-        <v>100.5843207</v>
+        <v>100.4913754</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="I9" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J9" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K9" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L9" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1557,10 +1719,10 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
         <v>44183</v>
@@ -1569,31 +1731,31 @@
         <v>28</v>
       </c>
       <c r="E10">
-        <v>13.965066</v>
+        <v>13.69115508</v>
       </c>
       <c r="F10">
-        <v>100.07959</v>
+        <v>100.5045287</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I10" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J10" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K10" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L10" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1601,10 +1763,10 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2">
         <v>44183</v>
@@ -1613,31 +1775,31 @@
         <v>29</v>
       </c>
       <c r="E11">
-        <v>14.036373</v>
+        <v>13.70976833</v>
       </c>
       <c r="F11">
-        <v>100.168774</v>
+        <v>100.5352559</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I11" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J11" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K11" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L11" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1645,10 +1807,10 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2">
         <v>44183</v>
@@ -1657,31 +1819,31 @@
         <v>30</v>
       </c>
       <c r="E12">
-        <v>13.83669407</v>
+        <v>13.71466823</v>
       </c>
       <c r="F12">
-        <v>100.0271654</v>
+        <v>100.643611</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I12" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J12" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K12" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L12" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1689,10 +1851,10 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
         <v>44183</v>
@@ -1701,31 +1863,31 @@
         <v>31</v>
       </c>
       <c r="E13">
-        <v>13.99173744</v>
+        <v>13.77344774</v>
       </c>
       <c r="F13">
-        <v>99.99699669</v>
+        <v>100.4833544</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" t="s">
-        <v>142</v>
-      </c>
-      <c r="I13" t="s">
-        <v>144</v>
-      </c>
-      <c r="J13" t="s">
-        <v>146</v>
-      </c>
-      <c r="K13" t="s">
-        <v>142</v>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1733,43 +1895,43 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D14" t="s">
         <v>32</v>
       </c>
       <c r="E14">
-        <v>13.69901194</v>
+        <v>14.1487352</v>
       </c>
       <c r="F14">
-        <v>100.4829165</v>
+        <v>100.6155778</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1777,43 +1939,43 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
       </c>
       <c r="E15">
-        <v>13.70486214</v>
+        <v>13.8057625</v>
       </c>
       <c r="F15">
-        <v>100.4913754</v>
+        <v>100.6621959</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1821,43 +1983,43 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D16" t="s">
         <v>34</v>
       </c>
       <c r="E16">
-        <v>13.69115508</v>
+        <v>14.01215068</v>
       </c>
       <c r="F16">
-        <v>100.5045287</v>
+        <v>100.17523</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1865,43 +2027,43 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D17" t="s">
         <v>35</v>
       </c>
       <c r="E17">
-        <v>13.70976833</v>
+        <v>13.8134088</v>
       </c>
       <c r="F17">
-        <v>100.5352559</v>
+        <v>100.5616103</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I17" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K17" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1909,43 +2071,43 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D18" t="s">
         <v>36</v>
       </c>
       <c r="E18">
-        <v>13.71466823</v>
+        <v>13.816493</v>
       </c>
       <c r="F18">
-        <v>100.643611</v>
+        <v>100.5610062</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I18" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J18" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K18" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1953,10 +2115,10 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
         <v>44184</v>
@@ -1965,31 +2127,31 @@
         <v>37</v>
       </c>
       <c r="E19">
-        <v>14.1487352</v>
+        <v>13.7966595</v>
       </c>
       <c r="F19">
-        <v>100.6155778</v>
+        <v>100.4755856</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="I19" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J19" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1997,10 +2159,10 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2">
         <v>44184</v>
@@ -2009,31 +2171,31 @@
         <v>38</v>
       </c>
       <c r="E20">
-        <v>13.8057625</v>
+        <v>13.69121688</v>
       </c>
       <c r="F20">
-        <v>100.6621959</v>
+        <v>100.3412194</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="I20" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J20" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2041,7 +2203,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -2053,31 +2215,31 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>14.01215068</v>
+        <v>13.79584</v>
       </c>
       <c r="F21">
-        <v>100.17523</v>
+        <v>100.13118</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="I21" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2085,10 +2247,10 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
         <v>44184</v>
@@ -2097,31 +2259,31 @@
         <v>40</v>
       </c>
       <c r="E22">
-        <v>13.8134088</v>
+        <v>13.80564274</v>
       </c>
       <c r="F22">
-        <v>100.5616103</v>
+        <v>100.5238077</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="I22" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J22" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K22" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2129,10 +2291,10 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2">
         <v>44184</v>
@@ -2141,31 +2303,31 @@
         <v>41</v>
       </c>
       <c r="E23">
-        <v>13.816493</v>
+        <v>13.77870414</v>
       </c>
       <c r="F23">
-        <v>100.5610062</v>
+        <v>100.4778649</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="I23" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J23" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K23" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2173,10 +2335,10 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2">
         <v>44184</v>
@@ -2185,31 +2347,31 @@
         <v>42</v>
       </c>
       <c r="E24">
-        <v>13.7966595</v>
+        <v>13.61347071</v>
       </c>
       <c r="F24">
-        <v>100.4755856</v>
+        <v>100.3824876</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="I24" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J24" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K24" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2217,10 +2379,10 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2">
         <v>44184</v>
@@ -2229,31 +2391,31 @@
         <v>43</v>
       </c>
       <c r="E25">
-        <v>13.69121688</v>
+        <v>13.70935</v>
       </c>
       <c r="F25">
-        <v>100.3412194</v>
+        <v>100.6014532</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="I25" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J25" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L25" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2261,10 +2423,10 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2">
         <v>44184</v>
@@ -2273,31 +2435,31 @@
         <v>44</v>
       </c>
       <c r="E26">
-        <v>13.79584</v>
+        <v>13.78281463</v>
       </c>
       <c r="F26">
-        <v>100.13118</v>
+        <v>100.5995981</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I26" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J26" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K26" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>210</v>
+        <v>269</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2305,10 +2467,10 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2">
         <v>44184</v>
@@ -2317,31 +2479,31 @@
         <v>45</v>
       </c>
       <c r="E27">
-        <v>13.80564274</v>
+        <v>13.73739373</v>
       </c>
       <c r="F27">
-        <v>100.5238077</v>
+        <v>100.6165954</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="I27" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J27" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K27" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L27" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2349,10 +2511,10 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2">
         <v>44184</v>
@@ -2361,31 +2523,31 @@
         <v>46</v>
       </c>
       <c r="E28">
-        <v>13.77870414</v>
+        <v>13.71433565</v>
       </c>
       <c r="F28">
-        <v>100.4778649</v>
+        <v>100.647891</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I28" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J28" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K28" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2393,10 +2555,10 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2">
         <v>44184</v>
@@ -2405,31 +2567,31 @@
         <v>47</v>
       </c>
       <c r="E29">
-        <v>13.61347071</v>
+        <v>13.71020819</v>
       </c>
       <c r="F29">
-        <v>100.3824876</v>
+        <v>100.5427674</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I29" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J29" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K29" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2437,10 +2599,10 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2">
         <v>44184</v>
@@ -2449,31 +2611,31 @@
         <v>48</v>
       </c>
       <c r="E30">
-        <v>13.70935</v>
+        <v>13.63894185</v>
       </c>
       <c r="F30">
-        <v>100.6014532</v>
+        <v>100.5263216</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I30" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J30" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K30" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2481,43 +2643,43 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D31" t="s">
         <v>49</v>
       </c>
       <c r="E31">
-        <v>13.78281463</v>
+        <v>13.5579068</v>
       </c>
       <c r="F31">
-        <v>100.5995981</v>
+        <v>100.270829</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31" t="s">
-        <v>142</v>
+      <c r="H31">
+        <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J31" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K31" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L31" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2525,43 +2687,43 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D32" t="s">
         <v>50</v>
       </c>
       <c r="E32">
-        <v>13.73739373</v>
+        <v>13.7937004</v>
       </c>
       <c r="F32">
-        <v>100.6165954</v>
+        <v>100.6923144</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I32" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J32" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K32" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2569,43 +2731,43 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C33" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D33" t="s">
         <v>51</v>
       </c>
       <c r="E33">
-        <v>13.71433565</v>
+        <v>13.5455607</v>
       </c>
       <c r="F33">
-        <v>100.647891</v>
+        <v>100.2767611</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I33" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J33" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K33" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L33" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2613,43 +2775,43 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D34" t="s">
         <v>52</v>
       </c>
       <c r="E34">
-        <v>13.71020819</v>
+        <v>14.3355326</v>
       </c>
       <c r="F34">
-        <v>100.5427674</v>
+        <v>100.87017</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34" t="s">
-        <v>142</v>
+      <c r="H34">
+        <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J34" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K34" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L34" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2657,43 +2819,43 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E35">
-        <v>13.63894185</v>
+        <v>14.5786407</v>
       </c>
       <c r="F35">
-        <v>100.5263216</v>
+        <v>100.9662444</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35" t="s">
-        <v>142</v>
+      <c r="H35">
+        <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J35" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K35" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L35" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2701,22 +2863,22 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C36" s="2">
         <v>44185</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E36">
-        <v>13.5579068</v>
+        <v>14.5116599</v>
       </c>
       <c r="F36">
-        <v>100.270829</v>
+        <v>100.9094134</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2725,19 +2887,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J36" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K36" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L36" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2745,43 +2907,43 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C37" s="2">
         <v>44185</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E37">
-        <v>13.7937004</v>
+        <v>14.1378761</v>
       </c>
       <c r="F37">
-        <v>100.6923144</v>
+        <v>100.8255049</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37" t="s">
-        <v>143</v>
+      <c r="H37">
+        <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J37" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K37" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L37" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2789,43 +2951,43 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C38" s="2">
         <v>44185</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E38">
-        <v>13.5455607</v>
+        <v>14.06566869</v>
       </c>
       <c r="F38">
-        <v>100.2767611</v>
+        <v>99.9821468</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="I38" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J38" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K38" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L38" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2833,43 +2995,43 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C39" s="2">
         <v>44185</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E39">
-        <v>14.3355326</v>
+        <v>13.8220612</v>
       </c>
       <c r="F39">
-        <v>100.87017</v>
+        <v>100.421874</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39">
-        <v>0</v>
+      <c r="H39" t="s">
+        <v>188</v>
       </c>
       <c r="I39" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J39" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K39" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L39" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2877,7 +3039,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -2886,34 +3048,34 @@
         <v>44185</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E40">
-        <v>14.5786407</v>
+        <v>13.8683169</v>
       </c>
       <c r="F40">
-        <v>100.9662444</v>
+        <v>100.4107308</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40">
-        <v>0</v>
+      <c r="H40" t="s">
+        <v>189</v>
       </c>
       <c r="I40" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J40" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K40" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L40" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2921,10 +3083,10 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C41" s="2">
         <v>44185</v>
@@ -2933,31 +3095,31 @@
         <v>57</v>
       </c>
       <c r="E41">
-        <v>14.5116599</v>
+        <v>13.89757086</v>
       </c>
       <c r="F41">
-        <v>100.9094134</v>
+        <v>100.6098027</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41">
-        <v>0</v>
+      <c r="H41" t="s">
+        <v>189</v>
       </c>
       <c r="I41" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J41" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K41" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L41" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2965,10 +3127,10 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C42" s="2">
         <v>44185</v>
@@ -2977,31 +3139,31 @@
         <v>58</v>
       </c>
       <c r="E42">
-        <v>14.1378761</v>
+        <v>13.72045903</v>
       </c>
       <c r="F42">
-        <v>100.8255049</v>
+        <v>100.5004852</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42">
-        <v>0</v>
+      <c r="H42" t="s">
+        <v>188</v>
       </c>
       <c r="I42" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J42" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K42" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L42" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3009,7 +3171,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
@@ -3021,31 +3183,31 @@
         <v>59</v>
       </c>
       <c r="E43">
-        <v>14.06566869</v>
+        <v>13.817137</v>
       </c>
       <c r="F43">
-        <v>99.9821468</v>
+        <v>100.041497</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="I43" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J43" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K43" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L43" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3053,10 +3215,10 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C44" s="2">
         <v>44185</v>
@@ -3065,31 +3227,31 @@
         <v>60</v>
       </c>
       <c r="E44">
-        <v>13.8220612</v>
+        <v>13.737328</v>
       </c>
       <c r="F44">
-        <v>100.421874</v>
+        <v>100.081218</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="I44" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J44" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K44" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L44" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3097,7 +3259,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -3109,31 +3271,31 @@
         <v>61</v>
       </c>
       <c r="E45">
-        <v>13.8683169</v>
+        <v>14.021384</v>
       </c>
       <c r="F45">
-        <v>100.4107308</v>
+        <v>100.165325</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="I45" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J45" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K45" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L45" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3141,10 +3303,10 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C46" s="2">
         <v>44185</v>
@@ -3153,31 +3315,31 @@
         <v>62</v>
       </c>
       <c r="E46">
-        <v>13.89757086</v>
+        <v>13.82347979</v>
       </c>
       <c r="F46">
-        <v>100.6098027</v>
+        <v>100.4101224</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="I46" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J46" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K46" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L46" t="s">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>209</v>
+        <v>276</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3185,10 +3347,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="2">
         <v>44185</v>
@@ -3197,31 +3359,31 @@
         <v>63</v>
       </c>
       <c r="E47">
-        <v>13.72045903</v>
+        <v>13.82622351</v>
       </c>
       <c r="F47">
-        <v>100.5004852</v>
+        <v>100.4124415</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="I47" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J47" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K47" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L47" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3229,10 +3391,10 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C48" s="2">
         <v>44185</v>
@@ -3241,31 +3403,31 @@
         <v>64</v>
       </c>
       <c r="E48">
-        <v>13.817137</v>
+        <v>13.71100665</v>
       </c>
       <c r="F48">
-        <v>100.041497</v>
+        <v>100.4234972</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="I48" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J48" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K48" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L48" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>210</v>
+        <v>269</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3273,10 +3435,10 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" s="2">
         <v>44185</v>
@@ -3285,31 +3447,31 @@
         <v>65</v>
       </c>
       <c r="E49">
-        <v>13.737328</v>
+        <v>13.81780926</v>
       </c>
       <c r="F49">
-        <v>100.081218</v>
+        <v>100.3981472</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I49" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J49" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K49" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L49" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>210</v>
+        <v>269</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3317,10 +3479,10 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C50" s="2">
         <v>44185</v>
@@ -3329,31 +3491,31 @@
         <v>66</v>
       </c>
       <c r="E50">
-        <v>14.021384</v>
+        <v>13.95701015</v>
       </c>
       <c r="F50">
-        <v>100.165325</v>
+        <v>100.404266</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I50" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J50" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K50" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L50" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>210</v>
+        <v>269</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3361,10 +3523,10 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51" s="2">
         <v>44185</v>
@@ -3373,31 +3535,31 @@
         <v>67</v>
       </c>
       <c r="E51">
-        <v>13.82347979</v>
+        <v>14.06478568</v>
       </c>
       <c r="F51">
-        <v>100.4101224</v>
+        <v>100.0502624</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I51" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J51" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K51" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L51" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3405,10 +3567,10 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C52" s="2">
         <v>44185</v>
@@ -3417,31 +3579,31 @@
         <v>68</v>
       </c>
       <c r="E52">
-        <v>13.82622351</v>
+        <v>13.73106738</v>
       </c>
       <c r="F52">
-        <v>100.4124415</v>
+        <v>100.0732375</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I52" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J52" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K52" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L52" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3449,10 +3611,10 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C53" s="2">
         <v>44185</v>
@@ -3461,31 +3623,31 @@
         <v>69</v>
       </c>
       <c r="E53">
-        <v>13.71100665</v>
+        <v>13.8122326</v>
       </c>
       <c r="F53">
-        <v>100.4234972</v>
+        <v>100.0726883</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="I53" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J53" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K53" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L53" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3493,10 +3655,10 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C54" s="2">
         <v>44185</v>
@@ -3505,31 +3667,31 @@
         <v>70</v>
       </c>
       <c r="E54">
-        <v>13.81780926</v>
+        <v>13.69415224</v>
       </c>
       <c r="F54">
-        <v>100.3981472</v>
+        <v>100.6478267</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I54" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J54" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K54" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L54" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3537,10 +3699,10 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C55" s="2">
         <v>44185</v>
@@ -3549,31 +3711,31 @@
         <v>71</v>
       </c>
       <c r="E55">
-        <v>13.95701015</v>
+        <v>13.80243028</v>
       </c>
       <c r="F55">
-        <v>100.404266</v>
+        <v>100.6151197</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I55" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J55" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K55" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L55" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3581,10 +3743,10 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C56" s="2">
         <v>44185</v>
@@ -3593,31 +3755,31 @@
         <v>72</v>
       </c>
       <c r="E56">
-        <v>14.06478568</v>
+        <v>13.82571976</v>
       </c>
       <c r="F56">
-        <v>100.0502624</v>
+        <v>100.6794424</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I56" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J56" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K56" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L56" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3625,10 +3787,10 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C57" s="2">
         <v>44185</v>
@@ -3637,31 +3799,31 @@
         <v>73</v>
       </c>
       <c r="E57">
-        <v>13.73106738</v>
+        <v>13.83106898</v>
       </c>
       <c r="F57">
-        <v>100.0732375</v>
+        <v>100.3729686</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I57" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J57" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K57" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L57" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3669,10 +3831,10 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C58" s="2">
         <v>44185</v>
@@ -3681,31 +3843,31 @@
         <v>74</v>
       </c>
       <c r="E58">
-        <v>13.8122326</v>
+        <v>13.71815181</v>
       </c>
       <c r="F58">
-        <v>100.0726883</v>
+        <v>100.4133961</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58" t="s">
-        <v>142</v>
-      </c>
-      <c r="I58" t="s">
-        <v>144</v>
-      </c>
-      <c r="J58" t="s">
-        <v>146</v>
-      </c>
-      <c r="K58" t="s">
-        <v>142</v>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3713,43 +3875,43 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
       </c>
       <c r="C59" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D59" t="s">
         <v>75</v>
       </c>
       <c r="E59">
-        <v>13.69415224</v>
+        <v>13.8781452</v>
       </c>
       <c r="F59">
-        <v>100.6478267</v>
+        <v>100.4091302</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="I59" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J59" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K59" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L59" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3757,43 +3919,43 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C60" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D60" t="s">
         <v>76</v>
       </c>
       <c r="E60">
-        <v>13.80243028</v>
+        <v>13.7164198</v>
       </c>
       <c r="F60">
-        <v>100.6151197</v>
+        <v>100.5716135</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I60" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J60" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K60" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L60" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3801,43 +3963,43 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C61" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D61" t="s">
         <v>77</v>
       </c>
       <c r="E61">
-        <v>13.82571976</v>
+        <v>13.70807262</v>
       </c>
       <c r="F61">
-        <v>100.6794424</v>
+        <v>100.59964</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I61" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J61" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K61" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L61" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3845,43 +4007,43 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C62" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D62" t="s">
         <v>78</v>
       </c>
       <c r="E62">
-        <v>13.83106898</v>
+        <v>13.78051515</v>
       </c>
       <c r="F62">
-        <v>100.3729686</v>
+        <v>100.4226823</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I62" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J62" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K62" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L62" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3889,7 +4051,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
@@ -3901,31 +4063,31 @@
         <v>79</v>
       </c>
       <c r="E63">
-        <v>13.8781452</v>
+        <v>13.7355293</v>
       </c>
       <c r="F63">
-        <v>100.4091302</v>
+        <v>100.5979688</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="I63" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J63" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K63" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L63" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3933,10 +4095,10 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C64" s="2">
         <v>44186</v>
@@ -3945,31 +4107,31 @@
         <v>80</v>
       </c>
       <c r="E64">
-        <v>13.7164198</v>
+        <v>13.73406154</v>
       </c>
       <c r="F64">
-        <v>100.5716135</v>
+        <v>100.5967948</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I64" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J64" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K64" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L64" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3977,10 +4139,10 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C65" s="2">
         <v>44186</v>
@@ -3989,31 +4151,31 @@
         <v>81</v>
       </c>
       <c r="E65">
-        <v>13.70807262</v>
+        <v>13.7738673</v>
       </c>
       <c r="F65">
-        <v>100.59964</v>
+        <v>100.5093218</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I65" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J65" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K65" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L65" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4021,10 +4183,10 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C66" s="2">
         <v>44186</v>
@@ -4033,31 +4195,31 @@
         <v>82</v>
       </c>
       <c r="E66">
-        <v>13.78051515</v>
+        <v>13.82650614</v>
       </c>
       <c r="F66">
-        <v>100.4226823</v>
+        <v>100.4860605</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="I66" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J66" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K66" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L66" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4065,10 +4227,10 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C67" s="2">
         <v>44186</v>
@@ -4077,31 +4239,31 @@
         <v>83</v>
       </c>
       <c r="E67">
-        <v>13.7355293</v>
+        <v>13.79667017</v>
       </c>
       <c r="F67">
-        <v>100.5979688</v>
+        <v>100.5516735</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67" t="s">
-        <v>142</v>
-      </c>
-      <c r="I67" t="s">
-        <v>144</v>
-      </c>
-      <c r="J67" t="s">
-        <v>146</v>
-      </c>
-      <c r="K67" t="s">
-        <v>142</v>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4109,43 +4271,43 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C68" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D68" t="s">
         <v>84</v>
       </c>
       <c r="E68">
-        <v>13.73406154</v>
+        <v>13.73541413</v>
       </c>
       <c r="F68">
-        <v>100.5967948</v>
+        <v>100.5877998</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68" t="s">
-        <v>142</v>
+      <c r="H68">
+        <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J68" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K68" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L68" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4153,43 +4315,43 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C69" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D69" t="s">
         <v>85</v>
       </c>
       <c r="E69">
-        <v>13.7738673</v>
+        <v>13.78766192</v>
       </c>
       <c r="F69">
-        <v>100.5093218</v>
+        <v>100.5105938</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="H69" t="s">
-        <v>142</v>
+      <c r="H69">
+        <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J69" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K69" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L69" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4197,43 +4359,43 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C70" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D70" t="s">
         <v>86</v>
       </c>
       <c r="E70">
-        <v>13.82650614</v>
+        <v>13.5951449</v>
       </c>
       <c r="F70">
-        <v>100.4860605</v>
+        <v>100.5802135</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="I70" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J70" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K70" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L70" t="s">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4241,10 +4403,10 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C71" s="2">
         <v>44187</v>
@@ -4253,31 +4415,31 @@
         <v>87</v>
       </c>
       <c r="E71">
-        <v>13.73541413</v>
+        <v>13.803038</v>
       </c>
       <c r="F71">
-        <v>100.5877998</v>
+        <v>100.188902</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71">
-        <v>0</v>
+      <c r="H71" t="s">
+        <v>190</v>
       </c>
       <c r="I71" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J71" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K71" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L71" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4285,10 +4447,10 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C72" s="2">
         <v>44187</v>
@@ -4297,31 +4459,31 @@
         <v>88</v>
       </c>
       <c r="E72">
-        <v>13.78766192</v>
+        <v>13.802143</v>
       </c>
       <c r="F72">
-        <v>100.5105938</v>
+        <v>100.19</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72">
-        <v>0</v>
+      <c r="H72" t="s">
+        <v>190</v>
       </c>
       <c r="I72" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J72" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K72" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L72" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4329,10 +4491,10 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C73" s="2">
         <v>44187</v>
@@ -4341,31 +4503,31 @@
         <v>89</v>
       </c>
       <c r="E73">
-        <v>13.5951449</v>
+        <v>13.928974</v>
       </c>
       <c r="F73">
-        <v>100.5802135</v>
+        <v>100.577365</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="I73" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J73" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K73" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L73" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4373,10 +4535,10 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C74" s="2">
         <v>44187</v>
@@ -4385,31 +4547,31 @@
         <v>90</v>
       </c>
       <c r="E74">
-        <v>13.803038</v>
+        <v>13.929686</v>
       </c>
       <c r="F74">
-        <v>100.188902</v>
+        <v>100.576</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I74" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J74" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K74" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L74" t="s">
-        <v>151</v>
+        <v>224</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4417,10 +4579,10 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C75" s="2">
         <v>44187</v>
@@ -4429,31 +4591,31 @@
         <v>91</v>
       </c>
       <c r="E75">
-        <v>13.802143</v>
+        <v>13.76033018</v>
       </c>
       <c r="F75">
-        <v>100.19</v>
+        <v>100.4796436</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I75" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J75" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K75" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L75" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4461,10 +4623,10 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C76" s="2">
         <v>44187</v>
@@ -4473,31 +4635,31 @@
         <v>92</v>
       </c>
       <c r="E76">
-        <v>13.928974</v>
+        <v>13.82853997</v>
       </c>
       <c r="F76">
-        <v>100.577365</v>
+        <v>100.4842102</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I76" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J76" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K76" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L76" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>231</v>
+        <v>276</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4505,10 +4667,10 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C77" s="2">
         <v>44187</v>
@@ -4517,31 +4679,31 @@
         <v>93</v>
       </c>
       <c r="E77">
-        <v>13.929686</v>
+        <v>14.01020378</v>
       </c>
       <c r="F77">
-        <v>100.576</v>
+        <v>100.1768909</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I77" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J77" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K77" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L77" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4549,10 +4711,10 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C78" s="2">
         <v>44187</v>
@@ -4561,31 +4723,31 @@
         <v>94</v>
       </c>
       <c r="E78">
-        <v>13.76033018</v>
+        <v>14.04839109</v>
       </c>
       <c r="F78">
-        <v>100.4796436</v>
+        <v>100.0198852</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I78" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J78" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K78" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L78" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4593,10 +4755,10 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C79" s="2">
         <v>44187</v>
@@ -4605,31 +4767,31 @@
         <v>95</v>
       </c>
       <c r="E79">
-        <v>13.82853997</v>
+        <v>13.80175861</v>
       </c>
       <c r="F79">
-        <v>100.4842102</v>
+        <v>100.3053076</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I79" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J79" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K79" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L79" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4637,10 +4799,10 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C80" s="2">
         <v>44187</v>
@@ -4649,31 +4811,31 @@
         <v>96</v>
       </c>
       <c r="E80">
-        <v>14.01020378</v>
+        <v>13.60633251</v>
       </c>
       <c r="F80">
-        <v>100.1768909</v>
+        <v>100.4036543</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="H80" t="s">
-        <v>142</v>
-      </c>
-      <c r="I80" t="s">
-        <v>144</v>
-      </c>
-      <c r="J80" t="s">
-        <v>146</v>
-      </c>
-      <c r="K80" t="s">
-        <v>142</v>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4681,43 +4843,43 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C81" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D81" t="s">
         <v>97</v>
       </c>
       <c r="E81">
-        <v>14.04839109</v>
+        <v>13.7462524</v>
       </c>
       <c r="F81">
-        <v>100.0198852</v>
+        <v>100.5328635</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="H81" t="s">
-        <v>142</v>
+      <c r="H81">
+        <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J81" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K81" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L81" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>213</v>
+        <v>283</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4725,43 +4887,43 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C82" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D82" t="s">
         <v>98</v>
       </c>
       <c r="E82">
-        <v>13.80175861</v>
+        <v>13.7243591</v>
       </c>
       <c r="F82">
-        <v>100.3053076</v>
+        <v>100.5386589</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82" t="s">
-        <v>142</v>
+      <c r="H82">
+        <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J82" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K82" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L82" t="s">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4769,10 +4931,10 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C83" s="2">
         <v>44188</v>
@@ -4781,31 +4943,31 @@
         <v>99</v>
       </c>
       <c r="E83">
-        <v>13.7462524</v>
+        <v>13.54974685</v>
       </c>
       <c r="F83">
-        <v>100.5328635</v>
+        <v>100.2561435</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="H83">
-        <v>0</v>
+      <c r="H83" t="s">
+        <v>188</v>
       </c>
       <c r="I83" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J83" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K83" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L83" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4813,7 +4975,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B84" t="s">
         <v>17</v>
@@ -4825,31 +4987,31 @@
         <v>100</v>
       </c>
       <c r="E84">
-        <v>13.7243591</v>
+        <v>14.45160513</v>
       </c>
       <c r="F84">
-        <v>100.5386589</v>
+        <v>100.7230585</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="H84">
-        <v>0</v>
+      <c r="H84" t="s">
+        <v>188</v>
       </c>
       <c r="I84" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J84" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K84" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L84" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -4857,10 +5019,10 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C85" s="2">
         <v>44188</v>
@@ -4869,31 +5031,31 @@
         <v>101</v>
       </c>
       <c r="E85">
-        <v>13.54974685</v>
+        <v>13.72836497</v>
       </c>
       <c r="F85">
-        <v>100.2561435</v>
+        <v>100.5350858</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="I85" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J85" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K85" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L85" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -4901,10 +5063,10 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C86" s="2">
         <v>44188</v>
@@ -4913,31 +5075,31 @@
         <v>102</v>
       </c>
       <c r="E86">
-        <v>14.45160513</v>
+        <v>13.7660558</v>
       </c>
       <c r="F86">
-        <v>100.7230585</v>
+        <v>100.6403032</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="I86" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J86" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K86" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L86" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -4945,7 +5107,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B87" t="s">
         <v>19</v>
@@ -4957,31 +5119,31 @@
         <v>103</v>
       </c>
       <c r="E87">
-        <v>13.72836497</v>
+        <v>13.710361</v>
       </c>
       <c r="F87">
-        <v>100.5350858</v>
+        <v>100.4073817</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I87" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J87" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K87" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L87" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -4989,10 +5151,10 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C88" s="2">
         <v>44188</v>
@@ -5001,31 +5163,31 @@
         <v>104</v>
       </c>
       <c r="E88">
-        <v>13.7660558</v>
+        <v>13.2054213</v>
       </c>
       <c r="F88">
-        <v>100.6403032</v>
+        <v>99.9793013</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
-      <c r="H88" t="s">
-        <v>142</v>
+      <c r="H88">
+        <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J88" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K88" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L88" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5033,7 +5195,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B89" t="s">
         <v>19</v>
@@ -5045,31 +5207,31 @@
         <v>105</v>
       </c>
       <c r="E89">
-        <v>13.710361</v>
+        <v>13.7100705</v>
       </c>
       <c r="F89">
-        <v>100.4073817</v>
+        <v>100.6007069</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="H89" t="s">
-        <v>142</v>
-      </c>
-      <c r="I89" t="s">
-        <v>144</v>
-      </c>
-      <c r="J89" t="s">
-        <v>146</v>
-      </c>
-      <c r="K89" t="s">
-        <v>142</v>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5077,7 +5239,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
@@ -5089,31 +5251,31 @@
         <v>106</v>
       </c>
       <c r="E90">
-        <v>13.2054213</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>99.9793013</v>
+        <v>0</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
-      <c r="H90">
-        <v>0</v>
+      <c r="H90" t="s">
+        <v>190</v>
       </c>
       <c r="I90" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J90" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K90" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L90" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5121,10 +5283,10 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C91" s="2">
         <v>44188</v>
@@ -5133,31 +5295,31 @@
         <v>107</v>
       </c>
       <c r="E91">
-        <v>13.7100705</v>
+        <v>13.802283</v>
       </c>
       <c r="F91">
-        <v>100.6007069</v>
+        <v>100.184509</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
+      <c r="H91" t="s">
+        <v>190</v>
+      </c>
+      <c r="I91" t="s">
+        <v>191</v>
+      </c>
+      <c r="J91" t="s">
+        <v>193</v>
+      </c>
+      <c r="K91" t="s">
+        <v>190</v>
       </c>
       <c r="L91" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5165,10 +5327,10 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C92" s="2">
         <v>44188</v>
@@ -5177,31 +5339,31 @@
         <v>108</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>13.91857</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>100.601606</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I92" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J92" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K92" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L92" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>210</v>
+        <v>281</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5209,10 +5371,10 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C93" s="2">
         <v>44188</v>
@@ -5221,31 +5383,31 @@
         <v>109</v>
       </c>
       <c r="E93">
-        <v>13.802283</v>
+        <v>13.6171972</v>
       </c>
       <c r="F93">
-        <v>100.184509</v>
+        <v>100.3791504</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I93" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J93" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K93" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L93" t="s">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5253,10 +5415,10 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C94" s="2">
         <v>44188</v>
@@ -5265,31 +5427,31 @@
         <v>110</v>
       </c>
       <c r="E94">
-        <v>13.91857</v>
+        <v>12.66469676</v>
       </c>
       <c r="F94">
-        <v>100.601606</v>
+        <v>102.1037094</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="I94" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J94" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K94" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L94" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5297,10 +5459,10 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C95" s="2">
         <v>44188</v>
@@ -5309,31 +5471,31 @@
         <v>111</v>
       </c>
       <c r="E95">
-        <v>13.6171972</v>
+        <v>13.86149331</v>
       </c>
       <c r="F95">
-        <v>100.3791504</v>
+        <v>100.6434383</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="H95" t="s">
-        <v>142</v>
-      </c>
-      <c r="I95" t="s">
-        <v>144</v>
-      </c>
-      <c r="J95" t="s">
-        <v>146</v>
-      </c>
-      <c r="K95" t="s">
-        <v>142</v>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5341,10 +5503,10 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C96" s="2">
         <v>44188</v>
@@ -5353,31 +5515,31 @@
         <v>112</v>
       </c>
       <c r="E96">
-        <v>12.66469676</v>
+        <v>13.84500752</v>
       </c>
       <c r="F96">
-        <v>102.1037094</v>
+        <v>100.6352673</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
-      <c r="H96" t="s">
-        <v>141</v>
-      </c>
-      <c r="I96" t="s">
-        <v>144</v>
-      </c>
-      <c r="J96" t="s">
-        <v>146</v>
-      </c>
-      <c r="K96" t="s">
-        <v>142</v>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5385,10 +5547,10 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C97" s="2">
         <v>44189</v>
@@ -5406,22 +5568,22 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I97" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J97" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K97" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L97" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5429,7 +5591,7 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B98" t="s">
         <v>17</v>
@@ -5450,22 +5612,22 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="I98" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="J98" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K98" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L98" t="s">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5473,10 +5635,10 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C99" s="2">
         <v>44189</v>
@@ -5494,22 +5656,22 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I99" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J99" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K99" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L99" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5517,10 +5679,10 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C100" s="2">
         <v>44189</v>
@@ -5538,22 +5700,22 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I100" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J100" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K100" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L100" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5561,10 +5723,10 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C101" s="2">
         <v>44189</v>
@@ -5582,22 +5744,22 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I101" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J101" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K101" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L101" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5605,10 +5767,10 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C102" s="2">
         <v>44189</v>
@@ -5626,22 +5788,22 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="I102" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J102" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K102" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L102" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5649,10 +5811,10 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C103" s="2">
         <v>44189</v>
@@ -5670,22 +5832,22 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I103" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J103" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K103" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L103" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5693,10 +5855,10 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C104" s="2">
         <v>44189</v>
@@ -5714,22 +5876,22 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I104" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J104" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K104" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L104" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5737,43 +5899,43 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C105" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D105" t="s">
         <v>121</v>
       </c>
       <c r="E105">
-        <v>13.924252</v>
+        <v>13.88903855</v>
       </c>
       <c r="F105">
-        <v>100.597945</v>
+        <v>100.6576064</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="H105" t="s">
-        <v>142</v>
-      </c>
-      <c r="I105" t="s">
-        <v>144</v>
-      </c>
-      <c r="J105" t="s">
-        <v>146</v>
-      </c>
-      <c r="K105" t="s">
-        <v>142</v>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>231</v>
+        <v>292</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5781,43 +5943,43 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C106" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D106" t="s">
         <v>122</v>
       </c>
       <c r="E106">
-        <v>12.69670286</v>
+        <v>13.71110566</v>
       </c>
       <c r="F106">
-        <v>101.2683573</v>
+        <v>100.4158636</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="H106" t="s">
-        <v>141</v>
-      </c>
-      <c r="I106" t="s">
-        <v>144</v>
-      </c>
-      <c r="J106" t="s">
-        <v>146</v>
-      </c>
-      <c r="K106" t="s">
-        <v>142</v>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -5825,43 +5987,43 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C107" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D107" t="s">
         <v>123</v>
       </c>
       <c r="E107">
-        <v>12.69574994</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>101.2674706</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="H107" t="s">
-        <v>141</v>
-      </c>
-      <c r="I107" t="s">
-        <v>144</v>
-      </c>
-      <c r="J107" t="s">
-        <v>146</v>
-      </c>
-      <c r="K107" t="s">
-        <v>142</v>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -5869,43 +6031,43 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B108" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C108" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D108" t="s">
         <v>124</v>
       </c>
       <c r="E108">
-        <v>13.7636001</v>
+        <v>13.924252</v>
       </c>
       <c r="F108">
-        <v>100.5114624</v>
+        <v>100.597945</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>0</v>
+      <c r="H108" t="s">
+        <v>190</v>
+      </c>
+      <c r="I108" t="s">
+        <v>191</v>
+      </c>
+      <c r="J108" t="s">
+        <v>193</v>
       </c>
       <c r="K108" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L108" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -5913,43 +6075,43 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B109" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C109" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D109" t="s">
         <v>125</v>
       </c>
       <c r="E109">
-        <v>13.734066</v>
+        <v>12.69670286</v>
       </c>
       <c r="F109">
-        <v>100.5278354</v>
+        <v>101.2683573</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-      <c r="K109">
-        <v>0</v>
+      <c r="H109" t="s">
+        <v>189</v>
+      </c>
+      <c r="I109" t="s">
+        <v>191</v>
+      </c>
+      <c r="J109" t="s">
+        <v>193</v>
+      </c>
+      <c r="K109" t="s">
+        <v>190</v>
       </c>
       <c r="L109" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -5957,43 +6119,43 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
       </c>
       <c r="C110" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D110" t="s">
         <v>126</v>
       </c>
       <c r="E110">
-        <v>12.6483736</v>
+        <v>12.69574994</v>
       </c>
       <c r="F110">
-        <v>101.2273679</v>
+        <v>101.2674706</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-      <c r="K110">
-        <v>0</v>
+      <c r="H110" t="s">
+        <v>189</v>
+      </c>
+      <c r="I110" t="s">
+        <v>191</v>
+      </c>
+      <c r="J110" t="s">
+        <v>193</v>
+      </c>
+      <c r="K110" t="s">
+        <v>190</v>
       </c>
       <c r="L110" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6001,43 +6163,43 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C111" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D111" t="s">
         <v>127</v>
       </c>
       <c r="E111">
-        <v>12.69691038</v>
+        <v>13.71190173</v>
       </c>
       <c r="F111">
-        <v>101.268451</v>
+        <v>100.4224456</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
-      <c r="H111" t="s">
-        <v>141</v>
-      </c>
-      <c r="I111" t="s">
-        <v>144</v>
-      </c>
-      <c r="J111" t="s">
-        <v>146</v>
-      </c>
-      <c r="K111" t="s">
-        <v>142</v>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6045,43 +6207,43 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C112" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D112" t="s">
         <v>128</v>
       </c>
       <c r="E112">
-        <v>12.66695256</v>
+        <v>13.80614397</v>
       </c>
       <c r="F112">
-        <v>101.2738756</v>
+        <v>100.5307221</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
-      <c r="H112" t="s">
-        <v>141</v>
-      </c>
-      <c r="I112" t="s">
-        <v>144</v>
-      </c>
-      <c r="J112" t="s">
-        <v>146</v>
-      </c>
-      <c r="K112" t="s">
-        <v>142</v>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6089,22 +6251,22 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B113" t="s">
         <v>15</v>
       </c>
       <c r="C113" s="2">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="D113" t="s">
         <v>129</v>
       </c>
       <c r="E113">
-        <v>12.6844183</v>
+        <v>13.78786299</v>
       </c>
       <c r="F113">
-        <v>101.2742991</v>
+        <v>100.4828396</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -6118,14 +6280,14 @@
       <c r="J113">
         <v>0</v>
       </c>
-      <c r="K113" t="s">
-        <v>142</v>
+      <c r="K113">
+        <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6133,22 +6295,22 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B114" t="s">
         <v>15</v>
       </c>
       <c r="C114" s="2">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="D114" t="s">
         <v>130</v>
       </c>
       <c r="E114">
-        <v>12.9730033</v>
+        <v>13.77791571</v>
       </c>
       <c r="F114">
-        <v>100.9029061</v>
+        <v>100.4766994</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -6162,14 +6324,14 @@
       <c r="J114">
         <v>0</v>
       </c>
-      <c r="K114" t="s">
-        <v>142</v>
+      <c r="K114">
+        <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6177,22 +6339,22 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C115" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D115" t="s">
         <v>131</v>
       </c>
       <c r="E115">
-        <v>13.7946069</v>
+        <v>13.7636001</v>
       </c>
       <c r="F115">
-        <v>100.5161808</v>
+        <v>100.5114624</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -6207,13 +6369,13 @@
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L115" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6221,43 +6383,43 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C116" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D116" t="s">
         <v>132</v>
       </c>
       <c r="E116">
-        <v>13.54448567</v>
+        <v>13.734066</v>
       </c>
       <c r="F116">
-        <v>100.2752027</v>
+        <v>100.5278354</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="H116" t="s">
-        <v>141</v>
-      </c>
-      <c r="I116" t="s">
-        <v>144</v>
-      </c>
-      <c r="J116" t="s">
-        <v>146</v>
-      </c>
-      <c r="K116" t="s">
-        <v>142</v>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6265,43 +6427,43 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B117" t="s">
         <v>14</v>
       </c>
       <c r="C117" s="2">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="D117" t="s">
         <v>133</v>
       </c>
       <c r="E117">
-        <v>13.73545544</v>
+        <v>12.6483736</v>
       </c>
       <c r="F117">
-        <v>100.5661584</v>
+        <v>101.2273679</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
-      <c r="H117" t="s">
-        <v>142</v>
-      </c>
-      <c r="I117" t="s">
-        <v>144</v>
-      </c>
-      <c r="J117" t="s">
-        <v>146</v>
-      </c>
-      <c r="K117" t="s">
-        <v>142</v>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6309,43 +6471,43 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B118" t="s">
         <v>15</v>
       </c>
       <c r="C118" s="2">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="D118" t="s">
         <v>134</v>
       </c>
       <c r="E118">
-        <v>12.9098775</v>
+        <v>12.69691038</v>
       </c>
       <c r="F118">
-        <v>100.891563</v>
+        <v>101.268451</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="I118" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="J118" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="K118" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L118" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6353,43 +6515,43 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B119" t="s">
         <v>15</v>
       </c>
       <c r="C119" s="2">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="D119" t="s">
         <v>135</v>
       </c>
       <c r="E119">
-        <v>13.3535702</v>
+        <v>12.66695256</v>
       </c>
       <c r="F119">
-        <v>100.9765439</v>
+        <v>101.2738756</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
+      <c r="H119" t="s">
+        <v>189</v>
+      </c>
+      <c r="I119" t="s">
+        <v>191</v>
+      </c>
+      <c r="J119" t="s">
+        <v>193</v>
       </c>
       <c r="K119" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L119" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6397,22 +6559,22 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C120" s="2">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="D120" t="s">
         <v>136</v>
       </c>
       <c r="E120">
-        <v>12.948902</v>
+        <v>13.86265154</v>
       </c>
       <c r="F120">
-        <v>100.891292</v>
+        <v>100.6432858</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -6426,14 +6588,14 @@
       <c r="J120">
         <v>0</v>
       </c>
-      <c r="K120" t="s">
-        <v>142</v>
+      <c r="K120">
+        <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6441,22 +6603,22 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C121" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D121" t="s">
         <v>137</v>
       </c>
       <c r="E121">
-        <v>12.6495877</v>
+        <v>12.6844183</v>
       </c>
       <c r="F121">
-        <v>102.0329425</v>
+        <v>101.2742991</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6471,13 +6633,13 @@
         <v>0</v>
       </c>
       <c r="K121" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L121" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>253</v>
+        <v>298</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6485,22 +6647,22 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C122" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D122" t="s">
         <v>138</v>
       </c>
       <c r="E122">
-        <v>12.3757564</v>
+        <v>12.9730033</v>
       </c>
       <c r="F122">
-        <v>102.3818628</v>
+        <v>100.9029061</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6515,13 +6677,13 @@
         <v>0</v>
       </c>
       <c r="K122" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L122" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>253</v>
+        <v>298</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6529,22 +6691,22 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B123" t="s">
         <v>15</v>
       </c>
       <c r="C123" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D123" t="s">
         <v>139</v>
       </c>
       <c r="E123">
-        <v>12.7246169</v>
+        <v>13.7946069</v>
       </c>
       <c r="F123">
-        <v>101.9362794</v>
+        <v>100.5161808</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -6559,13 +6721,13 @@
         <v>0</v>
       </c>
       <c r="K123" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="L123" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6573,45 +6735,2113 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C124" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D124" t="s">
         <v>140</v>
       </c>
       <c r="E124">
+        <v>13.54448567</v>
+      </c>
+      <c r="F124">
+        <v>100.2752027</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124" t="s">
+        <v>189</v>
+      </c>
+      <c r="I124" t="s">
+        <v>191</v>
+      </c>
+      <c r="J124" t="s">
+        <v>193</v>
+      </c>
+      <c r="K124" t="s">
+        <v>190</v>
+      </c>
+      <c r="L124" t="s">
+        <v>244</v>
+      </c>
+      <c r="M124" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125">
+        <v>183</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" s="2">
+        <v>44192</v>
+      </c>
+      <c r="D125" t="s">
+        <v>141</v>
+      </c>
+      <c r="E125">
+        <v>13.67424547</v>
+      </c>
+      <c r="F125">
+        <v>100.426448</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125" t="s">
+        <v>199</v>
+      </c>
+      <c r="M125" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126">
+        <v>184</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="2">
+        <v>44193</v>
+      </c>
+      <c r="D126" t="s">
+        <v>142</v>
+      </c>
+      <c r="E126">
+        <v>13.73545544</v>
+      </c>
+      <c r="F126">
+        <v>100.5661584</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>190</v>
+      </c>
+      <c r="I126" t="s">
+        <v>191</v>
+      </c>
+      <c r="J126" t="s">
+        <v>193</v>
+      </c>
+      <c r="K126" t="s">
+        <v>190</v>
+      </c>
+      <c r="L126" t="s">
+        <v>245</v>
+      </c>
+      <c r="M126" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127">
+        <v>185</v>
+      </c>
+      <c r="B127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D127" t="s">
+        <v>143</v>
+      </c>
+      <c r="E127">
+        <v>12.9098775</v>
+      </c>
+      <c r="F127">
+        <v>100.891563</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127" t="s">
+        <v>190</v>
+      </c>
+      <c r="I127" t="s">
+        <v>191</v>
+      </c>
+      <c r="J127" t="s">
+        <v>193</v>
+      </c>
+      <c r="K127" t="s">
+        <v>190</v>
+      </c>
+      <c r="L127" t="s">
+        <v>246</v>
+      </c>
+      <c r="M127" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128">
+        <v>186</v>
+      </c>
+      <c r="B128" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D128" t="s">
+        <v>144</v>
+      </c>
+      <c r="E128">
+        <v>13.3535702</v>
+      </c>
+      <c r="F128">
+        <v>100.9765439</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128" t="s">
+        <v>190</v>
+      </c>
+      <c r="L128" t="s">
+        <v>247</v>
+      </c>
+      <c r="M128" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129">
+        <v>187</v>
+      </c>
+      <c r="B129" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D129" t="s">
+        <v>145</v>
+      </c>
+      <c r="E129">
+        <v>12.948902</v>
+      </c>
+      <c r="F129">
+        <v>100.891292</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129" t="s">
+        <v>190</v>
+      </c>
+      <c r="L129" t="s">
+        <v>248</v>
+      </c>
+      <c r="M129" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130">
+        <v>188</v>
+      </c>
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D130" t="s">
+        <v>146</v>
+      </c>
+      <c r="E130">
+        <v>12.6495877</v>
+      </c>
+      <c r="F130">
+        <v>102.0329425</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130" t="s">
+        <v>190</v>
+      </c>
+      <c r="L130" t="s">
+        <v>249</v>
+      </c>
+      <c r="M130" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131">
+        <v>189</v>
+      </c>
+      <c r="B131" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D131" t="s">
+        <v>147</v>
+      </c>
+      <c r="E131">
+        <v>12.3757564</v>
+      </c>
+      <c r="F131">
+        <v>102.3818628</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131" t="s">
+        <v>190</v>
+      </c>
+      <c r="L131" t="s">
+        <v>250</v>
+      </c>
+      <c r="M131" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132">
+        <v>190</v>
+      </c>
+      <c r="B132" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D132" t="s">
+        <v>148</v>
+      </c>
+      <c r="E132">
+        <v>12.7246169</v>
+      </c>
+      <c r="F132">
+        <v>101.9362794</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132" t="s">
+        <v>190</v>
+      </c>
+      <c r="L132" t="s">
+        <v>251</v>
+      </c>
+      <c r="M132" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133">
+        <v>191</v>
+      </c>
+      <c r="B133" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D133" t="s">
+        <v>149</v>
+      </c>
+      <c r="E133">
         <v>13.772986</v>
       </c>
-      <c r="F124">
+      <c r="F133">
         <v>100.4855148</v>
       </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-      <c r="K124" t="s">
-        <v>142</v>
-      </c>
-      <c r="L124" t="s">
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133" t="s">
+        <v>190</v>
+      </c>
+      <c r="L133" t="s">
+        <v>252</v>
+      </c>
+      <c r="M133" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134">
+        <v>192</v>
+      </c>
+      <c r="B134" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D134" t="s">
+        <v>150</v>
+      </c>
+      <c r="E134">
+        <v>12.90895904</v>
+      </c>
+      <c r="F134">
+        <v>100.891925</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134" t="s">
+        <v>253</v>
+      </c>
+      <c r="M134" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135">
+        <v>193</v>
+      </c>
+      <c r="B135" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D135" t="s">
+        <v>151</v>
+      </c>
+      <c r="E135">
+        <v>12.90960418</v>
+      </c>
+      <c r="F135">
+        <v>100.870256</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135" t="s">
+        <v>253</v>
+      </c>
+      <c r="M135" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136">
+        <v>194</v>
+      </c>
+      <c r="B136" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D136" t="s">
+        <v>152</v>
+      </c>
+      <c r="E136">
+        <v>12.93047726</v>
+      </c>
+      <c r="F136">
+        <v>100.8807229</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136" t="s">
+        <v>253</v>
+      </c>
+      <c r="M136" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137">
+        <v>195</v>
+      </c>
+      <c r="B137" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D137" t="s">
+        <v>153</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137" t="s">
+        <v>253</v>
+      </c>
+      <c r="M137" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138">
+        <v>196</v>
+      </c>
+      <c r="B138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D138" t="s">
+        <v>154</v>
+      </c>
+      <c r="E138">
+        <v>12.66219926</v>
+      </c>
+      <c r="F138">
+        <v>100.8989779</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138" t="s">
+        <v>253</v>
+      </c>
+      <c r="M138" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139">
+        <v>197</v>
+      </c>
+      <c r="B139" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D139" t="s">
+        <v>155</v>
+      </c>
+      <c r="E139">
+        <v>13.32877789</v>
+      </c>
+      <c r="F139">
+        <v>100.9230017</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139" t="s">
+        <v>253</v>
+      </c>
+      <c r="M139" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140">
+        <v>198</v>
+      </c>
+      <c r="B140" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D140" t="s">
+        <v>156</v>
+      </c>
+      <c r="E140">
+        <v>13.33615653</v>
+      </c>
+      <c r="F140">
+        <v>100.9694597</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140" t="s">
+        <v>253</v>
+      </c>
+      <c r="M140" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141">
+        <v>199</v>
+      </c>
+      <c r="B141" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D141" t="s">
+        <v>157</v>
+      </c>
+      <c r="E141">
+        <v>12.83546656</v>
+      </c>
+      <c r="F141">
+        <v>100.967575</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141" t="s">
+        <v>253</v>
+      </c>
+      <c r="M141" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142">
+        <v>200</v>
+      </c>
+      <c r="B142" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D142" t="s">
+        <v>158</v>
+      </c>
+      <c r="E142">
+        <v>13.33545565</v>
+      </c>
+      <c r="F142">
+        <v>100.9249432</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142" t="s">
+        <v>253</v>
+      </c>
+      <c r="M142" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143">
+        <v>201</v>
+      </c>
+      <c r="B143" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D143" t="s">
+        <v>159</v>
+      </c>
+      <c r="E143">
+        <v>13.33841928</v>
+      </c>
+      <c r="F143">
+        <v>100.9526548</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143" t="s">
+        <v>253</v>
+      </c>
+      <c r="M143" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144">
+        <v>202</v>
+      </c>
+      <c r="B144" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D144" t="s">
+        <v>160</v>
+      </c>
+      <c r="E144">
+        <v>12.68318129</v>
+      </c>
+      <c r="F144">
+        <v>101.2479341</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144" t="s">
+        <v>254</v>
+      </c>
+      <c r="M144" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145">
+        <v>203</v>
+      </c>
+      <c r="B145" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D145" t="s">
+        <v>161</v>
+      </c>
+      <c r="E145">
+        <v>12.68178774</v>
+      </c>
+      <c r="F145">
+        <v>101.2804266</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145" t="s">
+        <v>254</v>
+      </c>
+      <c r="M145" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146">
+        <v>204</v>
+      </c>
+      <c r="B146" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D146" t="s">
+        <v>162</v>
+      </c>
+      <c r="E146">
+        <v>12.67663309</v>
+      </c>
+      <c r="F146">
+        <v>101.2204609</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146" t="s">
+        <v>254</v>
+      </c>
+      <c r="M146" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147">
         <v>205</v>
       </c>
-      <c r="M124" s="3" t="s">
+      <c r="B147" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D147" t="s">
+        <v>163</v>
+      </c>
+      <c r="E147">
+        <v>12.67969829</v>
+      </c>
+      <c r="F147">
+        <v>101.2516232</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147" t="s">
         <v>254</v>
       </c>
-      <c r="N124">
+      <c r="M147" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148">
+        <v>206</v>
+      </c>
+      <c r="B148" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D148" t="s">
+        <v>164</v>
+      </c>
+      <c r="E148">
+        <v>12.67895072</v>
+      </c>
+      <c r="F148">
+        <v>101.2811971</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148" t="s">
+        <v>254</v>
+      </c>
+      <c r="M148" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149">
+        <v>207</v>
+      </c>
+      <c r="B149" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D149" t="s">
+        <v>165</v>
+      </c>
+      <c r="E149">
+        <v>12.69121623</v>
+      </c>
+      <c r="F149">
+        <v>101.2828322</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149" t="s">
+        <v>254</v>
+      </c>
+      <c r="M149" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150">
+        <v>208</v>
+      </c>
+      <c r="B150" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D150" t="s">
+        <v>166</v>
+      </c>
+      <c r="E150">
+        <v>12.61154131</v>
+      </c>
+      <c r="F150">
+        <v>102.105739</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150" t="s">
+        <v>255</v>
+      </c>
+      <c r="M150" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151">
+        <v>209</v>
+      </c>
+      <c r="B151" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D151" t="s">
+        <v>167</v>
+      </c>
+      <c r="E151">
+        <v>12.59875505</v>
+      </c>
+      <c r="F151">
+        <v>102.1108505</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151" t="s">
+        <v>255</v>
+      </c>
+      <c r="M151" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152">
+        <v>210</v>
+      </c>
+      <c r="B152" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D152" t="s">
+        <v>168</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152" t="s">
+        <v>256</v>
+      </c>
+      <c r="M152" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153">
+        <v>211</v>
+      </c>
+      <c r="B153" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D153" t="s">
+        <v>169</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153" t="s">
+        <v>256</v>
+      </c>
+      <c r="M153" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154">
+        <v>212</v>
+      </c>
+      <c r="B154" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D154" t="s">
+        <v>170</v>
+      </c>
+      <c r="E154">
+        <v>12.94007297</v>
+      </c>
+      <c r="F154">
+        <v>100.9198688</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154" t="s">
+        <v>256</v>
+      </c>
+      <c r="M154" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155">
+        <v>213</v>
+      </c>
+      <c r="B155" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D155" t="s">
+        <v>171</v>
+      </c>
+      <c r="E155">
+        <v>12.93500267</v>
+      </c>
+      <c r="F155">
+        <v>100.8828385</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155" t="s">
+        <v>256</v>
+      </c>
+      <c r="M155" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156">
+        <v>214</v>
+      </c>
+      <c r="B156" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D156" t="s">
+        <v>172</v>
+      </c>
+      <c r="E156">
+        <v>12.93302705</v>
+      </c>
+      <c r="F156">
+        <v>100.9013151</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156" t="s">
+        <v>256</v>
+      </c>
+      <c r="M156" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157">
+        <v>215</v>
+      </c>
+      <c r="B157" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D157" t="s">
+        <v>173</v>
+      </c>
+      <c r="E157">
+        <v>12.93124481</v>
+      </c>
+      <c r="F157">
+        <v>100.9008084</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157" t="s">
+        <v>256</v>
+      </c>
+      <c r="M157" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158">
+        <v>216</v>
+      </c>
+      <c r="B158" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D158" t="s">
+        <v>174</v>
+      </c>
+      <c r="E158">
+        <v>12.93038104</v>
+      </c>
+      <c r="F158">
+        <v>100.9126714</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158" t="s">
+        <v>256</v>
+      </c>
+      <c r="M158" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159">
+        <v>217</v>
+      </c>
+      <c r="B159" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D159" t="s">
+        <v>175</v>
+      </c>
+      <c r="E159">
+        <v>12.84875767</v>
+      </c>
+      <c r="F159">
+        <v>100.9017</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159" t="s">
+        <v>256</v>
+      </c>
+      <c r="M159" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160">
+        <v>218</v>
+      </c>
+      <c r="B160" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D160" t="s">
+        <v>176</v>
+      </c>
+      <c r="E160">
+        <v>12.90883138</v>
+      </c>
+      <c r="F160">
+        <v>100.8932458</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160" t="s">
+        <v>256</v>
+      </c>
+      <c r="M160" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="A161">
+        <v>219</v>
+      </c>
+      <c r="B161" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D161" t="s">
+        <v>177</v>
+      </c>
+      <c r="E161">
+        <v>12.66362634</v>
+      </c>
+      <c r="F161">
+        <v>100.8981743</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161" t="s">
+        <v>256</v>
+      </c>
+      <c r="M161" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
+      <c r="A162">
+        <v>220</v>
+      </c>
+      <c r="B162" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D162" t="s">
+        <v>178</v>
+      </c>
+      <c r="E162">
+        <v>12.95074463</v>
+      </c>
+      <c r="F162">
+        <v>100.8933879</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162" t="s">
+        <v>256</v>
+      </c>
+      <c r="M162" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
+      <c r="A163">
+        <v>221</v>
+      </c>
+      <c r="B163" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D163" t="s">
+        <v>179</v>
+      </c>
+      <c r="E163">
+        <v>12.97880506</v>
+      </c>
+      <c r="F163">
+        <v>100.9430835</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163" t="s">
+        <v>256</v>
+      </c>
+      <c r="M163" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
+      <c r="A164">
+        <v>222</v>
+      </c>
+      <c r="B164" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D164" t="s">
+        <v>180</v>
+      </c>
+      <c r="E164">
+        <v>12.92662465</v>
+      </c>
+      <c r="F164">
+        <v>100.898605</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164" t="s">
+        <v>256</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
+      <c r="A165">
+        <v>223</v>
+      </c>
+      <c r="B165" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D165" t="s">
+        <v>181</v>
+      </c>
+      <c r="E165">
+        <v>12.98328283</v>
+      </c>
+      <c r="F165">
+        <v>100.9354783</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165" t="s">
+        <v>256</v>
+      </c>
+      <c r="M165" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="A166">
+        <v>224</v>
+      </c>
+      <c r="B166" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D166" t="s">
+        <v>182</v>
+      </c>
+      <c r="E166">
+        <v>12.98177123</v>
+      </c>
+      <c r="F166">
+        <v>100.9289336</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166" t="s">
+        <v>256</v>
+      </c>
+      <c r="M166" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="A167">
+        <v>225</v>
+      </c>
+      <c r="B167" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D167" t="s">
+        <v>183</v>
+      </c>
+      <c r="E167">
+        <v>13.01893524</v>
+      </c>
+      <c r="F167">
+        <v>100.932701</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167" t="s">
+        <v>256</v>
+      </c>
+      <c r="M167" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="A168">
+        <v>226</v>
+      </c>
+      <c r="B168" t="s">
+        <v>17</v>
+      </c>
+      <c r="C168" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D168" t="s">
+        <v>184</v>
+      </c>
+      <c r="E168">
+        <v>12.95555524</v>
+      </c>
+      <c r="F168">
+        <v>100.8987028</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168" t="s">
+        <v>256</v>
+      </c>
+      <c r="M168" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="A169">
+        <v>227</v>
+      </c>
+      <c r="B169" t="s">
+        <v>17</v>
+      </c>
+      <c r="C169" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D169" t="s">
+        <v>185</v>
+      </c>
+      <c r="E169">
+        <v>12.93944879</v>
+      </c>
+      <c r="F169">
+        <v>100.9021397</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169" t="s">
+        <v>256</v>
+      </c>
+      <c r="M169" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170">
+        <v>228</v>
+      </c>
+      <c r="B170" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D170" t="s">
+        <v>186</v>
+      </c>
+      <c r="E170">
+        <v>12.75400498</v>
+      </c>
+      <c r="F170">
+        <v>100.9017967</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170" t="s">
+        <v>256</v>
+      </c>
+      <c r="M170" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="A171">
+        <v>229</v>
+      </c>
+      <c r="B171" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D171" t="s">
+        <v>187</v>
+      </c>
+      <c r="E171">
+        <v>12.69857571</v>
+      </c>
+      <c r="F171">
+        <v>100.8899412</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171" t="s">
+        <v>256</v>
+      </c>
+      <c r="M171" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="N171">
         <v>0</v>
       </c>
     </row>
@@ -6652,12 +8882,12 @@
     <hyperlink ref="M34" r:id="rId33"/>
     <hyperlink ref="M35" r:id="rId34"/>
     <hyperlink ref="M36" r:id="rId35"/>
-    <hyperlink ref="M37" r:id="rId36"/>
+    <hyperlink ref="M37" r:id="rId36" location="cxrecs_s"/>
     <hyperlink ref="M38" r:id="rId37"/>
     <hyperlink ref="M39" r:id="rId38"/>
     <hyperlink ref="M40" r:id="rId39"/>
     <hyperlink ref="M41" r:id="rId40"/>
-    <hyperlink ref="M42" r:id="rId41" location="cxrecs_s"/>
+    <hyperlink ref="M42" r:id="rId41"/>
     <hyperlink ref="M43" r:id="rId42"/>
     <hyperlink ref="M44" r:id="rId43"/>
     <hyperlink ref="M45" r:id="rId44"/>
@@ -6740,6 +8970,53 @@
     <hyperlink ref="M122" r:id="rId121"/>
     <hyperlink ref="M123" r:id="rId122"/>
     <hyperlink ref="M124" r:id="rId123"/>
+    <hyperlink ref="M125" r:id="rId124"/>
+    <hyperlink ref="M126" r:id="rId125"/>
+    <hyperlink ref="M127" r:id="rId126"/>
+    <hyperlink ref="M128" r:id="rId127"/>
+    <hyperlink ref="M129" r:id="rId128"/>
+    <hyperlink ref="M130" r:id="rId129"/>
+    <hyperlink ref="M131" r:id="rId130"/>
+    <hyperlink ref="M132" r:id="rId131"/>
+    <hyperlink ref="M133" r:id="rId132"/>
+    <hyperlink ref="M134" r:id="rId133"/>
+    <hyperlink ref="M135" r:id="rId134"/>
+    <hyperlink ref="M136" r:id="rId135"/>
+    <hyperlink ref="M137" r:id="rId136"/>
+    <hyperlink ref="M138" r:id="rId137"/>
+    <hyperlink ref="M139" r:id="rId138"/>
+    <hyperlink ref="M140" r:id="rId139"/>
+    <hyperlink ref="M141" r:id="rId140"/>
+    <hyperlink ref="M142" r:id="rId141"/>
+    <hyperlink ref="M143" r:id="rId142"/>
+    <hyperlink ref="M144" r:id="rId143"/>
+    <hyperlink ref="M145" r:id="rId144"/>
+    <hyperlink ref="M146" r:id="rId145"/>
+    <hyperlink ref="M147" r:id="rId146"/>
+    <hyperlink ref="M148" r:id="rId147"/>
+    <hyperlink ref="M149" r:id="rId148"/>
+    <hyperlink ref="M150" r:id="rId149"/>
+    <hyperlink ref="M151" r:id="rId150"/>
+    <hyperlink ref="M152" r:id="rId151"/>
+    <hyperlink ref="M153" r:id="rId152"/>
+    <hyperlink ref="M154" r:id="rId153"/>
+    <hyperlink ref="M155" r:id="rId154"/>
+    <hyperlink ref="M156" r:id="rId155"/>
+    <hyperlink ref="M157" r:id="rId156"/>
+    <hyperlink ref="M158" r:id="rId157"/>
+    <hyperlink ref="M159" r:id="rId158"/>
+    <hyperlink ref="M160" r:id="rId159"/>
+    <hyperlink ref="M161" r:id="rId160"/>
+    <hyperlink ref="M162" r:id="rId161"/>
+    <hyperlink ref="M163" r:id="rId162"/>
+    <hyperlink ref="M164" r:id="rId163"/>
+    <hyperlink ref="M165" r:id="rId164"/>
+    <hyperlink ref="M166" r:id="rId165"/>
+    <hyperlink ref="M167" r:id="rId166"/>
+    <hyperlink ref="M168" r:id="rId167"/>
+    <hyperlink ref="M169" r:id="rId168"/>
+    <hyperlink ref="M170" r:id="rId169"/>
+    <hyperlink ref="M171" r:id="rId170"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="296">
   <si>
     <t>id</t>
   </si>
@@ -58,12 +58,12 @@
     <t>parentcase</t>
   </si>
   <si>
+    <t>patient_has_been_here</t>
+  </si>
+  <si>
     <t>unspecified_location</t>
   </si>
   <si>
-    <t>patient_has_been_here</t>
-  </si>
-  <si>
     <t>sanitizing</t>
   </si>
   <si>
@@ -76,42 +76,6 @@
     <t>sanitized</t>
   </si>
   <si>
-    <t>ซ.รุ่งเรือง 5 บางบัวทอง</t>
-  </si>
-  <si>
-    <t>ตลาดแจ้งวัฒนะ ซ.6</t>
-  </si>
-  <si>
-    <t>โรงเรียนราษฎร์บำรุงวิทยา อ.ดอนตูม</t>
-  </si>
-  <si>
-    <t>โรงเรียนแสงอรุณ</t>
-  </si>
-  <si>
-    <t>คณะออกแบบนิเทศ มหาวิทยาลัยราชภัฏนครปฐม</t>
-  </si>
-  <si>
-    <t>ห้างเทสโก้ โลตัสกำแพงแสน</t>
-  </si>
-  <si>
-    <t>บิ๊กซี ดาวคะนอง</t>
-  </si>
-  <si>
-    <t>Riverside plaza คลองสาน</t>
-  </si>
-  <si>
-    <t>Tree on 3 พระราม3</t>
-  </si>
-  <si>
-    <t>Makro สาทร</t>
-  </si>
-  <si>
-    <t>ร้านอาหาร คาราโอเกะ ใบไม้ร่าเริง</t>
-  </si>
-  <si>
-    <t>หมูกระทะ ร้านอิกคิว จรัญสนิทวงศ์</t>
-  </si>
-  <si>
     <t>ตลาดหมู่บ้านศรีทอง จ.อยุธยา</t>
   </si>
   <si>
@@ -598,78 +562,75 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย วันที่ 14-18 ธค. เวลา 17.00-21.00 น. จะทำงานร้านขายของชำ ซ.รุ่งเรือง 5 บางบัวทอง</t>
+    <t>พบผู้ป่วยติดเชื้อโควิด-19 ไม่มีอาการ จำนวน 1 ราย เป็นหญิง เดินทางกลับมาจากการไปทำงานที่ร้านเสริมสวยใน จ.เชียงใหม่</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เคสแม่ค้ารถพุ่มพวงติดโควิด เป็นรถกระบะสีขาว ป้ายแดง ทะเบียน 8681 สมุทรปราการ </t>
+  </si>
+  <si>
+    <t>พบผู้ป่วยโควิด-19 ชาย มาบ่อนไก่ชนในบางเลน</t>
+  </si>
+  <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 19 ธ.ค. เวลา 10.00 น. ไปห้างสรรพสินค้ายูเนียนมอลล์ และเดินข้ามมาเซ็นทรัลลาดพร้าว</t>
+  </si>
+  <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 19 ธ.ค. เวลา 20.00 น. ไปตลาดชาวสยาม บางกรวยพร้าว</t>
+  </si>
+  <si>
+    <t>ตรวจพบเชื้อ COVID-19 จากคุณรัตน์เจ้าของร้านสมศักดิ์ปูอบ สาขาบีทีเอสกรุงธนบุรี</t>
+  </si>
+  <si>
+    <t>ผู้ป่วย  covid-19 นครปฐม รายที่22-29</t>
+  </si>
+  <si>
+    <t>เกทเวย์ แอท บางซื่อ ชี้แจงกรณีพบผู้ติดเชื้อโควิดเข้าใช้บริการ</t>
+  </si>
+  <si>
+    <t>โฆษกกทม.ทยอยเปิดไทม์ไลน์ ติดเชื้อโควิดในกรุงเทพฯ 75 คนแล้ว ไล่สอบสวนโรค พบไปหลายห้าง ดูหนัง คาราโอเกะ</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ติดเชื้อ covid19 กทม. รายที่ 22-43</t>
+  </si>
+  <si>
+    <t>กทม.เปิดไทม์ไลน์ 17 ผู้ติดเชื้อ 'โควิด' รายใหม่ เป็นรายที่ 58-74</t>
+  </si>
+  <si>
+    <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
+  </si>
+  <si>
+    <t>เคสเจ้าของร้านอาหารติดโควิด มีประวัติไปแพกุ้ง ตลาดยายพ่วง มหาชัย</t>
+  </si>
+  <si>
+    <t>ขอให้ผู้ที่ไปใช้บริการร้านอาหาร ตั้งแต่วันที่ 15-20 ธ.ค. 2563 เป็นต้นมา ณ ร้านแจ่วฮ้อนตาแป๊ะบุฟเฟ่ 149 ซึ่งมี 3 สาขา สาขาที่ 1 อำเภอหนองแค สาขา 2 อำเภอแก่งคอย และสาขา 3 อำเภอเมืองสระบุรี และตลาดหนองเสือ จ.ปทุมธานี ได้สังเกตอาการตนเองเป็นเวลา 14 วัน ให้สวมหน้ากากอนามัย หรือหน้ากากผ้าตลอดเวลา หลีกเลี่ยงคลุกคลีใกล้ชิดกับผู้อื่น</t>
+  </si>
+  <si>
+    <t>เจ้าของร้านอาหารที่ติดโควิดได้ไปขายเนื้อสดที่ตลาด</t>
+  </si>
+  <si>
+    <t>เคสผู้ป่วยโควิด-19 ชาย อยู่ต.บางหลวง อ.บางเลน จ.นครปฐม</t>
+  </si>
+  <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย  20 ธ.ค. เวลา 10.00 น. ไปคาเฟ่ Two Do Someting</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ได้ออกมาเลือกตั้งหน้าหมู่บ้านและซื้อต้นไม้ ผู้ขายเป็นชาวพม่า</t>
   </si>
   <si>
     <t>เคสผู้ติดเชื้อโควิด-19 ชายขายอาหารทะเลปากซ.พหล52</t>
   </si>
   <si>
-    <t>ผู้ป่วย  covid-19 นครปฐม รายที่22-29</t>
+    <t>ตรวจพบเชื้อ COVID-19 เจ้าของร้านสมศักดิ์ปูอบ สาขาบีทีเอสกรุงธนบุรี</t>
+  </si>
+  <si>
+    <t>4 ผู้ป่วยโควิด นนทบุรีเชื่อมโยงตลาดทะเลไทย สมุทรสาคร</t>
   </si>
   <si>
     <t>ผู้ป่วยโควิด-19 จังหวัดนครปฐม รายที่38-53</t>
   </si>
   <si>
-    <t>กทม.เปิดไทม์ไลน์ 17 ผู้ติดเชื้อ 'โควิด' รายใหม่ เป็นรายที่ 58-74</t>
-  </si>
-  <si>
     <t>Timeline ผู้ติดเชื้อที่อยู่ใน กทม.</t>
   </si>
   <si>
-    <t>พบผู้ป่วยติดเชื้อโควิด-19 ไม่มีอาการ จำนวน 1 ราย เป็นหญิง เดินทางกลับมาจากการไปทำงานที่ร้านเสริมสวยใน จ.เชียงใหม่</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เคสแม่ค้ารถพุ่มพวงติดโควิด เป็นรถกระบะสีขาว ป้ายแดง ทะเบียน 8681 สมุทรปราการ </t>
-  </si>
-  <si>
-    <t>พบผู้ป่วยโควิด-19 ชาย มาบ่อนไก่ชนในบางเลน</t>
-  </si>
-  <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 19 ธ.ค. เวลา 10.00 น. ไปห้างสรรพสินค้ายูเนียนมอลล์ และเดินข้ามมาเซ็นทรัลลาดพร้าว</t>
-  </si>
-  <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 19 ธ.ค. เวลา 20.00 น. ไปตลาดชาวสยาม บางกรวยพร้าว</t>
-  </si>
-  <si>
-    <t>ตรวจพบเชื้อ COVID-19 จากคุณรัตน์เจ้าของร้านสมศักดิ์ปูอบ สาขาบีทีเอสกรุงธนบุรี</t>
-  </si>
-  <si>
-    <t>เกทเวย์ แอท บางซื่อ ชี้แจงกรณีพบผู้ติดเชื้อโควิดเข้าใช้บริการ</t>
-  </si>
-  <si>
-    <t>โฆษกกทม.ทยอยเปิดไทม์ไลน์ ติดเชื้อโควิดในกรุงเทพฯ 75 คนแล้ว ไล่สอบสวนโรค พบไปหลายห้าง ดูหนัง คาราโอเกะ</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ติดเชื้อ covid19 กทม. รายที่ 22-43</t>
-  </si>
-  <si>
-    <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
-  </si>
-  <si>
-    <t>เคสเจ้าของร้านอาหารติดโควิด มีประวัติไปแพกุ้ง ตลาดยายพ่วง มหาชัย</t>
-  </si>
-  <si>
-    <t>ขอให้ผู้ที่ไปใช้บริการร้านอาหาร ตั้งแต่วันที่ 15-20 ธ.ค. 2563 เป็นต้นมา ณ ร้านแจ่วฮ้อนตาแป๊ะบุฟเฟ่ 149 ซึ่งมี 3 สาขา สาขาที่ 1 อำเภอหนองแค สาขา 2 อำเภอแก่งคอย และสาขา 3 อำเภอเมืองสระบุรี และตลาดหนองเสือ จ.ปทุมธานี ได้สังเกตอาการตนเองเป็นเวลา 14 วัน ให้สวมหน้ากากอนามัย หรือหน้ากากผ้าตลอดเวลา หลีกเลี่ยงคลุกคลีใกล้ชิดกับผู้อื่น</t>
-  </si>
-  <si>
-    <t>เจ้าของร้านอาหารที่ติดโควิดได้ไปขายเนื้อสดที่ตลาด</t>
-  </si>
-  <si>
-    <t>เคสผู้ป่วยโควิด-19 ชาย อยู่ต.บางหลวง อ.บางเลน จ.นครปฐม</t>
-  </si>
-  <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย  20 ธ.ค. เวลา 10.00 น. ไปคาเฟ่ Two Do Someting</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ได้ออกมาเลือกตั้งหน้าหมู่บ้านและซื้อต้นไม้ ผู้ขายเป็นชาวพม่า</t>
-  </si>
-  <si>
-    <t>ตรวจพบเชื้อ COVID-19 เจ้าของร้านสมศักดิ์ปูอบ สาขาบีทีเอสกรุงธนบุรี</t>
-  </si>
-  <si>
-    <t>4 ผู้ป่วยโควิด นนทบุรีเชื่อมโยงตลาดทะเลไทย สมุทรสาคร</t>
-  </si>
-  <si>
     <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20</t>
   </si>
   <si>
@@ -787,64 +748,64 @@
     <t>ท่านใดเดินทางไปยังสถานที่ ในวันและเวลา ดังต่อไปนี้ หากมีอาการผิดปกติทางระบบทางเดินหายใจภายใน 14 วัน นับจากวันที่ไปสถานที่ดังกล่าว ติดต่อโรงพยาบาลรัฐในพื้นที่ของท่านทันที หรือโทรสายด่วน!!! 038-119-777</t>
   </si>
   <si>
+    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/central/1999153</t>
+  </si>
+  <si>
+    <t>https://mgronline.com/local/detail/9630000130818</t>
+  </si>
+  <si>
     <t>https://www.khaosod.co.th/breaking-news/news_5591909</t>
   </si>
   <si>
+    <t>https://www.facebook.com/SomsakPuOb/posts/3554410321292740</t>
+  </si>
+  <si>
+    <t>https://m.facebook.com/story.php?story_fbid=3200886696679973&amp;id=246608695441136&amp;sfnsn=mo</t>
+  </si>
+  <si>
+    <t>https://www.onbnews.today/post/43979</t>
+  </si>
+  <si>
+    <t>https://www.pptvhd36.com/news/%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%A0%E0%B8%B2%E0%B8%9E/139122</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/posts/3119216564844610</t>
+  </si>
+  <si>
+    <t>https://www.dailynews.co.th/regional/815860?fbclid=IwAR3PpSq-k4gEnCMnvk_ZSa14-a7-sRcbK55EljOEMDm-7Ze-6SmVJNFfAuU</t>
+  </si>
+  <si>
+    <t>https://www.thaipost.net/main/detail/87367</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SomsakPuOb/photos/a.237834942950311/3554401867960252/?type=3</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/central/1998711</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/central/1998795?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0&amp;cx_rec_section=news&amp;cx_rec_topic=local#cxrecs_s</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/twodosomething/posts/140825121150938</t>
+  </si>
+  <si>
+    <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
+  </si>
+  <si>
     <t>https://www.dailynews.co.th/regional/814914</t>
   </si>
   <si>
-    <t>https://m.facebook.com/story.php?story_fbid=3200886696679973&amp;id=246608695441136&amp;sfnsn=mo</t>
+    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2499640</t>
   </si>
   <si>
     <t>https://www.bangkokbiznews.com/news/detail/914766</t>
   </si>
   <si>
-    <t>https://www.dailynews.co.th/regional/815860?fbclid=IwAR3PpSq-k4gEnCMnvk_ZSa14-a7-sRcbK55EljOEMDm-7Ze-6SmVJNFfAuU</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/prbangkok/posts/3125681800864753</t>
-  </si>
-  <si>
-    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
-  </si>
-  <si>
-    <t>https://www.thairath.co.th/news/local/central/1999153</t>
-  </si>
-  <si>
-    <t>https://mgronline.com/local/detail/9630000130818</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SomsakPuOb/posts/3554410321292740</t>
-  </si>
-  <si>
-    <t>https://www.onbnews.today/post/43979</t>
-  </si>
-  <si>
-    <t>https://www.pptvhd36.com/news/%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%A0%E0%B8%B2%E0%B8%9E/139122</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/posts/3119216564844610</t>
-  </si>
-  <si>
-    <t>https://www.thaipost.net/main/detail/87367</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SomsakPuOb/photos/a.237834942950311/3554401867960252/?type=3</t>
-  </si>
-  <si>
-    <t>https://www.thairath.co.th/news/local/central/1998711</t>
-  </si>
-  <si>
-    <t>https://www.thairath.co.th/news/local/central/1998795?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0&amp;cx_rec_section=news&amp;cx_rec_topic=local#cxrecs_s</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/twodosomething/posts/140825121150938</t>
-  </si>
-  <si>
-    <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
-  </si>
-  <si>
-    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2499640</t>
   </si>
   <si>
     <t>https://www.facebook.com/suanplernmarket/photos/a.407116596138751/1714728045377593/</t>
@@ -1315,7 +1276,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:N159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1367,43 +1328,43 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>13.87779142</v>
+        <v>14.1487352</v>
       </c>
       <c r="F2">
-        <v>100.4215436</v>
+        <v>100.6155778</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="I2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1411,43 +1372,43 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>13.88376994</v>
+        <v>13.8057625</v>
       </c>
       <c r="F3">
-        <v>100.5843207</v>
+        <v>100.6621959</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="I3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J3" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1455,43 +1416,43 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>13.965066</v>
+        <v>14.01215068</v>
       </c>
       <c r="F4">
-        <v>100.07959</v>
+        <v>100.17523</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="I4" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J4" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1499,43 +1460,43 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>14.036373</v>
+        <v>13.8134088</v>
       </c>
       <c r="F5">
-        <v>100.168774</v>
+        <v>100.5616103</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I5" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L5" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1543,43 +1504,43 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>13.83669407</v>
+        <v>13.816493</v>
       </c>
       <c r="F6">
-        <v>100.0271654</v>
+        <v>100.5610062</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K6" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L6" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1587,43 +1548,43 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>13.99173744</v>
+        <v>13.7966595</v>
       </c>
       <c r="F7">
-        <v>99.99699669</v>
+        <v>100.4755856</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L7" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1631,43 +1592,43 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8">
-        <v>13.69901194</v>
+        <v>13.69121688</v>
       </c>
       <c r="F8">
-        <v>100.4829165</v>
+        <v>100.3412194</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I8" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J8" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K8" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L8" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1675,43 +1636,43 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
       </c>
       <c r="E9">
-        <v>13.70486214</v>
+        <v>13.79584</v>
       </c>
       <c r="F9">
-        <v>100.4913754</v>
+        <v>100.13118</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I9" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J9" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K9" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L9" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1719,43 +1680,43 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
       <c r="E10">
-        <v>13.69115508</v>
+        <v>13.80564274</v>
       </c>
       <c r="F10">
-        <v>100.5045287</v>
+        <v>100.5238077</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I10" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J10" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K10" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L10" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1763,43 +1724,43 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
       <c r="E11">
-        <v>13.70976833</v>
+        <v>13.77870414</v>
       </c>
       <c r="F11">
-        <v>100.5352559</v>
+        <v>100.4778649</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K11" t="s">
+        <v>178</v>
+      </c>
+      <c r="L11" t="s">
         <v>190</v>
       </c>
-      <c r="I11" t="s">
-        <v>191</v>
-      </c>
-      <c r="J11" t="s">
-        <v>193</v>
-      </c>
-      <c r="K11" t="s">
-        <v>190</v>
-      </c>
-      <c r="L11" t="s">
-        <v>198</v>
-      </c>
       <c r="M11" s="3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1807,43 +1768,43 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
       <c r="E12">
-        <v>13.71466823</v>
+        <v>13.61347071</v>
       </c>
       <c r="F12">
-        <v>100.643611</v>
+        <v>100.3824876</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" t="s">
+        <v>181</v>
+      </c>
+      <c r="K12" t="s">
+        <v>178</v>
+      </c>
+      <c r="L12" t="s">
         <v>191</v>
       </c>
-      <c r="J12" t="s">
-        <v>193</v>
-      </c>
-      <c r="K12" t="s">
-        <v>190</v>
-      </c>
-      <c r="L12" t="s">
-        <v>198</v>
-      </c>
       <c r="M12" s="3" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1851,43 +1812,43 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
       </c>
       <c r="E13">
-        <v>13.77344774</v>
+        <v>13.70935</v>
       </c>
       <c r="F13">
-        <v>100.4833544</v>
+        <v>100.6014532</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
+      <c r="H13" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" t="s">
+        <v>181</v>
+      </c>
+      <c r="K13" t="s">
+        <v>178</v>
       </c>
       <c r="L13" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1895,10 +1856,10 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2">
         <v>44184</v>
@@ -1907,31 +1868,31 @@
         <v>32</v>
       </c>
       <c r="E14">
-        <v>14.1487352</v>
+        <v>13.78281463</v>
       </c>
       <c r="F14">
-        <v>100.6155778</v>
+        <v>100.5995981</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I14" t="s">
+        <v>179</v>
+      </c>
+      <c r="J14" t="s">
+        <v>181</v>
+      </c>
+      <c r="K14" t="s">
+        <v>178</v>
+      </c>
+      <c r="L14" t="s">
         <v>191</v>
       </c>
-      <c r="J14" t="s">
-        <v>193</v>
-      </c>
-      <c r="K14" t="s">
-        <v>190</v>
-      </c>
-      <c r="L14" t="s">
-        <v>200</v>
-      </c>
       <c r="M14" s="3" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1939,7 +1900,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1951,31 +1912,31 @@
         <v>33</v>
       </c>
       <c r="E15">
-        <v>13.8057625</v>
+        <v>13.73739373</v>
       </c>
       <c r="F15">
-        <v>100.6621959</v>
+        <v>100.6165954</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I15" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J15" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K15" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1983,7 +1944,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1995,31 +1956,31 @@
         <v>34</v>
       </c>
       <c r="E16">
-        <v>14.01215068</v>
+        <v>13.71433565</v>
       </c>
       <c r="F16">
-        <v>100.17523</v>
+        <v>100.647891</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="I16" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J16" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K16" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2027,10 +1988,10 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2">
         <v>44184</v>
@@ -2039,31 +2000,31 @@
         <v>35</v>
       </c>
       <c r="E17">
-        <v>13.8134088</v>
+        <v>13.71020819</v>
       </c>
       <c r="F17">
-        <v>100.5616103</v>
+        <v>100.5427674</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I17" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J17" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K17" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2071,10 +2032,10 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2">
         <v>44184</v>
@@ -2083,31 +2044,31 @@
         <v>36</v>
       </c>
       <c r="E18">
-        <v>13.816493</v>
+        <v>13.63894185</v>
       </c>
       <c r="F18">
-        <v>100.5610062</v>
+        <v>100.5263216</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I18" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J18" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2115,43 +2076,43 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D19" t="s">
         <v>37</v>
       </c>
       <c r="E19">
-        <v>13.7966595</v>
+        <v>13.5579068</v>
       </c>
       <c r="F19">
-        <v>100.4755856</v>
+        <v>100.270829</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" t="s">
-        <v>188</v>
+      <c r="H19">
+        <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" t="s">
         <v>193</v>
       </c>
-      <c r="K19" t="s">
-        <v>190</v>
-      </c>
-      <c r="L19" t="s">
-        <v>204</v>
-      </c>
       <c r="M19" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2159,43 +2120,43 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
       </c>
       <c r="E20">
-        <v>13.69121688</v>
+        <v>13.7937004</v>
       </c>
       <c r="F20">
-        <v>100.3412194</v>
+        <v>100.6923144</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J20" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2203,43 +2164,43 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D21" t="s">
         <v>39</v>
       </c>
       <c r="E21">
-        <v>13.79584</v>
+        <v>13.5455607</v>
       </c>
       <c r="F21">
-        <v>100.13118</v>
+        <v>100.2767611</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J21" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K21" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2247,43 +2208,43 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D22" t="s">
         <v>40</v>
       </c>
       <c r="E22">
-        <v>13.80564274</v>
+        <v>14.3355326</v>
       </c>
       <c r="F22">
-        <v>100.5238077</v>
+        <v>100.87017</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22" t="s">
-        <v>188</v>
+      <c r="H22">
+        <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J22" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L22" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2291,43 +2252,43 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23">
-        <v>13.77870414</v>
+        <v>14.5786407</v>
       </c>
       <c r="F23">
-        <v>100.4778649</v>
+        <v>100.9662444</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23" t="s">
-        <v>190</v>
+      <c r="H23">
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J23" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K23" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2335,43 +2296,43 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24">
-        <v>13.61347071</v>
+        <v>14.5116599</v>
       </c>
       <c r="F24">
-        <v>100.3824876</v>
+        <v>100.9094134</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" t="s">
-        <v>190</v>
+      <c r="H24">
+        <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J24" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K24" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L24" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2379,43 +2340,43 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E25">
-        <v>13.70935</v>
+        <v>14.1378761</v>
       </c>
       <c r="F25">
-        <v>100.6014532</v>
+        <v>100.8255049</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25" t="s">
-        <v>190</v>
+      <c r="H25">
+        <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J25" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K25" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L25" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2423,43 +2384,43 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E26">
-        <v>13.78281463</v>
+        <v>14.06566869</v>
       </c>
       <c r="F26">
-        <v>100.5995981</v>
+        <v>99.9821468</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="I26" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J26" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K26" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L26" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2467,43 +2428,43 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E27">
-        <v>13.73739373</v>
+        <v>13.8220612</v>
       </c>
       <c r="F27">
-        <v>100.6165954</v>
+        <v>100.421874</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I27" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J27" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K27" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s">
         <v>198</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2511,43 +2472,43 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E28">
-        <v>13.71433565</v>
+        <v>13.8683169</v>
       </c>
       <c r="F28">
-        <v>100.647891</v>
+        <v>100.4107308</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="I28" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J28" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K28" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2555,43 +2516,43 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E29">
-        <v>13.71020819</v>
+        <v>13.89757086</v>
       </c>
       <c r="F29">
-        <v>100.5427674</v>
+        <v>100.6098027</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="I29" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J29" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K29" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L29" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2599,43 +2560,43 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C30" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E30">
-        <v>13.63894185</v>
+        <v>13.72045903</v>
       </c>
       <c r="F30">
-        <v>100.5263216</v>
+        <v>100.5004852</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I30" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J30" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K30" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L30" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2643,43 +2604,43 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C31" s="2">
         <v>44185</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E31">
-        <v>13.5579068</v>
+        <v>13.817137</v>
       </c>
       <c r="F31">
-        <v>100.270829</v>
+        <v>100.041497</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31">
-        <v>0</v>
+      <c r="H31" t="s">
+        <v>178</v>
       </c>
       <c r="I31" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K31" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L31" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2687,7 +2648,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -2696,34 +2657,34 @@
         <v>44185</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E32">
-        <v>13.7937004</v>
+        <v>13.737328</v>
       </c>
       <c r="F32">
-        <v>100.6923144</v>
+        <v>100.081218</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
+        <v>178</v>
+      </c>
+      <c r="I32" t="s">
+        <v>179</v>
+      </c>
+      <c r="J32" t="s">
+        <v>181</v>
+      </c>
+      <c r="K32" t="s">
+        <v>178</v>
+      </c>
+      <c r="L32" t="s">
         <v>188</v>
       </c>
-      <c r="I32" t="s">
-        <v>191</v>
-      </c>
-      <c r="J32" t="s">
-        <v>193</v>
-      </c>
-      <c r="K32" t="s">
-        <v>190</v>
-      </c>
-      <c r="L32" t="s">
-        <v>201</v>
-      </c>
       <c r="M32" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2731,43 +2692,43 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C33" s="2">
         <v>44185</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E33">
-        <v>13.5455607</v>
+        <v>14.021384</v>
       </c>
       <c r="F33">
-        <v>100.2767611</v>
+        <v>100.165325</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
+        <v>178</v>
+      </c>
+      <c r="I33" t="s">
+        <v>179</v>
+      </c>
+      <c r="J33" t="s">
+        <v>181</v>
+      </c>
+      <c r="K33" t="s">
+        <v>178</v>
+      </c>
+      <c r="L33" t="s">
         <v>188</v>
       </c>
-      <c r="I33" t="s">
-        <v>191</v>
-      </c>
-      <c r="J33" t="s">
-        <v>193</v>
-      </c>
-      <c r="K33" t="s">
-        <v>190</v>
-      </c>
-      <c r="L33" t="s">
-        <v>210</v>
-      </c>
       <c r="M33" s="3" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2775,43 +2736,43 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="2">
         <v>44185</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E34">
-        <v>14.3355326</v>
+        <v>13.82347979</v>
       </c>
       <c r="F34">
-        <v>100.87017</v>
+        <v>100.4101224</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34">
-        <v>0</v>
+      <c r="H34" t="s">
+        <v>178</v>
       </c>
       <c r="I34" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J34" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K34" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2819,43 +2780,43 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="2">
         <v>44185</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35">
-        <v>14.5786407</v>
+        <v>13.82622351</v>
       </c>
       <c r="F35">
-        <v>100.9662444</v>
+        <v>100.4124415</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35">
-        <v>0</v>
+      <c r="H35" t="s">
+        <v>178</v>
       </c>
       <c r="I35" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J35" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K35" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2863,10 +2824,10 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="2">
         <v>44185</v>
@@ -2875,31 +2836,31 @@
         <v>52</v>
       </c>
       <c r="E36">
-        <v>14.5116599</v>
+        <v>13.71100665</v>
       </c>
       <c r="F36">
-        <v>100.9094134</v>
+        <v>100.4234972</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36">
-        <v>0</v>
+      <c r="H36" t="s">
+        <v>177</v>
       </c>
       <c r="I36" t="s">
+        <v>179</v>
+      </c>
+      <c r="J36" t="s">
+        <v>181</v>
+      </c>
+      <c r="K36" t="s">
+        <v>178</v>
+      </c>
+      <c r="L36" t="s">
         <v>191</v>
       </c>
-      <c r="J36" t="s">
-        <v>193</v>
-      </c>
-      <c r="K36" t="s">
-        <v>190</v>
-      </c>
-      <c r="L36" t="s">
-        <v>211</v>
-      </c>
       <c r="M36" s="3" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2907,10 +2868,10 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C37" s="2">
         <v>44185</v>
@@ -2919,31 +2880,31 @@
         <v>53</v>
       </c>
       <c r="E37">
-        <v>14.1378761</v>
+        <v>13.81780926</v>
       </c>
       <c r="F37">
-        <v>100.8255049</v>
+        <v>100.3981472</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37">
-        <v>0</v>
+      <c r="H37" t="s">
+        <v>178</v>
       </c>
       <c r="I37" t="s">
+        <v>179</v>
+      </c>
+      <c r="J37" t="s">
+        <v>181</v>
+      </c>
+      <c r="K37" t="s">
+        <v>178</v>
+      </c>
+      <c r="L37" t="s">
         <v>191</v>
       </c>
-      <c r="J37" t="s">
-        <v>193</v>
-      </c>
-      <c r="K37" t="s">
-        <v>190</v>
-      </c>
-      <c r="L37" t="s">
-        <v>212</v>
-      </c>
       <c r="M37" s="3" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2951,7 +2912,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -2963,31 +2924,31 @@
         <v>54</v>
       </c>
       <c r="E38">
-        <v>14.06566869</v>
+        <v>13.95701015</v>
       </c>
       <c r="F38">
-        <v>99.9821468</v>
+        <v>100.404266</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="I38" t="s">
+        <v>179</v>
+      </c>
+      <c r="J38" t="s">
+        <v>181</v>
+      </c>
+      <c r="K38" t="s">
+        <v>178</v>
+      </c>
+      <c r="L38" t="s">
         <v>191</v>
       </c>
-      <c r="J38" t="s">
-        <v>193</v>
-      </c>
-      <c r="K38" t="s">
-        <v>190</v>
-      </c>
-      <c r="L38" t="s">
-        <v>213</v>
-      </c>
       <c r="M38" s="3" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2995,10 +2956,10 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C39" s="2">
         <v>44185</v>
@@ -3007,31 +2968,31 @@
         <v>55</v>
       </c>
       <c r="E39">
-        <v>13.8220612</v>
+        <v>14.06478568</v>
       </c>
       <c r="F39">
-        <v>100.421874</v>
+        <v>100.0502624</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I39" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J39" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K39" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L39" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3039,7 +3000,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -3051,31 +3012,31 @@
         <v>56</v>
       </c>
       <c r="E40">
-        <v>13.8683169</v>
+        <v>13.73106738</v>
       </c>
       <c r="F40">
-        <v>100.4107308</v>
+        <v>100.0732375</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="I40" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J40" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K40" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L40" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3083,10 +3044,10 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="2">
         <v>44185</v>
@@ -3095,31 +3056,31 @@
         <v>57</v>
       </c>
       <c r="E41">
-        <v>13.89757086</v>
+        <v>13.8122326</v>
       </c>
       <c r="F41">
-        <v>100.6098027</v>
+        <v>100.0726883</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="I41" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J41" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K41" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L41" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3127,10 +3088,10 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C42" s="2">
         <v>44185</v>
@@ -3139,31 +3100,31 @@
         <v>58</v>
       </c>
       <c r="E42">
-        <v>13.72045903</v>
+        <v>13.69415224</v>
       </c>
       <c r="F42">
-        <v>100.5004852</v>
+        <v>100.6478267</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I42" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J42" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K42" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L42" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3171,10 +3132,10 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" s="2">
         <v>44185</v>
@@ -3183,31 +3144,31 @@
         <v>59</v>
       </c>
       <c r="E43">
-        <v>13.817137</v>
+        <v>13.80243028</v>
       </c>
       <c r="F43">
-        <v>100.041497</v>
+        <v>100.6151197</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I43" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J43" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K43" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L43" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3215,10 +3176,10 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44" s="2">
         <v>44185</v>
@@ -3227,31 +3188,31 @@
         <v>60</v>
       </c>
       <c r="E44">
-        <v>13.737328</v>
+        <v>13.82571976</v>
       </c>
       <c r="F44">
-        <v>100.081218</v>
+        <v>100.6794424</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I44" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J44" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K44" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L44" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3259,10 +3220,10 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" s="2">
         <v>44185</v>
@@ -3271,31 +3232,31 @@
         <v>61</v>
       </c>
       <c r="E45">
-        <v>14.021384</v>
+        <v>13.83106898</v>
       </c>
       <c r="F45">
-        <v>100.165325</v>
+        <v>100.3729686</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I45" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J45" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K45" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L45" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3303,10 +3264,10 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" s="2">
         <v>44185</v>
@@ -3315,31 +3276,31 @@
         <v>62</v>
       </c>
       <c r="E46">
-        <v>13.82347979</v>
+        <v>13.71815181</v>
       </c>
       <c r="F46">
-        <v>100.4101224</v>
+        <v>100.4133961</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46" t="s">
-        <v>190</v>
-      </c>
-      <c r="I46" t="s">
-        <v>191</v>
-      </c>
-      <c r="J46" t="s">
-        <v>193</v>
-      </c>
-      <c r="K46" t="s">
-        <v>190</v>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3347,43 +3308,43 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D47" t="s">
         <v>63</v>
       </c>
       <c r="E47">
-        <v>13.82622351</v>
+        <v>13.8781452</v>
       </c>
       <c r="F47">
-        <v>100.4124415</v>
+        <v>100.4091302</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="I47" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J47" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K47" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L47" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3391,43 +3352,43 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C48" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D48" t="s">
         <v>64</v>
       </c>
       <c r="E48">
-        <v>13.71100665</v>
+        <v>13.7164198</v>
       </c>
       <c r="F48">
-        <v>100.4234972</v>
+        <v>100.5716135</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="I48" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J48" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K48" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L48" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3435,43 +3396,43 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D49" t="s">
         <v>65</v>
       </c>
       <c r="E49">
-        <v>13.81780926</v>
+        <v>13.70807262</v>
       </c>
       <c r="F49">
-        <v>100.3981472</v>
+        <v>100.59964</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
+        <v>178</v>
+      </c>
+      <c r="I49" t="s">
+        <v>179</v>
+      </c>
+      <c r="J49" t="s">
+        <v>181</v>
+      </c>
+      <c r="K49" t="s">
+        <v>178</v>
+      </c>
+      <c r="L49" t="s">
         <v>190</v>
       </c>
-      <c r="I49" t="s">
-        <v>191</v>
-      </c>
-      <c r="J49" t="s">
-        <v>193</v>
-      </c>
-      <c r="K49" t="s">
-        <v>190</v>
-      </c>
-      <c r="L49" t="s">
-        <v>208</v>
-      </c>
       <c r="M49" s="3" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3479,43 +3440,43 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D50" t="s">
         <v>66</v>
       </c>
       <c r="E50">
-        <v>13.95701015</v>
+        <v>13.78051515</v>
       </c>
       <c r="F50">
-        <v>100.404266</v>
+        <v>100.4226823</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I50" t="s">
+        <v>179</v>
+      </c>
+      <c r="J50" t="s">
+        <v>181</v>
+      </c>
+      <c r="K50" t="s">
+        <v>178</v>
+      </c>
+      <c r="L50" t="s">
         <v>191</v>
       </c>
-      <c r="J50" t="s">
-        <v>193</v>
-      </c>
-      <c r="K50" t="s">
-        <v>190</v>
-      </c>
-      <c r="L50" t="s">
-        <v>208</v>
-      </c>
       <c r="M50" s="3" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3523,43 +3484,43 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D51" t="s">
         <v>67</v>
       </c>
       <c r="E51">
-        <v>14.06478568</v>
+        <v>13.7355293</v>
       </c>
       <c r="F51">
-        <v>100.0502624</v>
+        <v>100.5979688</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I51" t="s">
+        <v>179</v>
+      </c>
+      <c r="J51" t="s">
+        <v>181</v>
+      </c>
+      <c r="K51" t="s">
+        <v>178</v>
+      </c>
+      <c r="L51" t="s">
         <v>191</v>
       </c>
-      <c r="J51" t="s">
-        <v>193</v>
-      </c>
-      <c r="K51" t="s">
-        <v>190</v>
-      </c>
-      <c r="L51" t="s">
-        <v>197</v>
-      </c>
       <c r="M51" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3567,43 +3528,43 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D52" t="s">
         <v>68</v>
       </c>
       <c r="E52">
-        <v>13.73106738</v>
+        <v>13.73406154</v>
       </c>
       <c r="F52">
-        <v>100.0732375</v>
+        <v>100.5967948</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I52" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J52" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K52" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L52" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3611,43 +3572,43 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D53" t="s">
         <v>69</v>
       </c>
       <c r="E53">
-        <v>13.8122326</v>
+        <v>13.7738673</v>
       </c>
       <c r="F53">
-        <v>100.0726883</v>
+        <v>100.5093218</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I53" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J53" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K53" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3655,43 +3616,43 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D54" t="s">
         <v>70</v>
       </c>
       <c r="E54">
-        <v>13.69415224</v>
+        <v>13.82650614</v>
       </c>
       <c r="F54">
-        <v>100.6478267</v>
+        <v>100.4860605</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I54" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J54" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K54" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L54" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3699,43 +3660,43 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D55" t="s">
         <v>71</v>
       </c>
       <c r="E55">
-        <v>13.80243028</v>
+        <v>13.79667017</v>
       </c>
       <c r="F55">
-        <v>100.6151197</v>
+        <v>100.5516735</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55" t="s">
-        <v>190</v>
-      </c>
-      <c r="I55" t="s">
-        <v>191</v>
-      </c>
-      <c r="J55" t="s">
-        <v>193</v>
-      </c>
-      <c r="K55" t="s">
-        <v>190</v>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3743,43 +3704,43 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="D56" t="s">
         <v>72</v>
       </c>
       <c r="E56">
-        <v>13.82571976</v>
+        <v>13.73541413</v>
       </c>
       <c r="F56">
-        <v>100.6794424</v>
+        <v>100.5877998</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56" t="s">
-        <v>190</v>
+      <c r="H56">
+        <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J56" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K56" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L56" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3787,43 +3748,43 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="D57" t="s">
         <v>73</v>
       </c>
       <c r="E57">
-        <v>13.83106898</v>
+        <v>13.78766192</v>
       </c>
       <c r="F57">
-        <v>100.3729686</v>
+        <v>100.5105938</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57" t="s">
-        <v>190</v>
+      <c r="H57">
+        <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J57" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K57" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L57" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3831,43 +3792,43 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C58" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="D58" t="s">
         <v>74</v>
       </c>
       <c r="E58">
-        <v>13.71815181</v>
+        <v>13.5951449</v>
       </c>
       <c r="F58">
-        <v>100.4133961</v>
+        <v>100.5802135</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
+      <c r="H58" t="s">
+        <v>177</v>
+      </c>
+      <c r="I58" t="s">
+        <v>179</v>
+      </c>
+      <c r="J58" t="s">
+        <v>181</v>
+      </c>
+      <c r="K58" t="s">
+        <v>178</v>
       </c>
       <c r="L58" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3875,43 +3836,43 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
       </c>
       <c r="C59" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D59" t="s">
         <v>75</v>
       </c>
       <c r="E59">
-        <v>13.8781452</v>
+        <v>13.803038</v>
       </c>
       <c r="F59">
-        <v>100.4091302</v>
+        <v>100.188902</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="I59" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J59" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K59" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L59" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3919,43 +3880,43 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C60" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D60" t="s">
         <v>76</v>
       </c>
       <c r="E60">
-        <v>13.7164198</v>
+        <v>13.802143</v>
       </c>
       <c r="F60">
-        <v>100.5716135</v>
+        <v>100.19</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I60" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J60" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K60" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L60" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3963,40 +3924,40 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D61" t="s">
         <v>77</v>
       </c>
       <c r="E61">
-        <v>13.70807262</v>
+        <v>13.928974</v>
       </c>
       <c r="F61">
-        <v>100.59964</v>
+        <v>100.577365</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I61" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J61" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K61" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L61" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>268</v>
@@ -4007,40 +3968,40 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D62" t="s">
         <v>78</v>
       </c>
       <c r="E62">
-        <v>13.78051515</v>
+        <v>13.929686</v>
       </c>
       <c r="F62">
-        <v>100.4226823</v>
+        <v>100.576</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J62" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K62" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L62" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>269</v>
@@ -4051,43 +4012,43 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C63" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D63" t="s">
         <v>79</v>
       </c>
       <c r="E63">
-        <v>13.7355293</v>
+        <v>13.76033018</v>
       </c>
       <c r="F63">
-        <v>100.5979688</v>
+        <v>100.4796436</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I63" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J63" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K63" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L63" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4095,40 +4056,40 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C64" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D64" t="s">
         <v>80</v>
       </c>
       <c r="E64">
-        <v>13.73406154</v>
+        <v>13.82853997</v>
       </c>
       <c r="F64">
-        <v>100.5967948</v>
+        <v>100.4842102</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I64" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J64" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K64" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L64" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>261</v>
@@ -4139,43 +4100,43 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C65" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D65" t="s">
         <v>81</v>
       </c>
       <c r="E65">
-        <v>13.7738673</v>
+        <v>14.01020378</v>
       </c>
       <c r="F65">
-        <v>100.5093218</v>
+        <v>100.1768909</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I65" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J65" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K65" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L65" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4183,43 +4144,43 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C66" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D66" t="s">
         <v>82</v>
       </c>
       <c r="E66">
-        <v>13.82650614</v>
+        <v>14.04839109</v>
       </c>
       <c r="F66">
-        <v>100.4860605</v>
+        <v>100.0198852</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I66" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J66" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K66" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L66" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4227,43 +4188,43 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C67" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D67" t="s">
         <v>83</v>
       </c>
       <c r="E67">
-        <v>13.79667017</v>
+        <v>13.80175861</v>
       </c>
       <c r="F67">
-        <v>100.5516735</v>
+        <v>100.3053076</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
+      <c r="H67" t="s">
+        <v>178</v>
+      </c>
+      <c r="I67" t="s">
+        <v>179</v>
+      </c>
+      <c r="J67" t="s">
+        <v>181</v>
+      </c>
+      <c r="K67" t="s">
+        <v>178</v>
       </c>
       <c r="L67" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4271,10 +4232,10 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C68" s="2">
         <v>44187</v>
@@ -4283,10 +4244,10 @@
         <v>84</v>
       </c>
       <c r="E68">
-        <v>13.73541413</v>
+        <v>13.60633251</v>
       </c>
       <c r="F68">
-        <v>100.5877998</v>
+        <v>100.4036543</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -4294,20 +4255,20 @@
       <c r="H68">
         <v>0</v>
       </c>
-      <c r="I68" t="s">
-        <v>191</v>
-      </c>
-      <c r="J68" t="s">
-        <v>193</v>
-      </c>
-      <c r="K68" t="s">
-        <v>190</v>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4315,22 +4276,22 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C69" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D69" t="s">
         <v>85</v>
       </c>
       <c r="E69">
-        <v>13.78766192</v>
+        <v>13.7462524</v>
       </c>
       <c r="F69">
-        <v>100.5105938</v>
+        <v>100.5328635</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -4339,19 +4300,19 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J69" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K69" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L69" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4359,43 +4320,43 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C70" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D70" t="s">
         <v>86</v>
       </c>
       <c r="E70">
-        <v>13.5951449</v>
+        <v>13.7243591</v>
       </c>
       <c r="F70">
-        <v>100.5802135</v>
+        <v>100.5386589</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70" t="s">
-        <v>189</v>
+      <c r="H70">
+        <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J70" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K70" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L70" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4403,43 +4364,43 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C71" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D71" t="s">
         <v>87</v>
       </c>
       <c r="E71">
-        <v>13.803038</v>
+        <v>13.54974685</v>
       </c>
       <c r="F71">
-        <v>100.188902</v>
+        <v>100.2561435</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I71" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J71" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K71" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L71" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4447,43 +4408,43 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C72" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D72" t="s">
         <v>88</v>
       </c>
       <c r="E72">
-        <v>13.802143</v>
+        <v>14.45160513</v>
       </c>
       <c r="F72">
-        <v>100.19</v>
+        <v>100.7230585</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I72" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J72" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K72" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L72" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4491,43 +4452,43 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C73" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D73" t="s">
         <v>89</v>
       </c>
       <c r="E73">
-        <v>13.928974</v>
+        <v>13.72836497</v>
       </c>
       <c r="F73">
-        <v>100.577365</v>
+        <v>100.5350858</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I73" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J73" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K73" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L73" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4535,43 +4496,43 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C74" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D74" t="s">
         <v>90</v>
       </c>
       <c r="E74">
-        <v>13.929686</v>
+        <v>13.7660558</v>
       </c>
       <c r="F74">
-        <v>100.576</v>
+        <v>100.6403032</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I74" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J74" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K74" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L74" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4579,43 +4540,43 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C75" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D75" t="s">
         <v>91</v>
       </c>
       <c r="E75">
-        <v>13.76033018</v>
+        <v>13.710361</v>
       </c>
       <c r="F75">
-        <v>100.4796436</v>
+        <v>100.4073817</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I75" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J75" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K75" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4623,43 +4584,43 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D76" t="s">
         <v>92</v>
       </c>
       <c r="E76">
-        <v>13.82853997</v>
+        <v>13.2054213</v>
       </c>
       <c r="F76">
-        <v>100.4842102</v>
+        <v>99.9793013</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76" t="s">
-        <v>190</v>
+      <c r="H76">
+        <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J76" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K76" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L76" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4667,43 +4628,43 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C77" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D77" t="s">
         <v>93</v>
       </c>
       <c r="E77">
-        <v>14.01020378</v>
+        <v>13.7100705</v>
       </c>
       <c r="F77">
-        <v>100.1768909</v>
+        <v>100.6007069</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="H77" t="s">
-        <v>190</v>
-      </c>
-      <c r="I77" t="s">
-        <v>191</v>
-      </c>
-      <c r="J77" t="s">
-        <v>193</v>
-      </c>
-      <c r="K77" t="s">
-        <v>190</v>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4711,43 +4672,43 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C78" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D78" t="s">
         <v>94</v>
       </c>
       <c r="E78">
-        <v>14.04839109</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>100.0198852</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I78" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J78" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K78" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L78" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4755,43 +4716,43 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C79" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D79" t="s">
         <v>95</v>
       </c>
       <c r="E79">
-        <v>13.80175861</v>
+        <v>13.802283</v>
       </c>
       <c r="F79">
-        <v>100.3053076</v>
+        <v>100.184509</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I79" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J79" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K79" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L79" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4799,43 +4760,43 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C80" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D80" t="s">
         <v>96</v>
       </c>
       <c r="E80">
-        <v>13.60633251</v>
+        <v>13.91857</v>
       </c>
       <c r="F80">
-        <v>100.4036543</v>
+        <v>100.601606</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
+      <c r="H80" t="s">
+        <v>178</v>
+      </c>
+      <c r="I80" t="s">
+        <v>179</v>
+      </c>
+      <c r="J80" t="s">
+        <v>181</v>
+      </c>
+      <c r="K80" t="s">
+        <v>178</v>
       </c>
       <c r="L80" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4843,10 +4804,10 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C81" s="2">
         <v>44188</v>
@@ -4855,31 +4816,31 @@
         <v>97</v>
       </c>
       <c r="E81">
-        <v>13.7462524</v>
+        <v>13.6171972</v>
       </c>
       <c r="F81">
-        <v>100.5328635</v>
+        <v>100.3791504</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="H81">
-        <v>0</v>
+      <c r="H81" t="s">
+        <v>178</v>
       </c>
       <c r="I81" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J81" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K81" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L81" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4887,10 +4848,10 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C82" s="2">
         <v>44188</v>
@@ -4899,31 +4860,31 @@
         <v>98</v>
       </c>
       <c r="E82">
-        <v>13.7243591</v>
+        <v>12.66469676</v>
       </c>
       <c r="F82">
-        <v>100.5386589</v>
+        <v>102.1037094</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82">
-        <v>0</v>
+      <c r="H82" t="s">
+        <v>177</v>
       </c>
       <c r="I82" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J82" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K82" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L82" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4931,10 +4892,10 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C83" s="2">
         <v>44188</v>
@@ -4943,31 +4904,31 @@
         <v>99</v>
       </c>
       <c r="E83">
-        <v>13.54974685</v>
+        <v>13.86149331</v>
       </c>
       <c r="F83">
-        <v>100.2561435</v>
+        <v>100.6434383</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="H83" t="s">
-        <v>188</v>
-      </c>
-      <c r="I83" t="s">
-        <v>191</v>
-      </c>
-      <c r="J83" t="s">
-        <v>193</v>
-      </c>
-      <c r="K83" t="s">
-        <v>190</v>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4975,10 +4936,10 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C84" s="2">
         <v>44188</v>
@@ -4987,31 +4948,31 @@
         <v>100</v>
       </c>
       <c r="E84">
-        <v>14.45160513</v>
+        <v>13.84500752</v>
       </c>
       <c r="F84">
-        <v>100.7230585</v>
+        <v>100.6352673</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="H84" t="s">
-        <v>188</v>
-      </c>
-      <c r="I84" t="s">
-        <v>191</v>
-      </c>
-      <c r="J84" t="s">
-        <v>193</v>
-      </c>
-      <c r="K84" t="s">
-        <v>190</v>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5019,43 +4980,43 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C85" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D85" t="s">
         <v>101</v>
       </c>
       <c r="E85">
-        <v>13.72836497</v>
+        <v>13.721681</v>
       </c>
       <c r="F85">
-        <v>100.5350858</v>
+        <v>100.53</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I85" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J85" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K85" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L85" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5063,43 +5024,43 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C86" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D86" t="s">
         <v>102</v>
       </c>
       <c r="E86">
-        <v>13.7660558</v>
+        <v>13.9134431</v>
       </c>
       <c r="F86">
-        <v>100.6403032</v>
+        <v>100.4220473</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I86" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="J86" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K86" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L86" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5107,43 +5068,43 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C87" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D87" t="s">
         <v>103</v>
       </c>
       <c r="E87">
-        <v>13.710361</v>
+        <v>13.786588</v>
       </c>
       <c r="F87">
-        <v>100.4073817</v>
+        <v>100.321233</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I87" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J87" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K87" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L87" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5151,43 +5112,43 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C88" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D88" t="s">
         <v>104</v>
       </c>
       <c r="E88">
-        <v>13.2054213</v>
+        <v>13.8017434</v>
       </c>
       <c r="F88">
-        <v>99.9793013</v>
+        <v>100.1879465</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
-      <c r="H88">
-        <v>0</v>
+      <c r="H88" t="s">
+        <v>178</v>
       </c>
       <c r="I88" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J88" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K88" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L88" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5195,43 +5156,43 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C89" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D89" t="s">
         <v>105</v>
       </c>
       <c r="E89">
-        <v>13.7100705</v>
+        <v>13.81456113</v>
       </c>
       <c r="F89">
-        <v>100.6007069</v>
+        <v>100.0630594</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
+      <c r="H89" t="s">
+        <v>178</v>
+      </c>
+      <c r="I89" t="s">
+        <v>179</v>
+      </c>
+      <c r="J89" t="s">
+        <v>181</v>
+      </c>
+      <c r="K89" t="s">
+        <v>178</v>
       </c>
       <c r="L89" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5239,43 +5200,43 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D90" t="s">
         <v>106</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>12.68783188</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>101.2114545</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="I90" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J90" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K90" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L90" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5283,43 +5244,43 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C91" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D91" t="s">
         <v>107</v>
       </c>
       <c r="E91">
-        <v>13.802283</v>
+        <v>13.67342423</v>
       </c>
       <c r="F91">
-        <v>100.184509</v>
+        <v>100.6069256</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I91" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J91" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K91" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L91" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5327,43 +5288,43 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C92" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D92" t="s">
         <v>108</v>
       </c>
       <c r="E92">
-        <v>13.91857</v>
+        <v>13.6680206</v>
       </c>
       <c r="F92">
-        <v>100.601606</v>
+        <v>100.6354649</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I92" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J92" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K92" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L92" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5371,43 +5332,43 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C93" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D93" t="s">
         <v>109</v>
       </c>
       <c r="E93">
-        <v>13.6171972</v>
+        <v>13.88903855</v>
       </c>
       <c r="F93">
-        <v>100.3791504</v>
+        <v>100.6576064</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
-      <c r="H93" t="s">
-        <v>190</v>
-      </c>
-      <c r="I93" t="s">
-        <v>191</v>
-      </c>
-      <c r="J93" t="s">
-        <v>193</v>
-      </c>
-      <c r="K93" t="s">
-        <v>190</v>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5415,43 +5376,43 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C94" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D94" t="s">
         <v>110</v>
       </c>
       <c r="E94">
-        <v>12.66469676</v>
+        <v>13.71110566</v>
       </c>
       <c r="F94">
-        <v>102.1037094</v>
+        <v>100.4158636</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="H94" t="s">
-        <v>189</v>
-      </c>
-      <c r="I94" t="s">
-        <v>191</v>
-      </c>
-      <c r="J94" t="s">
-        <v>193</v>
-      </c>
-      <c r="K94" t="s">
-        <v>190</v>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5459,22 +5420,22 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C95" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D95" t="s">
         <v>111</v>
       </c>
       <c r="E95">
-        <v>13.86149331</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>100.6434383</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -5492,10 +5453,10 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5503,43 +5464,43 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C96" s="2">
-        <v>44188</v>
+        <v>44190</v>
       </c>
       <c r="D96" t="s">
         <v>112</v>
       </c>
       <c r="E96">
-        <v>13.84500752</v>
+        <v>13.924252</v>
       </c>
       <c r="F96">
-        <v>100.6352673</v>
+        <v>100.597945</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
+      <c r="H96" t="s">
+        <v>178</v>
+      </c>
+      <c r="I96" t="s">
+        <v>179</v>
+      </c>
+      <c r="J96" t="s">
+        <v>181</v>
+      </c>
+      <c r="K96" t="s">
+        <v>178</v>
       </c>
       <c r="L96" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5547,43 +5508,43 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C97" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="D97" t="s">
         <v>113</v>
       </c>
       <c r="E97">
-        <v>13.721681</v>
+        <v>12.69670286</v>
       </c>
       <c r="F97">
-        <v>100.53</v>
+        <v>101.2683573</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="I97" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J97" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K97" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L97" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5591,43 +5552,43 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C98" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="D98" t="s">
         <v>114</v>
       </c>
       <c r="E98">
-        <v>13.9134431</v>
+        <v>12.69574994</v>
       </c>
       <c r="F98">
-        <v>100.4220473</v>
+        <v>101.2674706</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="I98" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="J98" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K98" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L98" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5635,43 +5596,43 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C99" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="D99" t="s">
         <v>115</v>
       </c>
       <c r="E99">
-        <v>13.786588</v>
+        <v>13.71190173</v>
       </c>
       <c r="F99">
-        <v>100.321233</v>
+        <v>100.4224456</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
-      <c r="H99" t="s">
-        <v>190</v>
-      </c>
-      <c r="I99" t="s">
-        <v>191</v>
-      </c>
-      <c r="J99" t="s">
-        <v>193</v>
-      </c>
-      <c r="K99" t="s">
-        <v>190</v>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
       </c>
       <c r="L99" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5679,43 +5640,43 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B100" t="s">
         <v>14</v>
       </c>
       <c r="C100" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="D100" t="s">
         <v>116</v>
       </c>
       <c r="E100">
-        <v>13.8017434</v>
+        <v>13.80614397</v>
       </c>
       <c r="F100">
-        <v>100.1879465</v>
+        <v>100.5307221</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
-      <c r="H100" t="s">
-        <v>190</v>
-      </c>
-      <c r="I100" t="s">
-        <v>191</v>
-      </c>
-      <c r="J100" t="s">
-        <v>193</v>
-      </c>
-      <c r="K100" t="s">
-        <v>190</v>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
       </c>
       <c r="L100" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5723,43 +5684,43 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C101" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="D101" t="s">
         <v>117</v>
       </c>
       <c r="E101">
-        <v>13.81456113</v>
+        <v>13.78786299</v>
       </c>
       <c r="F101">
-        <v>100.0630594</v>
+        <v>100.4828396</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
-      <c r="H101" t="s">
-        <v>190</v>
-      </c>
-      <c r="I101" t="s">
-        <v>191</v>
-      </c>
-      <c r="J101" t="s">
-        <v>193</v>
-      </c>
-      <c r="K101" t="s">
-        <v>190</v>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
       </c>
       <c r="L101" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5767,43 +5728,43 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C102" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="D102" t="s">
         <v>118</v>
       </c>
       <c r="E102">
-        <v>12.68783188</v>
+        <v>13.77791571</v>
       </c>
       <c r="F102">
-        <v>101.2114545</v>
+        <v>100.4766994</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="H102" t="s">
-        <v>189</v>
-      </c>
-      <c r="I102" t="s">
-        <v>191</v>
-      </c>
-      <c r="J102" t="s">
-        <v>193</v>
-      </c>
-      <c r="K102" t="s">
-        <v>190</v>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
       </c>
       <c r="L102" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5811,43 +5772,43 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C103" s="2">
-        <v>44189</v>
+        <v>44191</v>
       </c>
       <c r="D103" t="s">
         <v>119</v>
       </c>
       <c r="E103">
-        <v>13.67342423</v>
+        <v>13.7636001</v>
       </c>
       <c r="F103">
-        <v>100.6069256</v>
+        <v>100.5114624</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
-      <c r="H103" t="s">
-        <v>190</v>
-      </c>
-      <c r="I103" t="s">
-        <v>191</v>
-      </c>
-      <c r="J103" t="s">
-        <v>193</v>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L103" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5855,43 +5816,43 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C104" s="2">
-        <v>44189</v>
+        <v>44191</v>
       </c>
       <c r="D104" t="s">
         <v>120</v>
       </c>
       <c r="E104">
-        <v>13.6680206</v>
+        <v>13.734066</v>
       </c>
       <c r="F104">
-        <v>100.6354649</v>
+        <v>100.5278354</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
-      <c r="H104" t="s">
-        <v>190</v>
-      </c>
-      <c r="I104" t="s">
-        <v>191</v>
-      </c>
-      <c r="J104" t="s">
-        <v>193</v>
-      </c>
-      <c r="K104" t="s">
-        <v>190</v>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
       </c>
       <c r="L104" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5899,22 +5860,22 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
       </c>
       <c r="C105" s="2">
-        <v>44189</v>
+        <v>44191</v>
       </c>
       <c r="D105" t="s">
         <v>121</v>
       </c>
       <c r="E105">
-        <v>13.88903855</v>
+        <v>12.6483736</v>
       </c>
       <c r="F105">
-        <v>100.6576064</v>
+        <v>101.2273679</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -5932,10 +5893,10 @@
         <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5943,43 +5904,43 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C106" s="2">
-        <v>44189</v>
+        <v>44191</v>
       </c>
       <c r="D106" t="s">
         <v>122</v>
       </c>
       <c r="E106">
-        <v>13.71110566</v>
+        <v>12.69691038</v>
       </c>
       <c r="F106">
-        <v>100.4158636</v>
+        <v>101.268451</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-      <c r="K106">
-        <v>0</v>
+      <c r="H106" t="s">
+        <v>177</v>
+      </c>
+      <c r="I106" t="s">
+        <v>179</v>
+      </c>
+      <c r="J106" t="s">
+        <v>181</v>
+      </c>
+      <c r="K106" t="s">
+        <v>178</v>
       </c>
       <c r="L106" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -5987,43 +5948,43 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C107" s="2">
-        <v>44189</v>
+        <v>44191</v>
       </c>
       <c r="D107" t="s">
         <v>123</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>12.66695256</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>101.2738756</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-      <c r="K107">
-        <v>0</v>
+      <c r="H107" t="s">
+        <v>177</v>
+      </c>
+      <c r="I107" t="s">
+        <v>179</v>
+      </c>
+      <c r="J107" t="s">
+        <v>181</v>
+      </c>
+      <c r="K107" t="s">
+        <v>178</v>
       </c>
       <c r="L107" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6031,43 +5992,43 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C108" s="2">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="D108" t="s">
         <v>124</v>
       </c>
       <c r="E108">
-        <v>13.924252</v>
+        <v>13.86265154</v>
       </c>
       <c r="F108">
-        <v>100.597945</v>
+        <v>100.6432858</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
-      <c r="H108" t="s">
-        <v>190</v>
-      </c>
-      <c r="I108" t="s">
-        <v>191</v>
-      </c>
-      <c r="J108" t="s">
-        <v>193</v>
-      </c>
-      <c r="K108" t="s">
-        <v>190</v>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
       </c>
       <c r="L108" t="s">
         <v>223</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6075,43 +6036,43 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B109" t="s">
         <v>15</v>
       </c>
       <c r="C109" s="2">
-        <v>44190</v>
+        <v>44192</v>
       </c>
       <c r="D109" t="s">
         <v>125</v>
       </c>
       <c r="E109">
-        <v>12.69670286</v>
+        <v>12.6844183</v>
       </c>
       <c r="F109">
-        <v>101.2683573</v>
+        <v>101.2742991</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
-      <c r="H109" t="s">
-        <v>189</v>
-      </c>
-      <c r="I109" t="s">
-        <v>191</v>
-      </c>
-      <c r="J109" t="s">
-        <v>193</v>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L109" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6119,43 +6080,43 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
       </c>
       <c r="C110" s="2">
-        <v>44190</v>
+        <v>44192</v>
       </c>
       <c r="D110" t="s">
         <v>126</v>
       </c>
       <c r="E110">
-        <v>12.69574994</v>
+        <v>12.9730033</v>
       </c>
       <c r="F110">
-        <v>101.2674706</v>
+        <v>100.9029061</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="H110" t="s">
-        <v>189</v>
-      </c>
-      <c r="I110" t="s">
-        <v>191</v>
-      </c>
-      <c r="J110" t="s">
-        <v>193</v>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L110" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6163,22 +6124,22 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C111" s="2">
-        <v>44190</v>
+        <v>44192</v>
       </c>
       <c r="D111" t="s">
         <v>127</v>
       </c>
       <c r="E111">
-        <v>13.71190173</v>
+        <v>13.7946069</v>
       </c>
       <c r="F111">
-        <v>100.4224456</v>
+        <v>100.5161808</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -6192,14 +6153,14 @@
       <c r="J111">
         <v>0</v>
       </c>
-      <c r="K111">
-        <v>0</v>
+      <c r="K111" t="s">
+        <v>178</v>
       </c>
       <c r="L111" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6207,43 +6168,43 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C112" s="2">
-        <v>44190</v>
+        <v>44192</v>
       </c>
       <c r="D112" t="s">
         <v>128</v>
       </c>
       <c r="E112">
-        <v>13.80614397</v>
+        <v>13.54448567</v>
       </c>
       <c r="F112">
-        <v>100.5307221</v>
+        <v>100.2752027</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112">
-        <v>0</v>
+      <c r="H112" t="s">
+        <v>177</v>
+      </c>
+      <c r="I112" t="s">
+        <v>179</v>
+      </c>
+      <c r="J112" t="s">
+        <v>181</v>
+      </c>
+      <c r="K112" t="s">
+        <v>178</v>
       </c>
       <c r="L112" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6251,22 +6212,22 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C113" s="2">
-        <v>44190</v>
+        <v>44192</v>
       </c>
       <c r="D113" t="s">
         <v>129</v>
       </c>
       <c r="E113">
-        <v>13.78786299</v>
+        <v>13.67424547</v>
       </c>
       <c r="F113">
-        <v>100.4828396</v>
+        <v>100.426448</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -6284,10 +6245,10 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6295,43 +6256,43 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C114" s="2">
-        <v>44190</v>
+        <v>44193</v>
       </c>
       <c r="D114" t="s">
         <v>130</v>
       </c>
       <c r="E114">
-        <v>13.77791571</v>
+        <v>13.73545544</v>
       </c>
       <c r="F114">
-        <v>100.4766994</v>
+        <v>100.5661584</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114">
-        <v>0</v>
-      </c>
-      <c r="K114">
-        <v>0</v>
+      <c r="H114" t="s">
+        <v>178</v>
+      </c>
+      <c r="I114" t="s">
+        <v>179</v>
+      </c>
+      <c r="J114" t="s">
+        <v>181</v>
+      </c>
+      <c r="K114" t="s">
+        <v>178</v>
       </c>
       <c r="L114" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6339,43 +6300,43 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C115" s="2">
-        <v>44191</v>
+        <v>44194</v>
       </c>
       <c r="D115" t="s">
         <v>131</v>
       </c>
       <c r="E115">
-        <v>13.7636001</v>
+        <v>12.9098775</v>
       </c>
       <c r="F115">
-        <v>100.5114624</v>
+        <v>100.891563</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
+      <c r="H115" t="s">
+        <v>178</v>
+      </c>
+      <c r="I115" t="s">
+        <v>179</v>
+      </c>
+      <c r="J115" t="s">
+        <v>181</v>
       </c>
       <c r="K115" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L115" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6383,22 +6344,22 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B116" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C116" s="2">
-        <v>44191</v>
+        <v>44194</v>
       </c>
       <c r="D116" t="s">
         <v>132</v>
       </c>
       <c r="E116">
-        <v>13.734066</v>
+        <v>13.3535702</v>
       </c>
       <c r="F116">
-        <v>100.5278354</v>
+        <v>100.9765439</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -6412,14 +6373,14 @@
       <c r="J116">
         <v>0</v>
       </c>
-      <c r="K116">
-        <v>0</v>
+      <c r="K116" t="s">
+        <v>178</v>
       </c>
       <c r="L116" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6427,22 +6388,22 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C117" s="2">
-        <v>44191</v>
+        <v>44194</v>
       </c>
       <c r="D117" t="s">
         <v>133</v>
       </c>
       <c r="E117">
-        <v>12.6483736</v>
+        <v>12.948902</v>
       </c>
       <c r="F117">
-        <v>101.2273679</v>
+        <v>100.891292</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -6456,14 +6417,14 @@
       <c r="J117">
         <v>0</v>
       </c>
-      <c r="K117">
-        <v>0</v>
+      <c r="K117" t="s">
+        <v>178</v>
       </c>
       <c r="L117" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6471,40 +6432,40 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B118" t="s">
         <v>15</v>
       </c>
       <c r="C118" s="2">
-        <v>44191</v>
+        <v>44194</v>
       </c>
       <c r="D118" t="s">
         <v>134</v>
       </c>
       <c r="E118">
-        <v>12.69691038</v>
+        <v>12.6495877</v>
       </c>
       <c r="F118">
-        <v>101.268451</v>
+        <v>102.0329425</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="H118" t="s">
-        <v>189</v>
-      </c>
-      <c r="I118" t="s">
-        <v>191</v>
-      </c>
-      <c r="J118" t="s">
-        <v>193</v>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L118" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M118" s="3" t="s">
         <v>291</v>
@@ -6515,40 +6476,40 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B119" t="s">
         <v>15</v>
       </c>
       <c r="C119" s="2">
-        <v>44191</v>
+        <v>44194</v>
       </c>
       <c r="D119" t="s">
         <v>135</v>
       </c>
       <c r="E119">
-        <v>12.66695256</v>
+        <v>12.3757564</v>
       </c>
       <c r="F119">
-        <v>101.2738756</v>
+        <v>102.3818628</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
-      <c r="H119" t="s">
-        <v>189</v>
-      </c>
-      <c r="I119" t="s">
-        <v>191</v>
-      </c>
-      <c r="J119" t="s">
-        <v>193</v>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L119" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M119" s="3" t="s">
         <v>291</v>
@@ -6559,22 +6520,22 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B120" t="s">
         <v>15</v>
       </c>
       <c r="C120" s="2">
-        <v>44191</v>
+        <v>44194</v>
       </c>
       <c r="D120" t="s">
         <v>136</v>
       </c>
       <c r="E120">
-        <v>13.86265154</v>
+        <v>12.7246169</v>
       </c>
       <c r="F120">
-        <v>100.6432858</v>
+        <v>101.9362794</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -6588,14 +6549,14 @@
       <c r="J120">
         <v>0</v>
       </c>
-      <c r="K120">
-        <v>0</v>
+      <c r="K120" t="s">
+        <v>178</v>
       </c>
       <c r="L120" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6603,22 +6564,22 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C121" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="D121" t="s">
         <v>137</v>
       </c>
       <c r="E121">
-        <v>12.6844183</v>
+        <v>13.772986</v>
       </c>
       <c r="F121">
-        <v>101.2742991</v>
+        <v>100.4855148</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6633,13 +6594,13 @@
         <v>0</v>
       </c>
       <c r="K121" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L121" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6647,22 +6608,22 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C122" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="D122" t="s">
         <v>138</v>
       </c>
       <c r="E122">
-        <v>12.9730033</v>
+        <v>12.90895904</v>
       </c>
       <c r="F122">
-        <v>100.9029061</v>
+        <v>100.891925</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6676,14 +6637,14 @@
       <c r="J122">
         <v>0</v>
       </c>
-      <c r="K122" t="s">
-        <v>190</v>
+      <c r="K122">
+        <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6691,22 +6652,22 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C123" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="D123" t="s">
         <v>139</v>
       </c>
       <c r="E123">
-        <v>13.7946069</v>
+        <v>12.90960418</v>
       </c>
       <c r="F123">
-        <v>100.5161808</v>
+        <v>100.870256</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -6720,14 +6681,14 @@
       <c r="J123">
         <v>0</v>
       </c>
-      <c r="K123" t="s">
-        <v>190</v>
+      <c r="K123">
+        <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6735,43 +6696,43 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C124" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="D124" t="s">
         <v>140</v>
       </c>
       <c r="E124">
-        <v>13.54448567</v>
+        <v>12.93047726</v>
       </c>
       <c r="F124">
-        <v>100.2752027</v>
+        <v>100.8807229</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
-      <c r="H124" t="s">
-        <v>189</v>
-      </c>
-      <c r="I124" t="s">
-        <v>191</v>
-      </c>
-      <c r="J124" t="s">
-        <v>193</v>
-      </c>
-      <c r="K124" t="s">
-        <v>190</v>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -6779,22 +6740,22 @@
     </row>
     <row r="125" spans="1:14">
       <c r="A125">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C125" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="D125" t="s">
         <v>141</v>
       </c>
       <c r="E125">
-        <v>13.67424547</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>100.426448</v>
+        <v>0</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -6812,10 +6773,10 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -6823,43 +6784,43 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C126" s="2">
-        <v>44193</v>
+        <v>44194</v>
       </c>
       <c r="D126" t="s">
         <v>142</v>
       </c>
       <c r="E126">
-        <v>13.73545544</v>
+        <v>12.66219926</v>
       </c>
       <c r="F126">
-        <v>100.5661584</v>
+        <v>100.8989779</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
-      <c r="H126" t="s">
-        <v>190</v>
-      </c>
-      <c r="I126" t="s">
-        <v>191</v>
-      </c>
-      <c r="J126" t="s">
-        <v>193</v>
-      </c>
-      <c r="K126" t="s">
-        <v>190</v>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -6867,10 +6828,10 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B127" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C127" s="2">
         <v>44194</v>
@@ -6879,31 +6840,31 @@
         <v>143</v>
       </c>
       <c r="E127">
-        <v>12.9098775</v>
+        <v>13.32877789</v>
       </c>
       <c r="F127">
-        <v>100.891563</v>
+        <v>100.9230017</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
-      <c r="H127" t="s">
-        <v>190</v>
-      </c>
-      <c r="I127" t="s">
-        <v>191</v>
-      </c>
-      <c r="J127" t="s">
-        <v>193</v>
-      </c>
-      <c r="K127" t="s">
-        <v>190</v>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -6911,10 +6872,10 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B128" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C128" s="2">
         <v>44194</v>
@@ -6923,10 +6884,10 @@
         <v>144</v>
       </c>
       <c r="E128">
-        <v>13.3535702</v>
+        <v>13.33615653</v>
       </c>
       <c r="F128">
-        <v>100.9765439</v>
+        <v>100.9694597</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -6940,14 +6901,14 @@
       <c r="J128">
         <v>0</v>
       </c>
-      <c r="K128" t="s">
-        <v>190</v>
+      <c r="K128">
+        <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -6955,7 +6916,7 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B129" t="s">
         <v>17</v>
@@ -6967,10 +6928,10 @@
         <v>145</v>
       </c>
       <c r="E129">
-        <v>12.948902</v>
+        <v>12.83546656</v>
       </c>
       <c r="F129">
-        <v>100.891292</v>
+        <v>100.967575</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -6984,14 +6945,14 @@
       <c r="J129">
         <v>0</v>
       </c>
-      <c r="K129" t="s">
-        <v>190</v>
+      <c r="K129">
+        <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -6999,10 +6960,10 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B130" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C130" s="2">
         <v>44194</v>
@@ -7011,10 +6972,10 @@
         <v>146</v>
       </c>
       <c r="E130">
-        <v>12.6495877</v>
+        <v>13.33545565</v>
       </c>
       <c r="F130">
-        <v>102.0329425</v>
+        <v>100.9249432</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -7028,14 +6989,14 @@
       <c r="J130">
         <v>0</v>
       </c>
-      <c r="K130" t="s">
-        <v>190</v>
+      <c r="K130">
+        <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7043,10 +7004,10 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C131" s="2">
         <v>44194</v>
@@ -7055,10 +7016,10 @@
         <v>147</v>
       </c>
       <c r="E131">
-        <v>12.3757564</v>
+        <v>13.33841928</v>
       </c>
       <c r="F131">
-        <v>102.3818628</v>
+        <v>100.9526548</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -7072,14 +7033,14 @@
       <c r="J131">
         <v>0</v>
       </c>
-      <c r="K131" t="s">
-        <v>190</v>
+      <c r="K131">
+        <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -7087,10 +7048,10 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C132" s="2">
         <v>44194</v>
@@ -7099,10 +7060,10 @@
         <v>148</v>
       </c>
       <c r="E132">
-        <v>12.7246169</v>
+        <v>12.68318129</v>
       </c>
       <c r="F132">
-        <v>101.9362794</v>
+        <v>101.2479341</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -7116,14 +7077,14 @@
       <c r="J132">
         <v>0</v>
       </c>
-      <c r="K132" t="s">
-        <v>190</v>
+      <c r="K132">
+        <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7131,7 +7092,7 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B133" t="s">
         <v>17</v>
@@ -7143,10 +7104,10 @@
         <v>149</v>
       </c>
       <c r="E133">
-        <v>13.772986</v>
+        <v>12.68178774</v>
       </c>
       <c r="F133">
-        <v>100.4855148</v>
+        <v>101.2804266</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -7160,14 +7121,14 @@
       <c r="J133">
         <v>0</v>
       </c>
-      <c r="K133" t="s">
-        <v>190</v>
+      <c r="K133">
+        <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7175,7 +7136,7 @@
     </row>
     <row r="134" spans="1:14">
       <c r="A134">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B134" t="s">
         <v>17</v>
@@ -7187,10 +7148,10 @@
         <v>150</v>
       </c>
       <c r="E134">
-        <v>12.90895904</v>
+        <v>12.67663309</v>
       </c>
       <c r="F134">
-        <v>100.891925</v>
+        <v>101.2204609</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -7208,10 +7169,10 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -7219,7 +7180,7 @@
     </row>
     <row r="135" spans="1:14">
       <c r="A135">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B135" t="s">
         <v>17</v>
@@ -7231,10 +7192,10 @@
         <v>151</v>
       </c>
       <c r="E135">
-        <v>12.90960418</v>
+        <v>12.67969829</v>
       </c>
       <c r="F135">
-        <v>100.870256</v>
+        <v>101.2516232</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -7252,10 +7213,10 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7263,7 +7224,7 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B136" t="s">
         <v>17</v>
@@ -7275,10 +7236,10 @@
         <v>152</v>
       </c>
       <c r="E136">
-        <v>12.93047726</v>
+        <v>12.67895072</v>
       </c>
       <c r="F136">
-        <v>100.8807229</v>
+        <v>101.2811971</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -7296,10 +7257,10 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7307,7 +7268,7 @@
     </row>
     <row r="137" spans="1:14">
       <c r="A137">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B137" t="s">
         <v>17</v>
@@ -7319,10 +7280,10 @@
         <v>153</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>12.69121623</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>101.2828322</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -7340,10 +7301,10 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7351,7 +7312,7 @@
     </row>
     <row r="138" spans="1:14">
       <c r="A138">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B138" t="s">
         <v>17</v>
@@ -7363,10 +7324,10 @@
         <v>154</v>
       </c>
       <c r="E138">
-        <v>12.66219926</v>
+        <v>12.61154131</v>
       </c>
       <c r="F138">
-        <v>100.8989779</v>
+        <v>102.105739</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -7384,10 +7345,10 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7395,7 +7356,7 @@
     </row>
     <row r="139" spans="1:14">
       <c r="A139">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B139" t="s">
         <v>17</v>
@@ -7407,10 +7368,10 @@
         <v>155</v>
       </c>
       <c r="E139">
-        <v>13.32877789</v>
+        <v>12.59875505</v>
       </c>
       <c r="F139">
-        <v>100.9230017</v>
+        <v>102.1108505</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -7428,10 +7389,10 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7439,7 +7400,7 @@
     </row>
     <row r="140" spans="1:14">
       <c r="A140">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B140" t="s">
         <v>17</v>
@@ -7451,10 +7412,10 @@
         <v>156</v>
       </c>
       <c r="E140">
-        <v>13.33615653</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>100.9694597</v>
+        <v>0</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -7472,10 +7433,10 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7483,7 +7444,7 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B141" t="s">
         <v>17</v>
@@ -7495,10 +7456,10 @@
         <v>157</v>
       </c>
       <c r="E141">
-        <v>12.83546656</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>100.967575</v>
+        <v>0</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -7516,10 +7477,10 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -7527,7 +7488,7 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B142" t="s">
         <v>17</v>
@@ -7539,10 +7500,10 @@
         <v>158</v>
       </c>
       <c r="E142">
-        <v>13.33545565</v>
+        <v>12.94007297</v>
       </c>
       <c r="F142">
-        <v>100.9249432</v>
+        <v>100.9198688</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -7560,10 +7521,10 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7571,7 +7532,7 @@
     </row>
     <row r="143" spans="1:14">
       <c r="A143">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B143" t="s">
         <v>17</v>
@@ -7583,10 +7544,10 @@
         <v>159</v>
       </c>
       <c r="E143">
-        <v>13.33841928</v>
+        <v>12.93500267</v>
       </c>
       <c r="F143">
-        <v>100.9526548</v>
+        <v>100.8828385</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -7604,10 +7565,10 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -7615,7 +7576,7 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B144" t="s">
         <v>17</v>
@@ -7627,10 +7588,10 @@
         <v>160</v>
       </c>
       <c r="E144">
-        <v>12.68318129</v>
+        <v>12.93302705</v>
       </c>
       <c r="F144">
-        <v>101.2479341</v>
+        <v>100.9013151</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -7648,10 +7609,10 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -7659,7 +7620,7 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B145" t="s">
         <v>17</v>
@@ -7671,10 +7632,10 @@
         <v>161</v>
       </c>
       <c r="E145">
-        <v>12.68178774</v>
+        <v>12.93124481</v>
       </c>
       <c r="F145">
-        <v>101.2804266</v>
+        <v>100.9008084</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -7692,10 +7653,10 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -7703,7 +7664,7 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B146" t="s">
         <v>17</v>
@@ -7715,10 +7676,10 @@
         <v>162</v>
       </c>
       <c r="E146">
-        <v>12.67663309</v>
+        <v>12.93038104</v>
       </c>
       <c r="F146">
-        <v>101.2204609</v>
+        <v>100.9126714</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -7736,10 +7697,10 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -7747,7 +7708,7 @@
     </row>
     <row r="147" spans="1:14">
       <c r="A147">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B147" t="s">
         <v>17</v>
@@ -7759,10 +7720,10 @@
         <v>163</v>
       </c>
       <c r="E147">
-        <v>12.67969829</v>
+        <v>12.84875767</v>
       </c>
       <c r="F147">
-        <v>101.2516232</v>
+        <v>100.9017</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -7780,10 +7741,10 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -7791,7 +7752,7 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B148" t="s">
         <v>17</v>
@@ -7803,10 +7764,10 @@
         <v>164</v>
       </c>
       <c r="E148">
-        <v>12.67895072</v>
+        <v>12.90883138</v>
       </c>
       <c r="F148">
-        <v>101.2811971</v>
+        <v>100.8932458</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -7824,10 +7785,10 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -7835,7 +7796,7 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B149" t="s">
         <v>17</v>
@@ -7847,10 +7808,10 @@
         <v>165</v>
       </c>
       <c r="E149">
-        <v>12.69121623</v>
+        <v>12.66362634</v>
       </c>
       <c r="F149">
-        <v>101.2828322</v>
+        <v>100.8981743</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -7868,10 +7829,10 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -7879,7 +7840,7 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B150" t="s">
         <v>17</v>
@@ -7891,10 +7852,10 @@
         <v>166</v>
       </c>
       <c r="E150">
-        <v>12.61154131</v>
+        <v>12.95074463</v>
       </c>
       <c r="F150">
-        <v>102.105739</v>
+        <v>100.8933879</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -7912,10 +7873,10 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -7923,7 +7884,7 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B151" t="s">
         <v>17</v>
@@ -7935,10 +7896,10 @@
         <v>167</v>
       </c>
       <c r="E151">
-        <v>12.59875505</v>
+        <v>12.97880506</v>
       </c>
       <c r="F151">
-        <v>102.1108505</v>
+        <v>100.9430835</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -7956,10 +7917,10 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -7967,7 +7928,7 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B152" t="s">
         <v>17</v>
@@ -7979,10 +7940,10 @@
         <v>168</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>12.92662465</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>100.898605</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -8000,10 +7961,10 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -8011,7 +7972,7 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B153" t="s">
         <v>17</v>
@@ -8023,10 +7984,10 @@
         <v>169</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>12.98328283</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>100.9354783</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -8044,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -8055,7 +8016,7 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B154" t="s">
         <v>17</v>
@@ -8067,10 +8028,10 @@
         <v>170</v>
       </c>
       <c r="E154">
-        <v>12.94007297</v>
+        <v>12.98177123</v>
       </c>
       <c r="F154">
-        <v>100.9198688</v>
+        <v>100.9289336</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -8088,10 +8049,10 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8099,7 +8060,7 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B155" t="s">
         <v>17</v>
@@ -8111,10 +8072,10 @@
         <v>171</v>
       </c>
       <c r="E155">
-        <v>12.93500267</v>
+        <v>13.01893524</v>
       </c>
       <c r="F155">
-        <v>100.8828385</v>
+        <v>100.932701</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -8132,10 +8093,10 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -8143,7 +8104,7 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B156" t="s">
         <v>17</v>
@@ -8155,10 +8116,10 @@
         <v>172</v>
       </c>
       <c r="E156">
-        <v>12.93302705</v>
+        <v>12.95555524</v>
       </c>
       <c r="F156">
-        <v>100.9013151</v>
+        <v>100.8987028</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -8176,10 +8137,10 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -8187,7 +8148,7 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B157" t="s">
         <v>17</v>
@@ -8199,10 +8160,10 @@
         <v>173</v>
       </c>
       <c r="E157">
-        <v>12.93124481</v>
+        <v>12.93944879</v>
       </c>
       <c r="F157">
-        <v>100.9008084</v>
+        <v>100.9021397</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -8220,10 +8181,10 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -8231,7 +8192,7 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B158" t="s">
         <v>17</v>
@@ -8243,10 +8204,10 @@
         <v>174</v>
       </c>
       <c r="E158">
-        <v>12.93038104</v>
+        <v>12.75400498</v>
       </c>
       <c r="F158">
-        <v>100.9126714</v>
+        <v>100.9017967</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -8264,10 +8225,10 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -8275,7 +8236,7 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B159" t="s">
         <v>17</v>
@@ -8287,10 +8248,10 @@
         <v>175</v>
       </c>
       <c r="E159">
-        <v>12.84875767</v>
+        <v>12.69857571</v>
       </c>
       <c r="F159">
-        <v>100.9017</v>
+        <v>100.8899412</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -8308,540 +8269,12 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="N159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
-      <c r="A160">
-        <v>218</v>
-      </c>
-      <c r="B160" t="s">
-        <v>17</v>
-      </c>
-      <c r="C160" s="2">
-        <v>44194</v>
-      </c>
-      <c r="D160" t="s">
-        <v>176</v>
-      </c>
-      <c r="E160">
-        <v>12.90883138</v>
-      </c>
-      <c r="F160">
-        <v>100.8932458</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160">
-        <v>0</v>
-      </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-      <c r="J160">
-        <v>0</v>
-      </c>
-      <c r="K160">
-        <v>0</v>
-      </c>
-      <c r="L160" t="s">
-        <v>256</v>
-      </c>
-      <c r="M160" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="N160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
-      <c r="A161">
-        <v>219</v>
-      </c>
-      <c r="B161" t="s">
-        <v>17</v>
-      </c>
-      <c r="C161" s="2">
-        <v>44194</v>
-      </c>
-      <c r="D161" t="s">
-        <v>177</v>
-      </c>
-      <c r="E161">
-        <v>12.66362634</v>
-      </c>
-      <c r="F161">
-        <v>100.8981743</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-      <c r="H161">
-        <v>0</v>
-      </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161">
-        <v>0</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-      <c r="L161" t="s">
-        <v>256</v>
-      </c>
-      <c r="M161" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="N161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
-      <c r="A162">
-        <v>220</v>
-      </c>
-      <c r="B162" t="s">
-        <v>17</v>
-      </c>
-      <c r="C162" s="2">
-        <v>44194</v>
-      </c>
-      <c r="D162" t="s">
-        <v>178</v>
-      </c>
-      <c r="E162">
-        <v>12.95074463</v>
-      </c>
-      <c r="F162">
-        <v>100.8933879</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="H162">
-        <v>0</v>
-      </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-      <c r="K162">
-        <v>0</v>
-      </c>
-      <c r="L162" t="s">
-        <v>256</v>
-      </c>
-      <c r="M162" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
-      <c r="A163">
-        <v>221</v>
-      </c>
-      <c r="B163" t="s">
-        <v>17</v>
-      </c>
-      <c r="C163" s="2">
-        <v>44194</v>
-      </c>
-      <c r="D163" t="s">
-        <v>179</v>
-      </c>
-      <c r="E163">
-        <v>12.97880506</v>
-      </c>
-      <c r="F163">
-        <v>100.9430835</v>
-      </c>
-      <c r="G163">
-        <v>0</v>
-      </c>
-      <c r="H163">
-        <v>0</v>
-      </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-      <c r="J163">
-        <v>0</v>
-      </c>
-      <c r="K163">
-        <v>0</v>
-      </c>
-      <c r="L163" t="s">
-        <v>256</v>
-      </c>
-      <c r="M163" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
-      <c r="A164">
-        <v>222</v>
-      </c>
-      <c r="B164" t="s">
-        <v>17</v>
-      </c>
-      <c r="C164" s="2">
-        <v>44194</v>
-      </c>
-      <c r="D164" t="s">
-        <v>180</v>
-      </c>
-      <c r="E164">
-        <v>12.92662465</v>
-      </c>
-      <c r="F164">
-        <v>100.898605</v>
-      </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="H164">
-        <v>0</v>
-      </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
-      <c r="J164">
-        <v>0</v>
-      </c>
-      <c r="K164">
-        <v>0</v>
-      </c>
-      <c r="L164" t="s">
-        <v>256</v>
-      </c>
-      <c r="M164" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
-      <c r="A165">
-        <v>223</v>
-      </c>
-      <c r="B165" t="s">
-        <v>17</v>
-      </c>
-      <c r="C165" s="2">
-        <v>44194</v>
-      </c>
-      <c r="D165" t="s">
-        <v>181</v>
-      </c>
-      <c r="E165">
-        <v>12.98328283</v>
-      </c>
-      <c r="F165">
-        <v>100.9354783</v>
-      </c>
-      <c r="G165">
-        <v>0</v>
-      </c>
-      <c r="H165">
-        <v>0</v>
-      </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
-      <c r="J165">
-        <v>0</v>
-      </c>
-      <c r="K165">
-        <v>0</v>
-      </c>
-      <c r="L165" t="s">
-        <v>256</v>
-      </c>
-      <c r="M165" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
-      <c r="A166">
-        <v>224</v>
-      </c>
-      <c r="B166" t="s">
-        <v>17</v>
-      </c>
-      <c r="C166" s="2">
-        <v>44194</v>
-      </c>
-      <c r="D166" t="s">
-        <v>182</v>
-      </c>
-      <c r="E166">
-        <v>12.98177123</v>
-      </c>
-      <c r="F166">
-        <v>100.9289336</v>
-      </c>
-      <c r="G166">
-        <v>0</v>
-      </c>
-      <c r="H166">
-        <v>0</v>
-      </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
-      <c r="K166">
-        <v>0</v>
-      </c>
-      <c r="L166" t="s">
-        <v>256</v>
-      </c>
-      <c r="M166" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
-      <c r="A167">
-        <v>225</v>
-      </c>
-      <c r="B167" t="s">
-        <v>17</v>
-      </c>
-      <c r="C167" s="2">
-        <v>44194</v>
-      </c>
-      <c r="D167" t="s">
-        <v>183</v>
-      </c>
-      <c r="E167">
-        <v>13.01893524</v>
-      </c>
-      <c r="F167">
-        <v>100.932701</v>
-      </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-      <c r="H167">
-        <v>0</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-      <c r="J167">
-        <v>0</v>
-      </c>
-      <c r="K167">
-        <v>0</v>
-      </c>
-      <c r="L167" t="s">
-        <v>256</v>
-      </c>
-      <c r="M167" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
-      <c r="A168">
-        <v>226</v>
-      </c>
-      <c r="B168" t="s">
-        <v>17</v>
-      </c>
-      <c r="C168" s="2">
-        <v>44194</v>
-      </c>
-      <c r="D168" t="s">
-        <v>184</v>
-      </c>
-      <c r="E168">
-        <v>12.95555524</v>
-      </c>
-      <c r="F168">
-        <v>100.8987028</v>
-      </c>
-      <c r="G168">
-        <v>0</v>
-      </c>
-      <c r="H168">
-        <v>0</v>
-      </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
-      <c r="J168">
-        <v>0</v>
-      </c>
-      <c r="K168">
-        <v>0</v>
-      </c>
-      <c r="L168" t="s">
-        <v>256</v>
-      </c>
-      <c r="M168" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
-      <c r="A169">
-        <v>227</v>
-      </c>
-      <c r="B169" t="s">
-        <v>17</v>
-      </c>
-      <c r="C169" s="2">
-        <v>44194</v>
-      </c>
-      <c r="D169" t="s">
-        <v>185</v>
-      </c>
-      <c r="E169">
-        <v>12.93944879</v>
-      </c>
-      <c r="F169">
-        <v>100.9021397</v>
-      </c>
-      <c r="G169">
-        <v>0</v>
-      </c>
-      <c r="H169">
-        <v>0</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169">
-        <v>0</v>
-      </c>
-      <c r="L169" t="s">
-        <v>256</v>
-      </c>
-      <c r="M169" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
-      <c r="A170">
-        <v>228</v>
-      </c>
-      <c r="B170" t="s">
-        <v>17</v>
-      </c>
-      <c r="C170" s="2">
-        <v>44194</v>
-      </c>
-      <c r="D170" t="s">
-        <v>186</v>
-      </c>
-      <c r="E170">
-        <v>12.75400498</v>
-      </c>
-      <c r="F170">
-        <v>100.9017967</v>
-      </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-      <c r="H170">
-        <v>0</v>
-      </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
-      <c r="J170">
-        <v>0</v>
-      </c>
-      <c r="K170">
-        <v>0</v>
-      </c>
-      <c r="L170" t="s">
-        <v>256</v>
-      </c>
-      <c r="M170" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
-      <c r="A171">
-        <v>229</v>
-      </c>
-      <c r="B171" t="s">
-        <v>17</v>
-      </c>
-      <c r="C171" s="2">
-        <v>44194</v>
-      </c>
-      <c r="D171" t="s">
-        <v>187</v>
-      </c>
-      <c r="E171">
-        <v>12.69857571</v>
-      </c>
-      <c r="F171">
-        <v>100.8899412</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
-      </c>
-      <c r="H171">
-        <v>0</v>
-      </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
-      <c r="J171">
-        <v>0</v>
-      </c>
-      <c r="K171">
-        <v>0</v>
-      </c>
-      <c r="L171" t="s">
-        <v>256</v>
-      </c>
-      <c r="M171" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N171">
         <v>0</v>
       </c>
     </row>
@@ -8870,7 +8303,7 @@
     <hyperlink ref="M22" r:id="rId21"/>
     <hyperlink ref="M23" r:id="rId22"/>
     <hyperlink ref="M24" r:id="rId23"/>
-    <hyperlink ref="M25" r:id="rId24"/>
+    <hyperlink ref="M25" r:id="rId24" location="cxrecs_s"/>
     <hyperlink ref="M26" r:id="rId25"/>
     <hyperlink ref="M27" r:id="rId26"/>
     <hyperlink ref="M28" r:id="rId27"/>
@@ -8882,7 +8315,7 @@
     <hyperlink ref="M34" r:id="rId33"/>
     <hyperlink ref="M35" r:id="rId34"/>
     <hyperlink ref="M36" r:id="rId35"/>
-    <hyperlink ref="M37" r:id="rId36" location="cxrecs_s"/>
+    <hyperlink ref="M37" r:id="rId36"/>
     <hyperlink ref="M38" r:id="rId37"/>
     <hyperlink ref="M39" r:id="rId38"/>
     <hyperlink ref="M40" r:id="rId39"/>
@@ -9005,18 +8438,6 @@
     <hyperlink ref="M157" r:id="rId156"/>
     <hyperlink ref="M158" r:id="rId157"/>
     <hyperlink ref="M159" r:id="rId158"/>
-    <hyperlink ref="M160" r:id="rId159"/>
-    <hyperlink ref="M161" r:id="rId160"/>
-    <hyperlink ref="M162" r:id="rId161"/>
-    <hyperlink ref="M163" r:id="rId162"/>
-    <hyperlink ref="M164" r:id="rId163"/>
-    <hyperlink ref="M165" r:id="rId164"/>
-    <hyperlink ref="M166" r:id="rId165"/>
-    <hyperlink ref="M167" r:id="rId166"/>
-    <hyperlink ref="M168" r:id="rId167"/>
-    <hyperlink ref="M169" r:id="rId168"/>
-    <hyperlink ref="M170" r:id="rId169"/>
-    <hyperlink ref="M171" r:id="rId170"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="305">
   <si>
     <t>id</t>
   </si>
@@ -127,6 +127,9 @@
     <t>ตลาดสุขสวัสดิ์</t>
   </si>
   <si>
+    <t>เมืองทองธานี ชั้น4 โซน R</t>
+  </si>
+  <si>
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
@@ -373,6 +376,12 @@
     <t>BBQ Plaza เซ็นทรัลปิ่นเกล้า</t>
   </si>
   <si>
+    <t>Thongdee Cafe Chiangmai</t>
+  </si>
+  <si>
+    <t>สนง.เขตบางกอกน้อย</t>
+  </si>
+  <si>
     <t>ทำเนียบรัฐบาล</t>
   </si>
   <si>
@@ -595,6 +604,9 @@
     <t>กทม.เปิดไทม์ไลน์ 17 ผู้ติดเชื้อ 'โควิด' รายใหม่ เป็นรายที่ 58-74</t>
   </si>
   <si>
+    <t>ผู้ติดเชื้อ 'โควิด-19' ใน กทม. พบ 19 ธ.ค. ไปดูคอนเสิร์ต อัสนี วสันต์</t>
+  </si>
+  <si>
     <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
   </si>
   <si>
@@ -694,6 +706,12 @@
     <t>พบ 2 แม่ครัวชาวเมียนม่า ทำงานโรงครัววัดเล่งเน่ยยี่ 2 บางบัวทอง ติดโควิด-19</t>
   </si>
   <si>
+    <t>ร้านอาหารดังเชียงใหม่ สั่งปิด14วัน พบผู้ติดเชื้อโควิดใช้บริการ</t>
+  </si>
+  <si>
+    <t>สนง.เขตบางกอกน้อย ประกาศปิด พบผู้ติดเชื้อมาใช้บริการ</t>
+  </si>
+  <si>
     <t>ผลตรวจซ้ำเจ้าหน้าที่ในทำเนียบรัฐบาล 6 ราย ไม่พบเชื้อ และได้มีการทำความสะอาดพ่นฆ่าเชื้อในทำเนียบรัฐบาลเรียบร้อยแล้ว</t>
   </si>
   <si>
@@ -778,6 +796,9 @@
     <t>https://www.dailynews.co.th/regional/815860?fbclid=IwAR3PpSq-k4gEnCMnvk_ZSa14-a7-sRcbK55EljOEMDm-7Ze-6SmVJNFfAuU</t>
   </si>
   <si>
+    <t>https://www.bangkokbiznews.com/news/detail/915032</t>
+  </si>
+  <si>
     <t>https://www.thaipost.net/main/detail/87367</t>
   </si>
   <si>
@@ -860,6 +881,12 @@
   </si>
   <si>
     <t>https://www.khaosod.co.th/covid-19/news_5610412</t>
+  </si>
+  <si>
+    <t>https://www.bangkokbiznews.com/news/detail/914663</t>
+  </si>
+  <si>
+    <t>https://www.khaosod.co.th/covid-19/news_5632650</t>
   </si>
   <si>
     <t>https://www.thairath.co.th/news/politic/2001897</t>
@@ -1276,7 +1303,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N159"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1349,22 +1376,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1393,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1437,22 +1464,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1481,22 +1508,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1525,22 +1552,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I6" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1569,22 +1596,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1613,22 +1640,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1657,22 +1684,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1701,22 +1728,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K10" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1745,22 +1772,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1789,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1833,22 +1860,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I13" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J13" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K13" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L13" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1877,22 +1904,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I14" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J14" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K14" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1921,22 +1948,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I15" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J15" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1965,22 +1992,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I16" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J16" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K16" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2009,22 +2036,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2053,22 +2080,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2079,19 +2106,19 @@
         <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D19" t="s">
         <v>37</v>
       </c>
       <c r="E19">
-        <v>13.5579068</v>
+        <v>13.9122188</v>
       </c>
       <c r="F19">
-        <v>100.270829</v>
+        <v>100.5512936</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2099,20 +2126,20 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>179</v>
-      </c>
-      <c r="J19" t="s">
-        <v>181</v>
-      </c>
-      <c r="K19" t="s">
-        <v>178</v>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2123,7 +2150,7 @@
         <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
         <v>44185</v>
@@ -2132,31 +2159,31 @@
         <v>38</v>
       </c>
       <c r="E20">
-        <v>13.7937004</v>
+        <v>13.5579068</v>
       </c>
       <c r="F20">
-        <v>100.6923144</v>
+        <v>100.270829</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" t="s">
-        <v>176</v>
+      <c r="H20">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K20" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2167,7 +2194,7 @@
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
         <v>44185</v>
@@ -2176,31 +2203,31 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>13.5455607</v>
+        <v>13.7937004</v>
       </c>
       <c r="F21">
-        <v>100.2767611</v>
+        <v>100.6923144</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I21" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J21" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2211,7 +2238,7 @@
         <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
         <v>44185</v>
@@ -2220,31 +2247,31 @@
         <v>40</v>
       </c>
       <c r="E22">
-        <v>14.3355326</v>
+        <v>13.5455607</v>
       </c>
       <c r="F22">
-        <v>100.87017</v>
+        <v>100.2767611</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22">
-        <v>0</v>
+      <c r="H22" t="s">
+        <v>179</v>
       </c>
       <c r="I22" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2261,13 +2288,13 @@
         <v>44185</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23">
-        <v>14.5786407</v>
+        <v>14.3355326</v>
       </c>
       <c r="F23">
-        <v>100.9662444</v>
+        <v>100.87017</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2276,19 +2303,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J23" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K23" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2305,13 +2332,13 @@
         <v>44185</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24">
-        <v>14.5116599</v>
+        <v>14.5786407</v>
       </c>
       <c r="F24">
-        <v>100.9094134</v>
+        <v>100.9662444</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2320,19 +2347,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J24" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K24" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2343,7 +2370,7 @@
         <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C25" s="2">
         <v>44185</v>
@@ -2352,10 +2379,10 @@
         <v>41</v>
       </c>
       <c r="E25">
-        <v>14.1378761</v>
+        <v>14.5116599</v>
       </c>
       <c r="F25">
-        <v>100.8255049</v>
+        <v>100.9094134</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2364,19 +2391,19 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J25" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K25" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2387,7 +2414,7 @@
         <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2">
         <v>44185</v>
@@ -2396,31 +2423,31 @@
         <v>42</v>
       </c>
       <c r="E26">
-        <v>14.06566869</v>
+        <v>14.1378761</v>
       </c>
       <c r="F26">
-        <v>99.9821468</v>
+        <v>100.8255049</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26" t="s">
-        <v>177</v>
+      <c r="H26">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J26" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K26" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L26" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2431,7 +2458,7 @@
         <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2">
         <v>44185</v>
@@ -2440,31 +2467,31 @@
         <v>43</v>
       </c>
       <c r="E27">
-        <v>13.8220612</v>
+        <v>14.06566869</v>
       </c>
       <c r="F27">
-        <v>100.421874</v>
+        <v>99.9821468</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I27" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J27" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K27" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2475,7 +2502,7 @@
         <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2">
         <v>44185</v>
@@ -2484,31 +2511,31 @@
         <v>44</v>
       </c>
       <c r="E28">
-        <v>13.8683169</v>
+        <v>13.8220612</v>
       </c>
       <c r="F28">
-        <v>100.4107308</v>
+        <v>100.421874</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I28" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J28" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K28" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L28" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2519,7 +2546,7 @@
         <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2">
         <v>44185</v>
@@ -2528,31 +2555,31 @@
         <v>45</v>
       </c>
       <c r="E29">
-        <v>13.89757086</v>
+        <v>13.8683169</v>
       </c>
       <c r="F29">
-        <v>100.6098027</v>
+        <v>100.4107308</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I29" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J29" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K29" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L29" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2563,7 +2590,7 @@
         <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2">
         <v>44185</v>
@@ -2572,31 +2599,31 @@
         <v>46</v>
       </c>
       <c r="E30">
-        <v>13.72045903</v>
+        <v>13.89757086</v>
       </c>
       <c r="F30">
-        <v>100.5004852</v>
+        <v>100.6098027</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J30" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K30" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L30" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2607,7 +2634,7 @@
         <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C31" s="2">
         <v>44185</v>
@@ -2616,31 +2643,31 @@
         <v>47</v>
       </c>
       <c r="E31">
-        <v>13.817137</v>
+        <v>13.72045903</v>
       </c>
       <c r="F31">
-        <v>100.041497</v>
+        <v>100.5004852</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I31" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J31" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K31" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L31" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2660,31 +2687,31 @@
         <v>48</v>
       </c>
       <c r="E32">
-        <v>13.737328</v>
+        <v>13.817137</v>
       </c>
       <c r="F32">
-        <v>100.081218</v>
+        <v>100.041497</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I32" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J32" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K32" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L32" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2704,31 +2731,31 @@
         <v>49</v>
       </c>
       <c r="E33">
-        <v>14.021384</v>
+        <v>13.737328</v>
       </c>
       <c r="F33">
-        <v>100.165325</v>
+        <v>100.081218</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K33" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L33" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2748,31 +2775,31 @@
         <v>50</v>
       </c>
       <c r="E34">
-        <v>13.82347979</v>
+        <v>14.021384</v>
       </c>
       <c r="F34">
-        <v>100.4101224</v>
+        <v>100.165325</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I34" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J34" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K34" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2792,31 +2819,31 @@
         <v>51</v>
       </c>
       <c r="E35">
-        <v>13.82622351</v>
+        <v>13.82347979</v>
       </c>
       <c r="F35">
-        <v>100.4124415</v>
+        <v>100.4101224</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I35" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J35" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K35" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L35" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2836,31 +2863,31 @@
         <v>52</v>
       </c>
       <c r="E36">
-        <v>13.71100665</v>
+        <v>13.82622351</v>
       </c>
       <c r="F36">
-        <v>100.4234972</v>
+        <v>100.4124415</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I36" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J36" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K36" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L36" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2880,31 +2907,31 @@
         <v>53</v>
       </c>
       <c r="E37">
-        <v>13.81780926</v>
+        <v>13.71100665</v>
       </c>
       <c r="F37">
-        <v>100.3981472</v>
+        <v>100.4234972</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I37" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J37" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K37" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L37" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2924,31 +2951,31 @@
         <v>54</v>
       </c>
       <c r="E38">
-        <v>13.95701015</v>
+        <v>13.81780926</v>
       </c>
       <c r="F38">
-        <v>100.404266</v>
+        <v>100.3981472</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I38" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J38" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K38" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L38" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2968,31 +2995,31 @@
         <v>55</v>
       </c>
       <c r="E39">
-        <v>14.06478568</v>
+        <v>13.95701015</v>
       </c>
       <c r="F39">
-        <v>100.0502624</v>
+        <v>100.404266</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I39" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J39" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K39" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L39" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3012,31 +3039,31 @@
         <v>56</v>
       </c>
       <c r="E40">
-        <v>13.73106738</v>
+        <v>14.06478568</v>
       </c>
       <c r="F40">
-        <v>100.0732375</v>
+        <v>100.0502624</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I40" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J40" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K40" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L40" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3056,31 +3083,31 @@
         <v>57</v>
       </c>
       <c r="E41">
-        <v>13.8122326</v>
+        <v>13.73106738</v>
       </c>
       <c r="F41">
-        <v>100.0726883</v>
+        <v>100.0732375</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I41" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J41" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K41" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L41" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3100,31 +3127,31 @@
         <v>58</v>
       </c>
       <c r="E42">
-        <v>13.69415224</v>
+        <v>13.8122326</v>
       </c>
       <c r="F42">
-        <v>100.6478267</v>
+        <v>100.0726883</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I42" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J42" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K42" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L42" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3144,31 +3171,31 @@
         <v>59</v>
       </c>
       <c r="E43">
-        <v>13.80243028</v>
+        <v>13.69415224</v>
       </c>
       <c r="F43">
-        <v>100.6151197</v>
+        <v>100.6478267</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I43" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J43" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K43" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L43" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3188,31 +3215,31 @@
         <v>60</v>
       </c>
       <c r="E44">
-        <v>13.82571976</v>
+        <v>13.80243028</v>
       </c>
       <c r="F44">
-        <v>100.6794424</v>
+        <v>100.6151197</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I44" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J44" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K44" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L44" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3232,31 +3259,31 @@
         <v>61</v>
       </c>
       <c r="E45">
-        <v>13.83106898</v>
+        <v>13.82571976</v>
       </c>
       <c r="F45">
-        <v>100.3729686</v>
+        <v>100.6794424</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I45" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J45" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K45" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L45" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3276,31 +3303,31 @@
         <v>62</v>
       </c>
       <c r="E46">
-        <v>13.71815181</v>
+        <v>13.83106898</v>
       </c>
       <c r="F46">
-        <v>100.4133961</v>
+        <v>100.3729686</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
+      <c r="H46" t="s">
+        <v>181</v>
+      </c>
+      <c r="I46" t="s">
+        <v>182</v>
+      </c>
+      <c r="J46" t="s">
+        <v>184</v>
+      </c>
+      <c r="K46" t="s">
+        <v>181</v>
       </c>
       <c r="L46" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3311,40 +3338,40 @@
         <v>117</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="D47" t="s">
         <v>63</v>
       </c>
       <c r="E47">
-        <v>13.8781452</v>
+        <v>13.71815181</v>
       </c>
       <c r="F47">
-        <v>100.4091302</v>
+        <v>100.4133961</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47" t="s">
-        <v>177</v>
-      </c>
-      <c r="I47" t="s">
-        <v>179</v>
-      </c>
-      <c r="J47" t="s">
-        <v>181</v>
-      </c>
-      <c r="K47" t="s">
-        <v>178</v>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3355,7 +3382,7 @@
         <v>118</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C48" s="2">
         <v>44186</v>
@@ -3364,31 +3391,31 @@
         <v>64</v>
       </c>
       <c r="E48">
-        <v>13.7164198</v>
+        <v>13.8781452</v>
       </c>
       <c r="F48">
-        <v>100.5716135</v>
+        <v>100.4091302</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I48" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J48" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K48" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L48" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3399,7 +3426,7 @@
         <v>119</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C49" s="2">
         <v>44186</v>
@@ -3408,31 +3435,31 @@
         <v>65</v>
       </c>
       <c r="E49">
-        <v>13.70807262</v>
+        <v>13.7164198</v>
       </c>
       <c r="F49">
-        <v>100.59964</v>
+        <v>100.5716135</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I49" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J49" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K49" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L49" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3452,31 +3479,31 @@
         <v>66</v>
       </c>
       <c r="E50">
-        <v>13.78051515</v>
+        <v>13.70807262</v>
       </c>
       <c r="F50">
-        <v>100.4226823</v>
+        <v>100.59964</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J50" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K50" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L50" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3496,31 +3523,31 @@
         <v>67</v>
       </c>
       <c r="E51">
-        <v>13.7355293</v>
+        <v>13.78051515</v>
       </c>
       <c r="F51">
-        <v>100.5979688</v>
+        <v>100.4226823</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I51" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J51" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K51" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L51" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3540,31 +3567,31 @@
         <v>68</v>
       </c>
       <c r="E52">
-        <v>13.73406154</v>
+        <v>13.7355293</v>
       </c>
       <c r="F52">
-        <v>100.5967948</v>
+        <v>100.5979688</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I52" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J52" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K52" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L52" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3584,31 +3611,31 @@
         <v>69</v>
       </c>
       <c r="E53">
-        <v>13.7738673</v>
+        <v>13.73406154</v>
       </c>
       <c r="F53">
-        <v>100.5093218</v>
+        <v>100.5967948</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I53" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J53" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K53" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L53" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3628,31 +3655,31 @@
         <v>70</v>
       </c>
       <c r="E54">
-        <v>13.82650614</v>
+        <v>13.7738673</v>
       </c>
       <c r="F54">
-        <v>100.4860605</v>
+        <v>100.5093218</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I54" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J54" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K54" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L54" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3672,31 +3699,31 @@
         <v>71</v>
       </c>
       <c r="E55">
-        <v>13.79667017</v>
+        <v>13.82650614</v>
       </c>
       <c r="F55">
-        <v>100.5516735</v>
+        <v>100.4860605</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
+      <c r="H55" t="s">
+        <v>181</v>
+      </c>
+      <c r="I55" t="s">
+        <v>182</v>
+      </c>
+      <c r="J55" t="s">
+        <v>184</v>
+      </c>
+      <c r="K55" t="s">
+        <v>181</v>
       </c>
       <c r="L55" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3710,16 +3737,16 @@
         <v>14</v>
       </c>
       <c r="C56" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D56" t="s">
         <v>72</v>
       </c>
       <c r="E56">
-        <v>13.73541413</v>
+        <v>13.79667017</v>
       </c>
       <c r="F56">
-        <v>100.5877998</v>
+        <v>100.5516735</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -3727,20 +3754,20 @@
       <c r="H56">
         <v>0</v>
       </c>
-      <c r="I56" t="s">
-        <v>179</v>
-      </c>
-      <c r="J56" t="s">
-        <v>181</v>
-      </c>
-      <c r="K56" t="s">
-        <v>178</v>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3760,10 +3787,10 @@
         <v>73</v>
       </c>
       <c r="E57">
-        <v>13.78766192</v>
+        <v>13.73541413</v>
       </c>
       <c r="F57">
-        <v>100.5105938</v>
+        <v>100.5877998</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -3772,19 +3799,19 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J57" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K57" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L57" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3795,7 +3822,7 @@
         <v>128</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C58" s="2">
         <v>44187</v>
@@ -3804,31 +3831,31 @@
         <v>74</v>
       </c>
       <c r="E58">
-        <v>13.5951449</v>
+        <v>13.78766192</v>
       </c>
       <c r="F58">
-        <v>100.5802135</v>
+        <v>100.5105938</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58" t="s">
-        <v>177</v>
+      <c r="H58">
+        <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J58" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K58" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L58" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3839,7 +3866,7 @@
         <v>129</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C59" s="2">
         <v>44187</v>
@@ -3848,31 +3875,31 @@
         <v>75</v>
       </c>
       <c r="E59">
-        <v>13.803038</v>
+        <v>13.5951449</v>
       </c>
       <c r="F59">
-        <v>100.188902</v>
+        <v>100.5802135</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I59" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J59" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K59" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L59" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3892,31 +3919,31 @@
         <v>76</v>
       </c>
       <c r="E60">
-        <v>13.802143</v>
+        <v>13.803038</v>
       </c>
       <c r="F60">
-        <v>100.19</v>
+        <v>100.188902</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I60" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J60" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K60" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L60" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3936,31 +3963,31 @@
         <v>77</v>
       </c>
       <c r="E61">
-        <v>13.928974</v>
+        <v>13.802143</v>
       </c>
       <c r="F61">
-        <v>100.577365</v>
+        <v>100.19</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I61" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J61" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K61" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L61" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3980,31 +4007,31 @@
         <v>78</v>
       </c>
       <c r="E62">
-        <v>13.929686</v>
+        <v>13.928974</v>
       </c>
       <c r="F62">
-        <v>100.576</v>
+        <v>100.577365</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I62" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J62" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K62" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L62" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4024,31 +4051,31 @@
         <v>79</v>
       </c>
       <c r="E63">
-        <v>13.76033018</v>
+        <v>13.929686</v>
       </c>
       <c r="F63">
-        <v>100.4796436</v>
+        <v>100.576</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I63" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J63" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K63" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L63" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4068,31 +4095,31 @@
         <v>80</v>
       </c>
       <c r="E64">
-        <v>13.82853997</v>
+        <v>13.76033018</v>
       </c>
       <c r="F64">
-        <v>100.4842102</v>
+        <v>100.4796436</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I64" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J64" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K64" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L64" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4112,31 +4139,31 @@
         <v>81</v>
       </c>
       <c r="E65">
-        <v>14.01020378</v>
+        <v>13.82853997</v>
       </c>
       <c r="F65">
-        <v>100.1768909</v>
+        <v>100.4842102</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I65" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J65" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K65" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L65" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4156,31 +4183,31 @@
         <v>82</v>
       </c>
       <c r="E66">
-        <v>14.04839109</v>
+        <v>14.01020378</v>
       </c>
       <c r="F66">
-        <v>100.0198852</v>
+        <v>100.1768909</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I66" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J66" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K66" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L66" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4200,31 +4227,31 @@
         <v>83</v>
       </c>
       <c r="E67">
-        <v>13.80175861</v>
+        <v>14.04839109</v>
       </c>
       <c r="F67">
-        <v>100.3053076</v>
+        <v>100.0198852</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I67" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J67" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K67" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L67" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4244,31 +4271,31 @@
         <v>84</v>
       </c>
       <c r="E68">
-        <v>13.60633251</v>
+        <v>13.80175861</v>
       </c>
       <c r="F68">
-        <v>100.4036543</v>
+        <v>100.3053076</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
+      <c r="H68" t="s">
+        <v>181</v>
+      </c>
+      <c r="I68" t="s">
+        <v>182</v>
+      </c>
+      <c r="J68" t="s">
+        <v>184</v>
+      </c>
+      <c r="K68" t="s">
+        <v>181</v>
       </c>
       <c r="L68" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4279,19 +4306,19 @@
         <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C69" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D69" t="s">
         <v>85</v>
       </c>
       <c r="E69">
-        <v>13.7462524</v>
+        <v>13.60633251</v>
       </c>
       <c r="F69">
-        <v>100.5328635</v>
+        <v>100.4036543</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -4299,17 +4326,17 @@
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69" t="s">
-        <v>179</v>
-      </c>
-      <c r="J69" t="s">
-        <v>181</v>
-      </c>
-      <c r="K69" t="s">
-        <v>178</v>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M69" s="3" t="s">
         <v>270</v>
@@ -4323,7 +4350,7 @@
         <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C70" s="2">
         <v>44188</v>
@@ -4332,10 +4359,10 @@
         <v>86</v>
       </c>
       <c r="E70">
-        <v>13.7243591</v>
+        <v>13.7462524</v>
       </c>
       <c r="F70">
-        <v>100.5386589</v>
+        <v>100.5328635</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -4344,19 +4371,19 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J70" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K70" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L70" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4376,31 +4403,31 @@
         <v>87</v>
       </c>
       <c r="E71">
-        <v>13.54974685</v>
+        <v>13.7243591</v>
       </c>
       <c r="F71">
-        <v>100.2561435</v>
+        <v>100.5386589</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71" t="s">
-        <v>176</v>
+      <c r="H71">
+        <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J71" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K71" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L71" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4420,31 +4447,31 @@
         <v>88</v>
       </c>
       <c r="E72">
-        <v>14.45160513</v>
+        <v>13.54974685</v>
       </c>
       <c r="F72">
-        <v>100.7230585</v>
+        <v>100.2561435</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I72" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J72" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K72" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L72" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4455,7 +4482,7 @@
         <v>143</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C73" s="2">
         <v>44188</v>
@@ -4464,31 +4491,31 @@
         <v>89</v>
       </c>
       <c r="E73">
-        <v>13.72836497</v>
+        <v>14.45160513</v>
       </c>
       <c r="F73">
-        <v>100.5350858</v>
+        <v>100.7230585</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I73" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J73" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K73" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L73" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4508,31 +4535,31 @@
         <v>90</v>
       </c>
       <c r="E74">
-        <v>13.7660558</v>
+        <v>13.72836497</v>
       </c>
       <c r="F74">
-        <v>100.6403032</v>
+        <v>100.5350858</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I74" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J74" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K74" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L74" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4552,31 +4579,31 @@
         <v>91</v>
       </c>
       <c r="E75">
-        <v>13.710361</v>
+        <v>13.7660558</v>
       </c>
       <c r="F75">
-        <v>100.4073817</v>
+        <v>100.6403032</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I75" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J75" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K75" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L75" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4587,7 +4614,7 @@
         <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C76" s="2">
         <v>44188</v>
@@ -4596,31 +4623,31 @@
         <v>92</v>
       </c>
       <c r="E76">
-        <v>13.2054213</v>
+        <v>13.710361</v>
       </c>
       <c r="F76">
-        <v>99.9793013</v>
+        <v>100.4073817</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76">
-        <v>0</v>
+      <c r="H76" t="s">
+        <v>181</v>
       </c>
       <c r="I76" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J76" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K76" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L76" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4631,7 +4658,7 @@
         <v>147</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C77" s="2">
         <v>44188</v>
@@ -4640,10 +4667,10 @@
         <v>93</v>
       </c>
       <c r="E77">
-        <v>13.7100705</v>
+        <v>13.2054213</v>
       </c>
       <c r="F77">
-        <v>100.6007069</v>
+        <v>99.9793013</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -4651,20 +4678,20 @@
       <c r="H77">
         <v>0</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
+      <c r="I77" t="s">
+        <v>182</v>
+      </c>
+      <c r="J77" t="s">
+        <v>184</v>
+      </c>
+      <c r="K77" t="s">
+        <v>181</v>
       </c>
       <c r="L77" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4675,7 +4702,7 @@
         <v>148</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C78" s="2">
         <v>44188</v>
@@ -4684,31 +4711,31 @@
         <v>94</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>13.7100705</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>100.6007069</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
-      <c r="H78" t="s">
-        <v>178</v>
-      </c>
-      <c r="I78" t="s">
-        <v>179</v>
-      </c>
-      <c r="J78" t="s">
-        <v>181</v>
-      </c>
-      <c r="K78" t="s">
-        <v>178</v>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4728,31 +4755,31 @@
         <v>95</v>
       </c>
       <c r="E79">
-        <v>13.802283</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>100.184509</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I79" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J79" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K79" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L79" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4772,31 +4799,31 @@
         <v>96</v>
       </c>
       <c r="E80">
-        <v>13.91857</v>
+        <v>13.802283</v>
       </c>
       <c r="F80">
-        <v>100.601606</v>
+        <v>100.184509</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I80" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J80" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K80" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L80" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4816,31 +4843,31 @@
         <v>97</v>
       </c>
       <c r="E81">
-        <v>13.6171972</v>
+        <v>13.91857</v>
       </c>
       <c r="F81">
-        <v>100.3791504</v>
+        <v>100.601606</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I81" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J81" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K81" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L81" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4860,31 +4887,31 @@
         <v>98</v>
       </c>
       <c r="E82">
-        <v>12.66469676</v>
+        <v>13.6171972</v>
       </c>
       <c r="F82">
-        <v>102.1037094</v>
+        <v>100.3791504</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I82" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J82" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K82" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L82" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4904,31 +4931,31 @@
         <v>99</v>
       </c>
       <c r="E83">
-        <v>13.86149331</v>
+        <v>12.66469676</v>
       </c>
       <c r="F83">
-        <v>100.6434383</v>
+        <v>102.1037094</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
+      <c r="H83" t="s">
+        <v>180</v>
+      </c>
+      <c r="I83" t="s">
+        <v>182</v>
+      </c>
+      <c r="J83" t="s">
+        <v>184</v>
+      </c>
+      <c r="K83" t="s">
+        <v>181</v>
       </c>
       <c r="L83" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4948,10 +4975,10 @@
         <v>100</v>
       </c>
       <c r="E84">
-        <v>13.84500752</v>
+        <v>13.86149331</v>
       </c>
       <c r="F84">
-        <v>100.6352673</v>
+        <v>100.6434383</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -4969,10 +4996,10 @@
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -4986,37 +5013,37 @@
         <v>14</v>
       </c>
       <c r="C85" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D85" t="s">
         <v>101</v>
       </c>
       <c r="E85">
-        <v>13.721681</v>
+        <v>13.84500752</v>
       </c>
       <c r="F85">
-        <v>100.53</v>
+        <v>100.6352673</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
-      <c r="H85" t="s">
-        <v>178</v>
-      </c>
-      <c r="I85" t="s">
-        <v>179</v>
-      </c>
-      <c r="J85" t="s">
-        <v>181</v>
-      </c>
-      <c r="K85" t="s">
-        <v>178</v>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5027,7 +5054,7 @@
         <v>156</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C86" s="2">
         <v>44189</v>
@@ -5036,31 +5063,31 @@
         <v>102</v>
       </c>
       <c r="E86">
-        <v>13.9134431</v>
+        <v>13.721681</v>
       </c>
       <c r="F86">
-        <v>100.4220473</v>
+        <v>100.53</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="I86" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J86" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K86" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L86" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5071,7 +5098,7 @@
         <v>157</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C87" s="2">
         <v>44189</v>
@@ -5080,31 +5107,31 @@
         <v>103</v>
       </c>
       <c r="E87">
-        <v>13.786588</v>
+        <v>13.9134431</v>
       </c>
       <c r="F87">
-        <v>100.321233</v>
+        <v>100.4220473</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I87" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="J87" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K87" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L87" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5115,7 +5142,7 @@
         <v>158</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C88" s="2">
         <v>44189</v>
@@ -5124,31 +5151,31 @@
         <v>104</v>
       </c>
       <c r="E88">
-        <v>13.8017434</v>
+        <v>13.786588</v>
       </c>
       <c r="F88">
-        <v>100.1879465</v>
+        <v>100.321233</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I88" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J88" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K88" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L88" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5159,7 +5186,7 @@
         <v>159</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C89" s="2">
         <v>44189</v>
@@ -5168,31 +5195,31 @@
         <v>105</v>
       </c>
       <c r="E89">
-        <v>13.81456113</v>
+        <v>13.8017434</v>
       </c>
       <c r="F89">
-        <v>100.0630594</v>
+        <v>100.1879465</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I89" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J89" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K89" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L89" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5212,31 +5239,31 @@
         <v>106</v>
       </c>
       <c r="E90">
-        <v>12.68783188</v>
+        <v>13.81456113</v>
       </c>
       <c r="F90">
-        <v>101.2114545</v>
+        <v>100.0630594</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I90" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J90" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K90" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L90" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5256,31 +5283,31 @@
         <v>107</v>
       </c>
       <c r="E91">
-        <v>13.67342423</v>
+        <v>12.68783188</v>
       </c>
       <c r="F91">
-        <v>100.6069256</v>
+        <v>101.2114545</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I91" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J91" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K91" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L91" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5300,31 +5327,31 @@
         <v>108</v>
       </c>
       <c r="E92">
-        <v>13.6680206</v>
+        <v>13.67342423</v>
       </c>
       <c r="F92">
-        <v>100.6354649</v>
+        <v>100.6069256</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I92" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J92" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K92" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L92" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5344,31 +5371,31 @@
         <v>109</v>
       </c>
       <c r="E93">
-        <v>13.88903855</v>
+        <v>13.6680206</v>
       </c>
       <c r="F93">
-        <v>100.6576064</v>
+        <v>100.6354649</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
+      <c r="H93" t="s">
+        <v>181</v>
+      </c>
+      <c r="I93" t="s">
+        <v>182</v>
+      </c>
+      <c r="J93" t="s">
+        <v>184</v>
+      </c>
+      <c r="K93" t="s">
+        <v>181</v>
       </c>
       <c r="L93" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5388,10 +5415,10 @@
         <v>110</v>
       </c>
       <c r="E94">
-        <v>13.71110566</v>
+        <v>13.88903855</v>
       </c>
       <c r="F94">
-        <v>100.4158636</v>
+        <v>100.6576064</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -5409,10 +5436,10 @@
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5432,10 +5459,10 @@
         <v>111</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>13.71110566</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>100.4158636</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -5453,10 +5480,10 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5470,37 +5497,37 @@
         <v>14</v>
       </c>
       <c r="C96" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D96" t="s">
         <v>112</v>
       </c>
       <c r="E96">
-        <v>13.924252</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>100.597945</v>
+        <v>0</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
-      <c r="H96" t="s">
-        <v>178</v>
-      </c>
-      <c r="I96" t="s">
-        <v>179</v>
-      </c>
-      <c r="J96" t="s">
-        <v>181</v>
-      </c>
-      <c r="K96" t="s">
-        <v>178</v>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5520,31 +5547,31 @@
         <v>113</v>
       </c>
       <c r="E97">
-        <v>12.69670286</v>
+        <v>13.924252</v>
       </c>
       <c r="F97">
-        <v>101.2683573</v>
+        <v>100.597945</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I97" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J97" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K97" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L97" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5564,31 +5591,31 @@
         <v>114</v>
       </c>
       <c r="E98">
-        <v>12.69574994</v>
+        <v>12.69670286</v>
       </c>
       <c r="F98">
-        <v>101.2674706</v>
+        <v>101.2683573</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I98" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J98" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K98" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L98" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5608,31 +5635,31 @@
         <v>115</v>
       </c>
       <c r="E99">
-        <v>13.71190173</v>
+        <v>12.69574994</v>
       </c>
       <c r="F99">
-        <v>100.4224456</v>
+        <v>101.2674706</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
+      <c r="H99" t="s">
+        <v>180</v>
+      </c>
+      <c r="I99" t="s">
+        <v>182</v>
+      </c>
+      <c r="J99" t="s">
+        <v>184</v>
+      </c>
+      <c r="K99" t="s">
+        <v>181</v>
       </c>
       <c r="L99" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5652,10 +5679,10 @@
         <v>116</v>
       </c>
       <c r="E100">
-        <v>13.80614397</v>
+        <v>13.71190173</v>
       </c>
       <c r="F100">
-        <v>100.5307221</v>
+        <v>100.4224456</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -5673,10 +5700,10 @@
         <v>0</v>
       </c>
       <c r="L100" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5696,10 +5723,10 @@
         <v>117</v>
       </c>
       <c r="E101">
-        <v>13.78786299</v>
+        <v>13.80614397</v>
       </c>
       <c r="F101">
-        <v>100.4828396</v>
+        <v>100.5307221</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -5717,10 +5744,10 @@
         <v>0</v>
       </c>
       <c r="L101" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5740,10 +5767,10 @@
         <v>118</v>
       </c>
       <c r="E102">
-        <v>13.77791571</v>
+        <v>13.78786299</v>
       </c>
       <c r="F102">
-        <v>100.4766994</v>
+        <v>100.4828396</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -5761,10 +5788,10 @@
         <v>0</v>
       </c>
       <c r="L102" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5775,19 +5802,19 @@
         <v>173</v>
       </c>
       <c r="B103" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C103" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D103" t="s">
         <v>119</v>
       </c>
       <c r="E103">
-        <v>13.7636001</v>
+        <v>13.77791571</v>
       </c>
       <c r="F103">
-        <v>100.5114624</v>
+        <v>100.4766994</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -5801,14 +5828,14 @@
       <c r="J103">
         <v>0</v>
       </c>
-      <c r="K103" t="s">
-        <v>178</v>
+      <c r="K103">
+        <v>0</v>
       </c>
       <c r="L103" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5819,19 +5846,19 @@
         <v>174</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C104" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D104" t="s">
         <v>120</v>
       </c>
       <c r="E104">
-        <v>13.734066</v>
+        <v>18.80731097</v>
       </c>
       <c r="F104">
-        <v>100.5278354</v>
+        <v>98.96283674999999</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -5849,10 +5876,10 @@
         <v>0</v>
       </c>
       <c r="L104" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5863,19 +5890,19 @@
         <v>175</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C105" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D105" t="s">
         <v>121</v>
       </c>
       <c r="E105">
-        <v>12.6483736</v>
+        <v>13.7707636</v>
       </c>
       <c r="F105">
-        <v>101.2273679</v>
+        <v>100.4680689</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -5893,10 +5920,10 @@
         <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5907,7 +5934,7 @@
         <v>176</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C106" s="2">
         <v>44191</v>
@@ -5916,31 +5943,31 @@
         <v>122</v>
       </c>
       <c r="E106">
-        <v>12.69691038</v>
+        <v>13.7636001</v>
       </c>
       <c r="F106">
-        <v>101.268451</v>
+        <v>100.5114624</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="H106" t="s">
-        <v>177</v>
-      </c>
-      <c r="I106" t="s">
-        <v>179</v>
-      </c>
-      <c r="J106" t="s">
-        <v>181</v>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L106" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -5951,7 +5978,7 @@
         <v>177</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C107" s="2">
         <v>44191</v>
@@ -5960,31 +5987,31 @@
         <v>123</v>
       </c>
       <c r="E107">
-        <v>12.66695256</v>
+        <v>13.734066</v>
       </c>
       <c r="F107">
-        <v>101.2738756</v>
+        <v>100.5278354</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="H107" t="s">
-        <v>177</v>
-      </c>
-      <c r="I107" t="s">
-        <v>179</v>
-      </c>
-      <c r="J107" t="s">
-        <v>181</v>
-      </c>
-      <c r="K107" t="s">
-        <v>178</v>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -5995,7 +6022,7 @@
         <v>178</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C108" s="2">
         <v>44191</v>
@@ -6004,10 +6031,10 @@
         <v>124</v>
       </c>
       <c r="E108">
-        <v>13.86265154</v>
+        <v>12.6483736</v>
       </c>
       <c r="F108">
-        <v>100.6432858</v>
+        <v>101.2273679</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -6025,10 +6052,10 @@
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6039,37 +6066,37 @@
         <v>179</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C109" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D109" t="s">
         <v>125</v>
       </c>
       <c r="E109">
-        <v>12.6844183</v>
+        <v>12.69691038</v>
       </c>
       <c r="F109">
-        <v>101.2742991</v>
+        <v>101.268451</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
+      <c r="H109" t="s">
+        <v>180</v>
+      </c>
+      <c r="I109" t="s">
+        <v>182</v>
+      </c>
+      <c r="J109" t="s">
+        <v>184</v>
       </c>
       <c r="K109" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L109" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M109" s="3" t="s">
         <v>285</v>
@@ -6083,37 +6110,37 @@
         <v>180</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C110" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D110" t="s">
         <v>126</v>
       </c>
       <c r="E110">
-        <v>12.9730033</v>
+        <v>12.66695256</v>
       </c>
       <c r="F110">
-        <v>100.9029061</v>
+        <v>101.2738756</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
+      <c r="H110" t="s">
+        <v>180</v>
+      </c>
+      <c r="I110" t="s">
+        <v>182</v>
+      </c>
+      <c r="J110" t="s">
+        <v>184</v>
       </c>
       <c r="K110" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L110" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M110" s="3" t="s">
         <v>285</v>
@@ -6130,16 +6157,16 @@
         <v>14</v>
       </c>
       <c r="C111" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D111" t="s">
         <v>127</v>
       </c>
       <c r="E111">
-        <v>13.7946069</v>
+        <v>13.86265154</v>
       </c>
       <c r="F111">
-        <v>100.5161808</v>
+        <v>100.6432858</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -6153,11 +6180,11 @@
       <c r="J111">
         <v>0</v>
       </c>
-      <c r="K111" t="s">
-        <v>178</v>
+      <c r="K111">
+        <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M111" s="3" t="s">
         <v>286</v>
@@ -6171,7 +6198,7 @@
         <v>182</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C112" s="2">
         <v>44192</v>
@@ -6180,31 +6207,31 @@
         <v>128</v>
       </c>
       <c r="E112">
-        <v>13.54448567</v>
+        <v>12.6844183</v>
       </c>
       <c r="F112">
-        <v>100.2752027</v>
+        <v>101.2742991</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
-      <c r="H112" t="s">
-        <v>177</v>
-      </c>
-      <c r="I112" t="s">
-        <v>179</v>
-      </c>
-      <c r="J112" t="s">
-        <v>181</v>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L112" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6215,7 +6242,7 @@
         <v>183</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C113" s="2">
         <v>44192</v>
@@ -6224,10 +6251,10 @@
         <v>129</v>
       </c>
       <c r="E113">
-        <v>13.67424547</v>
+        <v>12.9730033</v>
       </c>
       <c r="F113">
-        <v>100.426448</v>
+        <v>100.9029061</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -6241,14 +6268,14 @@
       <c r="J113">
         <v>0</v>
       </c>
-      <c r="K113">
-        <v>0</v>
+      <c r="K113" t="s">
+        <v>181</v>
       </c>
       <c r="L113" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6262,37 +6289,37 @@
         <v>14</v>
       </c>
       <c r="C114" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="D114" t="s">
         <v>130</v>
       </c>
       <c r="E114">
-        <v>13.73545544</v>
+        <v>13.7946069</v>
       </c>
       <c r="F114">
-        <v>100.5661584</v>
+        <v>100.5161808</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
-      <c r="H114" t="s">
-        <v>178</v>
-      </c>
-      <c r="I114" t="s">
-        <v>179</v>
-      </c>
-      <c r="J114" t="s">
-        <v>181</v>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
       </c>
       <c r="K114" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L114" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6303,40 +6330,40 @@
         <v>185</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C115" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D115" t="s">
         <v>131</v>
       </c>
       <c r="E115">
-        <v>12.9098775</v>
+        <v>13.54448567</v>
       </c>
       <c r="F115">
-        <v>100.891563</v>
+        <v>100.2752027</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I115" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J115" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K115" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L115" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6347,19 +6374,19 @@
         <v>186</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C116" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D116" t="s">
         <v>132</v>
       </c>
       <c r="E116">
-        <v>13.3535702</v>
+        <v>13.67424547</v>
       </c>
       <c r="F116">
-        <v>100.9765439</v>
+        <v>100.426448</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -6373,14 +6400,14 @@
       <c r="J116">
         <v>0</v>
       </c>
-      <c r="K116" t="s">
-        <v>178</v>
+      <c r="K116">
+        <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6391,40 +6418,40 @@
         <v>187</v>
       </c>
       <c r="B117" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C117" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D117" t="s">
         <v>133</v>
       </c>
       <c r="E117">
-        <v>12.948902</v>
+        <v>13.73545544</v>
       </c>
       <c r="F117">
-        <v>100.891292</v>
+        <v>100.5661584</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117">
-        <v>0</v>
+      <c r="H117" t="s">
+        <v>181</v>
+      </c>
+      <c r="I117" t="s">
+        <v>182</v>
+      </c>
+      <c r="J117" t="s">
+        <v>184</v>
       </c>
       <c r="K117" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L117" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6444,31 +6471,31 @@
         <v>134</v>
       </c>
       <c r="E118">
-        <v>12.6495877</v>
+        <v>12.9098775</v>
       </c>
       <c r="F118">
-        <v>102.0329425</v>
+        <v>100.891563</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
+      <c r="H118" t="s">
+        <v>181</v>
+      </c>
+      <c r="I118" t="s">
+        <v>182</v>
+      </c>
+      <c r="J118" t="s">
+        <v>184</v>
       </c>
       <c r="K118" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L118" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6488,10 +6515,10 @@
         <v>135</v>
       </c>
       <c r="E119">
-        <v>12.3757564</v>
+        <v>13.3535702</v>
       </c>
       <c r="F119">
-        <v>102.3818628</v>
+        <v>100.9765439</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -6506,13 +6533,13 @@
         <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L119" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6523,7 +6550,7 @@
         <v>190</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C120" s="2">
         <v>44194</v>
@@ -6532,10 +6559,10 @@
         <v>136</v>
       </c>
       <c r="E120">
-        <v>12.7246169</v>
+        <v>12.948902</v>
       </c>
       <c r="F120">
-        <v>101.9362794</v>
+        <v>100.891292</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -6550,13 +6577,13 @@
         <v>0</v>
       </c>
       <c r="K120" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L120" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6567,7 +6594,7 @@
         <v>191</v>
       </c>
       <c r="B121" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C121" s="2">
         <v>44194</v>
@@ -6576,10 +6603,10 @@
         <v>137</v>
       </c>
       <c r="E121">
-        <v>13.772986</v>
+        <v>12.6495877</v>
       </c>
       <c r="F121">
-        <v>100.4855148</v>
+        <v>102.0329425</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6594,13 +6621,13 @@
         <v>0</v>
       </c>
       <c r="K121" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L121" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6611,7 +6638,7 @@
         <v>192</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C122" s="2">
         <v>44194</v>
@@ -6620,10 +6647,10 @@
         <v>138</v>
       </c>
       <c r="E122">
-        <v>12.90895904</v>
+        <v>12.3757564</v>
       </c>
       <c r="F122">
-        <v>100.891925</v>
+        <v>102.3818628</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6637,14 +6664,14 @@
       <c r="J122">
         <v>0</v>
       </c>
-      <c r="K122">
-        <v>0</v>
+      <c r="K122" t="s">
+        <v>181</v>
       </c>
       <c r="L122" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6655,7 +6682,7 @@
         <v>193</v>
       </c>
       <c r="B123" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C123" s="2">
         <v>44194</v>
@@ -6664,10 +6691,10 @@
         <v>139</v>
       </c>
       <c r="E123">
-        <v>12.90960418</v>
+        <v>12.7246169</v>
       </c>
       <c r="F123">
-        <v>100.870256</v>
+        <v>101.9362794</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -6681,14 +6708,14 @@
       <c r="J123">
         <v>0</v>
       </c>
-      <c r="K123">
-        <v>0</v>
+      <c r="K123" t="s">
+        <v>181</v>
       </c>
       <c r="L123" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6708,10 +6735,10 @@
         <v>140</v>
       </c>
       <c r="E124">
-        <v>12.93047726</v>
+        <v>13.772986</v>
       </c>
       <c r="F124">
-        <v>100.8807229</v>
+        <v>100.4855148</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -6725,14 +6752,14 @@
       <c r="J124">
         <v>0</v>
       </c>
-      <c r="K124">
-        <v>0</v>
+      <c r="K124" t="s">
+        <v>181</v>
       </c>
       <c r="L124" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -6752,10 +6779,10 @@
         <v>141</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>12.90895904</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>100.891925</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -6773,10 +6800,10 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -6796,10 +6823,10 @@
         <v>142</v>
       </c>
       <c r="E126">
-        <v>12.66219926</v>
+        <v>12.90960418</v>
       </c>
       <c r="F126">
-        <v>100.8989779</v>
+        <v>100.870256</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -6817,10 +6844,10 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -6840,10 +6867,10 @@
         <v>143</v>
       </c>
       <c r="E127">
-        <v>13.32877789</v>
+        <v>12.93047726</v>
       </c>
       <c r="F127">
-        <v>100.9230017</v>
+        <v>100.8807229</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -6861,10 +6888,10 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -6884,10 +6911,10 @@
         <v>144</v>
       </c>
       <c r="E128">
-        <v>13.33615653</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>100.9694597</v>
+        <v>0</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -6905,10 +6932,10 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -6928,10 +6955,10 @@
         <v>145</v>
       </c>
       <c r="E129">
-        <v>12.83546656</v>
+        <v>12.66219926</v>
       </c>
       <c r="F129">
-        <v>100.967575</v>
+        <v>100.8989779</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -6949,10 +6976,10 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -6972,10 +6999,10 @@
         <v>146</v>
       </c>
       <c r="E130">
-        <v>13.33545565</v>
+        <v>13.32877789</v>
       </c>
       <c r="F130">
-        <v>100.9249432</v>
+        <v>100.9230017</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -6993,10 +7020,10 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7016,10 +7043,10 @@
         <v>147</v>
       </c>
       <c r="E131">
-        <v>13.33841928</v>
+        <v>13.33615653</v>
       </c>
       <c r="F131">
-        <v>100.9526548</v>
+        <v>100.9694597</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -7037,10 +7064,10 @@
         <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -7060,10 +7087,10 @@
         <v>148</v>
       </c>
       <c r="E132">
-        <v>12.68318129</v>
+        <v>12.83546656</v>
       </c>
       <c r="F132">
-        <v>101.2479341</v>
+        <v>100.967575</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -7081,10 +7108,10 @@
         <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7104,10 +7131,10 @@
         <v>149</v>
       </c>
       <c r="E133">
-        <v>12.68178774</v>
+        <v>13.33545565</v>
       </c>
       <c r="F133">
-        <v>101.2804266</v>
+        <v>100.9249432</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -7125,10 +7152,10 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7148,10 +7175,10 @@
         <v>150</v>
       </c>
       <c r="E134">
-        <v>12.67663309</v>
+        <v>13.33841928</v>
       </c>
       <c r="F134">
-        <v>101.2204609</v>
+        <v>100.9526548</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -7169,10 +7196,10 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -7192,10 +7219,10 @@
         <v>151</v>
       </c>
       <c r="E135">
-        <v>12.67969829</v>
+        <v>12.68318129</v>
       </c>
       <c r="F135">
-        <v>101.2516232</v>
+        <v>101.2479341</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -7213,10 +7240,10 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7236,10 +7263,10 @@
         <v>152</v>
       </c>
       <c r="E136">
-        <v>12.67895072</v>
+        <v>12.68178774</v>
       </c>
       <c r="F136">
-        <v>101.2811971</v>
+        <v>101.2804266</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -7257,10 +7284,10 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7280,10 +7307,10 @@
         <v>153</v>
       </c>
       <c r="E137">
-        <v>12.69121623</v>
+        <v>12.67663309</v>
       </c>
       <c r="F137">
-        <v>101.2828322</v>
+        <v>101.2204609</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -7301,10 +7328,10 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7324,10 +7351,10 @@
         <v>154</v>
       </c>
       <c r="E138">
-        <v>12.61154131</v>
+        <v>12.67969829</v>
       </c>
       <c r="F138">
-        <v>102.105739</v>
+        <v>101.2516232</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -7345,10 +7372,10 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7368,10 +7395,10 @@
         <v>155</v>
       </c>
       <c r="E139">
-        <v>12.59875505</v>
+        <v>12.67895072</v>
       </c>
       <c r="F139">
-        <v>102.1108505</v>
+        <v>101.2811971</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -7389,10 +7416,10 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7412,10 +7439,10 @@
         <v>156</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>12.69121623</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>101.2828322</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -7433,10 +7460,10 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7456,10 +7483,10 @@
         <v>157</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>12.61154131</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>102.105739</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -7477,10 +7504,10 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -7500,10 +7527,10 @@
         <v>158</v>
       </c>
       <c r="E142">
-        <v>12.94007297</v>
+        <v>12.59875505</v>
       </c>
       <c r="F142">
-        <v>100.9198688</v>
+        <v>102.1108505</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -7521,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7544,10 +7571,10 @@
         <v>159</v>
       </c>
       <c r="E143">
-        <v>12.93500267</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>100.8828385</v>
+        <v>0</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -7565,10 +7592,10 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -7588,10 +7615,10 @@
         <v>160</v>
       </c>
       <c r="E144">
-        <v>12.93302705</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>100.9013151</v>
+        <v>0</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -7609,10 +7636,10 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -7632,10 +7659,10 @@
         <v>161</v>
       </c>
       <c r="E145">
-        <v>12.93124481</v>
+        <v>12.94007297</v>
       </c>
       <c r="F145">
-        <v>100.9008084</v>
+        <v>100.9198688</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -7653,10 +7680,10 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -7676,10 +7703,10 @@
         <v>162</v>
       </c>
       <c r="E146">
-        <v>12.93038104</v>
+        <v>12.93500267</v>
       </c>
       <c r="F146">
-        <v>100.9126714</v>
+        <v>100.8828385</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -7697,10 +7724,10 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -7720,10 +7747,10 @@
         <v>163</v>
       </c>
       <c r="E147">
-        <v>12.84875767</v>
+        <v>12.93302705</v>
       </c>
       <c r="F147">
-        <v>100.9017</v>
+        <v>100.9013151</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -7741,10 +7768,10 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -7764,10 +7791,10 @@
         <v>164</v>
       </c>
       <c r="E148">
-        <v>12.90883138</v>
+        <v>12.93124481</v>
       </c>
       <c r="F148">
-        <v>100.8932458</v>
+        <v>100.9008084</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -7785,10 +7812,10 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -7808,10 +7835,10 @@
         <v>165</v>
       </c>
       <c r="E149">
-        <v>12.66362634</v>
+        <v>12.93038104</v>
       </c>
       <c r="F149">
-        <v>100.8981743</v>
+        <v>100.9126714</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -7829,10 +7856,10 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -7852,10 +7879,10 @@
         <v>166</v>
       </c>
       <c r="E150">
-        <v>12.95074463</v>
+        <v>12.84875767</v>
       </c>
       <c r="F150">
-        <v>100.8933879</v>
+        <v>100.9017</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -7873,10 +7900,10 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -7896,10 +7923,10 @@
         <v>167</v>
       </c>
       <c r="E151">
-        <v>12.97880506</v>
+        <v>12.90883138</v>
       </c>
       <c r="F151">
-        <v>100.9430835</v>
+        <v>100.8932458</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -7917,10 +7944,10 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -7940,10 +7967,10 @@
         <v>168</v>
       </c>
       <c r="E152">
-        <v>12.92662465</v>
+        <v>12.66362634</v>
       </c>
       <c r="F152">
-        <v>100.898605</v>
+        <v>100.8981743</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -7961,10 +7988,10 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -7984,10 +8011,10 @@
         <v>169</v>
       </c>
       <c r="E153">
-        <v>12.98328283</v>
+        <v>12.95074463</v>
       </c>
       <c r="F153">
-        <v>100.9354783</v>
+        <v>100.8933879</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -8005,10 +8032,10 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -8028,10 +8055,10 @@
         <v>170</v>
       </c>
       <c r="E154">
-        <v>12.98177123</v>
+        <v>12.97880506</v>
       </c>
       <c r="F154">
-        <v>100.9289336</v>
+        <v>100.9430835</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -8049,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8072,10 +8099,10 @@
         <v>171</v>
       </c>
       <c r="E155">
-        <v>13.01893524</v>
+        <v>12.92662465</v>
       </c>
       <c r="F155">
-        <v>100.932701</v>
+        <v>100.898605</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -8093,10 +8120,10 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -8116,10 +8143,10 @@
         <v>172</v>
       </c>
       <c r="E156">
-        <v>12.95555524</v>
+        <v>12.98328283</v>
       </c>
       <c r="F156">
-        <v>100.8987028</v>
+        <v>100.9354783</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -8137,10 +8164,10 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -8160,10 +8187,10 @@
         <v>173</v>
       </c>
       <c r="E157">
-        <v>12.93944879</v>
+        <v>12.98177123</v>
       </c>
       <c r="F157">
-        <v>100.9021397</v>
+        <v>100.9289336</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -8181,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -8204,10 +8231,10 @@
         <v>174</v>
       </c>
       <c r="E158">
-        <v>12.75400498</v>
+        <v>13.01893524</v>
       </c>
       <c r="F158">
-        <v>100.9017967</v>
+        <v>100.932701</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -8225,10 +8252,10 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -8248,33 +8275,165 @@
         <v>175</v>
       </c>
       <c r="E159">
+        <v>12.95555524</v>
+      </c>
+      <c r="F159">
+        <v>100.8987028</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159" t="s">
+        <v>249</v>
+      </c>
+      <c r="M159" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160">
+        <v>230</v>
+      </c>
+      <c r="B160" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D160" t="s">
+        <v>176</v>
+      </c>
+      <c r="E160">
+        <v>12.93944879</v>
+      </c>
+      <c r="F160">
+        <v>100.9021397</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160" t="s">
+        <v>249</v>
+      </c>
+      <c r="M160" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="A161">
+        <v>231</v>
+      </c>
+      <c r="B161" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D161" t="s">
+        <v>177</v>
+      </c>
+      <c r="E161">
+        <v>12.75400498</v>
+      </c>
+      <c r="F161">
+        <v>100.9017967</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161" t="s">
+        <v>249</v>
+      </c>
+      <c r="M161" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
+      <c r="A162">
+        <v>232</v>
+      </c>
+      <c r="B162" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D162" t="s">
+        <v>178</v>
+      </c>
+      <c r="E162">
         <v>12.69857571</v>
       </c>
-      <c r="F159">
+      <c r="F162">
         <v>100.8899412</v>
       </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-      <c r="H159">
-        <v>0</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
-      <c r="J159">
-        <v>0</v>
-      </c>
-      <c r="K159">
-        <v>0</v>
-      </c>
-      <c r="L159" t="s">
-        <v>243</v>
-      </c>
-      <c r="M159" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="N159">
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162" t="s">
+        <v>249</v>
+      </c>
+      <c r="M162" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="N162">
         <v>0</v>
       </c>
     </row>
@@ -8303,8 +8462,8 @@
     <hyperlink ref="M22" r:id="rId21"/>
     <hyperlink ref="M23" r:id="rId22"/>
     <hyperlink ref="M24" r:id="rId23"/>
-    <hyperlink ref="M25" r:id="rId24" location="cxrecs_s"/>
-    <hyperlink ref="M26" r:id="rId25"/>
+    <hyperlink ref="M25" r:id="rId24"/>
+    <hyperlink ref="M26" r:id="rId25" location="cxrecs_s"/>
     <hyperlink ref="M27" r:id="rId26"/>
     <hyperlink ref="M28" r:id="rId27"/>
     <hyperlink ref="M29" r:id="rId28"/>
@@ -8438,6 +8597,9 @@
     <hyperlink ref="M157" r:id="rId156"/>
     <hyperlink ref="M158" r:id="rId157"/>
     <hyperlink ref="M159" r:id="rId158"/>
+    <hyperlink ref="M160" r:id="rId159"/>
+    <hyperlink ref="M161" r:id="rId160"/>
+    <hyperlink ref="M162" r:id="rId161"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="305">
   <si>
     <t>id</t>
   </si>
@@ -58,12 +58,12 @@
     <t>parentcase</t>
   </si>
   <si>
+    <t>patient_has_been_here</t>
+  </si>
+  <si>
     <t>unspecified_location</t>
   </si>
   <si>
-    <t>patient_has_been_here</t>
-  </si>
-  <si>
     <t>sanitizing</t>
   </si>
   <si>
@@ -76,42 +76,6 @@
     <t>sanitized</t>
   </si>
   <si>
-    <t>ซ.รุ่งเรือง 5 บางบัวทอง</t>
-  </si>
-  <si>
-    <t>ตลาดแจ้งวัฒนะ ซ.6</t>
-  </si>
-  <si>
-    <t>โรงเรียนราษฎร์บำรุงวิทยา อ.ดอนตูม</t>
-  </si>
-  <si>
-    <t>โรงเรียนแสงอรุณ</t>
-  </si>
-  <si>
-    <t>คณะออกแบบนิเทศ มหาวิทยาลัยราชภัฏนครปฐม</t>
-  </si>
-  <si>
-    <t>ห้างเทสโก้ โลตัสกำแพงแสน</t>
-  </si>
-  <si>
-    <t>บิ๊กซี ดาวคะนอง</t>
-  </si>
-  <si>
-    <t>Riverside plaza คลองสาน</t>
-  </si>
-  <si>
-    <t>Tree on 3 พระราม3</t>
-  </si>
-  <si>
-    <t>Makro สาทร</t>
-  </si>
-  <si>
-    <t>ร้านอาหาร คาราโอเกะ ใบไม้ร่าเริง</t>
-  </si>
-  <si>
-    <t>หมูกระทะ ร้านอิกคิว จรัญสนิทวงศ์</t>
-  </si>
-  <si>
     <t>ตลาดหมู่บ้านศรีทอง จ.อยุธยา</t>
   </si>
   <si>
@@ -163,6 +127,9 @@
     <t>ตลาดสุขสวัสดิ์</t>
   </si>
   <si>
+    <t>เมืองทองธานี ชั้น4 โซน R</t>
+  </si>
+  <si>
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
@@ -409,6 +376,12 @@
     <t>BBQ Plaza เซ็นทรัลปิ่นเกล้า</t>
   </si>
   <si>
+    <t>Thongdee Cafe Chiangmai</t>
+  </si>
+  <si>
+    <t>สนง.เขตบางกอกน้อย</t>
+  </si>
+  <si>
     <t>ทำเนียบรัฐบาล</t>
   </si>
   <si>
@@ -598,78 +571,78 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย วันที่ 14-18 ธค. เวลา 17.00-21.00 น. จะทำงานร้านขายของชำ ซ.รุ่งเรือง 5 บางบัวทอง</t>
+    <t>พบผู้ป่วยติดเชื้อโควิด-19 ไม่มีอาการ จำนวน 1 ราย เป็นหญิง เดินทางกลับมาจากการไปทำงานที่ร้านเสริมสวยใน จ.เชียงใหม่</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เคสแม่ค้ารถพุ่มพวงติดโควิด เป็นรถกระบะสีขาว ป้ายแดง ทะเบียน 8681 สมุทรปราการ </t>
+  </si>
+  <si>
+    <t>พบผู้ป่วยโควิด-19 ชาย มาบ่อนไก่ชนในบางเลน</t>
+  </si>
+  <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 19 ธ.ค. เวลา 10.00 น. ไปห้างสรรพสินค้ายูเนียนมอลล์ และเดินข้ามมาเซ็นทรัลลาดพร้าว</t>
+  </si>
+  <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 19 ธ.ค. เวลา 20.00 น. ไปตลาดชาวสยาม บางกรวยพร้าว</t>
+  </si>
+  <si>
+    <t>ตรวจพบเชื้อ COVID-19 จากคุณรัตน์เจ้าของร้านสมศักดิ์ปูอบ สาขาบีทีเอสกรุงธนบุรี</t>
+  </si>
+  <si>
+    <t>ผู้ป่วย  covid-19 นครปฐม รายที่22-29</t>
+  </si>
+  <si>
+    <t>เกทเวย์ แอท บางซื่อ ชี้แจงกรณีพบผู้ติดเชื้อโควิดเข้าใช้บริการ</t>
+  </si>
+  <si>
+    <t>โฆษกกทม.ทยอยเปิดไทม์ไลน์ ติดเชื้อโควิดในกรุงเทพฯ 75 คนแล้ว ไล่สอบสวนโรค พบไปหลายห้าง ดูหนัง คาราโอเกะ</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ติดเชื้อ covid19 กทม. รายที่ 22-43</t>
+  </si>
+  <si>
+    <t>กทม.เปิดไทม์ไลน์ 17 ผู้ติดเชื้อ 'โควิด' รายใหม่ เป็นรายที่ 58-74</t>
+  </si>
+  <si>
+    <t>ผู้ติดเชื้อ 'โควิด-19' ใน กทม. พบ 19 ธ.ค. ไปดูคอนเสิร์ต อัสนี วสันต์</t>
+  </si>
+  <si>
+    <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
+  </si>
+  <si>
+    <t>เคสเจ้าของร้านอาหารติดโควิด มีประวัติไปแพกุ้ง ตลาดยายพ่วง มหาชัย</t>
+  </si>
+  <si>
+    <t>ขอให้ผู้ที่ไปใช้บริการร้านอาหาร ตั้งแต่วันที่ 15-20 ธ.ค. 2563 เป็นต้นมา ณ ร้านแจ่วฮ้อนตาแป๊ะบุฟเฟ่ 149 ซึ่งมี 3 สาขา สาขาที่ 1 อำเภอหนองแค สาขา 2 อำเภอแก่งคอย และสาขา 3 อำเภอเมืองสระบุรี และตลาดหนองเสือ จ.ปทุมธานี ได้สังเกตอาการตนเองเป็นเวลา 14 วัน ให้สวมหน้ากากอนามัย หรือหน้ากากผ้าตลอดเวลา หลีกเลี่ยงคลุกคลีใกล้ชิดกับผู้อื่น</t>
+  </si>
+  <si>
+    <t>เจ้าของร้านอาหารที่ติดโควิดได้ไปขายเนื้อสดที่ตลาด</t>
+  </si>
+  <si>
+    <t>เคสผู้ป่วยโควิด-19 ชาย อยู่ต.บางหลวง อ.บางเลน จ.นครปฐม</t>
+  </si>
+  <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย  20 ธ.ค. เวลา 10.00 น. ไปคาเฟ่ Two Do Someting</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ได้ออกมาเลือกตั้งหน้าหมู่บ้านและซื้อต้นไม้ ผู้ขายเป็นชาวพม่า</t>
   </si>
   <si>
     <t>เคสผู้ติดเชื้อโควิด-19 ชายขายอาหารทะเลปากซ.พหล52</t>
   </si>
   <si>
-    <t>ผู้ป่วย  covid-19 นครปฐม รายที่22-29</t>
+    <t>ตรวจพบเชื้อ COVID-19 เจ้าของร้านสมศักดิ์ปูอบ สาขาบีทีเอสกรุงธนบุรี</t>
+  </si>
+  <si>
+    <t>4 ผู้ป่วยโควิด นนทบุรีเชื่อมโยงตลาดทะเลไทย สมุทรสาคร</t>
   </si>
   <si>
     <t>ผู้ป่วยโควิด-19 จังหวัดนครปฐม รายที่38-53</t>
   </si>
   <si>
-    <t>กทม.เปิดไทม์ไลน์ 17 ผู้ติดเชื้อ 'โควิด' รายใหม่ เป็นรายที่ 58-74</t>
-  </si>
-  <si>
     <t>Timeline ผู้ติดเชื้อที่อยู่ใน กทม.</t>
   </si>
   <si>
-    <t>พบผู้ป่วยติดเชื้อโควิด-19 ไม่มีอาการ จำนวน 1 ราย เป็นหญิง เดินทางกลับมาจากการไปทำงานที่ร้านเสริมสวยใน จ.เชียงใหม่</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เคสแม่ค้ารถพุ่มพวงติดโควิด เป็นรถกระบะสีขาว ป้ายแดง ทะเบียน 8681 สมุทรปราการ </t>
-  </si>
-  <si>
-    <t>พบผู้ป่วยโควิด-19 ชาย มาบ่อนไก่ชนในบางเลน</t>
-  </si>
-  <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 19 ธ.ค. เวลา 10.00 น. ไปห้างสรรพสินค้ายูเนียนมอลล์ และเดินข้ามมาเซ็นทรัลลาดพร้าว</t>
-  </si>
-  <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 19 ธ.ค. เวลา 20.00 น. ไปตลาดชาวสยาม บางกรวยพร้าว</t>
-  </si>
-  <si>
-    <t>ตรวจพบเชื้อ COVID-19 จากคุณรัตน์เจ้าของร้านสมศักดิ์ปูอบ สาขาบีทีเอสกรุงธนบุรี</t>
-  </si>
-  <si>
-    <t>เกทเวย์ แอท บางซื่อ ชี้แจงกรณีพบผู้ติดเชื้อโควิดเข้าใช้บริการ</t>
-  </si>
-  <si>
-    <t>โฆษกกทม.ทยอยเปิดไทม์ไลน์ ติดเชื้อโควิดในกรุงเทพฯ 75 คนแล้ว ไล่สอบสวนโรค พบไปหลายห้าง ดูหนัง คาราโอเกะ</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ติดเชื้อ covid19 กทม. รายที่ 22-43</t>
-  </si>
-  <si>
-    <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
-  </si>
-  <si>
-    <t>เคสเจ้าของร้านอาหารติดโควิด มีประวัติไปแพกุ้ง ตลาดยายพ่วง มหาชัย</t>
-  </si>
-  <si>
-    <t>ขอให้ผู้ที่ไปใช้บริการร้านอาหาร ตั้งแต่วันที่ 15-20 ธ.ค. 2563 เป็นต้นมา ณ ร้านแจ่วฮ้อนตาแป๊ะบุฟเฟ่ 149 ซึ่งมี 3 สาขา สาขาที่ 1 อำเภอหนองแค สาขา 2 อำเภอแก่งคอย และสาขา 3 อำเภอเมืองสระบุรี และตลาดหนองเสือ จ.ปทุมธานี ได้สังเกตอาการตนเองเป็นเวลา 14 วัน ให้สวมหน้ากากอนามัย หรือหน้ากากผ้าตลอดเวลา หลีกเลี่ยงคลุกคลีใกล้ชิดกับผู้อื่น</t>
-  </si>
-  <si>
-    <t>เจ้าของร้านอาหารที่ติดโควิดได้ไปขายเนื้อสดที่ตลาด</t>
-  </si>
-  <si>
-    <t>เคสผู้ป่วยโควิด-19 ชาย อยู่ต.บางหลวง อ.บางเลน จ.นครปฐม</t>
-  </si>
-  <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย  20 ธ.ค. เวลา 10.00 น. ไปคาเฟ่ Two Do Someting</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ได้ออกมาเลือกตั้งหน้าหมู่บ้านและซื้อต้นไม้ ผู้ขายเป็นชาวพม่า</t>
-  </si>
-  <si>
-    <t>ตรวจพบเชื้อ COVID-19 เจ้าของร้านสมศักดิ์ปูอบ สาขาบีทีเอสกรุงธนบุรี</t>
-  </si>
-  <si>
-    <t>4 ผู้ป่วยโควิด นนทบุรีเชื่อมโยงตลาดทะเลไทย สมุทรสาคร</t>
-  </si>
-  <si>
     <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20</t>
   </si>
   <si>
@@ -733,6 +706,12 @@
     <t>พบ 2 แม่ครัวชาวเมียนม่า ทำงานโรงครัววัดเล่งเน่ยยี่ 2 บางบัวทอง ติดโควิด-19</t>
   </si>
   <si>
+    <t>ร้านอาหารดังเชียงใหม่ สั่งปิด14วัน พบผู้ติดเชื้อโควิดใช้บริการ</t>
+  </si>
+  <si>
+    <t>สนง.เขตบางกอกน้อย ประกาศปิด พบผู้ติดเชื้อมาใช้บริการ</t>
+  </si>
+  <si>
     <t>ผลตรวจซ้ำเจ้าหน้าที่ในทำเนียบรัฐบาล 6 ราย ไม่พบเชื้อ และได้มีการทำความสะอาดพ่นฆ่าเชื้อในทำเนียบรัฐบาลเรียบร้อยแล้ว</t>
   </si>
   <si>
@@ -787,66 +766,69 @@
     <t>ท่านใดเดินทางไปยังสถานที่ ในวันและเวลา ดังต่อไปนี้ หากมีอาการผิดปกติทางระบบทางเดินหายใจภายใน 14 วัน นับจากวันที่ไปสถานที่ดังกล่าว ติดต่อโรงพยาบาลรัฐในพื้นที่ของท่านทันที หรือโทรสายด่วน!!! 038-119-777</t>
   </si>
   <si>
+    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/central/1999153</t>
+  </si>
+  <si>
+    <t>https://mgronline.com/local/detail/9630000130818</t>
+  </si>
+  <si>
     <t>https://www.khaosod.co.th/breaking-news/news_5591909</t>
   </si>
   <si>
+    <t>https://www.facebook.com/SomsakPuOb/posts/3554410321292740</t>
+  </si>
+  <si>
+    <t>https://m.facebook.com/story.php?story_fbid=3200886696679973&amp;id=246608695441136&amp;sfnsn=mo</t>
+  </si>
+  <si>
+    <t>https://www.onbnews.today/post/43979</t>
+  </si>
+  <si>
+    <t>https://www.pptvhd36.com/news/%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%A0%E0%B8%B2%E0%B8%9E/139122</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/posts/3119216564844610</t>
+  </si>
+  <si>
+    <t>https://www.dailynews.co.th/regional/815860?fbclid=IwAR3PpSq-k4gEnCMnvk_ZSa14-a7-sRcbK55EljOEMDm-7Ze-6SmVJNFfAuU</t>
+  </si>
+  <si>
+    <t>https://www.bangkokbiznews.com/news/detail/915032</t>
+  </si>
+  <si>
+    <t>https://www.thaipost.net/main/detail/87367</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SomsakPuOb/photos/a.237834942950311/3554401867960252/?type=3</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/central/1998711</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/central/1998795?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0&amp;cx_rec_section=news&amp;cx_rec_topic=local#cxrecs_s</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/twodosomething/posts/140825121150938</t>
+  </si>
+  <si>
+    <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
+  </si>
+  <si>
     <t>https://www.dailynews.co.th/regional/814914</t>
   </si>
   <si>
-    <t>https://m.facebook.com/story.php?story_fbid=3200886696679973&amp;id=246608695441136&amp;sfnsn=mo</t>
+    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2499640</t>
   </si>
   <si>
     <t>https://www.bangkokbiznews.com/news/detail/914766</t>
   </si>
   <si>
-    <t>https://www.dailynews.co.th/regional/815860?fbclid=IwAR3PpSq-k4gEnCMnvk_ZSa14-a7-sRcbK55EljOEMDm-7Ze-6SmVJNFfAuU</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/prbangkok/posts/3125681800864753</t>
   </si>
   <si>
-    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
-  </si>
-  <si>
-    <t>https://www.thairath.co.th/news/local/central/1999153</t>
-  </si>
-  <si>
-    <t>https://mgronline.com/local/detail/9630000130818</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SomsakPuOb/posts/3554410321292740</t>
-  </si>
-  <si>
-    <t>https://www.onbnews.today/post/43979</t>
-  </si>
-  <si>
-    <t>https://www.pptvhd36.com/news/%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%A0%E0%B8%B2%E0%B8%9E/139122</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/posts/3119216564844610</t>
-  </si>
-  <si>
-    <t>https://www.thaipost.net/main/detail/87367</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SomsakPuOb/photos/a.237834942950311/3554401867960252/?type=3</t>
-  </si>
-  <si>
-    <t>https://www.thairath.co.th/news/local/central/1998711</t>
-  </si>
-  <si>
-    <t>https://www.thairath.co.th/news/local/central/1998795?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0&amp;cx_rec_section=news&amp;cx_rec_topic=local#cxrecs_s</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/twodosomething/posts/140825121150938</t>
-  </si>
-  <si>
-    <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
-  </si>
-  <si>
-    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2499640</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/suanplernmarket/photos/a.407116596138751/1714728045377593/</t>
   </si>
   <si>
@@ -899,6 +881,12 @@
   </si>
   <si>
     <t>https://www.khaosod.co.th/covid-19/news_5610412</t>
+  </si>
+  <si>
+    <t>https://www.bangkokbiznews.com/news/detail/914663</t>
+  </si>
+  <si>
+    <t>https://www.khaosod.co.th/covid-19/news_5632650</t>
   </si>
   <si>
     <t>https://www.thairath.co.th/news/politic/2001897</t>
@@ -1315,7 +1303,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1367,43 +1355,43 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>13.87779142</v>
+        <v>14.1487352</v>
       </c>
       <c r="F2">
-        <v>100.4215436</v>
+        <v>100.6155778</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1411,43 +1399,43 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>13.88376994</v>
+        <v>13.8057625</v>
       </c>
       <c r="F3">
-        <v>100.5843207</v>
+        <v>100.6621959</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="I3" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K3" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1455,43 +1443,43 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>13.965066</v>
+        <v>14.01215068</v>
       </c>
       <c r="F4">
-        <v>100.07959</v>
+        <v>100.17523</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="I4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1499,43 +1487,43 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>14.036373</v>
+        <v>13.8134088</v>
       </c>
       <c r="F5">
-        <v>100.168774</v>
+        <v>100.5616103</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="I5" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J5" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1543,43 +1531,43 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>13.83669407</v>
+        <v>13.816493</v>
       </c>
       <c r="F6">
-        <v>100.0271654</v>
+        <v>100.5610062</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="I6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K6" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1587,43 +1575,43 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>13.99173744</v>
+        <v>13.7966595</v>
       </c>
       <c r="F7">
-        <v>99.99699669</v>
+        <v>100.4755856</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="I7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1631,43 +1619,43 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8">
-        <v>13.69901194</v>
+        <v>13.69121688</v>
       </c>
       <c r="F8">
-        <v>100.4829165</v>
+        <v>100.3412194</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" t="s">
+        <v>182</v>
+      </c>
+      <c r="J8" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" t="s">
+        <v>181</v>
+      </c>
+      <c r="L8" t="s">
         <v>190</v>
       </c>
-      <c r="I8" t="s">
-        <v>191</v>
-      </c>
-      <c r="J8" t="s">
-        <v>193</v>
-      </c>
-      <c r="K8" t="s">
-        <v>190</v>
-      </c>
-      <c r="L8" t="s">
-        <v>198</v>
-      </c>
       <c r="M8" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1675,43 +1663,43 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
       </c>
       <c r="E9">
-        <v>13.70486214</v>
+        <v>13.79584</v>
       </c>
       <c r="F9">
-        <v>100.4913754</v>
+        <v>100.13118</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I9" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K9" t="s">
+        <v>181</v>
+      </c>
+      <c r="L9" t="s">
         <v>191</v>
       </c>
-      <c r="J9" t="s">
-        <v>193</v>
-      </c>
-      <c r="K9" t="s">
-        <v>190</v>
-      </c>
-      <c r="L9" t="s">
-        <v>198</v>
-      </c>
       <c r="M9" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1719,43 +1707,43 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
       <c r="E10">
-        <v>13.69115508</v>
+        <v>13.80564274</v>
       </c>
       <c r="F10">
-        <v>100.5045287</v>
+        <v>100.5238077</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="I10" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J10" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K10" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1763,43 +1751,43 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
       <c r="E11">
-        <v>13.70976833</v>
+        <v>13.77870414</v>
       </c>
       <c r="F11">
-        <v>100.5352559</v>
+        <v>100.4778649</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I11" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J11" t="s">
+        <v>184</v>
+      </c>
+      <c r="K11" t="s">
+        <v>181</v>
+      </c>
+      <c r="L11" t="s">
         <v>193</v>
       </c>
-      <c r="K11" t="s">
-        <v>190</v>
-      </c>
-      <c r="L11" t="s">
-        <v>198</v>
-      </c>
       <c r="M11" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1807,43 +1795,43 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
       <c r="E12">
-        <v>13.71466823</v>
+        <v>13.61347071</v>
       </c>
       <c r="F12">
-        <v>100.643611</v>
+        <v>100.3824876</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K12" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1851,43 +1839,43 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
       </c>
       <c r="E13">
-        <v>13.77344774</v>
+        <v>13.70935</v>
       </c>
       <c r="F13">
-        <v>100.4833544</v>
+        <v>100.6014532</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
+      <c r="H13" t="s">
+        <v>181</v>
+      </c>
+      <c r="I13" t="s">
+        <v>182</v>
+      </c>
+      <c r="J13" t="s">
+        <v>184</v>
+      </c>
+      <c r="K13" t="s">
+        <v>181</v>
       </c>
       <c r="L13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1895,10 +1883,10 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2">
         <v>44184</v>
@@ -1907,31 +1895,31 @@
         <v>32</v>
       </c>
       <c r="E14">
-        <v>14.1487352</v>
+        <v>13.78281463</v>
       </c>
       <c r="F14">
-        <v>100.6155778</v>
+        <v>100.5995981</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I14" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J14" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K14" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L14" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1939,7 +1927,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1951,31 +1939,31 @@
         <v>33</v>
       </c>
       <c r="E15">
-        <v>13.8057625</v>
+        <v>13.73739373</v>
       </c>
       <c r="F15">
-        <v>100.6621959</v>
+        <v>100.6165954</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I15" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J15" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K15" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1983,7 +1971,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1995,31 +1983,31 @@
         <v>34</v>
       </c>
       <c r="E16">
-        <v>14.01215068</v>
+        <v>13.71433565</v>
       </c>
       <c r="F16">
-        <v>100.17523</v>
+        <v>100.647891</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I16" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J16" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K16" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2027,10 +2015,10 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2">
         <v>44184</v>
@@ -2039,31 +2027,31 @@
         <v>35</v>
       </c>
       <c r="E17">
-        <v>13.8134088</v>
+        <v>13.71020819</v>
       </c>
       <c r="F17">
-        <v>100.5616103</v>
+        <v>100.5427674</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I17" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2071,10 +2059,10 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2">
         <v>44184</v>
@@ -2083,31 +2071,31 @@
         <v>36</v>
       </c>
       <c r="E18">
-        <v>13.816493</v>
+        <v>13.63894185</v>
       </c>
       <c r="F18">
-        <v>100.5610062</v>
+        <v>100.5263216</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I18" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2115,10 +2103,10 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2">
         <v>44184</v>
@@ -2127,31 +2115,31 @@
         <v>37</v>
       </c>
       <c r="E19">
-        <v>13.7966595</v>
+        <v>13.9122188</v>
       </c>
       <c r="F19">
-        <v>100.4755856</v>
+        <v>100.5512936</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" t="s">
-        <v>188</v>
-      </c>
-      <c r="I19" t="s">
-        <v>191</v>
-      </c>
-      <c r="J19" t="s">
-        <v>193</v>
-      </c>
-      <c r="K19" t="s">
-        <v>190</v>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2159,43 +2147,43 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
       </c>
       <c r="E20">
-        <v>13.69121688</v>
+        <v>13.5579068</v>
       </c>
       <c r="F20">
-        <v>100.3412194</v>
+        <v>100.270829</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" t="s">
-        <v>188</v>
+      <c r="H20">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2203,43 +2191,43 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D21" t="s">
         <v>39</v>
       </c>
       <c r="E21">
-        <v>13.79584</v>
+        <v>13.7937004</v>
       </c>
       <c r="F21">
-        <v>100.13118</v>
+        <v>100.6923144</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J21" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K21" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2247,43 +2235,43 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D22" t="s">
         <v>40</v>
       </c>
       <c r="E22">
-        <v>13.80564274</v>
+        <v>13.5455607</v>
       </c>
       <c r="F22">
-        <v>100.5238077</v>
+        <v>100.2767611</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I22" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2291,43 +2279,43 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
       </c>
       <c r="E23">
-        <v>13.77870414</v>
+        <v>14.3355326</v>
       </c>
       <c r="F23">
-        <v>100.4778649</v>
+        <v>100.87017</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23" t="s">
-        <v>190</v>
+      <c r="H23">
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J23" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K23" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2335,43 +2323,43 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24">
-        <v>13.61347071</v>
+        <v>14.5786407</v>
       </c>
       <c r="F24">
-        <v>100.3824876</v>
+        <v>100.9662444</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" t="s">
-        <v>190</v>
+      <c r="H24">
+        <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J24" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K24" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2379,43 +2367,43 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E25">
-        <v>13.70935</v>
+        <v>14.5116599</v>
       </c>
       <c r="F25">
-        <v>100.6014532</v>
+        <v>100.9094134</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25" t="s">
-        <v>190</v>
+      <c r="H25">
+        <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J25" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K25" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L25" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2423,43 +2411,43 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E26">
-        <v>13.78281463</v>
+        <v>14.1378761</v>
       </c>
       <c r="F26">
-        <v>100.5995981</v>
+        <v>100.8255049</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26" t="s">
-        <v>190</v>
+      <c r="H26">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J26" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K26" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L26" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2467,43 +2455,43 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E27">
-        <v>13.73739373</v>
+        <v>14.06566869</v>
       </c>
       <c r="F27">
-        <v>100.6165954</v>
+        <v>99.9821468</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="I27" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J27" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K27" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2511,43 +2499,43 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E28">
-        <v>13.71433565</v>
+        <v>13.8220612</v>
       </c>
       <c r="F28">
-        <v>100.647891</v>
+        <v>100.421874</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="I28" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J28" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K28" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L28" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2555,43 +2543,43 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E29">
-        <v>13.71020819</v>
+        <v>13.8683169</v>
       </c>
       <c r="F29">
-        <v>100.5427674</v>
+        <v>100.4107308</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="I29" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J29" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K29" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L29" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2599,43 +2587,43 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E30">
-        <v>13.63894185</v>
+        <v>13.89757086</v>
       </c>
       <c r="F30">
-        <v>100.5263216</v>
+        <v>100.6098027</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="I30" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J30" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K30" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L30" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2643,43 +2631,43 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="2">
         <v>44185</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E31">
-        <v>13.5579068</v>
+        <v>13.72045903</v>
       </c>
       <c r="F31">
-        <v>100.270829</v>
+        <v>100.5004852</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31">
-        <v>0</v>
+      <c r="H31" t="s">
+        <v>179</v>
       </c>
       <c r="I31" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J31" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K31" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L31" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2687,7 +2675,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -2696,34 +2684,34 @@
         <v>44185</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E32">
-        <v>13.7937004</v>
+        <v>13.817137</v>
       </c>
       <c r="F32">
-        <v>100.6923144</v>
+        <v>100.041497</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I32" t="s">
+        <v>182</v>
+      </c>
+      <c r="J32" t="s">
+        <v>184</v>
+      </c>
+      <c r="K32" t="s">
+        <v>181</v>
+      </c>
+      <c r="L32" t="s">
         <v>191</v>
       </c>
-      <c r="J32" t="s">
-        <v>193</v>
-      </c>
-      <c r="K32" t="s">
-        <v>190</v>
-      </c>
-      <c r="L32" t="s">
-        <v>201</v>
-      </c>
       <c r="M32" s="3" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2731,43 +2719,43 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C33" s="2">
         <v>44185</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E33">
-        <v>13.5455607</v>
+        <v>13.737328</v>
       </c>
       <c r="F33">
-        <v>100.2767611</v>
+        <v>100.081218</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I33" t="s">
+        <v>182</v>
+      </c>
+      <c r="J33" t="s">
+        <v>184</v>
+      </c>
+      <c r="K33" t="s">
+        <v>181</v>
+      </c>
+      <c r="L33" t="s">
         <v>191</v>
       </c>
-      <c r="J33" t="s">
-        <v>193</v>
-      </c>
-      <c r="K33" t="s">
-        <v>190</v>
-      </c>
-      <c r="L33" t="s">
-        <v>210</v>
-      </c>
       <c r="M33" s="3" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2775,43 +2763,43 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="2">
         <v>44185</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E34">
-        <v>14.3355326</v>
+        <v>14.021384</v>
       </c>
       <c r="F34">
-        <v>100.87017</v>
+        <v>100.165325</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34">
-        <v>0</v>
+      <c r="H34" t="s">
+        <v>181</v>
       </c>
       <c r="I34" t="s">
+        <v>182</v>
+      </c>
+      <c r="J34" t="s">
+        <v>184</v>
+      </c>
+      <c r="K34" t="s">
+        <v>181</v>
+      </c>
+      <c r="L34" t="s">
         <v>191</v>
       </c>
-      <c r="J34" t="s">
-        <v>193</v>
-      </c>
-      <c r="K34" t="s">
-        <v>190</v>
-      </c>
-      <c r="L34" t="s">
-        <v>211</v>
-      </c>
       <c r="M34" s="3" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2819,43 +2807,43 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="2">
         <v>44185</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35">
-        <v>14.5786407</v>
+        <v>13.82347979</v>
       </c>
       <c r="F35">
-        <v>100.9662444</v>
+        <v>100.4101224</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35">
-        <v>0</v>
+      <c r="H35" t="s">
+        <v>181</v>
       </c>
       <c r="I35" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J35" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K35" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L35" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2863,10 +2851,10 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="2">
         <v>44185</v>
@@ -2875,31 +2863,31 @@
         <v>52</v>
       </c>
       <c r="E36">
-        <v>14.5116599</v>
+        <v>13.82622351</v>
       </c>
       <c r="F36">
-        <v>100.9094134</v>
+        <v>100.4124415</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36">
-        <v>0</v>
+      <c r="H36" t="s">
+        <v>181</v>
       </c>
       <c r="I36" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J36" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K36" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L36" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2907,10 +2895,10 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C37" s="2">
         <v>44185</v>
@@ -2919,31 +2907,31 @@
         <v>53</v>
       </c>
       <c r="E37">
-        <v>14.1378761</v>
+        <v>13.71100665</v>
       </c>
       <c r="F37">
-        <v>100.8255049</v>
+        <v>100.4234972</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37">
-        <v>0</v>
+      <c r="H37" t="s">
+        <v>180</v>
       </c>
       <c r="I37" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J37" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K37" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L37" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2951,7 +2939,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -2963,31 +2951,31 @@
         <v>54</v>
       </c>
       <c r="E38">
-        <v>14.06566869</v>
+        <v>13.81780926</v>
       </c>
       <c r="F38">
-        <v>99.9821468</v>
+        <v>100.3981472</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I38" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J38" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K38" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L38" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2995,10 +2983,10 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C39" s="2">
         <v>44185</v>
@@ -3007,31 +2995,31 @@
         <v>55</v>
       </c>
       <c r="E39">
-        <v>13.8220612</v>
+        <v>13.95701015</v>
       </c>
       <c r="F39">
-        <v>100.421874</v>
+        <v>100.404266</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I39" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J39" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K39" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L39" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3039,7 +3027,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -3051,31 +3039,31 @@
         <v>56</v>
       </c>
       <c r="E40">
-        <v>13.8683169</v>
+        <v>14.06478568</v>
       </c>
       <c r="F40">
-        <v>100.4107308</v>
+        <v>100.0502624</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I40" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J40" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K40" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L40" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3083,10 +3071,10 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="2">
         <v>44185</v>
@@ -3095,31 +3083,31 @@
         <v>57</v>
       </c>
       <c r="E41">
-        <v>13.89757086</v>
+        <v>13.73106738</v>
       </c>
       <c r="F41">
-        <v>100.6098027</v>
+        <v>100.0732375</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I41" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J41" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K41" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L41" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3127,10 +3115,10 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C42" s="2">
         <v>44185</v>
@@ -3139,31 +3127,31 @@
         <v>58</v>
       </c>
       <c r="E42">
-        <v>13.72045903</v>
+        <v>13.8122326</v>
       </c>
       <c r="F42">
-        <v>100.5004852</v>
+        <v>100.0726883</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I42" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J42" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K42" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L42" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3171,10 +3159,10 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" s="2">
         <v>44185</v>
@@ -3183,28 +3171,28 @@
         <v>59</v>
       </c>
       <c r="E43">
-        <v>13.817137</v>
+        <v>13.69415224</v>
       </c>
       <c r="F43">
-        <v>100.041497</v>
+        <v>100.6478267</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I43" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J43" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K43" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>259</v>
@@ -3215,10 +3203,10 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44" s="2">
         <v>44185</v>
@@ -3227,28 +3215,28 @@
         <v>60</v>
       </c>
       <c r="E44">
-        <v>13.737328</v>
+        <v>13.80243028</v>
       </c>
       <c r="F44">
-        <v>100.081218</v>
+        <v>100.6151197</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I44" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J44" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K44" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>259</v>
@@ -3259,10 +3247,10 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" s="2">
         <v>44185</v>
@@ -3271,28 +3259,28 @@
         <v>61</v>
       </c>
       <c r="E45">
-        <v>14.021384</v>
+        <v>13.82571976</v>
       </c>
       <c r="F45">
-        <v>100.165325</v>
+        <v>100.6794424</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I45" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J45" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K45" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>259</v>
@@ -3303,10 +3291,10 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" s="2">
         <v>44185</v>
@@ -3315,31 +3303,31 @@
         <v>62</v>
       </c>
       <c r="E46">
-        <v>13.82347979</v>
+        <v>13.83106898</v>
       </c>
       <c r="F46">
-        <v>100.4101224</v>
+        <v>100.3729686</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I46" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J46" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K46" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L46" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3347,10 +3335,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="2">
         <v>44185</v>
@@ -3359,31 +3347,31 @@
         <v>63</v>
       </c>
       <c r="E47">
-        <v>13.82622351</v>
+        <v>13.71815181</v>
       </c>
       <c r="F47">
-        <v>100.4124415</v>
+        <v>100.4133961</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47" t="s">
-        <v>190</v>
-      </c>
-      <c r="I47" t="s">
-        <v>191</v>
-      </c>
-      <c r="J47" t="s">
-        <v>193</v>
-      </c>
-      <c r="K47" t="s">
-        <v>190</v>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3391,43 +3379,43 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D48" t="s">
         <v>64</v>
       </c>
       <c r="E48">
-        <v>13.71100665</v>
+        <v>13.8781452</v>
       </c>
       <c r="F48">
-        <v>100.4234972</v>
+        <v>100.4091302</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="I48" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J48" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K48" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3435,43 +3423,43 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C49" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D49" t="s">
         <v>65</v>
       </c>
       <c r="E49">
-        <v>13.81780926</v>
+        <v>13.7164198</v>
       </c>
       <c r="F49">
-        <v>100.3981472</v>
+        <v>100.5716135</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I49" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J49" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K49" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L49" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3479,43 +3467,43 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D50" t="s">
         <v>66</v>
       </c>
       <c r="E50">
-        <v>13.95701015</v>
+        <v>13.70807262</v>
       </c>
       <c r="F50">
-        <v>100.404266</v>
+        <v>100.59964</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I50" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J50" t="s">
+        <v>184</v>
+      </c>
+      <c r="K50" t="s">
+        <v>181</v>
+      </c>
+      <c r="L50" t="s">
         <v>193</v>
       </c>
-      <c r="K50" t="s">
-        <v>190</v>
-      </c>
-      <c r="L50" t="s">
-        <v>208</v>
-      </c>
       <c r="M50" s="3" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3523,43 +3511,43 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D51" t="s">
         <v>67</v>
       </c>
       <c r="E51">
-        <v>14.06478568</v>
+        <v>13.78051515</v>
       </c>
       <c r="F51">
-        <v>100.0502624</v>
+        <v>100.4226823</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="I51" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J51" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K51" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L51" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3567,43 +3555,43 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D52" t="s">
         <v>68</v>
       </c>
       <c r="E52">
-        <v>13.73106738</v>
+        <v>13.7355293</v>
       </c>
       <c r="F52">
-        <v>100.0732375</v>
+        <v>100.5979688</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I52" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J52" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K52" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L52" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3611,43 +3599,43 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D53" t="s">
         <v>69</v>
       </c>
       <c r="E53">
-        <v>13.8122326</v>
+        <v>13.73406154</v>
       </c>
       <c r="F53">
-        <v>100.0726883</v>
+        <v>100.5967948</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I53" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J53" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K53" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L53" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3655,43 +3643,43 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D54" t="s">
         <v>70</v>
       </c>
       <c r="E54">
-        <v>13.69415224</v>
+        <v>13.7738673</v>
       </c>
       <c r="F54">
-        <v>100.6478267</v>
+        <v>100.5093218</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I54" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J54" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K54" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L54" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3699,43 +3687,43 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D55" t="s">
         <v>71</v>
       </c>
       <c r="E55">
-        <v>13.80243028</v>
+        <v>13.82650614</v>
       </c>
       <c r="F55">
-        <v>100.6151197</v>
+        <v>100.4860605</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J55" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K55" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L55" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3743,43 +3731,43 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D56" t="s">
         <v>72</v>
       </c>
       <c r="E56">
-        <v>13.82571976</v>
+        <v>13.79667017</v>
       </c>
       <c r="F56">
-        <v>100.6794424</v>
+        <v>100.5516735</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56" t="s">
-        <v>190</v>
-      </c>
-      <c r="I56" t="s">
-        <v>191</v>
-      </c>
-      <c r="J56" t="s">
-        <v>193</v>
-      </c>
-      <c r="K56" t="s">
-        <v>190</v>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3787,43 +3775,43 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="D57" t="s">
         <v>73</v>
       </c>
       <c r="E57">
-        <v>13.83106898</v>
+        <v>13.73541413</v>
       </c>
       <c r="F57">
-        <v>100.3729686</v>
+        <v>100.5877998</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57" t="s">
-        <v>190</v>
+      <c r="H57">
+        <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J57" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K57" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L57" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3831,22 +3819,22 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="D58" t="s">
         <v>74</v>
       </c>
       <c r="E58">
-        <v>13.71815181</v>
+        <v>13.78766192</v>
       </c>
       <c r="F58">
-        <v>100.4133961</v>
+        <v>100.5105938</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -3854,20 +3842,20 @@
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
+      <c r="I58" t="s">
+        <v>182</v>
+      </c>
+      <c r="J58" t="s">
+        <v>184</v>
+      </c>
+      <c r="K58" t="s">
+        <v>181</v>
       </c>
       <c r="L58" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3875,43 +3863,43 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C59" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D59" t="s">
         <v>75</v>
       </c>
       <c r="E59">
-        <v>13.8781452</v>
+        <v>13.5951449</v>
       </c>
       <c r="F59">
-        <v>100.4091302</v>
+        <v>100.5802135</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="I59" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J59" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K59" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L59" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3919,43 +3907,43 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C60" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D60" t="s">
         <v>76</v>
       </c>
       <c r="E60">
-        <v>13.7164198</v>
+        <v>13.803038</v>
       </c>
       <c r="F60">
-        <v>100.5716135</v>
+        <v>100.188902</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I60" t="s">
+        <v>182</v>
+      </c>
+      <c r="J60" t="s">
+        <v>184</v>
+      </c>
+      <c r="K60" t="s">
+        <v>181</v>
+      </c>
+      <c r="L60" t="s">
         <v>191</v>
       </c>
-      <c r="J60" t="s">
-        <v>193</v>
-      </c>
-      <c r="K60" t="s">
-        <v>190</v>
-      </c>
-      <c r="L60" t="s">
-        <v>219</v>
-      </c>
       <c r="M60" s="3" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3963,43 +3951,43 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D61" t="s">
         <v>77</v>
       </c>
       <c r="E61">
-        <v>13.70807262</v>
+        <v>13.802143</v>
       </c>
       <c r="F61">
-        <v>100.59964</v>
+        <v>100.19</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I61" t="s">
+        <v>182</v>
+      </c>
+      <c r="J61" t="s">
+        <v>184</v>
+      </c>
+      <c r="K61" t="s">
+        <v>181</v>
+      </c>
+      <c r="L61" t="s">
         <v>191</v>
       </c>
-      <c r="J61" t="s">
-        <v>193</v>
-      </c>
-      <c r="K61" t="s">
-        <v>190</v>
-      </c>
-      <c r="L61" t="s">
-        <v>207</v>
-      </c>
       <c r="M61" s="3" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4007,43 +3995,43 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D62" t="s">
         <v>78</v>
       </c>
       <c r="E62">
-        <v>13.78051515</v>
+        <v>13.928974</v>
       </c>
       <c r="F62">
-        <v>100.4226823</v>
+        <v>100.577365</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J62" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K62" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L62" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4051,43 +4039,43 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C63" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D63" t="s">
         <v>79</v>
       </c>
       <c r="E63">
-        <v>13.7355293</v>
+        <v>13.929686</v>
       </c>
       <c r="F63">
-        <v>100.5979688</v>
+        <v>100.576</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I63" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J63" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K63" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L63" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4095,43 +4083,43 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C64" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D64" t="s">
         <v>80</v>
       </c>
       <c r="E64">
-        <v>13.73406154</v>
+        <v>13.76033018</v>
       </c>
       <c r="F64">
-        <v>100.5967948</v>
+        <v>100.4796436</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I64" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J64" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K64" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L64" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4139,43 +4127,43 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C65" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D65" t="s">
         <v>81</v>
       </c>
       <c r="E65">
-        <v>13.7738673</v>
+        <v>13.82853997</v>
       </c>
       <c r="F65">
-        <v>100.5093218</v>
+        <v>100.4842102</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I65" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J65" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K65" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L65" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4183,43 +4171,43 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C66" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D66" t="s">
         <v>82</v>
       </c>
       <c r="E66">
-        <v>13.82650614</v>
+        <v>14.01020378</v>
       </c>
       <c r="F66">
-        <v>100.4860605</v>
+        <v>100.1768909</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I66" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J66" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K66" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L66" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4227,43 +4215,43 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C67" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D67" t="s">
         <v>83</v>
       </c>
       <c r="E67">
-        <v>13.79667017</v>
+        <v>14.04839109</v>
       </c>
       <c r="F67">
-        <v>100.5516735</v>
+        <v>100.0198852</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
+      <c r="H67" t="s">
+        <v>181</v>
+      </c>
+      <c r="I67" t="s">
+        <v>182</v>
+      </c>
+      <c r="J67" t="s">
+        <v>184</v>
+      </c>
+      <c r="K67" t="s">
+        <v>181</v>
       </c>
       <c r="L67" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4271,10 +4259,10 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C68" s="2">
         <v>44187</v>
@@ -4283,31 +4271,31 @@
         <v>84</v>
       </c>
       <c r="E68">
-        <v>13.73541413</v>
+        <v>13.80175861</v>
       </c>
       <c r="F68">
-        <v>100.5877998</v>
+        <v>100.3053076</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68">
-        <v>0</v>
+      <c r="H68" t="s">
+        <v>181</v>
       </c>
       <c r="I68" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J68" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K68" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L68" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4315,10 +4303,10 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C69" s="2">
         <v>44187</v>
@@ -4327,10 +4315,10 @@
         <v>85</v>
       </c>
       <c r="E69">
-        <v>13.78766192</v>
+        <v>13.60633251</v>
       </c>
       <c r="F69">
-        <v>100.5105938</v>
+        <v>100.4036543</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -4338,20 +4326,20 @@
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69" t="s">
-        <v>191</v>
-      </c>
-      <c r="J69" t="s">
-        <v>193</v>
-      </c>
-      <c r="K69" t="s">
-        <v>190</v>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4359,43 +4347,43 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C70" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D70" t="s">
         <v>86</v>
       </c>
       <c r="E70">
-        <v>13.5951449</v>
+        <v>13.7462524</v>
       </c>
       <c r="F70">
-        <v>100.5802135</v>
+        <v>100.5328635</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70" t="s">
-        <v>189</v>
+      <c r="H70">
+        <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J70" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K70" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L70" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4403,43 +4391,43 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C71" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D71" t="s">
         <v>87</v>
       </c>
       <c r="E71">
-        <v>13.803038</v>
+        <v>13.7243591</v>
       </c>
       <c r="F71">
-        <v>100.188902</v>
+        <v>100.5386589</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71" t="s">
-        <v>190</v>
+      <c r="H71">
+        <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J71" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K71" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L71" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4447,43 +4435,43 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C72" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D72" t="s">
         <v>88</v>
       </c>
       <c r="E72">
-        <v>13.802143</v>
+        <v>13.54974685</v>
       </c>
       <c r="F72">
-        <v>100.19</v>
+        <v>100.2561435</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="I72" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J72" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K72" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L72" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4491,43 +4479,43 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C73" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D73" t="s">
         <v>89</v>
       </c>
       <c r="E73">
-        <v>13.928974</v>
+        <v>14.45160513</v>
       </c>
       <c r="F73">
-        <v>100.577365</v>
+        <v>100.7230585</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="I73" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J73" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K73" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L73" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4535,43 +4523,43 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C74" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D74" t="s">
         <v>90</v>
       </c>
       <c r="E74">
-        <v>13.929686</v>
+        <v>13.72836497</v>
       </c>
       <c r="F74">
-        <v>100.576</v>
+        <v>100.5350858</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I74" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J74" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K74" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L74" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4579,43 +4567,43 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C75" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D75" t="s">
         <v>91</v>
       </c>
       <c r="E75">
-        <v>13.76033018</v>
+        <v>13.7660558</v>
       </c>
       <c r="F75">
-        <v>100.4796436</v>
+        <v>100.6403032</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I75" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J75" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K75" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L75" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4623,43 +4611,43 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C76" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D76" t="s">
         <v>92</v>
       </c>
       <c r="E76">
-        <v>13.82853997</v>
+        <v>13.710361</v>
       </c>
       <c r="F76">
-        <v>100.4842102</v>
+        <v>100.4073817</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I76" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J76" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K76" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L76" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4667,43 +4655,43 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D77" t="s">
         <v>93</v>
       </c>
       <c r="E77">
-        <v>14.01020378</v>
+        <v>13.2054213</v>
       </c>
       <c r="F77">
-        <v>100.1768909</v>
+        <v>99.9793013</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="H77" t="s">
-        <v>190</v>
+      <c r="H77">
+        <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J77" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K77" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L77" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4711,43 +4699,43 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C78" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D78" t="s">
         <v>94</v>
       </c>
       <c r="E78">
-        <v>14.04839109</v>
+        <v>13.7100705</v>
       </c>
       <c r="F78">
-        <v>100.0198852</v>
+        <v>100.6007069</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
-      <c r="H78" t="s">
-        <v>190</v>
-      </c>
-      <c r="I78" t="s">
-        <v>191</v>
-      </c>
-      <c r="J78" t="s">
-        <v>193</v>
-      </c>
-      <c r="K78" t="s">
-        <v>190</v>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4755,43 +4743,43 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C79" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D79" t="s">
         <v>95</v>
       </c>
       <c r="E79">
-        <v>13.80175861</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>100.3053076</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I79" t="s">
+        <v>182</v>
+      </c>
+      <c r="J79" t="s">
+        <v>184</v>
+      </c>
+      <c r="K79" t="s">
+        <v>181</v>
+      </c>
+      <c r="L79" t="s">
         <v>191</v>
       </c>
-      <c r="J79" t="s">
-        <v>193</v>
-      </c>
-      <c r="K79" t="s">
-        <v>190</v>
-      </c>
-      <c r="L79" t="s">
-        <v>198</v>
-      </c>
       <c r="M79" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4799,43 +4787,43 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C80" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D80" t="s">
         <v>96</v>
       </c>
       <c r="E80">
-        <v>13.60633251</v>
+        <v>13.802283</v>
       </c>
       <c r="F80">
-        <v>100.4036543</v>
+        <v>100.184509</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
+      <c r="H80" t="s">
+        <v>181</v>
+      </c>
+      <c r="I80" t="s">
+        <v>182</v>
+      </c>
+      <c r="J80" t="s">
+        <v>184</v>
+      </c>
+      <c r="K80" t="s">
+        <v>181</v>
       </c>
       <c r="L80" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4843,10 +4831,10 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C81" s="2">
         <v>44188</v>
@@ -4855,31 +4843,31 @@
         <v>97</v>
       </c>
       <c r="E81">
-        <v>13.7462524</v>
+        <v>13.91857</v>
       </c>
       <c r="F81">
-        <v>100.5328635</v>
+        <v>100.601606</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="H81">
-        <v>0</v>
+      <c r="H81" t="s">
+        <v>181</v>
       </c>
       <c r="I81" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J81" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K81" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L81" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4887,10 +4875,10 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C82" s="2">
         <v>44188</v>
@@ -4899,28 +4887,28 @@
         <v>98</v>
       </c>
       <c r="E82">
-        <v>13.7243591</v>
+        <v>13.6171972</v>
       </c>
       <c r="F82">
-        <v>100.5386589</v>
+        <v>100.3791504</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82">
-        <v>0</v>
+      <c r="H82" t="s">
+        <v>181</v>
       </c>
       <c r="I82" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J82" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K82" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M82" s="3" t="s">
         <v>284</v>
@@ -4931,10 +4919,10 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C83" s="2">
         <v>44188</v>
@@ -4943,28 +4931,28 @@
         <v>99</v>
       </c>
       <c r="E83">
-        <v>13.54974685</v>
+        <v>12.66469676</v>
       </c>
       <c r="F83">
-        <v>100.2561435</v>
+        <v>102.1037094</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I83" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J83" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K83" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L83" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>285</v>
@@ -4975,10 +4963,10 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C84" s="2">
         <v>44188</v>
@@ -4987,31 +4975,31 @@
         <v>100</v>
       </c>
       <c r="E84">
-        <v>14.45160513</v>
+        <v>13.86149331</v>
       </c>
       <c r="F84">
-        <v>100.7230585</v>
+        <v>100.6434383</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="H84" t="s">
-        <v>188</v>
-      </c>
-      <c r="I84" t="s">
-        <v>191</v>
-      </c>
-      <c r="J84" t="s">
-        <v>193</v>
-      </c>
-      <c r="K84" t="s">
-        <v>190</v>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5019,10 +5007,10 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C85" s="2">
         <v>44188</v>
@@ -5031,28 +5019,28 @@
         <v>101</v>
       </c>
       <c r="E85">
-        <v>13.72836497</v>
+        <v>13.84500752</v>
       </c>
       <c r="F85">
-        <v>100.5350858</v>
+        <v>100.6352673</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
-      <c r="H85" t="s">
-        <v>190</v>
-      </c>
-      <c r="I85" t="s">
-        <v>191</v>
-      </c>
-      <c r="J85" t="s">
-        <v>193</v>
-      </c>
-      <c r="K85" t="s">
-        <v>190</v>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M85" s="3" t="s">
         <v>286</v>
@@ -5063,40 +5051,40 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C86" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D86" t="s">
         <v>102</v>
       </c>
       <c r="E86">
-        <v>13.7660558</v>
+        <v>13.721681</v>
       </c>
       <c r="F86">
-        <v>100.6403032</v>
+        <v>100.53</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I86" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J86" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K86" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L86" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M86" s="3" t="s">
         <v>287</v>
@@ -5107,43 +5095,43 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C87" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D87" t="s">
         <v>103</v>
       </c>
       <c r="E87">
-        <v>13.710361</v>
+        <v>13.9134431</v>
       </c>
       <c r="F87">
-        <v>100.4073817</v>
+        <v>100.4220473</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="I87" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J87" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K87" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L87" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5151,43 +5139,43 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B88" t="s">
         <v>14</v>
       </c>
       <c r="C88" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D88" t="s">
         <v>104</v>
       </c>
       <c r="E88">
-        <v>13.2054213</v>
+        <v>13.786588</v>
       </c>
       <c r="F88">
-        <v>99.9793013</v>
+        <v>100.321233</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
-      <c r="H88">
-        <v>0</v>
+      <c r="H88" t="s">
+        <v>181</v>
       </c>
       <c r="I88" t="s">
+        <v>182</v>
+      </c>
+      <c r="J88" t="s">
+        <v>184</v>
+      </c>
+      <c r="K88" t="s">
+        <v>181</v>
+      </c>
+      <c r="L88" t="s">
         <v>191</v>
       </c>
-      <c r="J88" t="s">
-        <v>193</v>
-      </c>
-      <c r="K88" t="s">
-        <v>190</v>
-      </c>
-      <c r="L88" t="s">
-        <v>232</v>
-      </c>
       <c r="M88" s="3" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5195,43 +5183,43 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C89" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D89" t="s">
         <v>105</v>
       </c>
       <c r="E89">
-        <v>13.7100705</v>
+        <v>13.8017434</v>
       </c>
       <c r="F89">
-        <v>100.6007069</v>
+        <v>100.1879465</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
+      <c r="H89" t="s">
+        <v>181</v>
+      </c>
+      <c r="I89" t="s">
+        <v>182</v>
+      </c>
+      <c r="J89" t="s">
+        <v>184</v>
+      </c>
+      <c r="K89" t="s">
+        <v>181</v>
       </c>
       <c r="L89" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5239,43 +5227,43 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D90" t="s">
         <v>106</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>13.81456113</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>100.0630594</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I90" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J90" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K90" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L90" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5283,43 +5271,43 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C91" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D91" t="s">
         <v>107</v>
       </c>
       <c r="E91">
-        <v>13.802283</v>
+        <v>12.68783188</v>
       </c>
       <c r="F91">
-        <v>100.184509</v>
+        <v>101.2114545</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="I91" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J91" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K91" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L91" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5327,43 +5315,43 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C92" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D92" t="s">
         <v>108</v>
       </c>
       <c r="E92">
-        <v>13.91857</v>
+        <v>13.67342423</v>
       </c>
       <c r="F92">
-        <v>100.601606</v>
+        <v>100.6069256</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I92" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J92" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K92" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L92" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5371,43 +5359,43 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C93" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D93" t="s">
         <v>109</v>
       </c>
       <c r="E93">
-        <v>13.6171972</v>
+        <v>13.6680206</v>
       </c>
       <c r="F93">
-        <v>100.3791504</v>
+        <v>100.6354649</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I93" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J93" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K93" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L93" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5415,43 +5403,43 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C94" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D94" t="s">
         <v>110</v>
       </c>
       <c r="E94">
-        <v>12.66469676</v>
+        <v>13.88903855</v>
       </c>
       <c r="F94">
-        <v>102.1037094</v>
+        <v>100.6576064</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="H94" t="s">
-        <v>189</v>
-      </c>
-      <c r="I94" t="s">
-        <v>191</v>
-      </c>
-      <c r="J94" t="s">
-        <v>193</v>
-      </c>
-      <c r="K94" t="s">
-        <v>190</v>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5459,22 +5447,22 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C95" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D95" t="s">
         <v>111</v>
       </c>
       <c r="E95">
-        <v>13.86149331</v>
+        <v>13.71110566</v>
       </c>
       <c r="F95">
-        <v>100.6434383</v>
+        <v>100.4158636</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -5492,10 +5480,10 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5503,22 +5491,22 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C96" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="D96" t="s">
         <v>112</v>
       </c>
       <c r="E96">
-        <v>13.84500752</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>100.6352673</v>
+        <v>0</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -5536,10 +5524,10 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5547,43 +5535,43 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C97" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="D97" t="s">
         <v>113</v>
       </c>
       <c r="E97">
-        <v>13.721681</v>
+        <v>13.924252</v>
       </c>
       <c r="F97">
-        <v>100.53</v>
+        <v>100.597945</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I97" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J97" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K97" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L97" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5591,43 +5579,43 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C98" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="D98" t="s">
         <v>114</v>
       </c>
       <c r="E98">
-        <v>13.9134431</v>
+        <v>12.69670286</v>
       </c>
       <c r="F98">
-        <v>100.4220473</v>
+        <v>101.2683573</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I98" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="J98" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K98" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L98" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5635,43 +5623,43 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C99" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="D99" t="s">
         <v>115</v>
       </c>
       <c r="E99">
-        <v>13.786588</v>
+        <v>12.69574994</v>
       </c>
       <c r="F99">
-        <v>100.321233</v>
+        <v>101.2674706</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="I99" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J99" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K99" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L99" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5679,43 +5667,43 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B100" t="s">
         <v>14</v>
       </c>
       <c r="C100" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="D100" t="s">
         <v>116</v>
       </c>
       <c r="E100">
-        <v>13.8017434</v>
+        <v>13.71190173</v>
       </c>
       <c r="F100">
-        <v>100.1879465</v>
+        <v>100.4224456</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
-      <c r="H100" t="s">
-        <v>190</v>
-      </c>
-      <c r="I100" t="s">
-        <v>191</v>
-      </c>
-      <c r="J100" t="s">
-        <v>193</v>
-      </c>
-      <c r="K100" t="s">
-        <v>190</v>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
       </c>
       <c r="L100" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5723,43 +5711,43 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C101" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="D101" t="s">
         <v>117</v>
       </c>
       <c r="E101">
-        <v>13.81456113</v>
+        <v>13.80614397</v>
       </c>
       <c r="F101">
-        <v>100.0630594</v>
+        <v>100.5307221</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
-      <c r="H101" t="s">
-        <v>190</v>
-      </c>
-      <c r="I101" t="s">
-        <v>191</v>
-      </c>
-      <c r="J101" t="s">
-        <v>193</v>
-      </c>
-      <c r="K101" t="s">
-        <v>190</v>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
       </c>
       <c r="L101" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5767,43 +5755,43 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C102" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="D102" t="s">
         <v>118</v>
       </c>
       <c r="E102">
-        <v>12.68783188</v>
+        <v>13.78786299</v>
       </c>
       <c r="F102">
-        <v>101.2114545</v>
+        <v>100.4828396</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="H102" t="s">
-        <v>189</v>
-      </c>
-      <c r="I102" t="s">
-        <v>191</v>
-      </c>
-      <c r="J102" t="s">
-        <v>193</v>
-      </c>
-      <c r="K102" t="s">
-        <v>190</v>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
       </c>
       <c r="L102" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5811,43 +5799,43 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C103" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="D103" t="s">
         <v>119</v>
       </c>
       <c r="E103">
-        <v>13.67342423</v>
+        <v>13.77791571</v>
       </c>
       <c r="F103">
-        <v>100.6069256</v>
+        <v>100.4766994</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
-      <c r="H103" t="s">
-        <v>190</v>
-      </c>
-      <c r="I103" t="s">
-        <v>191</v>
-      </c>
-      <c r="J103" t="s">
-        <v>193</v>
-      </c>
-      <c r="K103" t="s">
-        <v>190</v>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
       </c>
       <c r="L103" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5855,43 +5843,43 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C104" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="D104" t="s">
         <v>120</v>
       </c>
       <c r="E104">
-        <v>13.6680206</v>
+        <v>18.80731097</v>
       </c>
       <c r="F104">
-        <v>100.6354649</v>
+        <v>98.96283674999999</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
-      <c r="H104" t="s">
-        <v>190</v>
-      </c>
-      <c r="I104" t="s">
-        <v>191</v>
-      </c>
-      <c r="J104" t="s">
-        <v>193</v>
-      </c>
-      <c r="K104" t="s">
-        <v>190</v>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
       </c>
       <c r="L104" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5899,22 +5887,22 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C105" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="D105" t="s">
         <v>121</v>
       </c>
       <c r="E105">
-        <v>13.88903855</v>
+        <v>13.7707636</v>
       </c>
       <c r="F105">
-        <v>100.6576064</v>
+        <v>100.4680689</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -5932,10 +5920,10 @@
         <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5943,22 +5931,22 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C106" s="2">
-        <v>44189</v>
+        <v>44191</v>
       </c>
       <c r="D106" t="s">
         <v>122</v>
       </c>
       <c r="E106">
-        <v>13.71110566</v>
+        <v>13.7636001</v>
       </c>
       <c r="F106">
-        <v>100.4158636</v>
+        <v>100.5114624</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -5972,14 +5960,14 @@
       <c r="J106">
         <v>0</v>
       </c>
-      <c r="K106">
-        <v>0</v>
+      <c r="K106" t="s">
+        <v>181</v>
       </c>
       <c r="L106" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -5987,22 +5975,22 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C107" s="2">
-        <v>44189</v>
+        <v>44191</v>
       </c>
       <c r="D107" t="s">
         <v>123</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>13.734066</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>100.5278354</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -6020,10 +6008,10 @@
         <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6031,43 +6019,43 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
       </c>
       <c r="C108" s="2">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="D108" t="s">
         <v>124</v>
       </c>
       <c r="E108">
-        <v>13.924252</v>
+        <v>12.6483736</v>
       </c>
       <c r="F108">
-        <v>100.597945</v>
+        <v>101.2273679</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
-      <c r="H108" t="s">
-        <v>190</v>
-      </c>
-      <c r="I108" t="s">
-        <v>191</v>
-      </c>
-      <c r="J108" t="s">
-        <v>193</v>
-      </c>
-      <c r="K108" t="s">
-        <v>190</v>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6075,43 +6063,43 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C109" s="2">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="D109" t="s">
         <v>125</v>
       </c>
       <c r="E109">
-        <v>12.69670286</v>
+        <v>12.69691038</v>
       </c>
       <c r="F109">
-        <v>101.2683573</v>
+        <v>101.268451</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="I109" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J109" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K109" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L109" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6119,43 +6107,43 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C110" s="2">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="D110" t="s">
         <v>126</v>
       </c>
       <c r="E110">
-        <v>12.69574994</v>
+        <v>12.66695256</v>
       </c>
       <c r="F110">
-        <v>101.2674706</v>
+        <v>101.2738756</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="I110" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J110" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K110" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L110" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6163,22 +6151,22 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C111" s="2">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="D111" t="s">
         <v>127</v>
       </c>
       <c r="E111">
-        <v>13.71190173</v>
+        <v>13.86265154</v>
       </c>
       <c r="F111">
-        <v>100.4224456</v>
+        <v>100.6432858</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -6196,10 +6184,10 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6207,22 +6195,22 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B112" t="s">
         <v>15</v>
       </c>
       <c r="C112" s="2">
-        <v>44190</v>
+        <v>44192</v>
       </c>
       <c r="D112" t="s">
         <v>128</v>
       </c>
       <c r="E112">
-        <v>13.80614397</v>
+        <v>12.6844183</v>
       </c>
       <c r="F112">
-        <v>100.5307221</v>
+        <v>101.2742991</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -6236,14 +6224,14 @@
       <c r="J112">
         <v>0</v>
       </c>
-      <c r="K112">
-        <v>0</v>
+      <c r="K112" t="s">
+        <v>181</v>
       </c>
       <c r="L112" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6251,22 +6239,22 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B113" t="s">
         <v>15</v>
       </c>
       <c r="C113" s="2">
-        <v>44190</v>
+        <v>44192</v>
       </c>
       <c r="D113" t="s">
         <v>129</v>
       </c>
       <c r="E113">
-        <v>13.78786299</v>
+        <v>12.9730033</v>
       </c>
       <c r="F113">
-        <v>100.4828396</v>
+        <v>100.9029061</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -6280,14 +6268,14 @@
       <c r="J113">
         <v>0</v>
       </c>
-      <c r="K113">
-        <v>0</v>
+      <c r="K113" t="s">
+        <v>181</v>
       </c>
       <c r="L113" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6295,22 +6283,22 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C114" s="2">
-        <v>44190</v>
+        <v>44192</v>
       </c>
       <c r="D114" t="s">
         <v>130</v>
       </c>
       <c r="E114">
-        <v>13.77791571</v>
+        <v>13.7946069</v>
       </c>
       <c r="F114">
-        <v>100.4766994</v>
+        <v>100.5161808</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -6324,14 +6312,14 @@
       <c r="J114">
         <v>0</v>
       </c>
-      <c r="K114">
-        <v>0</v>
+      <c r="K114" t="s">
+        <v>181</v>
       </c>
       <c r="L114" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6339,43 +6327,43 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C115" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="D115" t="s">
         <v>131</v>
       </c>
       <c r="E115">
-        <v>13.7636001</v>
+        <v>13.54448567</v>
       </c>
       <c r="F115">
-        <v>100.5114624</v>
+        <v>100.2752027</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
+      <c r="H115" t="s">
+        <v>180</v>
+      </c>
+      <c r="I115" t="s">
+        <v>182</v>
+      </c>
+      <c r="J115" t="s">
+        <v>184</v>
       </c>
       <c r="K115" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L115" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6383,22 +6371,22 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B116" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C116" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="D116" t="s">
         <v>132</v>
       </c>
       <c r="E116">
-        <v>13.734066</v>
+        <v>13.67424547</v>
       </c>
       <c r="F116">
-        <v>100.5278354</v>
+        <v>100.426448</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -6416,10 +6404,10 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6427,40 +6415,40 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B117" t="s">
         <v>14</v>
       </c>
       <c r="C117" s="2">
-        <v>44191</v>
+        <v>44193</v>
       </c>
       <c r="D117" t="s">
         <v>133</v>
       </c>
       <c r="E117">
-        <v>12.6483736</v>
+        <v>13.73545544</v>
       </c>
       <c r="F117">
-        <v>101.2273679</v>
+        <v>100.5661584</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117">
-        <v>0</v>
-      </c>
-      <c r="K117">
-        <v>0</v>
+      <c r="H117" t="s">
+        <v>181</v>
+      </c>
+      <c r="I117" t="s">
+        <v>182</v>
+      </c>
+      <c r="J117" t="s">
+        <v>184</v>
+      </c>
+      <c r="K117" t="s">
+        <v>181</v>
       </c>
       <c r="L117" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M117" s="3" t="s">
         <v>297</v>
@@ -6471,43 +6459,43 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B118" t="s">
         <v>15</v>
       </c>
       <c r="C118" s="2">
-        <v>44191</v>
+        <v>44194</v>
       </c>
       <c r="D118" t="s">
         <v>134</v>
       </c>
       <c r="E118">
-        <v>12.69691038</v>
+        <v>12.9098775</v>
       </c>
       <c r="F118">
-        <v>101.268451</v>
+        <v>100.891563</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I118" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J118" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K118" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L118" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6515,43 +6503,43 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B119" t="s">
         <v>15</v>
       </c>
       <c r="C119" s="2">
-        <v>44191</v>
+        <v>44194</v>
       </c>
       <c r="D119" t="s">
         <v>135</v>
       </c>
       <c r="E119">
-        <v>12.66695256</v>
+        <v>13.3535702</v>
       </c>
       <c r="F119">
-        <v>101.2738756</v>
+        <v>100.9765439</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
-      <c r="H119" t="s">
-        <v>189</v>
-      </c>
-      <c r="I119" t="s">
-        <v>191</v>
-      </c>
-      <c r="J119" t="s">
-        <v>193</v>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L119" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6559,22 +6547,22 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C120" s="2">
-        <v>44191</v>
+        <v>44194</v>
       </c>
       <c r="D120" t="s">
         <v>136</v>
       </c>
       <c r="E120">
-        <v>13.86265154</v>
+        <v>12.948902</v>
       </c>
       <c r="F120">
-        <v>100.6432858</v>
+        <v>100.891292</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -6588,14 +6576,14 @@
       <c r="J120">
         <v>0</v>
       </c>
-      <c r="K120">
-        <v>0</v>
+      <c r="K120" t="s">
+        <v>181</v>
       </c>
       <c r="L120" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6603,22 +6591,22 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C121" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="D121" t="s">
         <v>137</v>
       </c>
       <c r="E121">
-        <v>12.6844183</v>
+        <v>12.6495877</v>
       </c>
       <c r="F121">
-        <v>101.2742991</v>
+        <v>102.0329425</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6633,13 +6621,13 @@
         <v>0</v>
       </c>
       <c r="K121" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L121" t="s">
         <v>242</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6647,22 +6635,22 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C122" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="D122" t="s">
         <v>138</v>
       </c>
       <c r="E122">
-        <v>12.9730033</v>
+        <v>12.3757564</v>
       </c>
       <c r="F122">
-        <v>100.9029061</v>
+        <v>102.3818628</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6677,13 +6665,13 @@
         <v>0</v>
       </c>
       <c r="K122" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L122" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6691,22 +6679,22 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B123" t="s">
         <v>15</v>
       </c>
       <c r="C123" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="D123" t="s">
         <v>139</v>
       </c>
       <c r="E123">
-        <v>13.7946069</v>
+        <v>12.7246169</v>
       </c>
       <c r="F123">
-        <v>100.5161808</v>
+        <v>101.9362794</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -6721,13 +6709,13 @@
         <v>0</v>
       </c>
       <c r="K123" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L123" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6735,43 +6723,43 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C124" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="D124" t="s">
         <v>140</v>
       </c>
       <c r="E124">
-        <v>13.54448567</v>
+        <v>13.772986</v>
       </c>
       <c r="F124">
-        <v>100.2752027</v>
+        <v>100.4855148</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
-      <c r="H124" t="s">
-        <v>189</v>
-      </c>
-      <c r="I124" t="s">
-        <v>191</v>
-      </c>
-      <c r="J124" t="s">
-        <v>193</v>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
       </c>
       <c r="K124" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L124" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -6779,22 +6767,22 @@
     </row>
     <row r="125" spans="1:14">
       <c r="A125">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C125" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="D125" t="s">
         <v>141</v>
       </c>
       <c r="E125">
-        <v>13.67424547</v>
+        <v>12.90895904</v>
       </c>
       <c r="F125">
-        <v>100.426448</v>
+        <v>100.891925</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -6812,10 +6800,10 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -6823,43 +6811,43 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C126" s="2">
-        <v>44193</v>
+        <v>44194</v>
       </c>
       <c r="D126" t="s">
         <v>142</v>
       </c>
       <c r="E126">
-        <v>13.73545544</v>
+        <v>12.90960418</v>
       </c>
       <c r="F126">
-        <v>100.5661584</v>
+        <v>100.870256</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
-      <c r="H126" t="s">
-        <v>190</v>
-      </c>
-      <c r="I126" t="s">
-        <v>191</v>
-      </c>
-      <c r="J126" t="s">
-        <v>193</v>
-      </c>
-      <c r="K126" t="s">
-        <v>190</v>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -6867,10 +6855,10 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B127" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C127" s="2">
         <v>44194</v>
@@ -6879,25 +6867,25 @@
         <v>143</v>
       </c>
       <c r="E127">
-        <v>12.9098775</v>
+        <v>12.93047726</v>
       </c>
       <c r="F127">
-        <v>100.891563</v>
+        <v>100.8807229</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
-      <c r="H127" t="s">
-        <v>190</v>
-      </c>
-      <c r="I127" t="s">
-        <v>191</v>
-      </c>
-      <c r="J127" t="s">
-        <v>193</v>
-      </c>
-      <c r="K127" t="s">
-        <v>190</v>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
       </c>
       <c r="L127" t="s">
         <v>246</v>
@@ -6911,10 +6899,10 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B128" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C128" s="2">
         <v>44194</v>
@@ -6923,10 +6911,10 @@
         <v>144</v>
       </c>
       <c r="E128">
-        <v>13.3535702</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>100.9765439</v>
+        <v>0</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -6940,14 +6928,14 @@
       <c r="J128">
         <v>0</v>
       </c>
-      <c r="K128" t="s">
-        <v>190</v>
+      <c r="K128">
+        <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -6955,7 +6943,7 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B129" t="s">
         <v>17</v>
@@ -6967,10 +6955,10 @@
         <v>145</v>
       </c>
       <c r="E129">
-        <v>12.948902</v>
+        <v>12.66219926</v>
       </c>
       <c r="F129">
-        <v>100.891292</v>
+        <v>100.8989779</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -6984,11 +6972,11 @@
       <c r="J129">
         <v>0</v>
       </c>
-      <c r="K129" t="s">
-        <v>190</v>
+      <c r="K129">
+        <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M129" s="3" t="s">
         <v>302</v>
@@ -6999,10 +6987,10 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B130" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C130" s="2">
         <v>44194</v>
@@ -7011,10 +6999,10 @@
         <v>146</v>
       </c>
       <c r="E130">
-        <v>12.6495877</v>
+        <v>13.32877789</v>
       </c>
       <c r="F130">
-        <v>102.0329425</v>
+        <v>100.9230017</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -7028,14 +7016,14 @@
       <c r="J130">
         <v>0</v>
       </c>
-      <c r="K130" t="s">
-        <v>190</v>
+      <c r="K130">
+        <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7043,10 +7031,10 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C131" s="2">
         <v>44194</v>
@@ -7055,10 +7043,10 @@
         <v>147</v>
       </c>
       <c r="E131">
-        <v>12.3757564</v>
+        <v>13.33615653</v>
       </c>
       <c r="F131">
-        <v>102.3818628</v>
+        <v>100.9694597</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -7072,14 +7060,14 @@
       <c r="J131">
         <v>0</v>
       </c>
-      <c r="K131" t="s">
-        <v>190</v>
+      <c r="K131">
+        <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -7087,10 +7075,10 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C132" s="2">
         <v>44194</v>
@@ -7099,10 +7087,10 @@
         <v>148</v>
       </c>
       <c r="E132">
-        <v>12.7246169</v>
+        <v>12.83546656</v>
       </c>
       <c r="F132">
-        <v>101.9362794</v>
+        <v>100.967575</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -7116,14 +7104,14 @@
       <c r="J132">
         <v>0</v>
       </c>
-      <c r="K132" t="s">
-        <v>190</v>
+      <c r="K132">
+        <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7131,7 +7119,7 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B133" t="s">
         <v>17</v>
@@ -7143,10 +7131,10 @@
         <v>149</v>
       </c>
       <c r="E133">
-        <v>13.772986</v>
+        <v>13.33545565</v>
       </c>
       <c r="F133">
-        <v>100.4855148</v>
+        <v>100.9249432</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -7160,14 +7148,14 @@
       <c r="J133">
         <v>0</v>
       </c>
-      <c r="K133" t="s">
-        <v>190</v>
+      <c r="K133">
+        <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7175,7 +7163,7 @@
     </row>
     <row r="134" spans="1:14">
       <c r="A134">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B134" t="s">
         <v>17</v>
@@ -7187,10 +7175,10 @@
         <v>150</v>
       </c>
       <c r="E134">
-        <v>12.90895904</v>
+        <v>13.33841928</v>
       </c>
       <c r="F134">
-        <v>100.891925</v>
+        <v>100.9526548</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -7208,10 +7196,10 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -7219,7 +7207,7 @@
     </row>
     <row r="135" spans="1:14">
       <c r="A135">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B135" t="s">
         <v>17</v>
@@ -7231,10 +7219,10 @@
         <v>151</v>
       </c>
       <c r="E135">
-        <v>12.90960418</v>
+        <v>12.68318129</v>
       </c>
       <c r="F135">
-        <v>100.870256</v>
+        <v>101.2479341</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -7252,10 +7240,10 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7263,7 +7251,7 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B136" t="s">
         <v>17</v>
@@ -7275,10 +7263,10 @@
         <v>152</v>
       </c>
       <c r="E136">
-        <v>12.93047726</v>
+        <v>12.68178774</v>
       </c>
       <c r="F136">
-        <v>100.8807229</v>
+        <v>101.2804266</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -7296,10 +7284,10 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7307,7 +7295,7 @@
     </row>
     <row r="137" spans="1:14">
       <c r="A137">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B137" t="s">
         <v>17</v>
@@ -7319,10 +7307,10 @@
         <v>153</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>12.67663309</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>101.2204609</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -7340,10 +7328,10 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7351,7 +7339,7 @@
     </row>
     <row r="138" spans="1:14">
       <c r="A138">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B138" t="s">
         <v>17</v>
@@ -7363,10 +7351,10 @@
         <v>154</v>
       </c>
       <c r="E138">
-        <v>12.66219926</v>
+        <v>12.67969829</v>
       </c>
       <c r="F138">
-        <v>100.8989779</v>
+        <v>101.2516232</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -7384,10 +7372,10 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7395,7 +7383,7 @@
     </row>
     <row r="139" spans="1:14">
       <c r="A139">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B139" t="s">
         <v>17</v>
@@ -7407,10 +7395,10 @@
         <v>155</v>
       </c>
       <c r="E139">
-        <v>13.32877789</v>
+        <v>12.67895072</v>
       </c>
       <c r="F139">
-        <v>100.9230017</v>
+        <v>101.2811971</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -7428,10 +7416,10 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7439,7 +7427,7 @@
     </row>
     <row r="140" spans="1:14">
       <c r="A140">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B140" t="s">
         <v>17</v>
@@ -7451,10 +7439,10 @@
         <v>156</v>
       </c>
       <c r="E140">
-        <v>13.33615653</v>
+        <v>12.69121623</v>
       </c>
       <c r="F140">
-        <v>100.9694597</v>
+        <v>101.2828322</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -7472,10 +7460,10 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7483,7 +7471,7 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B141" t="s">
         <v>17</v>
@@ -7495,10 +7483,10 @@
         <v>157</v>
       </c>
       <c r="E141">
-        <v>12.83546656</v>
+        <v>12.61154131</v>
       </c>
       <c r="F141">
-        <v>100.967575</v>
+        <v>102.105739</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -7516,10 +7504,10 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -7527,7 +7515,7 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B142" t="s">
         <v>17</v>
@@ -7539,10 +7527,10 @@
         <v>158</v>
       </c>
       <c r="E142">
-        <v>13.33545565</v>
+        <v>12.59875505</v>
       </c>
       <c r="F142">
-        <v>100.9249432</v>
+        <v>102.1108505</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -7560,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7571,7 +7559,7 @@
     </row>
     <row r="143" spans="1:14">
       <c r="A143">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B143" t="s">
         <v>17</v>
@@ -7583,10 +7571,10 @@
         <v>159</v>
       </c>
       <c r="E143">
-        <v>13.33841928</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>100.9526548</v>
+        <v>0</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -7604,10 +7592,10 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -7615,7 +7603,7 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B144" t="s">
         <v>17</v>
@@ -7627,10 +7615,10 @@
         <v>160</v>
       </c>
       <c r="E144">
-        <v>12.68318129</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>101.2479341</v>
+        <v>0</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -7648,10 +7636,10 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -7659,7 +7647,7 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B145" t="s">
         <v>17</v>
@@ -7671,10 +7659,10 @@
         <v>161</v>
       </c>
       <c r="E145">
-        <v>12.68178774</v>
+        <v>12.94007297</v>
       </c>
       <c r="F145">
-        <v>101.2804266</v>
+        <v>100.9198688</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -7692,10 +7680,10 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -7703,7 +7691,7 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B146" t="s">
         <v>17</v>
@@ -7715,10 +7703,10 @@
         <v>162</v>
       </c>
       <c r="E146">
-        <v>12.67663309</v>
+        <v>12.93500267</v>
       </c>
       <c r="F146">
-        <v>101.2204609</v>
+        <v>100.8828385</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -7736,10 +7724,10 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -7747,7 +7735,7 @@
     </row>
     <row r="147" spans="1:14">
       <c r="A147">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B147" t="s">
         <v>17</v>
@@ -7759,10 +7747,10 @@
         <v>163</v>
       </c>
       <c r="E147">
-        <v>12.67969829</v>
+        <v>12.93302705</v>
       </c>
       <c r="F147">
-        <v>101.2516232</v>
+        <v>100.9013151</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -7780,10 +7768,10 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -7791,7 +7779,7 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B148" t="s">
         <v>17</v>
@@ -7803,10 +7791,10 @@
         <v>164</v>
       </c>
       <c r="E148">
-        <v>12.67895072</v>
+        <v>12.93124481</v>
       </c>
       <c r="F148">
-        <v>101.2811971</v>
+        <v>100.9008084</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -7824,10 +7812,10 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -7835,7 +7823,7 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B149" t="s">
         <v>17</v>
@@ -7847,10 +7835,10 @@
         <v>165</v>
       </c>
       <c r="E149">
-        <v>12.69121623</v>
+        <v>12.93038104</v>
       </c>
       <c r="F149">
-        <v>101.2828322</v>
+        <v>100.9126714</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -7868,10 +7856,10 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -7879,7 +7867,7 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B150" t="s">
         <v>17</v>
@@ -7891,10 +7879,10 @@
         <v>166</v>
       </c>
       <c r="E150">
-        <v>12.61154131</v>
+        <v>12.84875767</v>
       </c>
       <c r="F150">
-        <v>102.105739</v>
+        <v>100.9017</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -7912,10 +7900,10 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -7923,7 +7911,7 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B151" t="s">
         <v>17</v>
@@ -7935,10 +7923,10 @@
         <v>167</v>
       </c>
       <c r="E151">
-        <v>12.59875505</v>
+        <v>12.90883138</v>
       </c>
       <c r="F151">
-        <v>102.1108505</v>
+        <v>100.8932458</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -7956,10 +7944,10 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -7967,7 +7955,7 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B152" t="s">
         <v>17</v>
@@ -7979,10 +7967,10 @@
         <v>168</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>12.66362634</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>100.8981743</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -8000,10 +7988,10 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -8011,7 +7999,7 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B153" t="s">
         <v>17</v>
@@ -8023,10 +8011,10 @@
         <v>169</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>12.95074463</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>100.8933879</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -8044,10 +8032,10 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -8055,7 +8043,7 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B154" t="s">
         <v>17</v>
@@ -8067,10 +8055,10 @@
         <v>170</v>
       </c>
       <c r="E154">
-        <v>12.94007297</v>
+        <v>12.97880506</v>
       </c>
       <c r="F154">
-        <v>100.9198688</v>
+        <v>100.9430835</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -8088,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8099,7 +8087,7 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B155" t="s">
         <v>17</v>
@@ -8111,10 +8099,10 @@
         <v>171</v>
       </c>
       <c r="E155">
-        <v>12.93500267</v>
+        <v>12.92662465</v>
       </c>
       <c r="F155">
-        <v>100.8828385</v>
+        <v>100.898605</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -8132,10 +8120,10 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -8143,7 +8131,7 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B156" t="s">
         <v>17</v>
@@ -8155,10 +8143,10 @@
         <v>172</v>
       </c>
       <c r="E156">
-        <v>12.93302705</v>
+        <v>12.98328283</v>
       </c>
       <c r="F156">
-        <v>100.9013151</v>
+        <v>100.9354783</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -8176,10 +8164,10 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -8187,7 +8175,7 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B157" t="s">
         <v>17</v>
@@ -8199,10 +8187,10 @@
         <v>173</v>
       </c>
       <c r="E157">
-        <v>12.93124481</v>
+        <v>12.98177123</v>
       </c>
       <c r="F157">
-        <v>100.9008084</v>
+        <v>100.9289336</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -8220,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -8231,7 +8219,7 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B158" t="s">
         <v>17</v>
@@ -8243,10 +8231,10 @@
         <v>174</v>
       </c>
       <c r="E158">
-        <v>12.93038104</v>
+        <v>13.01893524</v>
       </c>
       <c r="F158">
-        <v>100.9126714</v>
+        <v>100.932701</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -8264,10 +8252,10 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -8275,7 +8263,7 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B159" t="s">
         <v>17</v>
@@ -8287,10 +8275,10 @@
         <v>175</v>
       </c>
       <c r="E159">
-        <v>12.84875767</v>
+        <v>12.95555524</v>
       </c>
       <c r="F159">
-        <v>100.9017</v>
+        <v>100.8987028</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -8308,10 +8296,10 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -8319,7 +8307,7 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B160" t="s">
         <v>17</v>
@@ -8331,10 +8319,10 @@
         <v>176</v>
       </c>
       <c r="E160">
-        <v>12.90883138</v>
+        <v>12.93944879</v>
       </c>
       <c r="F160">
-        <v>100.8932458</v>
+        <v>100.9021397</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -8352,10 +8340,10 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -8363,7 +8351,7 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B161" t="s">
         <v>17</v>
@@ -8375,10 +8363,10 @@
         <v>177</v>
       </c>
       <c r="E161">
-        <v>12.66362634</v>
+        <v>12.75400498</v>
       </c>
       <c r="F161">
-        <v>100.8981743</v>
+        <v>100.9017967</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -8396,10 +8384,10 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -8407,7 +8395,7 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B162" t="s">
         <v>17</v>
@@ -8419,10 +8407,10 @@
         <v>178</v>
       </c>
       <c r="E162">
-        <v>12.95074463</v>
+        <v>12.69857571</v>
       </c>
       <c r="F162">
-        <v>100.8933879</v>
+        <v>100.8899412</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -8440,408 +8428,12 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
-      <c r="A163">
-        <v>221</v>
-      </c>
-      <c r="B163" t="s">
-        <v>17</v>
-      </c>
-      <c r="C163" s="2">
-        <v>44194</v>
-      </c>
-      <c r="D163" t="s">
-        <v>179</v>
-      </c>
-      <c r="E163">
-        <v>12.97880506</v>
-      </c>
-      <c r="F163">
-        <v>100.9430835</v>
-      </c>
-      <c r="G163">
-        <v>0</v>
-      </c>
-      <c r="H163">
-        <v>0</v>
-      </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-      <c r="J163">
-        <v>0</v>
-      </c>
-      <c r="K163">
-        <v>0</v>
-      </c>
-      <c r="L163" t="s">
-        <v>256</v>
-      </c>
-      <c r="M163" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
-      <c r="A164">
-        <v>222</v>
-      </c>
-      <c r="B164" t="s">
-        <v>17</v>
-      </c>
-      <c r="C164" s="2">
-        <v>44194</v>
-      </c>
-      <c r="D164" t="s">
-        <v>180</v>
-      </c>
-      <c r="E164">
-        <v>12.92662465</v>
-      </c>
-      <c r="F164">
-        <v>100.898605</v>
-      </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="H164">
-        <v>0</v>
-      </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
-      <c r="J164">
-        <v>0</v>
-      </c>
-      <c r="K164">
-        <v>0</v>
-      </c>
-      <c r="L164" t="s">
-        <v>256</v>
-      </c>
-      <c r="M164" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
-      <c r="A165">
-        <v>223</v>
-      </c>
-      <c r="B165" t="s">
-        <v>17</v>
-      </c>
-      <c r="C165" s="2">
-        <v>44194</v>
-      </c>
-      <c r="D165" t="s">
-        <v>181</v>
-      </c>
-      <c r="E165">
-        <v>12.98328283</v>
-      </c>
-      <c r="F165">
-        <v>100.9354783</v>
-      </c>
-      <c r="G165">
-        <v>0</v>
-      </c>
-      <c r="H165">
-        <v>0</v>
-      </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
-      <c r="J165">
-        <v>0</v>
-      </c>
-      <c r="K165">
-        <v>0</v>
-      </c>
-      <c r="L165" t="s">
-        <v>256</v>
-      </c>
-      <c r="M165" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
-      <c r="A166">
-        <v>224</v>
-      </c>
-      <c r="B166" t="s">
-        <v>17</v>
-      </c>
-      <c r="C166" s="2">
-        <v>44194</v>
-      </c>
-      <c r="D166" t="s">
-        <v>182</v>
-      </c>
-      <c r="E166">
-        <v>12.98177123</v>
-      </c>
-      <c r="F166">
-        <v>100.9289336</v>
-      </c>
-      <c r="G166">
-        <v>0</v>
-      </c>
-      <c r="H166">
-        <v>0</v>
-      </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
-      <c r="K166">
-        <v>0</v>
-      </c>
-      <c r="L166" t="s">
-        <v>256</v>
-      </c>
-      <c r="M166" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
-      <c r="A167">
-        <v>225</v>
-      </c>
-      <c r="B167" t="s">
-        <v>17</v>
-      </c>
-      <c r="C167" s="2">
-        <v>44194</v>
-      </c>
-      <c r="D167" t="s">
-        <v>183</v>
-      </c>
-      <c r="E167">
-        <v>13.01893524</v>
-      </c>
-      <c r="F167">
-        <v>100.932701</v>
-      </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-      <c r="H167">
-        <v>0</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-      <c r="J167">
-        <v>0</v>
-      </c>
-      <c r="K167">
-        <v>0</v>
-      </c>
-      <c r="L167" t="s">
-        <v>256</v>
-      </c>
-      <c r="M167" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
-      <c r="A168">
-        <v>226</v>
-      </c>
-      <c r="B168" t="s">
-        <v>17</v>
-      </c>
-      <c r="C168" s="2">
-        <v>44194</v>
-      </c>
-      <c r="D168" t="s">
-        <v>184</v>
-      </c>
-      <c r="E168">
-        <v>12.95555524</v>
-      </c>
-      <c r="F168">
-        <v>100.8987028</v>
-      </c>
-      <c r="G168">
-        <v>0</v>
-      </c>
-      <c r="H168">
-        <v>0</v>
-      </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
-      <c r="J168">
-        <v>0</v>
-      </c>
-      <c r="K168">
-        <v>0</v>
-      </c>
-      <c r="L168" t="s">
-        <v>256</v>
-      </c>
-      <c r="M168" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
-      <c r="A169">
-        <v>227</v>
-      </c>
-      <c r="B169" t="s">
-        <v>17</v>
-      </c>
-      <c r="C169" s="2">
-        <v>44194</v>
-      </c>
-      <c r="D169" t="s">
-        <v>185</v>
-      </c>
-      <c r="E169">
-        <v>12.93944879</v>
-      </c>
-      <c r="F169">
-        <v>100.9021397</v>
-      </c>
-      <c r="G169">
-        <v>0</v>
-      </c>
-      <c r="H169">
-        <v>0</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169">
-        <v>0</v>
-      </c>
-      <c r="L169" t="s">
-        <v>256</v>
-      </c>
-      <c r="M169" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
-      <c r="A170">
-        <v>228</v>
-      </c>
-      <c r="B170" t="s">
-        <v>17</v>
-      </c>
-      <c r="C170" s="2">
-        <v>44194</v>
-      </c>
-      <c r="D170" t="s">
-        <v>186</v>
-      </c>
-      <c r="E170">
-        <v>12.75400498</v>
-      </c>
-      <c r="F170">
-        <v>100.9017967</v>
-      </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-      <c r="H170">
-        <v>0</v>
-      </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
-      <c r="J170">
-        <v>0</v>
-      </c>
-      <c r="K170">
-        <v>0</v>
-      </c>
-      <c r="L170" t="s">
-        <v>256</v>
-      </c>
-      <c r="M170" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
-      <c r="A171">
-        <v>229</v>
-      </c>
-      <c r="B171" t="s">
-        <v>17</v>
-      </c>
-      <c r="C171" s="2">
-        <v>44194</v>
-      </c>
-      <c r="D171" t="s">
-        <v>187</v>
-      </c>
-      <c r="E171">
-        <v>12.69857571</v>
-      </c>
-      <c r="F171">
-        <v>100.8899412</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
-      </c>
-      <c r="H171">
-        <v>0</v>
-      </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
-      <c r="J171">
-        <v>0</v>
-      </c>
-      <c r="K171">
-        <v>0</v>
-      </c>
-      <c r="L171" t="s">
-        <v>256</v>
-      </c>
-      <c r="M171" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N171">
         <v>0</v>
       </c>
     </row>
@@ -8871,7 +8463,7 @@
     <hyperlink ref="M23" r:id="rId22"/>
     <hyperlink ref="M24" r:id="rId23"/>
     <hyperlink ref="M25" r:id="rId24"/>
-    <hyperlink ref="M26" r:id="rId25"/>
+    <hyperlink ref="M26" r:id="rId25" location="cxrecs_s"/>
     <hyperlink ref="M27" r:id="rId26"/>
     <hyperlink ref="M28" r:id="rId27"/>
     <hyperlink ref="M29" r:id="rId28"/>
@@ -8882,7 +8474,7 @@
     <hyperlink ref="M34" r:id="rId33"/>
     <hyperlink ref="M35" r:id="rId34"/>
     <hyperlink ref="M36" r:id="rId35"/>
-    <hyperlink ref="M37" r:id="rId36" location="cxrecs_s"/>
+    <hyperlink ref="M37" r:id="rId36"/>
     <hyperlink ref="M38" r:id="rId37"/>
     <hyperlink ref="M39" r:id="rId38"/>
     <hyperlink ref="M40" r:id="rId39"/>
@@ -9008,15 +8600,6 @@
     <hyperlink ref="M160" r:id="rId159"/>
     <hyperlink ref="M161" r:id="rId160"/>
     <hyperlink ref="M162" r:id="rId161"/>
-    <hyperlink ref="M163" r:id="rId162"/>
-    <hyperlink ref="M164" r:id="rId163"/>
-    <hyperlink ref="M165" r:id="rId164"/>
-    <hyperlink ref="M166" r:id="rId165"/>
-    <hyperlink ref="M167" r:id="rId166"/>
-    <hyperlink ref="M168" r:id="rId167"/>
-    <hyperlink ref="M169" r:id="rId168"/>
-    <hyperlink ref="M170" r:id="rId169"/>
-    <hyperlink ref="M171" r:id="rId170"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="316">
   <si>
     <t>id</t>
   </si>
@@ -130,6 +130,9 @@
     <t>เมืองทองธานี ชั้น4 โซน R</t>
   </si>
   <si>
+    <t>ร้านอาโนส์ แถวธรรมศาสตร์ท่าพระจันทร์</t>
+  </si>
+  <si>
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
@@ -208,6 +211,12 @@
     <t>สนามฟุตบอลหญ้าเทียม BQ เพชรเกษม 68</t>
   </si>
   <si>
+    <t>เซ็นทรัลศาลายา</t>
+  </si>
+  <si>
+    <t>ร้านเดอะไชน่า พระราม3</t>
+  </si>
+  <si>
     <t>ร้านก๋วยเตี๋ยว ในตลาดบางใหญ่</t>
   </si>
   <si>
@@ -235,6 +244,12 @@
     <t>Mคอนโด จตุจักร</t>
   </si>
   <si>
+    <t>ห้างไอคอนสยาม</t>
+  </si>
+  <si>
+    <t>ภัตตาคารลี เหล่า หงี่ พระราม3</t>
+  </si>
+  <si>
     <t>Lamptitude สาขาเอกมัย</t>
   </si>
   <si>
@@ -322,6 +337,9 @@
     <t>บ้านเด็กพิการซ้ำซ้อน รามอินทรา</t>
   </si>
   <si>
+    <t>Lotus Express สาขา สน.หนองแขม</t>
+  </si>
+  <si>
     <t>สาธร ซิตี้ ทาวเวอร์</t>
   </si>
   <si>
@@ -382,6 +400,9 @@
     <t>สนง.เขตบางกอกน้อย</t>
   </si>
   <si>
+    <t>ตลาดแม่พวง จ.สมุทรสาคร</t>
+  </si>
+  <si>
     <t>ทำเนียบรัฐบาล</t>
   </si>
   <si>
@@ -400,6 +421,9 @@
     <t>ร้านบ้านสวนสิริน ถ.วัชรพล</t>
   </si>
   <si>
+    <t>ตลาดหลัง 7-11 สาขา สน. หนองแขม</t>
+  </si>
+  <si>
     <t>สถานที่ลักลอบเล่นการพนัน บขส. อ.เมือง จ.ระยอง</t>
   </si>
   <si>
@@ -418,6 +442,9 @@
     <t>อาคารนานมีบุ๊คส์ สุขุมวิท31</t>
   </si>
   <si>
+    <t>ตลาดสดตรงข้ามหมู่บ้านมนวดี กรีน ปาร์ค</t>
+  </si>
+  <si>
     <t>ตู้มวยเทพประสิทธิ์ บางละมุง</t>
   </si>
   <si>
@@ -607,6 +634,9 @@
     <t>ผู้ติดเชื้อ 'โควิด-19' ใน กทม. พบ 19 ธ.ค. ไปดูคอนเสิร์ต อัสนี วสันต์</t>
   </si>
   <si>
+    <t>Timeline ของผู้ติดเชื้อที่อยู่ใน กทม. รายที่ 109-123</t>
+  </si>
+  <si>
     <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
   </si>
   <si>
@@ -797,6 +827,9 @@
   </si>
   <si>
     <t>https://www.bangkokbiznews.com/news/detail/915032</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/posts/3129619717137628</t>
   </si>
   <si>
     <t>https://www.thaipost.net/main/detail/87367</t>
@@ -1303,7 +1336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N162"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1376,22 +1409,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="I2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1420,22 +1453,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L3" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1464,22 +1497,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="I4" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J4" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K4" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L4" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1508,22 +1541,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="I5" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J5" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K5" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L5" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1552,22 +1585,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="I6" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J6" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L6" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1596,22 +1629,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="I7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1640,22 +1673,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="I8" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J8" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K8" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L8" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1684,22 +1717,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I9" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J9" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K9" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L9" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1728,22 +1761,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="I10" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J10" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K10" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L10" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1772,22 +1805,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I11" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J11" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K11" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L11" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1816,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I12" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J12" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K12" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L12" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1860,22 +1893,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I13" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J13" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K13" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L13" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1904,22 +1937,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I14" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J14" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K14" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L14" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1948,22 +1981,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I15" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J15" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K15" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L15" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1992,22 +2025,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I16" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J16" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K16" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2036,22 +2069,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J17" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2080,22 +2113,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2136,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2150,19 +2183,19 @@
         <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
       </c>
       <c r="E20">
-        <v>13.5579068</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>100.270829</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2170,20 +2203,20 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
-        <v>182</v>
-      </c>
-      <c r="J20" t="s">
-        <v>184</v>
-      </c>
-      <c r="K20" t="s">
-        <v>181</v>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2194,7 +2227,7 @@
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
         <v>44185</v>
@@ -2203,31 +2236,31 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>13.7937004</v>
+        <v>13.5579068</v>
       </c>
       <c r="F21">
-        <v>100.6923144</v>
+        <v>100.270829</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21" t="s">
-        <v>179</v>
+      <c r="H21">
+        <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2238,7 +2271,7 @@
         <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
         <v>44185</v>
@@ -2247,31 +2280,31 @@
         <v>40</v>
       </c>
       <c r="E22">
-        <v>13.5455607</v>
+        <v>13.7937004</v>
       </c>
       <c r="F22">
-        <v>100.2767611</v>
+        <v>100.6923144</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K22" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2282,7 +2315,7 @@
         <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
         <v>44185</v>
@@ -2291,31 +2324,31 @@
         <v>41</v>
       </c>
       <c r="E23">
-        <v>14.3355326</v>
+        <v>13.5455607</v>
       </c>
       <c r="F23">
-        <v>100.87017</v>
+        <v>100.2767611</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23">
-        <v>0</v>
+      <c r="H23" t="s">
+        <v>188</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K23" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2332,13 +2365,13 @@
         <v>44185</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24">
-        <v>14.5786407</v>
+        <v>14.3355326</v>
       </c>
       <c r="F24">
-        <v>100.9662444</v>
+        <v>100.87017</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2347,19 +2380,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J24" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K24" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2376,13 +2409,13 @@
         <v>44185</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25">
-        <v>14.5116599</v>
+        <v>14.5786407</v>
       </c>
       <c r="F25">
-        <v>100.9094134</v>
+        <v>100.9662444</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2391,19 +2424,19 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J25" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L25" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2414,7 +2447,7 @@
         <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C26" s="2">
         <v>44185</v>
@@ -2423,10 +2456,10 @@
         <v>42</v>
       </c>
       <c r="E26">
-        <v>14.1378761</v>
+        <v>14.5116599</v>
       </c>
       <c r="F26">
-        <v>100.8255049</v>
+        <v>100.9094134</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2435,19 +2468,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J26" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K26" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2458,7 +2491,7 @@
         <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2">
         <v>44185</v>
@@ -2467,31 +2500,31 @@
         <v>43</v>
       </c>
       <c r="E27">
-        <v>14.06566869</v>
+        <v>14.1378761</v>
       </c>
       <c r="F27">
-        <v>99.9821468</v>
+        <v>100.8255049</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27" t="s">
-        <v>180</v>
+      <c r="H27">
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J27" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K27" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L27" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2502,7 +2535,7 @@
         <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2">
         <v>44185</v>
@@ -2511,31 +2544,31 @@
         <v>44</v>
       </c>
       <c r="E28">
-        <v>13.8220612</v>
+        <v>14.06566869</v>
       </c>
       <c r="F28">
-        <v>100.421874</v>
+        <v>99.9821468</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="I28" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J28" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K28" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2546,7 +2579,7 @@
         <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2">
         <v>44185</v>
@@ -2555,31 +2588,31 @@
         <v>45</v>
       </c>
       <c r="E29">
-        <v>13.8683169</v>
+        <v>13.8220612</v>
       </c>
       <c r="F29">
-        <v>100.4107308</v>
+        <v>100.421874</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="I29" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J29" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K29" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2590,7 +2623,7 @@
         <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2">
         <v>44185</v>
@@ -2599,31 +2632,31 @@
         <v>46</v>
       </c>
       <c r="E30">
-        <v>13.89757086</v>
+        <v>13.8683169</v>
       </c>
       <c r="F30">
-        <v>100.6098027</v>
+        <v>100.4107308</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="I30" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J30" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K30" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2634,7 +2667,7 @@
         <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="2">
         <v>44185</v>
@@ -2643,31 +2676,31 @@
         <v>47</v>
       </c>
       <c r="E31">
-        <v>13.72045903</v>
+        <v>13.89757086</v>
       </c>
       <c r="F31">
-        <v>100.5004852</v>
+        <v>100.6098027</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="I31" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J31" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K31" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L31" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2678,7 +2711,7 @@
         <v>102</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C32" s="2">
         <v>44185</v>
@@ -2687,31 +2720,31 @@
         <v>48</v>
       </c>
       <c r="E32">
-        <v>13.817137</v>
+        <v>13.72045903</v>
       </c>
       <c r="F32">
-        <v>100.041497</v>
+        <v>100.5004852</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="I32" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J32" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K32" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2731,31 +2764,31 @@
         <v>49</v>
       </c>
       <c r="E33">
-        <v>13.737328</v>
+        <v>13.817137</v>
       </c>
       <c r="F33">
-        <v>100.081218</v>
+        <v>100.041497</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I33" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J33" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K33" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L33" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2775,31 +2808,31 @@
         <v>50</v>
       </c>
       <c r="E34">
-        <v>14.021384</v>
+        <v>13.737328</v>
       </c>
       <c r="F34">
-        <v>100.165325</v>
+        <v>100.081218</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I34" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J34" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K34" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L34" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2819,31 +2852,31 @@
         <v>51</v>
       </c>
       <c r="E35">
-        <v>13.82347979</v>
+        <v>14.021384</v>
       </c>
       <c r="F35">
-        <v>100.4101224</v>
+        <v>100.165325</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I35" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J35" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K35" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L35" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2863,31 +2896,31 @@
         <v>52</v>
       </c>
       <c r="E36">
-        <v>13.82622351</v>
+        <v>13.82347979</v>
       </c>
       <c r="F36">
-        <v>100.4124415</v>
+        <v>100.4101224</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I36" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J36" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K36" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L36" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2907,31 +2940,31 @@
         <v>53</v>
       </c>
       <c r="E37">
-        <v>13.71100665</v>
+        <v>13.82622351</v>
       </c>
       <c r="F37">
-        <v>100.4234972</v>
+        <v>100.4124415</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="I37" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J37" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K37" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L37" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2951,31 +2984,31 @@
         <v>54</v>
       </c>
       <c r="E38">
-        <v>13.81780926</v>
+        <v>13.71100665</v>
       </c>
       <c r="F38">
-        <v>100.3981472</v>
+        <v>100.4234972</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="I38" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J38" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K38" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L38" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2995,31 +3028,31 @@
         <v>55</v>
       </c>
       <c r="E39">
-        <v>13.95701015</v>
+        <v>13.81780926</v>
       </c>
       <c r="F39">
-        <v>100.404266</v>
+        <v>100.3981472</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I39" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J39" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K39" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L39" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3039,31 +3072,31 @@
         <v>56</v>
       </c>
       <c r="E40">
-        <v>14.06478568</v>
+        <v>13.95701015</v>
       </c>
       <c r="F40">
-        <v>100.0502624</v>
+        <v>100.404266</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I40" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J40" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K40" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L40" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3083,31 +3116,31 @@
         <v>57</v>
       </c>
       <c r="E41">
-        <v>13.73106738</v>
+        <v>14.06478568</v>
       </c>
       <c r="F41">
-        <v>100.0732375</v>
+        <v>100.0502624</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I41" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J41" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K41" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L41" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3127,31 +3160,31 @@
         <v>58</v>
       </c>
       <c r="E42">
-        <v>13.8122326</v>
+        <v>13.73106738</v>
       </c>
       <c r="F42">
-        <v>100.0726883</v>
+        <v>100.0732375</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I42" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J42" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K42" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L42" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3171,31 +3204,31 @@
         <v>59</v>
       </c>
       <c r="E43">
-        <v>13.69415224</v>
+        <v>13.8122326</v>
       </c>
       <c r="F43">
-        <v>100.6478267</v>
+        <v>100.0726883</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I43" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J43" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K43" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L43" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3215,31 +3248,31 @@
         <v>60</v>
       </c>
       <c r="E44">
-        <v>13.80243028</v>
+        <v>13.69415224</v>
       </c>
       <c r="F44">
-        <v>100.6151197</v>
+        <v>100.6478267</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I44" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J44" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K44" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L44" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3259,31 +3292,31 @@
         <v>61</v>
       </c>
       <c r="E45">
-        <v>13.82571976</v>
+        <v>13.80243028</v>
       </c>
       <c r="F45">
-        <v>100.6794424</v>
+        <v>100.6151197</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I45" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J45" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K45" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L45" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3303,31 +3336,31 @@
         <v>62</v>
       </c>
       <c r="E46">
-        <v>13.83106898</v>
+        <v>13.82571976</v>
       </c>
       <c r="F46">
-        <v>100.3729686</v>
+        <v>100.6794424</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I46" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J46" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K46" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L46" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3347,31 +3380,31 @@
         <v>63</v>
       </c>
       <c r="E47">
-        <v>13.71815181</v>
+        <v>13.83106898</v>
       </c>
       <c r="F47">
-        <v>100.4133961</v>
+        <v>100.3729686</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
+      <c r="H47" t="s">
+        <v>190</v>
+      </c>
+      <c r="I47" t="s">
+        <v>191</v>
+      </c>
+      <c r="J47" t="s">
+        <v>193</v>
+      </c>
+      <c r="K47" t="s">
+        <v>190</v>
       </c>
       <c r="L47" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3382,40 +3415,40 @@
         <v>118</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="D48" t="s">
         <v>64</v>
       </c>
       <c r="E48">
-        <v>13.8781452</v>
+        <v>13.71815181</v>
       </c>
       <c r="F48">
-        <v>100.4091302</v>
+        <v>100.4133961</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48" t="s">
-        <v>180</v>
-      </c>
-      <c r="I48" t="s">
-        <v>182</v>
-      </c>
-      <c r="J48" t="s">
-        <v>184</v>
-      </c>
-      <c r="K48" t="s">
-        <v>181</v>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3426,37 +3459,37 @@
         <v>119</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C49" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="D49" t="s">
         <v>65</v>
       </c>
       <c r="E49">
-        <v>13.7164198</v>
+        <v>13.78667725</v>
       </c>
       <c r="F49">
-        <v>100.5716135</v>
+        <v>100.2762861</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49" t="s">
-        <v>181</v>
-      </c>
-      <c r="I49" t="s">
-        <v>182</v>
-      </c>
-      <c r="J49" t="s">
-        <v>184</v>
-      </c>
-      <c r="K49" t="s">
-        <v>181</v>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>271</v>
@@ -3473,37 +3506,37 @@
         <v>14</v>
       </c>
       <c r="C50" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="D50" t="s">
         <v>66</v>
       </c>
       <c r="E50">
-        <v>13.70807262</v>
+        <v>13.69173041</v>
       </c>
       <c r="F50">
-        <v>100.59964</v>
+        <v>100.5025163</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50" t="s">
-        <v>181</v>
-      </c>
-      <c r="I50" t="s">
-        <v>182</v>
-      </c>
-      <c r="J50" t="s">
-        <v>184</v>
-      </c>
-      <c r="K50" t="s">
-        <v>181</v>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3514,7 +3547,7 @@
         <v>121</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51" s="2">
         <v>44186</v>
@@ -3523,31 +3556,31 @@
         <v>67</v>
       </c>
       <c r="E51">
-        <v>13.78051515</v>
+        <v>13.8781452</v>
       </c>
       <c r="F51">
-        <v>100.4226823</v>
+        <v>100.4091302</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="I51" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J51" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K51" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L51" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3558,7 +3591,7 @@
         <v>122</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C52" s="2">
         <v>44186</v>
@@ -3567,31 +3600,31 @@
         <v>68</v>
       </c>
       <c r="E52">
-        <v>13.7355293</v>
+        <v>13.7164198</v>
       </c>
       <c r="F52">
-        <v>100.5979688</v>
+        <v>100.5716135</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I52" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J52" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K52" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L52" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3611,31 +3644,31 @@
         <v>69</v>
       </c>
       <c r="E53">
-        <v>13.73406154</v>
+        <v>13.70807262</v>
       </c>
       <c r="F53">
-        <v>100.5967948</v>
+        <v>100.59964</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I53" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J53" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K53" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L53" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3655,31 +3688,31 @@
         <v>70</v>
       </c>
       <c r="E54">
-        <v>13.7738673</v>
+        <v>13.78051515</v>
       </c>
       <c r="F54">
-        <v>100.5093218</v>
+        <v>100.4226823</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="I54" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J54" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K54" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L54" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3699,31 +3732,31 @@
         <v>71</v>
       </c>
       <c r="E55">
-        <v>13.82650614</v>
+        <v>13.7355293</v>
       </c>
       <c r="F55">
-        <v>100.4860605</v>
+        <v>100.5979688</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I55" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J55" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K55" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L55" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3743,31 +3776,31 @@
         <v>72</v>
       </c>
       <c r="E56">
-        <v>13.79667017</v>
+        <v>13.73406154</v>
       </c>
       <c r="F56">
-        <v>100.5516735</v>
+        <v>100.5967948</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
+      <c r="H56" t="s">
+        <v>190</v>
+      </c>
+      <c r="I56" t="s">
+        <v>191</v>
+      </c>
+      <c r="J56" t="s">
+        <v>193</v>
+      </c>
+      <c r="K56" t="s">
+        <v>190</v>
       </c>
       <c r="L56" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3781,37 +3814,37 @@
         <v>14</v>
       </c>
       <c r="C57" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D57" t="s">
         <v>73</v>
       </c>
       <c r="E57">
-        <v>13.73541413</v>
+        <v>13.7738673</v>
       </c>
       <c r="F57">
-        <v>100.5877998</v>
+        <v>100.5093218</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57">
-        <v>0</v>
+      <c r="H57" t="s">
+        <v>190</v>
       </c>
       <c r="I57" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J57" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K57" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L57" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3825,37 +3858,37 @@
         <v>14</v>
       </c>
       <c r="C58" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D58" t="s">
         <v>74</v>
       </c>
       <c r="E58">
-        <v>13.78766192</v>
+        <v>13.82650614</v>
       </c>
       <c r="F58">
-        <v>100.5105938</v>
+        <v>100.4860605</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58">
-        <v>0</v>
+      <c r="H58" t="s">
+        <v>190</v>
       </c>
       <c r="I58" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J58" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K58" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L58" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3866,40 +3899,40 @@
         <v>129</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C59" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D59" t="s">
         <v>75</v>
       </c>
       <c r="E59">
-        <v>13.5951449</v>
+        <v>13.79667017</v>
       </c>
       <c r="F59">
-        <v>100.5802135</v>
+        <v>100.5516735</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="H59" t="s">
-        <v>180</v>
-      </c>
-      <c r="I59" t="s">
-        <v>182</v>
-      </c>
-      <c r="J59" t="s">
-        <v>184</v>
-      </c>
-      <c r="K59" t="s">
-        <v>181</v>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3913,37 +3946,37 @@
         <v>14</v>
       </c>
       <c r="C60" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D60" t="s">
         <v>76</v>
       </c>
       <c r="E60">
-        <v>13.803038</v>
+        <v>13.72655096</v>
       </c>
       <c r="F60">
-        <v>100.188902</v>
+        <v>100.5102552</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60" t="s">
-        <v>181</v>
-      </c>
-      <c r="I60" t="s">
-        <v>182</v>
-      </c>
-      <c r="J60" t="s">
-        <v>184</v>
-      </c>
-      <c r="K60" t="s">
-        <v>181</v>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3957,37 +3990,37 @@
         <v>14</v>
       </c>
       <c r="C61" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D61" t="s">
         <v>77</v>
       </c>
       <c r="E61">
-        <v>13.802143</v>
+        <v>13.69580853</v>
       </c>
       <c r="F61">
-        <v>100.19</v>
+        <v>100.5133688</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
-      <c r="H61" t="s">
-        <v>181</v>
-      </c>
-      <c r="I61" t="s">
-        <v>182</v>
-      </c>
-      <c r="J61" t="s">
-        <v>184</v>
-      </c>
-      <c r="K61" t="s">
-        <v>181</v>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4007,31 +4040,31 @@
         <v>78</v>
       </c>
       <c r="E62">
-        <v>13.928974</v>
+        <v>13.73541413</v>
       </c>
       <c r="F62">
-        <v>100.577365</v>
+        <v>100.5877998</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="H62" t="s">
-        <v>181</v>
+      <c r="H62">
+        <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J62" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K62" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L62" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4051,31 +4084,31 @@
         <v>79</v>
       </c>
       <c r="E63">
-        <v>13.929686</v>
+        <v>13.78766192</v>
       </c>
       <c r="F63">
-        <v>100.576</v>
+        <v>100.5105938</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63" t="s">
-        <v>181</v>
+      <c r="H63">
+        <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J63" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K63" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L63" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4086,7 +4119,7 @@
         <v>134</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C64" s="2">
         <v>44187</v>
@@ -4095,31 +4128,31 @@
         <v>80</v>
       </c>
       <c r="E64">
-        <v>13.76033018</v>
+        <v>13.5951449</v>
       </c>
       <c r="F64">
-        <v>100.4796436</v>
+        <v>100.5802135</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="I64" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J64" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K64" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L64" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4139,31 +4172,31 @@
         <v>81</v>
       </c>
       <c r="E65">
-        <v>13.82853997</v>
+        <v>13.803038</v>
       </c>
       <c r="F65">
-        <v>100.4842102</v>
+        <v>100.188902</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I65" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J65" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K65" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L65" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4183,31 +4216,31 @@
         <v>82</v>
       </c>
       <c r="E66">
-        <v>14.01020378</v>
+        <v>13.802143</v>
       </c>
       <c r="F66">
-        <v>100.1768909</v>
+        <v>100.19</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I66" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J66" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K66" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L66" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4227,31 +4260,31 @@
         <v>83</v>
       </c>
       <c r="E67">
-        <v>14.04839109</v>
+        <v>13.928974</v>
       </c>
       <c r="F67">
-        <v>100.0198852</v>
+        <v>100.577365</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I67" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J67" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K67" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L67" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4271,31 +4304,31 @@
         <v>84</v>
       </c>
       <c r="E68">
-        <v>13.80175861</v>
+        <v>13.929686</v>
       </c>
       <c r="F68">
-        <v>100.3053076</v>
+        <v>100.576</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I68" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J68" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K68" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L68" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4315,31 +4348,31 @@
         <v>85</v>
       </c>
       <c r="E69">
-        <v>13.60633251</v>
+        <v>13.76033018</v>
       </c>
       <c r="F69">
-        <v>100.4036543</v>
+        <v>100.4796436</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
+      <c r="H69" t="s">
+        <v>190</v>
+      </c>
+      <c r="I69" t="s">
+        <v>191</v>
+      </c>
+      <c r="J69" t="s">
+        <v>193</v>
+      </c>
+      <c r="K69" t="s">
+        <v>190</v>
       </c>
       <c r="L69" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4350,40 +4383,40 @@
         <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C70" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D70" t="s">
         <v>86</v>
       </c>
       <c r="E70">
-        <v>13.7462524</v>
+        <v>13.82853997</v>
       </c>
       <c r="F70">
-        <v>100.5328635</v>
+        <v>100.4842102</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70">
-        <v>0</v>
+      <c r="H70" t="s">
+        <v>190</v>
       </c>
       <c r="I70" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J70" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K70" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L70" t="s">
         <v>216</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4394,40 +4427,40 @@
         <v>141</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C71" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D71" t="s">
         <v>87</v>
       </c>
       <c r="E71">
-        <v>13.7243591</v>
+        <v>14.01020378</v>
       </c>
       <c r="F71">
-        <v>100.5386589</v>
+        <v>100.1768909</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71">
-        <v>0</v>
+      <c r="H71" t="s">
+        <v>190</v>
       </c>
       <c r="I71" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J71" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K71" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L71" t="s">
         <v>217</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4438,40 +4471,40 @@
         <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C72" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D72" t="s">
         <v>88</v>
       </c>
       <c r="E72">
-        <v>13.54974685</v>
+        <v>14.04839109</v>
       </c>
       <c r="F72">
-        <v>100.2561435</v>
+        <v>100.0198852</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="I72" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J72" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K72" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4482,40 +4515,40 @@
         <v>143</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C73" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D73" t="s">
         <v>89</v>
       </c>
       <c r="E73">
-        <v>14.45160513</v>
+        <v>13.80175861</v>
       </c>
       <c r="F73">
-        <v>100.7230585</v>
+        <v>100.3053076</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="I73" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J73" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K73" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L73" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4526,40 +4559,40 @@
         <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C74" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D74" t="s">
         <v>90</v>
       </c>
       <c r="E74">
-        <v>13.72836497</v>
+        <v>13.60633251</v>
       </c>
       <c r="F74">
-        <v>100.5350858</v>
+        <v>100.4036543</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="H74" t="s">
-        <v>181</v>
-      </c>
-      <c r="I74" t="s">
-        <v>182</v>
-      </c>
-      <c r="J74" t="s">
-        <v>184</v>
-      </c>
-      <c r="K74" t="s">
-        <v>181</v>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4579,31 +4612,31 @@
         <v>91</v>
       </c>
       <c r="E75">
-        <v>13.7660558</v>
+        <v>13.7462524</v>
       </c>
       <c r="F75">
-        <v>100.6403032</v>
+        <v>100.5328635</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75" t="s">
-        <v>181</v>
+      <c r="H75">
+        <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J75" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K75" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L75" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4614,7 +4647,7 @@
         <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C76" s="2">
         <v>44188</v>
@@ -4623,31 +4656,31 @@
         <v>92</v>
       </c>
       <c r="E76">
-        <v>13.710361</v>
+        <v>13.7243591</v>
       </c>
       <c r="F76">
-        <v>100.4073817</v>
+        <v>100.5386589</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76" t="s">
-        <v>181</v>
+      <c r="H76">
+        <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J76" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K76" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L76" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4658,7 +4691,7 @@
         <v>147</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C77" s="2">
         <v>44188</v>
@@ -4667,31 +4700,31 @@
         <v>93</v>
       </c>
       <c r="E77">
-        <v>13.2054213</v>
+        <v>13.54974685</v>
       </c>
       <c r="F77">
-        <v>99.9793013</v>
+        <v>100.2561435</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="H77">
-        <v>0</v>
+      <c r="H77" t="s">
+        <v>188</v>
       </c>
       <c r="I77" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J77" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K77" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L77" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4702,7 +4735,7 @@
         <v>148</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C78" s="2">
         <v>44188</v>
@@ -4711,31 +4744,31 @@
         <v>94</v>
       </c>
       <c r="E78">
-        <v>13.7100705</v>
+        <v>14.45160513</v>
       </c>
       <c r="F78">
-        <v>100.6007069</v>
+        <v>100.7230585</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
+      <c r="H78" t="s">
+        <v>188</v>
+      </c>
+      <c r="I78" t="s">
+        <v>191</v>
+      </c>
+      <c r="J78" t="s">
+        <v>193</v>
+      </c>
+      <c r="K78" t="s">
+        <v>190</v>
       </c>
       <c r="L78" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4746,7 +4779,7 @@
         <v>149</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C79" s="2">
         <v>44188</v>
@@ -4755,31 +4788,31 @@
         <v>95</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>13.72836497</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>100.5350858</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I79" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J79" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K79" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L79" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4790,7 +4823,7 @@
         <v>150</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C80" s="2">
         <v>44188</v>
@@ -4799,31 +4832,31 @@
         <v>96</v>
       </c>
       <c r="E80">
-        <v>13.802283</v>
+        <v>13.7660558</v>
       </c>
       <c r="F80">
-        <v>100.184509</v>
+        <v>100.6403032</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I80" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J80" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K80" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L80" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4834,7 +4867,7 @@
         <v>151</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C81" s="2">
         <v>44188</v>
@@ -4843,31 +4876,31 @@
         <v>97</v>
       </c>
       <c r="E81">
-        <v>13.91857</v>
+        <v>13.710361</v>
       </c>
       <c r="F81">
-        <v>100.601606</v>
+        <v>100.4073817</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I81" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J81" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K81" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L81" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4878,7 +4911,7 @@
         <v>152</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C82" s="2">
         <v>44188</v>
@@ -4887,31 +4920,31 @@
         <v>98</v>
       </c>
       <c r="E82">
-        <v>13.6171972</v>
+        <v>13.2054213</v>
       </c>
       <c r="F82">
-        <v>100.3791504</v>
+        <v>99.9793013</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82" t="s">
-        <v>181</v>
+      <c r="H82">
+        <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J82" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K82" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L82" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4922,7 +4955,7 @@
         <v>153</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C83" s="2">
         <v>44188</v>
@@ -4931,31 +4964,31 @@
         <v>99</v>
       </c>
       <c r="E83">
-        <v>12.66469676</v>
+        <v>13.7100705</v>
       </c>
       <c r="F83">
-        <v>102.1037094</v>
+        <v>100.6007069</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="H83" t="s">
-        <v>180</v>
-      </c>
-      <c r="I83" t="s">
-        <v>182</v>
-      </c>
-      <c r="J83" t="s">
-        <v>184</v>
-      </c>
-      <c r="K83" t="s">
-        <v>181</v>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4975,31 +5008,31 @@
         <v>100</v>
       </c>
       <c r="E84">
-        <v>13.86149331</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>100.6434383</v>
+        <v>0</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
+      <c r="H84" t="s">
+        <v>190</v>
+      </c>
+      <c r="I84" t="s">
+        <v>191</v>
+      </c>
+      <c r="J84" t="s">
+        <v>193</v>
+      </c>
+      <c r="K84" t="s">
+        <v>190</v>
       </c>
       <c r="L84" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5019,31 +5052,31 @@
         <v>101</v>
       </c>
       <c r="E85">
-        <v>13.84500752</v>
+        <v>13.802283</v>
       </c>
       <c r="F85">
-        <v>100.6352673</v>
+        <v>100.184509</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
+      <c r="H85" t="s">
+        <v>190</v>
+      </c>
+      <c r="I85" t="s">
+        <v>191</v>
+      </c>
+      <c r="J85" t="s">
+        <v>193</v>
+      </c>
+      <c r="K85" t="s">
+        <v>190</v>
       </c>
       <c r="L85" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5057,37 +5090,37 @@
         <v>14</v>
       </c>
       <c r="C86" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D86" t="s">
         <v>102</v>
       </c>
       <c r="E86">
-        <v>13.721681</v>
+        <v>13.91857</v>
       </c>
       <c r="F86">
-        <v>100.53</v>
+        <v>100.601606</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I86" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J86" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K86" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L86" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5098,40 +5131,40 @@
         <v>157</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C87" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D87" t="s">
         <v>103</v>
       </c>
       <c r="E87">
-        <v>13.9134431</v>
+        <v>13.6171972</v>
       </c>
       <c r="F87">
-        <v>100.4220473</v>
+        <v>100.3791504</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="I87" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J87" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K87" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L87" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5145,37 +5178,37 @@
         <v>14</v>
       </c>
       <c r="C88" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D88" t="s">
         <v>104</v>
       </c>
       <c r="E88">
-        <v>13.786588</v>
+        <v>12.66469676</v>
       </c>
       <c r="F88">
-        <v>100.321233</v>
+        <v>102.1037094</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="I88" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J88" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K88" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L88" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5186,40 +5219,40 @@
         <v>159</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C89" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D89" t="s">
         <v>105</v>
       </c>
       <c r="E89">
-        <v>13.8017434</v>
+        <v>13.86149331</v>
       </c>
       <c r="F89">
-        <v>100.1879465</v>
+        <v>100.6434383</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="H89" t="s">
-        <v>181</v>
-      </c>
-      <c r="I89" t="s">
-        <v>182</v>
-      </c>
-      <c r="J89" t="s">
-        <v>184</v>
-      </c>
-      <c r="K89" t="s">
-        <v>181</v>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5233,37 +5266,37 @@
         <v>14</v>
       </c>
       <c r="C90" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D90" t="s">
         <v>106</v>
       </c>
       <c r="E90">
-        <v>13.81456113</v>
+        <v>13.84500752</v>
       </c>
       <c r="F90">
-        <v>100.0630594</v>
+        <v>100.6352673</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
-      <c r="H90" t="s">
-        <v>181</v>
-      </c>
-      <c r="I90" t="s">
-        <v>182</v>
-      </c>
-      <c r="J90" t="s">
-        <v>184</v>
-      </c>
-      <c r="K90" t="s">
-        <v>181</v>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5277,37 +5310,37 @@
         <v>14</v>
       </c>
       <c r="C91" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D91" t="s">
         <v>107</v>
       </c>
       <c r="E91">
-        <v>12.68783188</v>
+        <v>13.67744471</v>
       </c>
       <c r="F91">
-        <v>101.2114545</v>
+        <v>100.3450652</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="H91" t="s">
-        <v>180</v>
-      </c>
-      <c r="I91" t="s">
-        <v>182</v>
-      </c>
-      <c r="J91" t="s">
-        <v>184</v>
-      </c>
-      <c r="K91" t="s">
-        <v>181</v>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5327,31 +5360,31 @@
         <v>108</v>
       </c>
       <c r="E92">
-        <v>13.67342423</v>
+        <v>13.721681</v>
       </c>
       <c r="F92">
-        <v>100.6069256</v>
+        <v>100.53</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I92" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J92" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K92" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L92" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5362,7 +5395,7 @@
         <v>163</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C93" s="2">
         <v>44189</v>
@@ -5371,31 +5404,31 @@
         <v>109</v>
       </c>
       <c r="E93">
-        <v>13.6680206</v>
+        <v>13.9134431</v>
       </c>
       <c r="F93">
-        <v>100.6354649</v>
+        <v>100.4220473</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="I93" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="J93" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K93" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L93" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5415,31 +5448,31 @@
         <v>110</v>
       </c>
       <c r="E94">
-        <v>13.88903855</v>
+        <v>13.786588</v>
       </c>
       <c r="F94">
-        <v>100.6576064</v>
+        <v>100.321233</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
+      <c r="H94" t="s">
+        <v>190</v>
+      </c>
+      <c r="I94" t="s">
+        <v>191</v>
+      </c>
+      <c r="J94" t="s">
+        <v>193</v>
+      </c>
+      <c r="K94" t="s">
+        <v>190</v>
       </c>
       <c r="L94" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5450,7 +5483,7 @@
         <v>165</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C95" s="2">
         <v>44189</v>
@@ -5459,31 +5492,31 @@
         <v>111</v>
       </c>
       <c r="E95">
-        <v>13.71110566</v>
+        <v>13.8017434</v>
       </c>
       <c r="F95">
-        <v>100.4158636</v>
+        <v>100.1879465</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
+      <c r="H95" t="s">
+        <v>190</v>
+      </c>
+      <c r="I95" t="s">
+        <v>191</v>
+      </c>
+      <c r="J95" t="s">
+        <v>193</v>
+      </c>
+      <c r="K95" t="s">
+        <v>190</v>
       </c>
       <c r="L95" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5503,31 +5536,31 @@
         <v>112</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>13.81456113</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>100.0630594</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
+      <c r="H96" t="s">
+        <v>190</v>
+      </c>
+      <c r="I96" t="s">
+        <v>191</v>
+      </c>
+      <c r="J96" t="s">
+        <v>193</v>
+      </c>
+      <c r="K96" t="s">
+        <v>190</v>
       </c>
       <c r="L96" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5541,37 +5574,37 @@
         <v>14</v>
       </c>
       <c r="C97" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D97" t="s">
         <v>113</v>
       </c>
       <c r="E97">
-        <v>13.924252</v>
+        <v>12.68783188</v>
       </c>
       <c r="F97">
-        <v>100.597945</v>
+        <v>101.2114545</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="I97" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J97" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K97" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L97" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5585,37 +5618,37 @@
         <v>14</v>
       </c>
       <c r="C98" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D98" t="s">
         <v>114</v>
       </c>
       <c r="E98">
-        <v>12.69670286</v>
+        <v>13.67342423</v>
       </c>
       <c r="F98">
-        <v>101.2683573</v>
+        <v>100.6069256</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="I98" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J98" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K98" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L98" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5629,37 +5662,37 @@
         <v>14</v>
       </c>
       <c r="C99" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D99" t="s">
         <v>115</v>
       </c>
       <c r="E99">
-        <v>12.69574994</v>
+        <v>13.6680206</v>
       </c>
       <c r="F99">
-        <v>101.2674706</v>
+        <v>100.6354649</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="I99" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J99" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K99" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L99" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5673,16 +5706,16 @@
         <v>14</v>
       </c>
       <c r="C100" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D100" t="s">
         <v>116</v>
       </c>
       <c r="E100">
-        <v>13.71190173</v>
+        <v>13.88903855</v>
       </c>
       <c r="F100">
-        <v>100.4224456</v>
+        <v>100.6576064</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -5700,10 +5733,10 @@
         <v>0</v>
       </c>
       <c r="L100" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5717,16 +5750,16 @@
         <v>14</v>
       </c>
       <c r="C101" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D101" t="s">
         <v>117</v>
       </c>
       <c r="E101">
-        <v>13.80614397</v>
+        <v>13.71110566</v>
       </c>
       <c r="F101">
-        <v>100.5307221</v>
+        <v>100.4158636</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -5744,10 +5777,10 @@
         <v>0</v>
       </c>
       <c r="L101" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5761,16 +5794,16 @@
         <v>14</v>
       </c>
       <c r="C102" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="D102" t="s">
         <v>118</v>
       </c>
       <c r="E102">
-        <v>13.78786299</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>100.4828396</v>
+        <v>0</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -5788,10 +5821,10 @@
         <v>0</v>
       </c>
       <c r="L102" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5811,31 +5844,31 @@
         <v>119</v>
       </c>
       <c r="E103">
-        <v>13.77791571</v>
+        <v>13.924252</v>
       </c>
       <c r="F103">
-        <v>100.4766994</v>
+        <v>100.597945</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
+      <c r="H103" t="s">
+        <v>190</v>
+      </c>
+      <c r="I103" t="s">
+        <v>191</v>
+      </c>
+      <c r="J103" t="s">
+        <v>193</v>
+      </c>
+      <c r="K103" t="s">
+        <v>190</v>
       </c>
       <c r="L103" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5846,7 +5879,7 @@
         <v>174</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C104" s="2">
         <v>44190</v>
@@ -5855,31 +5888,31 @@
         <v>120</v>
       </c>
       <c r="E104">
-        <v>18.80731097</v>
+        <v>12.69670286</v>
       </c>
       <c r="F104">
-        <v>98.96283674999999</v>
+        <v>101.2683573</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-      <c r="K104">
-        <v>0</v>
+      <c r="H104" t="s">
+        <v>189</v>
+      </c>
+      <c r="I104" t="s">
+        <v>191</v>
+      </c>
+      <c r="J104" t="s">
+        <v>193</v>
+      </c>
+      <c r="K104" t="s">
+        <v>190</v>
       </c>
       <c r="L104" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5899,31 +5932,31 @@
         <v>121</v>
       </c>
       <c r="E105">
-        <v>13.7707636</v>
+        <v>12.69574994</v>
       </c>
       <c r="F105">
-        <v>100.4680689</v>
+        <v>101.2674706</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-      <c r="K105">
-        <v>0</v>
+      <c r="H105" t="s">
+        <v>189</v>
+      </c>
+      <c r="I105" t="s">
+        <v>191</v>
+      </c>
+      <c r="J105" t="s">
+        <v>193</v>
+      </c>
+      <c r="K105" t="s">
+        <v>190</v>
       </c>
       <c r="L105" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5934,19 +5967,19 @@
         <v>176</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C106" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D106" t="s">
         <v>122</v>
       </c>
       <c r="E106">
-        <v>13.7636001</v>
+        <v>13.71190173</v>
       </c>
       <c r="F106">
-        <v>100.5114624</v>
+        <v>100.4224456</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -5960,14 +5993,14 @@
       <c r="J106">
         <v>0</v>
       </c>
-      <c r="K106" t="s">
-        <v>181</v>
+      <c r="K106">
+        <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -5978,19 +6011,19 @@
         <v>177</v>
       </c>
       <c r="B107" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C107" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D107" t="s">
         <v>123</v>
       </c>
       <c r="E107">
-        <v>13.734066</v>
+        <v>13.80614397</v>
       </c>
       <c r="F107">
-        <v>100.5278354</v>
+        <v>100.5307221</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -6008,10 +6041,10 @@
         <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6022,19 +6055,19 @@
         <v>178</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C108" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D108" t="s">
         <v>124</v>
       </c>
       <c r="E108">
-        <v>12.6483736</v>
+        <v>13.78786299</v>
       </c>
       <c r="F108">
-        <v>101.2273679</v>
+        <v>100.4828396</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -6052,10 +6085,10 @@
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6069,37 +6102,37 @@
         <v>14</v>
       </c>
       <c r="C109" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D109" t="s">
         <v>125</v>
       </c>
       <c r="E109">
-        <v>12.69691038</v>
+        <v>13.77791571</v>
       </c>
       <c r="F109">
-        <v>101.268451</v>
+        <v>100.4766994</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
-      <c r="H109" t="s">
-        <v>180</v>
-      </c>
-      <c r="I109" t="s">
-        <v>182</v>
-      </c>
-      <c r="J109" t="s">
-        <v>184</v>
-      </c>
-      <c r="K109" t="s">
-        <v>181</v>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6110,40 +6143,40 @@
         <v>180</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C110" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D110" t="s">
         <v>126</v>
       </c>
       <c r="E110">
-        <v>12.66695256</v>
+        <v>18.80731097</v>
       </c>
       <c r="F110">
-        <v>101.2738756</v>
+        <v>98.96283674999999</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="H110" t="s">
-        <v>180</v>
-      </c>
-      <c r="I110" t="s">
-        <v>182</v>
-      </c>
-      <c r="J110" t="s">
-        <v>184</v>
-      </c>
-      <c r="K110" t="s">
-        <v>181</v>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6157,16 +6190,16 @@
         <v>14</v>
       </c>
       <c r="C111" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D111" t="s">
         <v>127</v>
       </c>
       <c r="E111">
-        <v>13.86265154</v>
+        <v>13.7707636</v>
       </c>
       <c r="F111">
-        <v>100.6432858</v>
+        <v>100.4680689</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -6184,10 +6217,10 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6198,19 +6231,19 @@
         <v>182</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C112" s="2">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="D112" t="s">
         <v>128</v>
       </c>
       <c r="E112">
-        <v>12.6844183</v>
+        <v>13.5455515</v>
       </c>
       <c r="F112">
-        <v>101.2742991</v>
+        <v>100.2767451</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -6224,14 +6257,14 @@
       <c r="J112">
         <v>0</v>
       </c>
-      <c r="K112" t="s">
-        <v>181</v>
+      <c r="K112">
+        <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6242,19 +6275,19 @@
         <v>183</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C113" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D113" t="s">
         <v>129</v>
       </c>
       <c r="E113">
-        <v>12.9730033</v>
+        <v>13.7636001</v>
       </c>
       <c r="F113">
-        <v>100.9029061</v>
+        <v>100.5114624</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -6269,13 +6302,13 @@
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L113" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6286,19 +6319,19 @@
         <v>184</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C114" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D114" t="s">
         <v>130</v>
       </c>
       <c r="E114">
-        <v>13.7946069</v>
+        <v>13.734066</v>
       </c>
       <c r="F114">
-        <v>100.5161808</v>
+        <v>100.5278354</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -6312,14 +6345,14 @@
       <c r="J114">
         <v>0</v>
       </c>
-      <c r="K114" t="s">
-        <v>181</v>
+      <c r="K114">
+        <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6330,40 +6363,40 @@
         <v>185</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C115" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D115" t="s">
         <v>131</v>
       </c>
       <c r="E115">
-        <v>13.54448567</v>
+        <v>12.6483736</v>
       </c>
       <c r="F115">
-        <v>100.2752027</v>
+        <v>101.2273679</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
-      <c r="H115" t="s">
-        <v>180</v>
-      </c>
-      <c r="I115" t="s">
-        <v>182</v>
-      </c>
-      <c r="J115" t="s">
-        <v>184</v>
-      </c>
-      <c r="K115" t="s">
-        <v>181</v>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6377,37 +6410,37 @@
         <v>14</v>
       </c>
       <c r="C116" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="D116" t="s">
         <v>132</v>
       </c>
       <c r="E116">
-        <v>13.67424547</v>
+        <v>12.69691038</v>
       </c>
       <c r="F116">
-        <v>100.426448</v>
+        <v>101.268451</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116">
-        <v>0</v>
-      </c>
-      <c r="K116">
-        <v>0</v>
+      <c r="H116" t="s">
+        <v>189</v>
+      </c>
+      <c r="I116" t="s">
+        <v>191</v>
+      </c>
+      <c r="J116" t="s">
+        <v>193</v>
+      </c>
+      <c r="K116" t="s">
+        <v>190</v>
       </c>
       <c r="L116" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6421,37 +6454,37 @@
         <v>14</v>
       </c>
       <c r="C117" s="2">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="D117" t="s">
         <v>133</v>
       </c>
       <c r="E117">
-        <v>13.73545544</v>
+        <v>12.66695256</v>
       </c>
       <c r="F117">
-        <v>100.5661584</v>
+        <v>101.2738756</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="I117" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J117" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K117" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L117" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6462,40 +6495,40 @@
         <v>188</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C118" s="2">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="D118" t="s">
         <v>134</v>
       </c>
       <c r="E118">
-        <v>12.9098775</v>
+        <v>13.86265154</v>
       </c>
       <c r="F118">
-        <v>100.891563</v>
+        <v>100.6432858</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="H118" t="s">
-        <v>181</v>
-      </c>
-      <c r="I118" t="s">
-        <v>182</v>
-      </c>
-      <c r="J118" t="s">
-        <v>184</v>
-      </c>
-      <c r="K118" t="s">
-        <v>181</v>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6506,19 +6539,19 @@
         <v>189</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C119" s="2">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="D119" t="s">
         <v>135</v>
       </c>
       <c r="E119">
-        <v>13.3535702</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>100.9765439</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -6532,14 +6565,14 @@
       <c r="J119">
         <v>0</v>
       </c>
-      <c r="K119" t="s">
-        <v>181</v>
+      <c r="K119">
+        <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6550,19 +6583,19 @@
         <v>190</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C120" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D120" t="s">
         <v>136</v>
       </c>
       <c r="E120">
-        <v>12.948902</v>
+        <v>12.6844183</v>
       </c>
       <c r="F120">
-        <v>100.891292</v>
+        <v>101.2742991</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -6577,13 +6610,13 @@
         <v>0</v>
       </c>
       <c r="K120" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L120" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6597,16 +6630,16 @@
         <v>15</v>
       </c>
       <c r="C121" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D121" t="s">
         <v>137</v>
       </c>
       <c r="E121">
-        <v>12.6495877</v>
+        <v>12.9730033</v>
       </c>
       <c r="F121">
-        <v>102.0329425</v>
+        <v>100.9029061</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6621,13 +6654,13 @@
         <v>0</v>
       </c>
       <c r="K121" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L121" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6638,19 +6671,19 @@
         <v>192</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C122" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D122" t="s">
         <v>138</v>
       </c>
       <c r="E122">
-        <v>12.3757564</v>
+        <v>13.7946069</v>
       </c>
       <c r="F122">
-        <v>102.3818628</v>
+        <v>100.5161808</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6665,13 +6698,13 @@
         <v>0</v>
       </c>
       <c r="K122" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L122" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6682,40 +6715,40 @@
         <v>193</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C123" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D123" t="s">
         <v>139</v>
       </c>
       <c r="E123">
-        <v>12.7246169</v>
+        <v>13.54448567</v>
       </c>
       <c r="F123">
-        <v>101.9362794</v>
+        <v>100.2752027</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123">
-        <v>0</v>
+      <c r="H123" t="s">
+        <v>189</v>
+      </c>
+      <c r="I123" t="s">
+        <v>191</v>
+      </c>
+      <c r="J123" t="s">
+        <v>193</v>
       </c>
       <c r="K123" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L123" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6726,19 +6759,19 @@
         <v>194</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C124" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="D124" t="s">
         <v>140</v>
       </c>
       <c r="E124">
-        <v>13.772986</v>
+        <v>13.67424547</v>
       </c>
       <c r="F124">
-        <v>100.4855148</v>
+        <v>100.426448</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -6752,14 +6785,14 @@
       <c r="J124">
         <v>0</v>
       </c>
-      <c r="K124" t="s">
-        <v>181</v>
+      <c r="K124">
+        <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -6770,40 +6803,40 @@
         <v>195</v>
       </c>
       <c r="B125" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C125" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D125" t="s">
         <v>141</v>
       </c>
       <c r="E125">
-        <v>12.90895904</v>
+        <v>13.73545544</v>
       </c>
       <c r="F125">
-        <v>100.891925</v>
+        <v>100.5661584</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-      <c r="K125">
-        <v>0</v>
+      <c r="H125" t="s">
+        <v>190</v>
+      </c>
+      <c r="I125" t="s">
+        <v>191</v>
+      </c>
+      <c r="J125" t="s">
+        <v>193</v>
+      </c>
+      <c r="K125" t="s">
+        <v>190</v>
       </c>
       <c r="L125" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -6814,19 +6847,19 @@
         <v>196</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C126" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="D126" t="s">
         <v>142</v>
       </c>
       <c r="E126">
-        <v>12.90960418</v>
+        <v>13.91669065</v>
       </c>
       <c r="F126">
-        <v>100.870256</v>
+        <v>100.397828</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -6844,10 +6877,10 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -6858,7 +6891,7 @@
         <v>197</v>
       </c>
       <c r="B127" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C127" s="2">
         <v>44194</v>
@@ -6867,31 +6900,31 @@
         <v>143</v>
       </c>
       <c r="E127">
-        <v>12.93047726</v>
+        <v>12.9098775</v>
       </c>
       <c r="F127">
-        <v>100.8807229</v>
+        <v>100.891563</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-      <c r="K127">
-        <v>0</v>
+      <c r="H127" t="s">
+        <v>190</v>
+      </c>
+      <c r="I127" t="s">
+        <v>191</v>
+      </c>
+      <c r="J127" t="s">
+        <v>193</v>
+      </c>
+      <c r="K127" t="s">
+        <v>190</v>
       </c>
       <c r="L127" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -6902,7 +6935,7 @@
         <v>198</v>
       </c>
       <c r="B128" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C128" s="2">
         <v>44194</v>
@@ -6911,10 +6944,10 @@
         <v>144</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>13.3535702</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>100.9765439</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -6928,14 +6961,14 @@
       <c r="J128">
         <v>0</v>
       </c>
-      <c r="K128">
-        <v>0</v>
+      <c r="K128" t="s">
+        <v>190</v>
       </c>
       <c r="L128" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -6955,10 +6988,10 @@
         <v>145</v>
       </c>
       <c r="E129">
-        <v>12.66219926</v>
+        <v>12.948902</v>
       </c>
       <c r="F129">
-        <v>100.8989779</v>
+        <v>100.891292</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -6972,14 +7005,14 @@
       <c r="J129">
         <v>0</v>
       </c>
-      <c r="K129">
-        <v>0</v>
+      <c r="K129" t="s">
+        <v>190</v>
       </c>
       <c r="L129" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -6990,7 +7023,7 @@
         <v>200</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C130" s="2">
         <v>44194</v>
@@ -6999,10 +7032,10 @@
         <v>146</v>
       </c>
       <c r="E130">
-        <v>13.32877789</v>
+        <v>12.6495877</v>
       </c>
       <c r="F130">
-        <v>100.9230017</v>
+        <v>102.0329425</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -7016,14 +7049,14 @@
       <c r="J130">
         <v>0</v>
       </c>
-      <c r="K130">
-        <v>0</v>
+      <c r="K130" t="s">
+        <v>190</v>
       </c>
       <c r="L130" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7034,7 +7067,7 @@
         <v>201</v>
       </c>
       <c r="B131" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C131" s="2">
         <v>44194</v>
@@ -7043,10 +7076,10 @@
         <v>147</v>
       </c>
       <c r="E131">
-        <v>13.33615653</v>
+        <v>12.3757564</v>
       </c>
       <c r="F131">
-        <v>100.9694597</v>
+        <v>102.3818628</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -7060,14 +7093,14 @@
       <c r="J131">
         <v>0</v>
       </c>
-      <c r="K131">
-        <v>0</v>
+      <c r="K131" t="s">
+        <v>190</v>
       </c>
       <c r="L131" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -7078,7 +7111,7 @@
         <v>202</v>
       </c>
       <c r="B132" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C132" s="2">
         <v>44194</v>
@@ -7087,10 +7120,10 @@
         <v>148</v>
       </c>
       <c r="E132">
-        <v>12.83546656</v>
+        <v>12.7246169</v>
       </c>
       <c r="F132">
-        <v>100.967575</v>
+        <v>101.9362794</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -7104,14 +7137,14 @@
       <c r="J132">
         <v>0</v>
       </c>
-      <c r="K132">
-        <v>0</v>
+      <c r="K132" t="s">
+        <v>190</v>
       </c>
       <c r="L132" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7131,10 +7164,10 @@
         <v>149</v>
       </c>
       <c r="E133">
-        <v>13.33545565</v>
+        <v>13.772986</v>
       </c>
       <c r="F133">
-        <v>100.9249432</v>
+        <v>100.4855148</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -7148,14 +7181,14 @@
       <c r="J133">
         <v>0</v>
       </c>
-      <c r="K133">
-        <v>0</v>
+      <c r="K133" t="s">
+        <v>190</v>
       </c>
       <c r="L133" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7175,10 +7208,10 @@
         <v>150</v>
       </c>
       <c r="E134">
-        <v>13.33841928</v>
+        <v>12.90895904</v>
       </c>
       <c r="F134">
-        <v>100.9526548</v>
+        <v>100.891925</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -7196,10 +7229,10 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -7219,10 +7252,10 @@
         <v>151</v>
       </c>
       <c r="E135">
-        <v>12.68318129</v>
+        <v>12.90960418</v>
       </c>
       <c r="F135">
-        <v>101.2479341</v>
+        <v>100.870256</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -7240,10 +7273,10 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7263,10 +7296,10 @@
         <v>152</v>
       </c>
       <c r="E136">
-        <v>12.68178774</v>
+        <v>12.93047726</v>
       </c>
       <c r="F136">
-        <v>101.2804266</v>
+        <v>100.8807229</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -7284,10 +7317,10 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7307,10 +7340,10 @@
         <v>153</v>
       </c>
       <c r="E137">
-        <v>12.67663309</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>101.2204609</v>
+        <v>0</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -7328,10 +7361,10 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7351,10 +7384,10 @@
         <v>154</v>
       </c>
       <c r="E138">
-        <v>12.67969829</v>
+        <v>12.66219926</v>
       </c>
       <c r="F138">
-        <v>101.2516232</v>
+        <v>100.8989779</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -7372,10 +7405,10 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7395,10 +7428,10 @@
         <v>155</v>
       </c>
       <c r="E139">
-        <v>12.67895072</v>
+        <v>13.32877789</v>
       </c>
       <c r="F139">
-        <v>101.2811971</v>
+        <v>100.9230017</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -7416,10 +7449,10 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7439,10 +7472,10 @@
         <v>156</v>
       </c>
       <c r="E140">
-        <v>12.69121623</v>
+        <v>13.33615653</v>
       </c>
       <c r="F140">
-        <v>101.2828322</v>
+        <v>100.9694597</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -7460,10 +7493,10 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7483,10 +7516,10 @@
         <v>157</v>
       </c>
       <c r="E141">
-        <v>12.61154131</v>
+        <v>12.83546656</v>
       </c>
       <c r="F141">
-        <v>102.105739</v>
+        <v>100.967575</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -7504,10 +7537,10 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -7527,10 +7560,10 @@
         <v>158</v>
       </c>
       <c r="E142">
-        <v>12.59875505</v>
+        <v>13.33545565</v>
       </c>
       <c r="F142">
-        <v>102.1108505</v>
+        <v>100.9249432</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -7548,10 +7581,10 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7571,10 +7604,10 @@
         <v>159</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>13.33841928</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>100.9526548</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -7592,10 +7625,10 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -7615,10 +7648,10 @@
         <v>160</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>12.68318129</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>101.2479341</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -7636,10 +7669,10 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -7659,10 +7692,10 @@
         <v>161</v>
       </c>
       <c r="E145">
-        <v>12.94007297</v>
+        <v>12.68178774</v>
       </c>
       <c r="F145">
-        <v>100.9198688</v>
+        <v>101.2804266</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -7680,10 +7713,10 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -7703,10 +7736,10 @@
         <v>162</v>
       </c>
       <c r="E146">
-        <v>12.93500267</v>
+        <v>12.67663309</v>
       </c>
       <c r="F146">
-        <v>100.8828385</v>
+        <v>101.2204609</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -7724,10 +7757,10 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -7747,10 +7780,10 @@
         <v>163</v>
       </c>
       <c r="E147">
-        <v>12.93302705</v>
+        <v>12.67969829</v>
       </c>
       <c r="F147">
-        <v>100.9013151</v>
+        <v>101.2516232</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -7768,10 +7801,10 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -7791,10 +7824,10 @@
         <v>164</v>
       </c>
       <c r="E148">
-        <v>12.93124481</v>
+        <v>12.67895072</v>
       </c>
       <c r="F148">
-        <v>100.9008084</v>
+        <v>101.2811971</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -7812,10 +7845,10 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -7835,10 +7868,10 @@
         <v>165</v>
       </c>
       <c r="E149">
-        <v>12.93038104</v>
+        <v>12.69121623</v>
       </c>
       <c r="F149">
-        <v>100.9126714</v>
+        <v>101.2828322</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -7856,10 +7889,10 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -7879,10 +7912,10 @@
         <v>166</v>
       </c>
       <c r="E150">
-        <v>12.84875767</v>
+        <v>12.61154131</v>
       </c>
       <c r="F150">
-        <v>100.9017</v>
+        <v>102.105739</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -7900,10 +7933,10 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -7923,10 +7956,10 @@
         <v>167</v>
       </c>
       <c r="E151">
-        <v>12.90883138</v>
+        <v>12.59875505</v>
       </c>
       <c r="F151">
-        <v>100.8932458</v>
+        <v>102.1108505</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -7944,10 +7977,10 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -7967,10 +8000,10 @@
         <v>168</v>
       </c>
       <c r="E152">
-        <v>12.66362634</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>100.8981743</v>
+        <v>0</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -7988,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -8011,10 +8044,10 @@
         <v>169</v>
       </c>
       <c r="E153">
-        <v>12.95074463</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>100.8933879</v>
+        <v>0</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -8032,10 +8065,10 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -8055,10 +8088,10 @@
         <v>170</v>
       </c>
       <c r="E154">
-        <v>12.97880506</v>
+        <v>12.94007297</v>
       </c>
       <c r="F154">
-        <v>100.9430835</v>
+        <v>100.9198688</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -8076,10 +8109,10 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8099,10 +8132,10 @@
         <v>171</v>
       </c>
       <c r="E155">
-        <v>12.92662465</v>
+        <v>12.93500267</v>
       </c>
       <c r="F155">
-        <v>100.898605</v>
+        <v>100.8828385</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -8120,10 +8153,10 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -8143,10 +8176,10 @@
         <v>172</v>
       </c>
       <c r="E156">
-        <v>12.98328283</v>
+        <v>12.93302705</v>
       </c>
       <c r="F156">
-        <v>100.9354783</v>
+        <v>100.9013151</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -8164,10 +8197,10 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -8187,10 +8220,10 @@
         <v>173</v>
       </c>
       <c r="E157">
-        <v>12.98177123</v>
+        <v>12.93124481</v>
       </c>
       <c r="F157">
-        <v>100.9289336</v>
+        <v>100.9008084</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -8208,10 +8241,10 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -8231,10 +8264,10 @@
         <v>174</v>
       </c>
       <c r="E158">
-        <v>13.01893524</v>
+        <v>12.93038104</v>
       </c>
       <c r="F158">
-        <v>100.932701</v>
+        <v>100.9126714</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -8252,10 +8285,10 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -8275,10 +8308,10 @@
         <v>175</v>
       </c>
       <c r="E159">
-        <v>12.95555524</v>
+        <v>12.84875767</v>
       </c>
       <c r="F159">
-        <v>100.8987028</v>
+        <v>100.9017</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -8296,10 +8329,10 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -8319,10 +8352,10 @@
         <v>176</v>
       </c>
       <c r="E160">
-        <v>12.93944879</v>
+        <v>12.90883138</v>
       </c>
       <c r="F160">
-        <v>100.9021397</v>
+        <v>100.8932458</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -8340,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -8363,10 +8396,10 @@
         <v>177</v>
       </c>
       <c r="E161">
-        <v>12.75400498</v>
+        <v>12.66362634</v>
       </c>
       <c r="F161">
-        <v>100.9017967</v>
+        <v>100.8981743</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -8384,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -8407,33 +8440,429 @@
         <v>178</v>
       </c>
       <c r="E162">
+        <v>12.95074463</v>
+      </c>
+      <c r="F162">
+        <v>100.8933879</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162" t="s">
+        <v>259</v>
+      </c>
+      <c r="M162" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
+      <c r="A163">
+        <v>233</v>
+      </c>
+      <c r="B163" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D163" t="s">
+        <v>179</v>
+      </c>
+      <c r="E163">
+        <v>12.97880506</v>
+      </c>
+      <c r="F163">
+        <v>100.9430835</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163" t="s">
+        <v>259</v>
+      </c>
+      <c r="M163" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
+      <c r="A164">
+        <v>234</v>
+      </c>
+      <c r="B164" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D164" t="s">
+        <v>180</v>
+      </c>
+      <c r="E164">
+        <v>12.92662465</v>
+      </c>
+      <c r="F164">
+        <v>100.898605</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164" t="s">
+        <v>259</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
+      <c r="A165">
+        <v>235</v>
+      </c>
+      <c r="B165" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D165" t="s">
+        <v>181</v>
+      </c>
+      <c r="E165">
+        <v>12.98328283</v>
+      </c>
+      <c r="F165">
+        <v>100.9354783</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165" t="s">
+        <v>259</v>
+      </c>
+      <c r="M165" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="A166">
+        <v>236</v>
+      </c>
+      <c r="B166" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D166" t="s">
+        <v>182</v>
+      </c>
+      <c r="E166">
+        <v>12.98177123</v>
+      </c>
+      <c r="F166">
+        <v>100.9289336</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166" t="s">
+        <v>259</v>
+      </c>
+      <c r="M166" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="A167">
+        <v>237</v>
+      </c>
+      <c r="B167" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D167" t="s">
+        <v>183</v>
+      </c>
+      <c r="E167">
+        <v>13.01893524</v>
+      </c>
+      <c r="F167">
+        <v>100.932701</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167" t="s">
+        <v>259</v>
+      </c>
+      <c r="M167" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="A168">
+        <v>238</v>
+      </c>
+      <c r="B168" t="s">
+        <v>17</v>
+      </c>
+      <c r="C168" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D168" t="s">
+        <v>184</v>
+      </c>
+      <c r="E168">
+        <v>12.95555524</v>
+      </c>
+      <c r="F168">
+        <v>100.8987028</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168" t="s">
+        <v>259</v>
+      </c>
+      <c r="M168" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="A169">
+        <v>239</v>
+      </c>
+      <c r="B169" t="s">
+        <v>17</v>
+      </c>
+      <c r="C169" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D169" t="s">
+        <v>185</v>
+      </c>
+      <c r="E169">
+        <v>12.93944879</v>
+      </c>
+      <c r="F169">
+        <v>100.9021397</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169" t="s">
+        <v>259</v>
+      </c>
+      <c r="M169" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170">
+        <v>240</v>
+      </c>
+      <c r="B170" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D170" t="s">
+        <v>186</v>
+      </c>
+      <c r="E170">
+        <v>12.75400498</v>
+      </c>
+      <c r="F170">
+        <v>100.9017967</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170" t="s">
+        <v>259</v>
+      </c>
+      <c r="M170" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="A171">
+        <v>241</v>
+      </c>
+      <c r="B171" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171" s="2">
+        <v>44194</v>
+      </c>
+      <c r="D171" t="s">
+        <v>187</v>
+      </c>
+      <c r="E171">
         <v>12.69857571</v>
       </c>
-      <c r="F162">
+      <c r="F171">
         <v>100.8899412</v>
       </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="H162">
-        <v>0</v>
-      </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-      <c r="K162">
-        <v>0</v>
-      </c>
-      <c r="L162" t="s">
-        <v>249</v>
-      </c>
-      <c r="M162" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="N162">
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171" t="s">
+        <v>259</v>
+      </c>
+      <c r="M171" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="N171">
         <v>0</v>
       </c>
     </row>
@@ -8463,8 +8892,8 @@
     <hyperlink ref="M23" r:id="rId22"/>
     <hyperlink ref="M24" r:id="rId23"/>
     <hyperlink ref="M25" r:id="rId24"/>
-    <hyperlink ref="M26" r:id="rId25" location="cxrecs_s"/>
-    <hyperlink ref="M27" r:id="rId26"/>
+    <hyperlink ref="M26" r:id="rId25"/>
+    <hyperlink ref="M27" r:id="rId26" location="cxrecs_s"/>
     <hyperlink ref="M28" r:id="rId27"/>
     <hyperlink ref="M29" r:id="rId28"/>
     <hyperlink ref="M30" r:id="rId29"/>
@@ -8600,6 +9029,15 @@
     <hyperlink ref="M160" r:id="rId159"/>
     <hyperlink ref="M161" r:id="rId160"/>
     <hyperlink ref="M162" r:id="rId161"/>
+    <hyperlink ref="M163" r:id="rId162"/>
+    <hyperlink ref="M164" r:id="rId163"/>
+    <hyperlink ref="M165" r:id="rId164"/>
+    <hyperlink ref="M166" r:id="rId165"/>
+    <hyperlink ref="M167" r:id="rId166"/>
+    <hyperlink ref="M168" r:id="rId167"/>
+    <hyperlink ref="M169" r:id="rId168"/>
+    <hyperlink ref="M170" r:id="rId169"/>
+    <hyperlink ref="M171" r:id="rId170"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="286">
   <si>
     <t>id</t>
   </si>
@@ -58,81 +58,24 @@
     <t>parentcase</t>
   </si>
   <si>
+    <t>confirmed</t>
+  </si>
+  <si>
+    <t>unspecified_location</t>
+  </si>
+  <si>
     <t>patient_has_been_here</t>
   </si>
   <si>
-    <t>unspecified_location</t>
+    <t>suspected</t>
+  </si>
+  <si>
+    <t>sanitized</t>
   </si>
   <si>
     <t>sanitizing</t>
   </si>
   <si>
-    <t>confirmed</t>
-  </si>
-  <si>
-    <t>suspected</t>
-  </si>
-  <si>
-    <t>sanitized</t>
-  </si>
-  <si>
-    <t>ตลาดหมู่บ้านศรีทอง จ.อยุธยา</t>
-  </si>
-  <si>
-    <t xml:space="preserve">รามอินทรา </t>
-  </si>
-  <si>
-    <t>บ่อนไก่ชนใน ต.บางเลน</t>
-  </si>
-  <si>
-    <t>ห้างสรรพสินค้ายูเนียนมอลล์</t>
-  </si>
-  <si>
-    <t>เซ็นทรัลลาดพร้าว</t>
-  </si>
-  <si>
-    <t>ตลาดชาวสยาม บางกรวย</t>
-  </si>
-  <si>
-    <t>ธนาคารกสิกรไทย สาขา โลตัสเพชรเกษม 81</t>
-  </si>
-  <si>
-    <t>ตลาดนัดห้วยตะโก ต.พะเนียด อ.นครชัยศรี</t>
-  </si>
-  <si>
-    <t>เกทเวย์ แอท บางซื่อ</t>
-  </si>
-  <si>
-    <t>เมเจอร์ปิ่นเกล้า</t>
-  </si>
-  <si>
-    <t>ตลาดแสมดำ</t>
-  </si>
-  <si>
-    <t>ธนาคารกสิกรไทย สาขาบิ๊กซีอ่อนนุช</t>
-  </si>
-  <si>
-    <t>สนามบอล ย่านลาดพร้าว80</t>
-  </si>
-  <si>
-    <t>ข้าวต้มจัดเต็ม แยกอุโมงค์พัฒนาการ</t>
-  </si>
-  <si>
-    <t>2929 สุขุมวิท77</t>
-  </si>
-  <si>
-    <t>โฮมโปร นางลิ้นจี่</t>
-  </si>
-  <si>
-    <t>ตลาดสุขสวัสดิ์</t>
-  </si>
-  <si>
-    <t>เมืองทองธานี ชั้น4 โซน R</t>
-  </si>
-  <si>
-    <t>ร้านอาโนส์ แถวธรรมศาสตร์ท่าพระจันทร์</t>
-  </si>
-  <si>
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
@@ -598,87 +541,66 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>พบผู้ป่วยติดเชื้อโควิด-19 ไม่มีอาการ จำนวน 1 ราย เป็นหญิง เดินทางกลับมาจากการไปทำงานที่ร้านเสริมสวยใน จ.เชียงใหม่</t>
+    <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
   </si>
   <si>
     <t xml:space="preserve">เคสแม่ค้ารถพุ่มพวงติดโควิด เป็นรถกระบะสีขาว ป้ายแดง ทะเบียน 8681 สมุทรปราการ </t>
   </si>
   <si>
-    <t>พบผู้ป่วยโควิด-19 ชาย มาบ่อนไก่ชนในบางเลน</t>
-  </si>
-  <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 19 ธ.ค. เวลา 10.00 น. ไปห้างสรรพสินค้ายูเนียนมอลล์ และเดินข้ามมาเซ็นทรัลลาดพร้าว</t>
-  </si>
-  <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 19 ธ.ค. เวลา 20.00 น. ไปตลาดชาวสยาม บางกรวยพร้าว</t>
-  </si>
-  <si>
-    <t>ตรวจพบเชื้อ COVID-19 จากคุณรัตน์เจ้าของร้านสมศักดิ์ปูอบ สาขาบีทีเอสกรุงธนบุรี</t>
+    <t>เคสเจ้าของร้านอาหารติดโควิด มีประวัติไปแพกุ้ง ตลาดยายพ่วง มหาชัย</t>
+  </si>
+  <si>
+    <t>ขอให้ผู้ที่ไปใช้บริการร้านอาหาร ตั้งแต่วันที่ 15-20 ธ.ค. 2563 เป็นต้นมา ณ ร้านแจ่วฮ้อนตาแป๊ะบุฟเฟ่ 149 ซึ่งมี 3 สาขา สาขาที่ 1 อำเภอหนองแค สาขา 2 อำเภอแก่งคอย และสาขา 3 อำเภอเมืองสระบุรี และตลาดหนองเสือ จ.ปทุมธานี ได้สังเกตอาการตนเองเป็นเวลา 14 วัน ให้สวมหน้ากากอนามัย หรือหน้ากากผ้าตลอดเวลา หลีกเลี่ยงคลุกคลีใกล้ชิดกับผู้อื่น</t>
+  </si>
+  <si>
+    <t>เจ้าของร้านอาหารที่ติดโควิดได้ไปขายเนื้อสดที่ตลาด</t>
+  </si>
+  <si>
+    <t>เคสผู้ป่วยโควิด-19 ชาย อยู่ต.บางหลวง อ.บางเลน จ.นครปฐม</t>
+  </si>
+  <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย  20 ธ.ค. เวลา 10.00 น. ไปคาเฟ่ Two Do Someting</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ได้ออกมาเลือกตั้งหน้าหมู่บ้านและซื้อต้นไม้ ผู้ขายเป็นชาวพม่า</t>
+  </si>
+  <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 ชายขายอาหารทะเลปากซ.พหล52</t>
+  </si>
+  <si>
+    <t>ตรวจพบเชื้อ COVID-19 เจ้าของร้านสมศักดิ์ปูอบ สาขาบีทีเอสกรุงธนบุรี</t>
   </si>
   <si>
     <t>ผู้ป่วย  covid-19 นครปฐม รายที่22-29</t>
   </si>
   <si>
-    <t>เกทเวย์ แอท บางซื่อ ชี้แจงกรณีพบผู้ติดเชื้อโควิดเข้าใช้บริการ</t>
+    <t>4 ผู้ป่วยโควิด นนทบุรีเชื่อมโยงตลาดทะเลไทย สมุทรสาคร</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ติดเชื้อ covid19 กทม. รายที่ 22-43</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยโควิด-19 จังหวัดนครปฐม รายที่38-53</t>
+  </si>
+  <si>
+    <t>กทม.เปิดไทม์ไลน์ 17 ผู้ติดเชื้อ 'โควิด' รายใหม่ เป็นรายที่ 58-74</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ติดเชื้อที่อยู่ใน กทม.</t>
+  </si>
+  <si>
+    <t>Timeline ของผู้ติดเชื้อที่อยู่ใน กทม. รายที่ 109-123</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20</t>
+  </si>
+  <si>
+    <t>โครงการฯ ได้รับแจ้งจากเขตคลองเตยเรื่อง Time Line ของผู้ป่วยติดเชื้อไวรัสโควิด 19 ว่าได้เข้ามาใช้บริการที่ร้านนิตยาไก่ย่าง เมื่อวันที่ 21 ธันวาคม 2563 ระหว่างเวลา 13.00-14.00น.ที่ผ่านมา</t>
   </si>
   <si>
     <t>โฆษกกทม.ทยอยเปิดไทม์ไลน์ ติดเชื้อโควิดในกรุงเทพฯ 75 คนแล้ว ไล่สอบสวนโรค พบไปหลายห้าง ดูหนัง คาราโอเกะ</t>
   </si>
   <si>
-    <t>Timeline ผู้ติดเชื้อ covid19 กทม. รายที่ 22-43</t>
-  </si>
-  <si>
-    <t>กทม.เปิดไทม์ไลน์ 17 ผู้ติดเชื้อ 'โควิด' รายใหม่ เป็นรายที่ 58-74</t>
-  </si>
-  <si>
-    <t>ผู้ติดเชื้อ 'โควิด-19' ใน กทม. พบ 19 ธ.ค. ไปดูคอนเสิร์ต อัสนี วสันต์</t>
-  </si>
-  <si>
-    <t>Timeline ของผู้ติดเชื้อที่อยู่ใน กทม. รายที่ 109-123</t>
-  </si>
-  <si>
-    <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
-  </si>
-  <si>
-    <t>เคสเจ้าของร้านอาหารติดโควิด มีประวัติไปแพกุ้ง ตลาดยายพ่วง มหาชัย</t>
-  </si>
-  <si>
-    <t>ขอให้ผู้ที่ไปใช้บริการร้านอาหาร ตั้งแต่วันที่ 15-20 ธ.ค. 2563 เป็นต้นมา ณ ร้านแจ่วฮ้อนตาแป๊ะบุฟเฟ่ 149 ซึ่งมี 3 สาขา สาขาที่ 1 อำเภอหนองแค สาขา 2 อำเภอแก่งคอย และสาขา 3 อำเภอเมืองสระบุรี และตลาดหนองเสือ จ.ปทุมธานี ได้สังเกตอาการตนเองเป็นเวลา 14 วัน ให้สวมหน้ากากอนามัย หรือหน้ากากผ้าตลอดเวลา หลีกเลี่ยงคลุกคลีใกล้ชิดกับผู้อื่น</t>
-  </si>
-  <si>
-    <t>เจ้าของร้านอาหารที่ติดโควิดได้ไปขายเนื้อสดที่ตลาด</t>
-  </si>
-  <si>
-    <t>เคสผู้ป่วยโควิด-19 ชาย อยู่ต.บางหลวง อ.บางเลน จ.นครปฐม</t>
-  </si>
-  <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย  20 ธ.ค. เวลา 10.00 น. ไปคาเฟ่ Two Do Someting</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ได้ออกมาเลือกตั้งหน้าหมู่บ้านและซื้อต้นไม้ ผู้ขายเป็นชาวพม่า</t>
-  </si>
-  <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 ชายขายอาหารทะเลปากซ.พหล52</t>
-  </si>
-  <si>
-    <t>ตรวจพบเชื้อ COVID-19 เจ้าของร้านสมศักดิ์ปูอบ สาขาบีทีเอสกรุงธนบุรี</t>
-  </si>
-  <si>
-    <t>4 ผู้ป่วยโควิด นนทบุรีเชื่อมโยงตลาดทะเลไทย สมุทรสาคร</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยโควิด-19 จังหวัดนครปฐม รายที่38-53</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ติดเชื้อที่อยู่ใน กทม.</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20</t>
-  </si>
-  <si>
-    <t>โครงการฯ ได้รับแจ้งจากเขตคลองเตยเรื่อง Time Line ของผู้ป่วยติดเชื้อไวรัสโควิด 19 ว่าได้เข้ามาใช้บริการที่ร้านนิตยาไก่ย่าง เมื่อวันที่ 21 ธันวาคม 2563 ระหว่างเวลา 13.00-14.00น.ที่ผ่านมา</t>
-  </si>
-  <si>
     <t>พนักงาน Lamptitude ติดเชื้อหลังจากกลับจากกระบี่ และเข้ามาที่นี่ตั้งแต่วันที่ 14-22 ธ.ค.</t>
   </si>
   <si>
@@ -796,16 +718,31 @@
     <t>ท่านใดเดินทางไปยังสถานที่ ในวันและเวลา ดังต่อไปนี้ หากมีอาการผิดปกติทางระบบทางเดินหายใจภายใน 14 วัน นับจากวันที่ไปสถานที่ดังกล่าว ติดต่อโรงพยาบาลรัฐในพื้นที่ของท่านทันที หรือโทรสายด่วน!!! 038-119-777</t>
   </si>
   <si>
-    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
+    <t>https://www.thaipost.net/main/detail/87367</t>
   </si>
   <si>
     <t>https://www.thairath.co.th/news/local/central/1999153</t>
   </si>
   <si>
+    <t>https://www.facebook.com/SomsakPuOb/photos/a.237834942950311/3554401867960252/?type=3</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/central/1998711</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/central/1998795?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0&amp;cx_rec_section=news&amp;cx_rec_topic=local#cxrecs_s</t>
+  </si>
+  <si>
     <t>https://mgronline.com/local/detail/9630000130818</t>
   </si>
   <si>
-    <t>https://www.khaosod.co.th/breaking-news/news_5591909</t>
+    <t>https://www.facebook.com/twodosomething/posts/140825121150938</t>
+  </si>
+  <si>
+    <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
+  </si>
+  <si>
+    <t>https://www.dailynews.co.th/regional/814914</t>
   </si>
   <si>
     <t>https://www.facebook.com/SomsakPuOb/posts/3554410321292740</t>
@@ -814,55 +751,28 @@
     <t>https://m.facebook.com/story.php?story_fbid=3200886696679973&amp;id=246608695441136&amp;sfnsn=mo</t>
   </si>
   <si>
-    <t>https://www.onbnews.today/post/43979</t>
+    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2499640</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/posts/3119216564844610</t>
+  </si>
+  <si>
+    <t>https://www.bangkokbiznews.com/news/detail/914766</t>
+  </si>
+  <si>
+    <t>https://www.dailynews.co.th/regional/815860?fbclid=IwAR3PpSq-k4gEnCMnvk_ZSa14-a7-sRcbK55EljOEMDm-7Ze-6SmVJNFfAuU</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/posts/3125681800864753</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/posts/3129619717137628</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/suanplernmarket/photos/a.407116596138751/1714728045377593/</t>
   </si>
   <si>
     <t>https://www.pptvhd36.com/news/%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%A0%E0%B8%B2%E0%B8%9E/139122</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/posts/3119216564844610</t>
-  </si>
-  <si>
-    <t>https://www.dailynews.co.th/regional/815860?fbclid=IwAR3PpSq-k4gEnCMnvk_ZSa14-a7-sRcbK55EljOEMDm-7Ze-6SmVJNFfAuU</t>
-  </si>
-  <si>
-    <t>https://www.bangkokbiznews.com/news/detail/915032</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/posts/3129619717137628</t>
-  </si>
-  <si>
-    <t>https://www.thaipost.net/main/detail/87367</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SomsakPuOb/photos/a.237834942950311/3554401867960252/?type=3</t>
-  </si>
-  <si>
-    <t>https://www.thairath.co.th/news/local/central/1998711</t>
-  </si>
-  <si>
-    <t>https://www.thairath.co.th/news/local/central/1998795?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0&amp;cx_rec_section=news&amp;cx_rec_topic=local#cxrecs_s</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/twodosomething/posts/140825121150938</t>
-  </si>
-  <si>
-    <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
-  </si>
-  <si>
-    <t>https://www.dailynews.co.th/regional/814914</t>
-  </si>
-  <si>
-    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2499640</t>
-  </si>
-  <si>
-    <t>https://www.bangkokbiznews.com/news/detail/914766</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/posts/3125681800864753</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/suanplernmarket/photos/a.407116596138751/1714728045377593/</t>
   </si>
   <si>
     <t>https://www.pptvhd36.com/news/%E0%B8%AA%E0%B8%B1%E0%B8%87%E0%B8%84%E0%B8%A1/138884</t>
@@ -1336,7 +1246,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:N152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1388,43 +1298,43 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>14.1487352</v>
+        <v>13.5579068</v>
       </c>
       <c r="F2">
-        <v>100.6155778</v>
+        <v>100.270829</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>188</v>
+      <c r="H2">
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K2" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L2" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1432,43 +1342,43 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>13.8057625</v>
+        <v>13.7937004</v>
       </c>
       <c r="F3">
-        <v>100.6621959</v>
+        <v>100.6923144</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="I3" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="J3" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K3" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L3" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1476,43 +1386,43 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>14.01215068</v>
+        <v>13.5455607</v>
       </c>
       <c r="F4">
-        <v>100.17523</v>
+        <v>100.2767611</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="I4" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="J4" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L4" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1520,43 +1430,43 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>13.8134088</v>
+        <v>14.3355326</v>
       </c>
       <c r="F5">
-        <v>100.5616103</v>
+        <v>100.87017</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>188</v>
+      <c r="H5">
+        <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="J5" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K5" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L5" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1564,43 +1474,43 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>13.816493</v>
+        <v>14.5786407</v>
       </c>
       <c r="F6">
-        <v>100.5610062</v>
+        <v>100.9662444</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>188</v>
+      <c r="H6">
+        <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="J6" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K6" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L6" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1608,43 +1518,43 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>13.7966595</v>
+        <v>14.5116599</v>
       </c>
       <c r="F7">
-        <v>100.4755856</v>
+        <v>100.9094134</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
-        <v>188</v>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="J7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L7" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1652,43 +1562,43 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>13.69121688</v>
+        <v>14.1378761</v>
       </c>
       <c r="F8">
-        <v>100.3412194</v>
+        <v>100.8255049</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
-        <v>188</v>
+      <c r="H8">
+        <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="J8" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K8" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L8" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1696,43 +1606,43 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>13.79584</v>
+        <v>14.06566869</v>
       </c>
       <c r="F9">
-        <v>100.13118</v>
+        <v>99.9821468</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="I9" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="J9" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K9" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L9" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1740,43 +1650,43 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>13.80564274</v>
+        <v>13.8220612</v>
       </c>
       <c r="F10">
-        <v>100.5238077</v>
+        <v>100.421874</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="I10" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="J10" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K10" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L10" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1784,43 +1694,43 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>13.77870414</v>
+        <v>13.8683169</v>
       </c>
       <c r="F11">
-        <v>100.4778649</v>
+        <v>100.4107308</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="I11" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="J11" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K11" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L11" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1828,43 +1738,43 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12">
-        <v>13.61347071</v>
+        <v>13.89757086</v>
       </c>
       <c r="F12">
-        <v>100.3824876</v>
+        <v>100.6098027</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="I12" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="J12" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K12" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L12" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1872,43 +1782,43 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13">
-        <v>13.70935</v>
+        <v>13.72045903</v>
       </c>
       <c r="F13">
-        <v>100.6014532</v>
+        <v>100.5004852</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="I13" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="J13" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K13" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L13" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1916,43 +1826,43 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14">
-        <v>13.78281463</v>
+        <v>13.817137</v>
       </c>
       <c r="F14">
-        <v>100.5995981</v>
+        <v>100.041497</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I14" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="J14" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K14" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1960,43 +1870,43 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15">
-        <v>13.73739373</v>
+        <v>13.737328</v>
       </c>
       <c r="F15">
-        <v>100.6165954</v>
+        <v>100.081218</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I15" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="J15" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K15" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2004,43 +1914,43 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16">
-        <v>13.71433565</v>
+        <v>14.021384</v>
       </c>
       <c r="F16">
-        <v>100.647891</v>
+        <v>100.165325</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I16" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2048,43 +1958,43 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17">
-        <v>13.71020819</v>
+        <v>13.82347979</v>
       </c>
       <c r="F17">
-        <v>100.5427674</v>
+        <v>100.4101224</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I17" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2092,43 +2002,43 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18">
-        <v>13.63894185</v>
+        <v>13.82622351</v>
       </c>
       <c r="F18">
-        <v>100.5263216</v>
+        <v>100.4124415</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I18" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2136,43 +2046,43 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19">
-        <v>13.9122188</v>
+        <v>13.71100665</v>
       </c>
       <c r="F19">
-        <v>100.5512936</v>
+        <v>100.4234972</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
+      <c r="H19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s">
+        <v>171</v>
       </c>
       <c r="L19" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2180,43 +2090,43 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>13.81780926</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>100.3981472</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
+      <c r="H20" t="s">
+        <v>171</v>
+      </c>
+      <c r="I20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
       </c>
       <c r="L20" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="N20">
